--- a/USHPRR/UMo_radiation_damage.xlsx
+++ b/USHPRR/UMo_radiation_damage.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/USHPRR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/spreadsheets/USHPRR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF519BCB-83B9-2548-B876-06F90B10B83C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A35042-7183-374C-8F01-999CDAEC68BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18940" yWindow="3480" windowWidth="27240" windowHeight="16440" xr2:uid="{6147F9BE-C613-5E42-8D18-16DEAC3FC724}"/>
+    <workbookView xWindow="1000" yWindow="1060" windowWidth="27240" windowHeight="16440" xr2:uid="{6147F9BE-C613-5E42-8D18-16DEAC3FC724}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -4305,8 +4305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B3A0157-F4A1-D343-9CE3-032F57D3E6BB}">
   <dimension ref="B1:X55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AA3" sqref="AA3"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/USHPRR/UMo_radiation_damage.xlsx
+++ b/USHPRR/UMo_radiation_damage.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/spreadsheets/USHPRR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A35042-7183-374C-8F01-999CDAEC68BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC289AD-B2C7-9445-A99D-198F62397193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="1060" windowWidth="27240" windowHeight="16440" xr2:uid="{6147F9BE-C613-5E42-8D18-16DEAC3FC724}"/>
+    <workbookView xWindow="1000" yWindow="1060" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{6147F9BE-C613-5E42-8D18-16DEAC3FC724}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="2kev" sheetId="1" r:id="rId1"/>
+    <sheet name="4kev" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="11">
   <si>
     <t>2 keV PKA</t>
   </si>
@@ -64,6 +65,9 @@
   </si>
   <si>
     <t>stdv</t>
+  </si>
+  <si>
+    <t>4 keV PKA</t>
   </si>
 </sst>
 </file>
@@ -170,7 +174,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$S$9:$S$13</c:f>
+                <c:f>'2kev'!$S$9:$S$13</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
@@ -194,7 +198,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$S$9:$S$13</c:f>
+                <c:f>'2kev'!$S$9:$S$13</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
@@ -232,7 +236,7 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$Q$9:$Q$13</c:f>
+              <c:f>'2kev'!$Q$9:$Q$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -256,7 +260,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$R$9:$R$13</c:f>
+              <c:f>'2kev'!$R$9:$R$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -524,7 +528,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$S$26:$S$30</c:f>
+                <c:f>'2kev'!$S$26:$S$30</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
@@ -548,7 +552,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$S$26:$S$30</c:f>
+                <c:f>'2kev'!$S$26:$S$30</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
@@ -586,7 +590,7 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$Q$26:$Q$30</c:f>
+              <c:f>'2kev'!$Q$26:$Q$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -610,7 +614,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$R$26:$R$30</c:f>
+              <c:f>'2kev'!$R$26:$R$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -878,7 +882,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$S$43:$S$47</c:f>
+                <c:f>'2kev'!$S$43:$S$47</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
@@ -902,7 +906,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$S$43:$S$47</c:f>
+                <c:f>'2kev'!$S$43:$S$47</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
@@ -940,7 +944,7 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$Q$43:$Q$47</c:f>
+              <c:f>'2kev'!$Q$43:$Q$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -964,7 +968,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$R$43:$R$47</c:f>
+              <c:f>'2kev'!$R$43:$R$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1227,7 +1231,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$U$2:$U$6</c:f>
+              <c:f>'2kev'!$U$2:$U$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1251,7 +1255,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$V$2:$V$6</c:f>
+              <c:f>'2kev'!$V$2:$V$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1307,7 +1311,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$U$2:$U$6</c:f>
+              <c:f>'2kev'!$U$2:$U$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1331,7 +1335,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$W$2:$W$6</c:f>
+              <c:f>'2kev'!$W$2:$W$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1387,7 +1391,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$U$2:$U$6</c:f>
+              <c:f>'2kev'!$U$2:$U$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1411,7 +1415,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$X$2:$X$6</c:f>
+              <c:f>'2kev'!$X$2:$X$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1437,6 +1441,1515 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-1079-D44F-8959-83C59EBEB60E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1669014752"/>
+        <c:axId val="1669016400"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1669014752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1669016400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1669016400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1669014752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'2kev'!$S$9:$S$13</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>3.3203078839837463</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.130831866770428</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.9024209010419266</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.3146811477291616</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.4791575630084912</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'2kev'!$S$9:$S$13</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>3.3203078839837463</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.130831866770428</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.9024209010419266</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.3146811477291616</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.4791575630084912</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2kev'!$Q$9:$Q$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2kev'!$R$9:$R$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>16.699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.560000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.66</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.82</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ACE1-894F-BAA7-A0518445DB3B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1669014752"/>
+        <c:axId val="1669016400"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1669014752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1669016400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1669016400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1669014752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'2kev'!$S$26:$S$30</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>2.2505308015863492</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.7081503967091978</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.6866798418457689</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.5143145741489414</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.4485241531373361</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'2kev'!$S$26:$S$30</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>2.2505308015863492</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.7081503967091978</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.6866798418457689</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.5143145741489414</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.4485241531373361</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2kev'!$Q$26:$Q$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2kev'!$R$26:$R$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.76</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.3400000000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.0599999999999987</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4092-D94F-8A20-AED5A710A79D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1669014752"/>
+        <c:axId val="1669016400"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1669014752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1669016400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1669016400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1669014752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'2kev'!$S$43:$S$47</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>2.0956038641774715</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.8588264880696936</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.1624060673240861</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.1998989875800117</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.8312108926427164</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'2kev'!$S$43:$S$47</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>2.0956038641774715</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.8588264880696936</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.1624060673240861</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.1998989875800117</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.8312108926427164</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2kev'!$Q$43:$Q$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2kev'!$R$43:$R$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.5400000000000009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.7799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2BAD-DE49-B730-875F03229DF4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1669014752"/>
+        <c:axId val="1669016400"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1669014752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1669016400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1669016400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1669014752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2kev'!$U$2:$U$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2kev'!$V$2:$V$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>16.699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.560000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.66</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.82</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E0DC-C242-BACF-D243693A520F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2kev'!$U$2:$U$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2kev'!$W$2:$W$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.76</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.3400000000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.0599999999999987</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E0DC-C242-BACF-D243693A520F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2kev'!$U$2:$U$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2kev'!$X$2:$X$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.5400000000000009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.7799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E0DC-C242-BACF-D243693A520F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1787,6 +3300,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3336,6 +5009,2070 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3984,6 +7721,163 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E906EB13-155C-424D-9D9C-48F4AB6E4F71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD369222-6430-C145-B632-BD2A5CA3D087}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74B045BB-686A-944C-B00D-7DDC31396AE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D6D1578-72E4-3643-B91E-C1AE14BA195D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31EF8BA1-1A2B-8943-BF2D-9E8398F31519}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4303,10 +8197,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B3A0157-F4A1-D343-9CE3-032F57D3E6BB}">
-  <dimension ref="B1:X55"/>
+  <dimension ref="B1:X72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="P61" sqref="P61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5544,7 +9438,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B49">
         <v>7</v>
       </c>
@@ -5576,7 +9470,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B50">
         <v>8</v>
       </c>
@@ -5608,7 +9502,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B51">
         <v>9</v>
       </c>
@@ -5640,7 +9534,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B52">
         <v>10</v>
       </c>
@@ -5672,7 +9566,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C54">
         <f>AVERAGE(C43:C52)</f>
         <v>6.5400000000000009</v>
@@ -5694,7 +9588,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C55">
         <f>STDEV(C43:C52)</f>
         <v>2.0956038641774715</v>
@@ -5714,6 +9608,1554 @@
       <c r="O55">
         <f>STDEV(O43:O52)</f>
         <v>1.8312108926427164</v>
+      </c>
+    </row>
+    <row r="57" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B57">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="59" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>2</v>
+      </c>
+      <c r="H59" t="s">
+        <v>3</v>
+      </c>
+      <c r="K59" t="s">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>7</v>
+      </c>
+      <c r="R59" t="s">
+        <v>8</v>
+      </c>
+      <c r="S59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="Q61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B62">
+        <v>3</v>
+      </c>
+      <c r="Q62">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B63">
+        <v>4</v>
+      </c>
+      <c r="Q63">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="64" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B64">
+        <v>5</v>
+      </c>
+      <c r="Q64">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B65">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B66">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B67">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B68">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B69">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C71" t="e">
+        <f>AVERAGE(C60:C69)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F71" t="e">
+        <f>AVERAGE(F60:F69)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I71" t="e">
+        <f>AVERAGE(I60:I69)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L71" t="e">
+        <f>AVERAGE(L60:L69)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O71" t="e">
+        <f>AVERAGE(O60:O69)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C72" t="e">
+        <f>STDEV(C60:C69)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F72" t="e">
+        <f>STDEV(F60:F69)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I72" t="e">
+        <f>STDEV(I60:I69)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L72" t="e">
+        <f>STDEV(L60:L69)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O72" t="e">
+        <f>STDEV(O60:O69)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB0F6A98-5717-094E-85DD-41C46C47F813}">
+  <dimension ref="B1:X72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23:R23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="V1">
+        <v>1200</v>
+      </c>
+      <c r="W1">
+        <v>1000</v>
+      </c>
+      <c r="X1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="2" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>16.699999999999996</v>
+      </c>
+      <c r="W2">
+        <v>6.76</v>
+      </c>
+      <c r="X2">
+        <v>6.5400000000000009</v>
+      </c>
+    </row>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="U3">
+        <v>5</v>
+      </c>
+      <c r="V3">
+        <v>16.560000000000002</v>
+      </c>
+      <c r="W3">
+        <v>7.3</v>
+      </c>
+      <c r="X3">
+        <v>6.7799999999999994</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="U4">
+        <v>10</v>
+      </c>
+      <c r="V4">
+        <v>14.9</v>
+      </c>
+      <c r="W4">
+        <v>7.3400000000000007</v>
+      </c>
+      <c r="X4">
+        <v>7.26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="U5">
+        <v>-5</v>
+      </c>
+      <c r="V5">
+        <v>19.66</v>
+      </c>
+      <c r="W5">
+        <v>8.68</v>
+      </c>
+      <c r="X5">
+        <v>7.38</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>1200</v>
+      </c>
+      <c r="U6">
+        <v>-10</v>
+      </c>
+      <c r="V6">
+        <v>22.82</v>
+      </c>
+      <c r="W6">
+        <v>9.0599999999999987</v>
+      </c>
+      <c r="X6">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>7</v>
+      </c>
+      <c r="R8" t="s">
+        <v>8</v>
+      </c>
+      <c r="S8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>32</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>26.6</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>55.6</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>86.8</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>37.120000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>29.4</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>27.8</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>53.8</v>
+      </c>
+      <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="O10">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="Q10">
+        <v>5</v>
+      </c>
+      <c r="R10">
+        <v>30.440000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>30.8</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>30.8</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>32.6</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>68.8</v>
+      </c>
+      <c r="N11">
+        <v>3</v>
+      </c>
+      <c r="O11">
+        <v>53</v>
+      </c>
+      <c r="Q11">
+        <v>10</v>
+      </c>
+      <c r="R11">
+        <v>27.18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>40.6</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12">
+        <v>24.4</v>
+      </c>
+      <c r="K12">
+        <v>4</v>
+      </c>
+      <c r="L12">
+        <v>47</v>
+      </c>
+      <c r="N12">
+        <v>4</v>
+      </c>
+      <c r="O12">
+        <v>79</v>
+      </c>
+      <c r="Q12">
+        <v>-5</v>
+      </c>
+      <c r="R12">
+        <v>50.36</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>36.4</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>27.2</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>20.6</v>
+      </c>
+      <c r="K13">
+        <v>5</v>
+      </c>
+      <c r="L13">
+        <v>40.4</v>
+      </c>
+      <c r="N13">
+        <v>5</v>
+      </c>
+      <c r="O13">
+        <v>93</v>
+      </c>
+      <c r="Q13">
+        <v>-10</v>
+      </c>
+      <c r="R13">
+        <v>88.419999999999987</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>37</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <v>27</v>
+      </c>
+      <c r="H14">
+        <v>6</v>
+      </c>
+      <c r="I14">
+        <v>25.2</v>
+      </c>
+      <c r="K14">
+        <v>6</v>
+      </c>
+      <c r="L14">
+        <v>50.8</v>
+      </c>
+      <c r="N14">
+        <v>6</v>
+      </c>
+      <c r="O14">
+        <v>108.6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="E15">
+        <v>7</v>
+      </c>
+      <c r="F15">
+        <v>26.4</v>
+      </c>
+      <c r="H15">
+        <v>7</v>
+      </c>
+      <c r="I15">
+        <v>26.8</v>
+      </c>
+      <c r="K15">
+        <v>7</v>
+      </c>
+      <c r="L15">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="N15">
+        <v>7</v>
+      </c>
+      <c r="O15">
+        <v>118.6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>31.6</v>
+      </c>
+      <c r="E16">
+        <v>8</v>
+      </c>
+      <c r="F16">
+        <v>27.6</v>
+      </c>
+      <c r="H16">
+        <v>8</v>
+      </c>
+      <c r="I16">
+        <v>30.6</v>
+      </c>
+      <c r="K16">
+        <v>8</v>
+      </c>
+      <c r="L16">
+        <v>46.4</v>
+      </c>
+      <c r="N16">
+        <v>8</v>
+      </c>
+      <c r="O16">
+        <v>75.8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>40.4</v>
+      </c>
+      <c r="E17">
+        <v>9</v>
+      </c>
+      <c r="F17">
+        <v>29.8</v>
+      </c>
+      <c r="H17">
+        <v>9</v>
+      </c>
+      <c r="I17">
+        <v>31.8</v>
+      </c>
+      <c r="K17">
+        <v>9</v>
+      </c>
+      <c r="L17">
+        <v>59</v>
+      </c>
+      <c r="N17">
+        <v>9</v>
+      </c>
+      <c r="O17">
+        <v>112.2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>41.6</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <v>33.6</v>
+      </c>
+      <c r="H18">
+        <v>10</v>
+      </c>
+      <c r="I18">
+        <v>25.4</v>
+      </c>
+      <c r="K18">
+        <v>10</v>
+      </c>
+      <c r="L18">
+        <v>42.6</v>
+      </c>
+      <c r="N18">
+        <v>10</v>
+      </c>
+      <c r="O18">
+        <v>83.8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <f>AVERAGE(C9:C18)</f>
+        <v>37.120000000000005</v>
+      </c>
+      <c r="F20">
+        <f>AVERAGE(F9:F18)</f>
+        <v>30.440000000000005</v>
+      </c>
+      <c r="I20">
+        <f>AVERAGE(I9:I18)</f>
+        <v>27.18</v>
+      </c>
+      <c r="L20">
+        <f>AVERAGE(L9:L18)</f>
+        <v>50.36</v>
+      </c>
+      <c r="O20">
+        <f>AVERAGE(O9:O18)</f>
+        <v>88.419999999999987</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <f>STDEV(C9:C18)</f>
+        <v>3.5417509793885853</v>
+      </c>
+      <c r="F21">
+        <f>STDEV(F9:F18)</f>
+        <v>4.2685412548603168</v>
+      </c>
+      <c r="I21">
+        <f>STDEV(I9:I18)</f>
+        <v>3.6726617655924176</v>
+      </c>
+      <c r="L21">
+        <f>STDEV(L9:L18)</f>
+        <v>9.220171123984386</v>
+      </c>
+      <c r="O21">
+        <f>STDEV(O9:O18)</f>
+        <v>20.156818532033622</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2</v>
+      </c>
+      <c r="H25" t="s">
+        <v>3</v>
+      </c>
+      <c r="K25" t="s">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>7</v>
+      </c>
+      <c r="R25" t="s">
+        <v>8</v>
+      </c>
+      <c r="S25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>13.8</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>18.2</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>11.2</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>21.2</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>8</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27">
+        <v>11.2</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>14.4</v>
+      </c>
+      <c r="N27">
+        <v>2</v>
+      </c>
+      <c r="O27">
+        <v>11</v>
+      </c>
+      <c r="Q27">
+        <v>5</v>
+      </c>
+      <c r="R27">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>13.2</v>
+      </c>
+      <c r="H28">
+        <v>3</v>
+      </c>
+      <c r="I28">
+        <v>11</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>10.8</v>
+      </c>
+      <c r="N28">
+        <v>3</v>
+      </c>
+      <c r="O28">
+        <v>15.4</v>
+      </c>
+      <c r="Q28">
+        <v>10</v>
+      </c>
+      <c r="R28">
+        <v>11.860000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="H29">
+        <v>4</v>
+      </c>
+      <c r="I29">
+        <v>11.6</v>
+      </c>
+      <c r="K29">
+        <v>4</v>
+      </c>
+      <c r="L29">
+        <v>17</v>
+      </c>
+      <c r="N29">
+        <v>4</v>
+      </c>
+      <c r="O29">
+        <v>12.6</v>
+      </c>
+      <c r="Q29">
+        <v>-5</v>
+      </c>
+      <c r="R29">
+        <v>12.22</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>5</v>
+      </c>
+      <c r="F30">
+        <v>12.6</v>
+      </c>
+      <c r="H30">
+        <v>5</v>
+      </c>
+      <c r="I30">
+        <v>8.4</v>
+      </c>
+      <c r="K30">
+        <v>5</v>
+      </c>
+      <c r="L30">
+        <v>13.6</v>
+      </c>
+      <c r="N30">
+        <v>5</v>
+      </c>
+      <c r="O30">
+        <v>14.6</v>
+      </c>
+      <c r="Q30">
+        <v>-10</v>
+      </c>
+      <c r="R30">
+        <v>15.540000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="E31">
+        <v>6</v>
+      </c>
+      <c r="F31">
+        <v>10.4</v>
+      </c>
+      <c r="H31">
+        <v>6</v>
+      </c>
+      <c r="I31">
+        <v>11.8</v>
+      </c>
+      <c r="K31">
+        <v>6</v>
+      </c>
+      <c r="L31">
+        <v>11</v>
+      </c>
+      <c r="N31">
+        <v>6</v>
+      </c>
+      <c r="O31">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>7</v>
+      </c>
+      <c r="E32">
+        <v>7</v>
+      </c>
+      <c r="F32">
+        <v>9</v>
+      </c>
+      <c r="H32">
+        <v>7</v>
+      </c>
+      <c r="I32">
+        <v>10.4</v>
+      </c>
+      <c r="K32">
+        <v>7</v>
+      </c>
+      <c r="L32">
+        <v>11.4</v>
+      </c>
+      <c r="N32">
+        <v>7</v>
+      </c>
+      <c r="O32">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>8</v>
+      </c>
+      <c r="E33">
+        <v>8</v>
+      </c>
+      <c r="F33">
+        <v>14.8</v>
+      </c>
+      <c r="H33">
+        <v>8</v>
+      </c>
+      <c r="I33">
+        <v>6.8</v>
+      </c>
+      <c r="K33">
+        <v>8</v>
+      </c>
+      <c r="L33">
+        <v>12.8</v>
+      </c>
+      <c r="N33">
+        <v>8</v>
+      </c>
+      <c r="O33">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>9</v>
+      </c>
+      <c r="E34">
+        <v>9</v>
+      </c>
+      <c r="F34">
+        <v>15.4</v>
+      </c>
+      <c r="H34">
+        <v>9</v>
+      </c>
+      <c r="I34">
+        <v>13.4</v>
+      </c>
+      <c r="K34">
+        <v>9</v>
+      </c>
+      <c r="L34">
+        <v>9.6</v>
+      </c>
+      <c r="N34">
+        <v>9</v>
+      </c>
+      <c r="O34">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>10</v>
+      </c>
+      <c r="E35">
+        <v>10</v>
+      </c>
+      <c r="F35">
+        <v>10.6</v>
+      </c>
+      <c r="H35">
+        <v>10</v>
+      </c>
+      <c r="I35">
+        <v>15.8</v>
+      </c>
+      <c r="K35">
+        <v>10</v>
+      </c>
+      <c r="L35">
+        <v>10.4</v>
+      </c>
+      <c r="N35">
+        <v>10</v>
+      </c>
+      <c r="O35">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C37" t="e">
+        <f>AVERAGE(C26:C35)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F37">
+        <f>AVERAGE(F26:F35)</f>
+        <v>11.7</v>
+      </c>
+      <c r="I37">
+        <f>AVERAGE(I26:I35)</f>
+        <v>11.860000000000001</v>
+      </c>
+      <c r="L37">
+        <f>AVERAGE(L26:L35)</f>
+        <v>12.22</v>
+      </c>
+      <c r="O37">
+        <f>AVERAGE(O26:O35)</f>
+        <v>15.540000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C38" t="e">
+        <f>STDEV(C26:C35)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F38">
+        <f>STDEV(F26:F35)</f>
+        <v>2.60128173535022</v>
+      </c>
+      <c r="I38">
+        <f>STDEV(I26:I35)</f>
+        <v>3.3173617362128107</v>
+      </c>
+      <c r="L38">
+        <f>STDEV(L26:L35)</f>
+        <v>2.2419237770767899</v>
+      </c>
+      <c r="O38">
+        <f>STDEV(O26:O35)</f>
+        <v>3.1623479322244781</v>
+      </c>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>2</v>
+      </c>
+      <c r="H42" t="s">
+        <v>3</v>
+      </c>
+      <c r="K42" t="s">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>7</v>
+      </c>
+      <c r="R42" t="s">
+        <v>8</v>
+      </c>
+      <c r="S42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>4.2</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>7</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>10</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="F44">
+        <v>11.8</v>
+      </c>
+      <c r="H44">
+        <v>2</v>
+      </c>
+      <c r="I44">
+        <v>11</v>
+      </c>
+      <c r="K44">
+        <v>2</v>
+      </c>
+      <c r="L44">
+        <v>13.2</v>
+      </c>
+      <c r="Q44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+      <c r="F45">
+        <v>8</v>
+      </c>
+      <c r="H45">
+        <v>3</v>
+      </c>
+      <c r="I45">
+        <v>9.4</v>
+      </c>
+      <c r="K45">
+        <v>3</v>
+      </c>
+      <c r="L45">
+        <v>9.4</v>
+      </c>
+      <c r="Q45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="E46">
+        <v>4</v>
+      </c>
+      <c r="F46">
+        <v>9</v>
+      </c>
+      <c r="H46">
+        <v>4</v>
+      </c>
+      <c r="I46">
+        <v>9</v>
+      </c>
+      <c r="K46">
+        <v>4</v>
+      </c>
+      <c r="L46">
+        <v>7.4</v>
+      </c>
+      <c r="Q46">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <v>5</v>
+      </c>
+      <c r="E47">
+        <v>5</v>
+      </c>
+      <c r="F47">
+        <v>8</v>
+      </c>
+      <c r="H47">
+        <v>5</v>
+      </c>
+      <c r="I47">
+        <v>8.4</v>
+      </c>
+      <c r="K47">
+        <v>5</v>
+      </c>
+      <c r="L47">
+        <v>6.6</v>
+      </c>
+      <c r="Q47">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B48">
+        <v>6</v>
+      </c>
+      <c r="E48">
+        <v>6</v>
+      </c>
+      <c r="F48">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="H48">
+        <v>6</v>
+      </c>
+      <c r="I48">
+        <v>9</v>
+      </c>
+      <c r="K48">
+        <v>6</v>
+      </c>
+      <c r="L48">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="49" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B49">
+        <v>7</v>
+      </c>
+      <c r="E49">
+        <v>7</v>
+      </c>
+      <c r="F49">
+        <v>10</v>
+      </c>
+      <c r="H49">
+        <v>7</v>
+      </c>
+      <c r="I49">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="K49">
+        <v>7</v>
+      </c>
+      <c r="L49">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B50">
+        <v>8</v>
+      </c>
+      <c r="E50">
+        <v>8</v>
+      </c>
+      <c r="F50">
+        <v>10.4</v>
+      </c>
+      <c r="H50">
+        <v>8</v>
+      </c>
+      <c r="I50">
+        <v>7</v>
+      </c>
+      <c r="K50">
+        <v>8</v>
+      </c>
+      <c r="L50">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B51">
+        <v>9</v>
+      </c>
+      <c r="E51">
+        <v>9</v>
+      </c>
+      <c r="F51">
+        <v>11.2</v>
+      </c>
+      <c r="H51">
+        <v>9</v>
+      </c>
+      <c r="I51">
+        <v>7.6</v>
+      </c>
+      <c r="K51">
+        <v>9</v>
+      </c>
+      <c r="L51">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="52" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B52">
+        <v>10</v>
+      </c>
+      <c r="E52">
+        <v>10</v>
+      </c>
+      <c r="F52">
+        <v>7</v>
+      </c>
+      <c r="H52">
+        <v>10</v>
+      </c>
+      <c r="I52">
+        <v>7.2</v>
+      </c>
+      <c r="K52">
+        <v>10</v>
+      </c>
+      <c r="L52">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C54" t="e">
+        <f>AVERAGE(C43:C52)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F54">
+        <f>AVERAGE(F43:F52)</f>
+        <v>8.98</v>
+      </c>
+      <c r="I54">
+        <f>AVERAGE(I43:I52)</f>
+        <v>8.379999999999999</v>
+      </c>
+      <c r="L54">
+        <f>AVERAGE(L43:L52)</f>
+        <v>10.14</v>
+      </c>
+      <c r="O54" t="e">
+        <f>AVERAGE(O43:O52)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="55" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C55" t="e">
+        <f>STDEV(C43:C52)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F55">
+        <f>STDEV(F43:F52)</f>
+        <v>2.2636254107073372</v>
+      </c>
+      <c r="I55">
+        <f>STDEV(I43:I52)</f>
+        <v>1.2699956255392761</v>
+      </c>
+      <c r="L55">
+        <f>STDEV(L43:L52)</f>
+        <v>2.8906746617355599</v>
+      </c>
+      <c r="O55" t="e">
+        <f>STDEV(O43:O52)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="57" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B57">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="59" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>2</v>
+      </c>
+      <c r="H59" t="s">
+        <v>3</v>
+      </c>
+      <c r="K59" t="s">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>7</v>
+      </c>
+      <c r="R59" t="s">
+        <v>8</v>
+      </c>
+      <c r="S59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>11.2</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61">
+        <v>13</v>
+      </c>
+      <c r="Q61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B62">
+        <v>3</v>
+      </c>
+      <c r="C62">
+        <v>11.2</v>
+      </c>
+      <c r="Q62">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B63">
+        <v>4</v>
+      </c>
+      <c r="C63">
+        <v>10</v>
+      </c>
+      <c r="Q63">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="64" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B64">
+        <v>5</v>
+      </c>
+      <c r="C64">
+        <v>15.6</v>
+      </c>
+      <c r="Q64">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B65">
+        <v>6</v>
+      </c>
+      <c r="C65">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B66">
+        <v>7</v>
+      </c>
+      <c r="C66">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B67">
+        <v>8</v>
+      </c>
+      <c r="C67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B68">
+        <v>9</v>
+      </c>
+      <c r="C68">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B69">
+        <v>10</v>
+      </c>
+      <c r="C69">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C71">
+        <f>AVERAGE(C60:C69)</f>
+        <v>10.500000000000002</v>
+      </c>
+      <c r="F71" t="e">
+        <f>AVERAGE(F60:F69)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I71" t="e">
+        <f>AVERAGE(I60:I69)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L71" t="e">
+        <f>AVERAGE(L60:L69)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O71" t="e">
+        <f>AVERAGE(O60:O69)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C72">
+        <f>STDEV(C60:C69)</f>
+        <v>3.3482997343593763</v>
+      </c>
+      <c r="F72" t="e">
+        <f>STDEV(F60:F69)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I72" t="e">
+        <f>STDEV(I60:I69)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L72" t="e">
+        <f>STDEV(L60:L69)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O72" t="e">
+        <f>STDEV(O60:O69)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>

--- a/USHPRR/UMo_radiation_damage.xlsx
+++ b/USHPRR/UMo_radiation_damage.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/spreadsheets/USHPRR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/USHPRR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC289AD-B2C7-9445-A99D-198F62397193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363C88FE-57CC-C04B-8323-90C1532D3AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="1060" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{6147F9BE-C613-5E42-8D18-16DEAC3FC724}"/>
+    <workbookView xWindow="980" yWindow="1060" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{6147F9BE-C613-5E42-8D18-16DEAC3FC724}"/>
   </bookViews>
   <sheets>
     <sheet name="2kev" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="12">
   <si>
     <t>2 keV PKA</t>
   </si>
@@ -69,15 +69,26 @@
   <si>
     <t>4 keV PKA</t>
   </si>
+  <si>
+    <t>verify this dataset visually</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -103,8 +114,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1683,48 +1695,48 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'2kev'!$S$9:$S$13</c:f>
+                <c:f>'4kev'!$S$9:$S$13</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>3.3203078839837463</c:v>
+                    <c:v>3.5417509793885853</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2.130831866770428</c:v>
+                    <c:v>4.2685412548603168</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>3.9024209010419266</c:v>
+                    <c:v>3.6726617655924176</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3.3146811477291616</c:v>
+                    <c:v>9.220171123984386</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>2.4791575630084912</c:v>
+                    <c:v>20.156818532033622</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'2kev'!$S$9:$S$13</c:f>
+                <c:f>'4kev'!$S$9:$S$13</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>3.3203078839837463</c:v>
+                    <c:v>3.5417509793885853</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2.130831866770428</c:v>
+                    <c:v>4.2685412548603168</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>3.9024209010419266</c:v>
+                    <c:v>3.6726617655924176</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3.3146811477291616</c:v>
+                    <c:v>9.220171123984386</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>2.4791575630084912</c:v>
+                    <c:v>20.156818532033622</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1745,7 +1757,7 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>'2kev'!$Q$9:$Q$13</c:f>
+              <c:f>'4kev'!$Q$9:$Q$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1769,24 +1781,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2kev'!$R$9:$R$13</c:f>
+              <c:f>'4kev'!$R$9:$R$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>16.699999999999996</c:v>
+                  <c:v>37.120000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.560000000000002</c:v>
+                  <c:v>30.440000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.9</c:v>
+                  <c:v>27.18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.66</c:v>
+                  <c:v>50.36</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.82</c:v>
+                  <c:v>88.419999999999987</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2030,76 +2042,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>'2kev'!$S$26:$S$30</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>2.2505308015863492</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>1.7081503967091978</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>1.6866798418457689</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2.5143145741489414</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>1.4485241531373361</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>'2kev'!$S$26:$S$30</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>2.2505308015863492</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>1.7081503967091978</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>1.6866798418457689</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2.5143145741489414</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>1.4485241531373361</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>'2kev'!$Q$26:$Q$30</c:f>
+              <c:f>'4kev'!$Q$26:$Q$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2123,24 +2068,21 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2kev'!$R$26:$R$30</c:f>
+              <c:f>'4kev'!$R$26:$R$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>6.76</c:v>
-                </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.3</c:v>
+                  <c:v>11.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.3400000000000007</c:v>
+                  <c:v>11.860000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.68</c:v>
+                  <c:v>12.22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.0599999999999987</c:v>
+                  <c:v>15.540000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2384,76 +2326,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>'2kev'!$S$43:$S$47</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>2.0956038641774715</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2.8588264880696936</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2.1624060673240861</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2.1998989875800117</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>1.8312108926427164</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>'2kev'!$S$43:$S$47</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>2.0956038641774715</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2.8588264880696936</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2.1624060673240861</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2.1998989875800117</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>1.8312108926427164</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>'2kev'!$Q$43:$Q$47</c:f>
+              <c:f>'4kev'!$Q$43:$Q$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2477,24 +2352,21 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2kev'!$R$43:$R$47</c:f>
+              <c:f>'4kev'!$R$43:$R$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>6.5400000000000009</c:v>
-                </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.7799999999999994</c:v>
+                  <c:v>8.98</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.26</c:v>
+                  <c:v>8.379999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.38</c:v>
+                  <c:v>10.14</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.1</c:v>
+                  <c:v>10.82</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2740,7 +2612,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'2kev'!$U$2:$U$6</c:f>
+              <c:f>'4kev'!$U$2:$U$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2764,24 +2636,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2kev'!$V$2:$V$6</c:f>
+              <c:f>'4kev'!$V$2:$V$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>16.699999999999996</c:v>
+                  <c:v>37.120000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.560000000000002</c:v>
+                  <c:v>30.440000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.9</c:v>
+                  <c:v>27.18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.66</c:v>
+                  <c:v>50.36</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.82</c:v>
+                  <c:v>88.419999999999987</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2820,7 +2692,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'2kev'!$U$2:$U$6</c:f>
+              <c:f>'4kev'!$U$2:$U$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2844,24 +2716,21 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2kev'!$W$2:$W$6</c:f>
+              <c:f>'4kev'!$W$2:$W$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>6.76</c:v>
-                </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.3</c:v>
+                  <c:v>11.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.3400000000000007</c:v>
+                  <c:v>11.860000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.68</c:v>
+                  <c:v>12.22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.0599999999999987</c:v>
+                  <c:v>15.540000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2869,7 +2738,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E0DC-C242-BACF-D243693A520F}"/>
+              <c16:uniqueId val="{00000001-A5E1-3B4F-96A9-550220E43E4D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2900,7 +2769,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'2kev'!$U$2:$U$6</c:f>
+              <c:f>'4kev'!$U$2:$U$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2924,24 +2793,21 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2kev'!$X$2:$X$6</c:f>
+              <c:f>'4kev'!$X$2:$X$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>6.5400000000000009</c:v>
-                </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.7799999999999994</c:v>
+                  <c:v>8.98</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.26</c:v>
+                  <c:v>8.379999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.38</c:v>
+                  <c:v>10.14</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.1</c:v>
+                  <c:v>10.82</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2949,7 +2815,441 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E0DC-C242-BACF-D243693A520F}"/>
+              <c16:uniqueId val="{00000002-A5E1-3B4F-96A9-550220E43E4D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'4kev'!$U$2:$U$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'4kev'!$Y$2:$Y$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10.500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.280000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.379999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A5E1-3B4F-96A9-550220E43E4D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1669014752"/>
+        <c:axId val="1669016400"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1669014752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1669016400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1669016400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1669014752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'4kev'!$S$60:$S$64</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>3.3482997343593763</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.1073389830457128</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.0084325930069724</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.9553114040503168</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.5367279290955391</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'4kev'!$S$60:$S$64</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>3.3482997343593763</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.1073389830457128</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.0084325930069724</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.9553114040503168</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.5367279290955391</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'4kev'!$Q$60:$Q$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'4kev'!$R$60:$R$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10.500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.280000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.379999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3C2F-5E4A-BAE8-DCB2B9717043}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3460,6 +3760,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -7073,6 +7413,522 @@
 </file>
 
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7897,6 +8753,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71A94FF6-33B2-D242-8D51-0B33A232D0F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8199,8 +9093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B3A0157-F4A1-D343-9CE3-032F57D3E6BB}">
   <dimension ref="B1:X72"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="P61" sqref="P61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J62" sqref="J62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9758,15 +10652,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB0F6A98-5717-094E-85DD-41C46C47F813}">
-  <dimension ref="B1:X72"/>
+  <dimension ref="B1:Y72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23:R23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:25" x14ac:dyDescent="0.2">
       <c r="V1">
         <v>1200</v>
       </c>
@@ -9776,8 +10670,11 @@
       <c r="X1">
         <v>800</v>
       </c>
+      <c r="Y1">
+        <v>600</v>
+      </c>
     </row>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>6</v>
       </c>
@@ -9785,30 +10682,30 @@
         <v>0</v>
       </c>
       <c r="V2">
-        <v>16.699999999999996</v>
-      </c>
-      <c r="W2">
-        <v>6.76</v>
-      </c>
-      <c r="X2">
-        <v>6.5400000000000009</v>
+        <v>37.120000000000005</v>
+      </c>
+      <c r="Y2">
+        <v>10.500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:25" x14ac:dyDescent="0.2">
       <c r="U3">
         <v>5</v>
       </c>
       <c r="V3">
-        <v>16.560000000000002</v>
+        <v>30.440000000000005</v>
       </c>
       <c r="W3">
-        <v>7.3</v>
+        <v>11.7</v>
       </c>
       <c r="X3">
-        <v>6.7799999999999994</v>
+        <v>8.98</v>
+      </c>
+      <c r="Y3">
+        <v>10.9</v>
       </c>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -9816,47 +10713,59 @@
         <v>10</v>
       </c>
       <c r="V4">
-        <v>14.9</v>
+        <v>27.18</v>
       </c>
       <c r="W4">
-        <v>7.3400000000000007</v>
+        <v>11.860000000000001</v>
       </c>
       <c r="X4">
-        <v>7.26</v>
+        <v>8.379999999999999</v>
+      </c>
+      <c r="Y4">
+        <v>10.280000000000001</v>
       </c>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:25" x14ac:dyDescent="0.2">
       <c r="U5">
         <v>-5</v>
       </c>
       <c r="V5">
-        <v>19.66</v>
+        <v>50.36</v>
       </c>
       <c r="W5">
-        <v>8.68</v>
+        <v>12.22</v>
       </c>
       <c r="X5">
-        <v>7.38</v>
+        <v>10.14</v>
+      </c>
+      <c r="Y5">
+        <v>9.379999999999999</v>
       </c>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>1200</v>
       </c>
+      <c r="N6" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="U6">
         <v>-10</v>
       </c>
       <c r="V6">
-        <v>22.82</v>
+        <v>88.419999999999987</v>
       </c>
       <c r="W6">
-        <v>9.0599999999999987</v>
+        <v>15.540000000000001</v>
       </c>
       <c r="X6">
-        <v>6.1</v>
+        <v>10.82</v>
+      </c>
+      <c r="Y6">
+        <v>10.72</v>
       </c>
     </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>1</v>
       </c>
@@ -9882,7 +10791,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>1</v>
       </c>
@@ -9919,8 +10828,11 @@
       <c r="R9">
         <v>37.120000000000005</v>
       </c>
+      <c r="S9">
+        <v>3.5417509793885853</v>
+      </c>
     </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>2</v>
       </c>
@@ -9957,8 +10869,11 @@
       <c r="R10">
         <v>30.440000000000005</v>
       </c>
+      <c r="S10">
+        <v>4.2685412548603168</v>
+      </c>
     </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>3</v>
       </c>
@@ -9995,8 +10910,11 @@
       <c r="R11">
         <v>27.18</v>
       </c>
+      <c r="S11">
+        <v>3.6726617655924176</v>
+      </c>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>4</v>
       </c>
@@ -10033,8 +10951,11 @@
       <c r="R12">
         <v>50.36</v>
       </c>
+      <c r="S12">
+        <v>9.220171123984386</v>
+      </c>
     </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>5</v>
       </c>
@@ -10071,8 +10992,11 @@
       <c r="R13">
         <v>88.419999999999987</v>
       </c>
+      <c r="S13">
+        <v>20.156818532033622</v>
+      </c>
     </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>6</v>
       </c>
@@ -10104,7 +11028,7 @@
         <v>108.6</v>
       </c>
     </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>7</v>
       </c>
@@ -10136,7 +11060,7 @@
         <v>118.6</v>
       </c>
     </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>8</v>
       </c>
@@ -10721,6 +11645,12 @@
       <c r="L43">
         <v>10</v>
       </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>7</v>
+      </c>
       <c r="Q43">
         <v>0</v>
       </c>
@@ -10747,8 +11677,17 @@
       <c r="L44">
         <v>13.2</v>
       </c>
+      <c r="N44">
+        <v>2</v>
+      </c>
+      <c r="O44">
+        <v>7.6</v>
+      </c>
       <c r="Q44">
         <v>5</v>
+      </c>
+      <c r="R44">
+        <v>8.98</v>
       </c>
     </row>
     <row r="45" spans="2:19" x14ac:dyDescent="0.2">
@@ -10773,8 +11712,17 @@
       <c r="L45">
         <v>9.4</v>
       </c>
+      <c r="N45">
+        <v>3</v>
+      </c>
+      <c r="O45">
+        <v>10</v>
+      </c>
       <c r="Q45">
         <v>10</v>
+      </c>
+      <c r="R45">
+        <v>8.379999999999999</v>
       </c>
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.2">
@@ -10799,8 +11747,17 @@
       <c r="L46">
         <v>7.4</v>
       </c>
+      <c r="N46">
+        <v>4</v>
+      </c>
+      <c r="O46">
+        <v>11.4</v>
+      </c>
       <c r="Q46">
         <v>-5</v>
+      </c>
+      <c r="R46">
+        <v>10.14</v>
       </c>
     </row>
     <row r="47" spans="2:19" x14ac:dyDescent="0.2">
@@ -10825,8 +11782,17 @@
       <c r="L47">
         <v>6.6</v>
       </c>
+      <c r="N47">
+        <v>5</v>
+      </c>
+      <c r="O47">
+        <v>16</v>
+      </c>
       <c r="Q47">
         <v>-10</v>
+      </c>
+      <c r="R47">
+        <v>10.82</v>
       </c>
     </row>
     <row r="48" spans="2:19" x14ac:dyDescent="0.2">
@@ -10851,6 +11817,12 @@
       <c r="L48">
         <v>14.8</v>
       </c>
+      <c r="N48">
+        <v>6</v>
+      </c>
+      <c r="O48">
+        <v>7.4</v>
+      </c>
     </row>
     <row r="49" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B49">
@@ -10874,6 +11846,12 @@
       <c r="L49">
         <v>12.2</v>
       </c>
+      <c r="N49">
+        <v>7</v>
+      </c>
+      <c r="O49">
+        <v>14.2</v>
+      </c>
     </row>
     <row r="50" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B50">
@@ -10897,6 +11875,12 @@
       <c r="L50">
         <v>7.2</v>
       </c>
+      <c r="N50">
+        <v>8</v>
+      </c>
+      <c r="O50">
+        <v>10.4</v>
+      </c>
     </row>
     <row r="51" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B51">
@@ -10920,6 +11904,12 @@
       <c r="L51">
         <v>12.6</v>
       </c>
+      <c r="N51">
+        <v>9</v>
+      </c>
+      <c r="O51">
+        <v>12.4</v>
+      </c>
     </row>
     <row r="52" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B52">
@@ -10942,6 +11932,12 @@
       </c>
       <c r="L52">
         <v>8</v>
+      </c>
+      <c r="N52">
+        <v>10</v>
+      </c>
+      <c r="O52">
+        <v>11.8</v>
       </c>
     </row>
     <row r="54" spans="2:19" x14ac:dyDescent="0.2">
@@ -10961,9 +11957,9 @@
         <f>AVERAGE(L43:L52)</f>
         <v>10.14</v>
       </c>
-      <c r="O54" t="e">
+      <c r="O54">
         <f>AVERAGE(O43:O52)</f>
-        <v>#DIV/0!</v>
+        <v>10.82</v>
       </c>
     </row>
     <row r="55" spans="2:19" x14ac:dyDescent="0.2">
@@ -10983,9 +11979,9 @@
         <f>STDEV(L43:L52)</f>
         <v>2.8906746617355599</v>
       </c>
-      <c r="O55" t="e">
+      <c r="O55">
         <f>STDEV(O43:O52)</f>
-        <v>#DIV/0!</v>
+        <v>2.9731390071026884</v>
       </c>
     </row>
     <row r="57" spans="2:19" x14ac:dyDescent="0.2">
@@ -11026,8 +12022,38 @@
       <c r="C60">
         <v>11.2</v>
       </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>7</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>13.2</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>13.2</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>9.1999999999999993</v>
+      </c>
       <c r="Q60">
         <v>0</v>
+      </c>
+      <c r="R60">
+        <v>10.500000000000002</v>
+      </c>
+      <c r="S60">
+        <v>3.3482997343593763</v>
       </c>
     </row>
     <row r="61" spans="2:19" x14ac:dyDescent="0.2">
@@ -11037,8 +12063,38 @@
       <c r="C61">
         <v>13</v>
       </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+      <c r="F61">
+        <v>9</v>
+      </c>
+      <c r="H61">
+        <v>2</v>
+      </c>
+      <c r="I61">
+        <v>5</v>
+      </c>
+      <c r="K61">
+        <v>2</v>
+      </c>
+      <c r="L61">
+        <v>21.4</v>
+      </c>
+      <c r="N61">
+        <v>2</v>
+      </c>
+      <c r="O61">
+        <v>17.8</v>
+      </c>
       <c r="Q61">
         <v>5</v>
+      </c>
+      <c r="R61">
+        <v>10.9</v>
+      </c>
+      <c r="S61">
+        <v>3.1073389830457128</v>
       </c>
     </row>
     <row r="62" spans="2:19" x14ac:dyDescent="0.2">
@@ -11048,8 +12104,38 @@
       <c r="C62">
         <v>11.2</v>
       </c>
+      <c r="E62">
+        <v>3</v>
+      </c>
+      <c r="F62">
+        <v>12</v>
+      </c>
+      <c r="H62">
+        <v>3</v>
+      </c>
+      <c r="I62">
+        <v>14</v>
+      </c>
+      <c r="K62">
+        <v>3</v>
+      </c>
+      <c r="L62">
+        <v>6</v>
+      </c>
+      <c r="N62">
+        <v>3</v>
+      </c>
+      <c r="O62">
+        <v>10</v>
+      </c>
       <c r="Q62">
         <v>10</v>
+      </c>
+      <c r="R62">
+        <v>10.280000000000001</v>
+      </c>
+      <c r="S62">
+        <v>3.0084325930069724</v>
       </c>
     </row>
     <row r="63" spans="2:19" x14ac:dyDescent="0.2">
@@ -11059,8 +12145,38 @@
       <c r="C63">
         <v>10</v>
       </c>
+      <c r="E63">
+        <v>4</v>
+      </c>
+      <c r="F63">
+        <v>12</v>
+      </c>
+      <c r="H63">
+        <v>4</v>
+      </c>
+      <c r="I63">
+        <v>13</v>
+      </c>
+      <c r="K63">
+        <v>4</v>
+      </c>
+      <c r="L63">
+        <v>3</v>
+      </c>
+      <c r="N63">
+        <v>4</v>
+      </c>
+      <c r="O63">
+        <v>8</v>
+      </c>
       <c r="Q63">
         <v>-5</v>
+      </c>
+      <c r="R63">
+        <v>9.379999999999999</v>
+      </c>
+      <c r="S63">
+        <v>4.9553114040503168</v>
       </c>
     </row>
     <row r="64" spans="2:19" x14ac:dyDescent="0.2">
@@ -11070,8 +12186,38 @@
       <c r="C64">
         <v>15.6</v>
       </c>
+      <c r="E64">
+        <v>5</v>
+      </c>
+      <c r="F64">
+        <v>13</v>
+      </c>
+      <c r="H64">
+        <v>5</v>
+      </c>
+      <c r="I64">
+        <v>12</v>
+      </c>
+      <c r="K64">
+        <v>5</v>
+      </c>
+      <c r="L64">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="N64">
+        <v>5</v>
+      </c>
+      <c r="O64">
+        <v>13.2</v>
+      </c>
       <c r="Q64">
         <v>-10</v>
+      </c>
+      <c r="R64">
+        <v>10.72</v>
+      </c>
+      <c r="S64">
+        <v>3.5367279290955391</v>
       </c>
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.2">
@@ -11081,6 +12227,30 @@
       <c r="C65">
         <v>10.199999999999999</v>
       </c>
+      <c r="E65">
+        <v>6</v>
+      </c>
+      <c r="F65">
+        <v>9</v>
+      </c>
+      <c r="H65">
+        <v>6</v>
+      </c>
+      <c r="I65">
+        <v>11</v>
+      </c>
+      <c r="K65">
+        <v>6</v>
+      </c>
+      <c r="L65">
+        <v>8</v>
+      </c>
+      <c r="N65">
+        <v>6</v>
+      </c>
+      <c r="O65">
+        <v>11.2</v>
+      </c>
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B66">
@@ -11089,6 +12259,30 @@
       <c r="C66">
         <v>7.4</v>
       </c>
+      <c r="E66">
+        <v>7</v>
+      </c>
+      <c r="F66">
+        <v>15</v>
+      </c>
+      <c r="H66">
+        <v>7</v>
+      </c>
+      <c r="I66">
+        <v>7.2</v>
+      </c>
+      <c r="K66">
+        <v>7</v>
+      </c>
+      <c r="L66">
+        <v>9</v>
+      </c>
+      <c r="N66">
+        <v>7</v>
+      </c>
+      <c r="O66">
+        <v>4.5999999999999996</v>
+      </c>
     </row>
     <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B67">
@@ -11097,6 +12291,30 @@
       <c r="C67">
         <v>5</v>
       </c>
+      <c r="E67">
+        <v>8</v>
+      </c>
+      <c r="F67">
+        <v>6</v>
+      </c>
+      <c r="H67">
+        <v>8</v>
+      </c>
+      <c r="I67">
+        <v>7</v>
+      </c>
+      <c r="K67">
+        <v>8</v>
+      </c>
+      <c r="L67">
+        <v>7</v>
+      </c>
+      <c r="N67">
+        <v>8</v>
+      </c>
+      <c r="O67">
+        <v>11.2</v>
+      </c>
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B68">
@@ -11105,6 +12323,30 @@
       <c r="C68">
         <v>14.4</v>
       </c>
+      <c r="E68">
+        <v>9</v>
+      </c>
+      <c r="F68">
+        <v>11</v>
+      </c>
+      <c r="H68">
+        <v>9</v>
+      </c>
+      <c r="I68">
+        <v>10.4</v>
+      </c>
+      <c r="K68">
+        <v>9</v>
+      </c>
+      <c r="L68">
+        <v>8</v>
+      </c>
+      <c r="N68">
+        <v>9</v>
+      </c>
+      <c r="O68">
+        <v>9</v>
+      </c>
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B69">
@@ -11112,6 +12354,30 @@
       </c>
       <c r="C69">
         <v>7</v>
+      </c>
+      <c r="E69">
+        <v>10</v>
+      </c>
+      <c r="F69">
+        <v>15</v>
+      </c>
+      <c r="H69">
+        <v>10</v>
+      </c>
+      <c r="I69">
+        <v>10</v>
+      </c>
+      <c r="K69">
+        <v>10</v>
+      </c>
+      <c r="L69">
+        <v>9</v>
+      </c>
+      <c r="N69">
+        <v>10</v>
+      </c>
+      <c r="O69">
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="2:15" x14ac:dyDescent="0.2">
@@ -11119,21 +12385,21 @@
         <f>AVERAGE(C60:C69)</f>
         <v>10.500000000000002</v>
       </c>
-      <c r="F71" t="e">
+      <c r="F71">
         <f>AVERAGE(F60:F69)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I71" t="e">
+        <v>10.9</v>
+      </c>
+      <c r="I71">
         <f>AVERAGE(I60:I69)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L71" t="e">
+        <v>10.280000000000001</v>
+      </c>
+      <c r="L71">
         <f>AVERAGE(L60:L69)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O71" t="e">
+        <v>9.379999999999999</v>
+      </c>
+      <c r="O71">
         <f>AVERAGE(O60:O69)</f>
-        <v>#DIV/0!</v>
+        <v>10.72</v>
       </c>
     </row>
     <row r="72" spans="2:15" x14ac:dyDescent="0.2">
@@ -11141,21 +12407,21 @@
         <f>STDEV(C60:C69)</f>
         <v>3.3482997343593763</v>
       </c>
-      <c r="F72" t="e">
+      <c r="F72">
         <f>STDEV(F60:F69)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I72" t="e">
+        <v>3.1073389830457128</v>
+      </c>
+      <c r="I72">
         <f>STDEV(I60:I69)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L72" t="e">
+        <v>3.0084325930069724</v>
+      </c>
+      <c r="L72">
         <f>STDEV(L60:L69)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O72" t="e">
+        <v>4.9553114040503168</v>
+      </c>
+      <c r="O72">
         <f>STDEV(O60:O69)</f>
-        <v>#DIV/0!</v>
+        <v>3.5367279290955391</v>
       </c>
     </row>
   </sheetData>

--- a/USHPRR/UMo_radiation_damage.xlsx
+++ b/USHPRR/UMo_radiation_damage.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/USHPRR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/spreadsheets/USHPRR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363C88FE-57CC-C04B-8323-90C1532D3AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FEA7867-9563-A947-974E-72E5DB3C587A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="1060" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{6147F9BE-C613-5E42-8D18-16DEAC3FC724}"/>
+    <workbookView xWindow="980" yWindow="1060" windowWidth="27240" windowHeight="16440" activeTab="2" xr2:uid="{6147F9BE-C613-5E42-8D18-16DEAC3FC724}"/>
   </bookViews>
   <sheets>
     <sheet name="2kev" sheetId="1" r:id="rId1"/>
     <sheet name="4kev" sheetId="2" r:id="rId2"/>
+    <sheet name="summary" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="14">
   <si>
     <t>2 keV PKA</t>
   </si>
@@ -71,6 +72,12 @@
   </si>
   <si>
     <t>verify this dataset visually</t>
+  </si>
+  <si>
+    <t>2 keV</t>
+  </si>
+  <si>
+    <t>4 keV</t>
   </si>
 </sst>
 </file>
@@ -1456,6 +1463,86 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2kev'!$U$2:$U$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2kev'!$Y$2:$Y$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.6399999999999988</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.120000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.2200000000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D115-8142-8ACA-F9E141EAB790}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -2072,6 +2159,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>11.940000000000001</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>11.7</c:v>
                 </c:pt>
@@ -2356,6 +2446,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.4400000000000013</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>8.98</c:v>
                 </c:pt>
@@ -2720,6 +2813,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>11.940000000000001</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>11.7</c:v>
                 </c:pt>
@@ -2797,6 +2893,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.4400000000000013</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>8.98</c:v>
                 </c:pt>
@@ -2895,7 +2994,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-A5E1-3B4F-96A9-550220E43E4D}"/>
+              <c16:uniqueId val="{00000001-7997-C545-9E5D-4479B81892CB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9091,15 +9190,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B3A0157-F4A1-D343-9CE3-032F57D3E6BB}">
-  <dimension ref="B1:X72"/>
+  <dimension ref="B1:Y72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J62" sqref="J62"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AB26" sqref="AB26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:25" x14ac:dyDescent="0.2">
       <c r="V1">
         <v>1200</v>
       </c>
@@ -9109,8 +9208,11 @@
       <c r="X1">
         <v>800</v>
       </c>
-    </row>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="2" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>6</v>
       </c>
@@ -9126,8 +9228,11 @@
       <c r="X2">
         <v>6.5400000000000009</v>
       </c>
-    </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y2">
+        <v>7.6399999999999988</v>
+      </c>
+    </row>
+    <row r="3" spans="2:25" x14ac:dyDescent="0.2">
       <c r="U3">
         <v>5</v>
       </c>
@@ -9140,8 +9245,11 @@
       <c r="X3">
         <v>6.7799999999999994</v>
       </c>
-    </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y3">
+        <v>6.2799999999999994</v>
+      </c>
+    </row>
+    <row r="4" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -9157,8 +9265,11 @@
       <c r="X4">
         <v>7.26</v>
       </c>
-    </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y4">
+        <v>8.120000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="2:25" x14ac:dyDescent="0.2">
       <c r="U5">
         <v>-5</v>
       </c>
@@ -9171,8 +9282,11 @@
       <c r="X5">
         <v>7.38</v>
       </c>
-    </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y5">
+        <v>6.0600000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>1200</v>
       </c>
@@ -9188,8 +9302,11 @@
       <c r="X6">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y6">
+        <v>8.2200000000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>1</v>
       </c>
@@ -9215,7 +9332,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>1</v>
       </c>
@@ -9256,7 +9373,7 @@
         <v>3.3203078839837463</v>
       </c>
     </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>2</v>
       </c>
@@ -9297,7 +9414,7 @@
         <v>2.130831866770428</v>
       </c>
     </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>3</v>
       </c>
@@ -9338,7 +9455,7 @@
         <v>3.9024209010419266</v>
       </c>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>4</v>
       </c>
@@ -9379,7 +9496,7 @@
         <v>3.3146811477291616</v>
       </c>
     </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>5</v>
       </c>
@@ -9420,7 +9537,7 @@
         <v>2.4791575630084912</v>
       </c>
     </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>6</v>
       </c>
@@ -9452,7 +9569,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>7</v>
       </c>
@@ -9484,7 +9601,7 @@
         <v>23.4</v>
       </c>
     </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>8</v>
       </c>
@@ -10539,109 +10656,409 @@
       <c r="B60">
         <v>1</v>
       </c>
+      <c r="C60">
+        <v>6</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>6</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>7</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>4.2</v>
+      </c>
       <c r="Q60">
         <v>0</v>
+      </c>
+      <c r="R60">
+        <v>7.6399999999999988</v>
+      </c>
+      <c r="S60">
+        <v>2.5885216716196244</v>
       </c>
     </row>
     <row r="61" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B61">
         <v>2</v>
       </c>
+      <c r="C61">
+        <v>11</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+      <c r="F61">
+        <v>5</v>
+      </c>
+      <c r="H61">
+        <v>2</v>
+      </c>
+      <c r="I61">
+        <v>4</v>
+      </c>
+      <c r="K61">
+        <v>2</v>
+      </c>
+      <c r="L61">
+        <v>5</v>
+      </c>
+      <c r="N61">
+        <v>2</v>
+      </c>
+      <c r="O61">
+        <v>10</v>
+      </c>
       <c r="Q61">
         <v>5</v>
+      </c>
+      <c r="R61">
+        <v>6.2799999999999994</v>
+      </c>
+      <c r="S61">
+        <v>2.3422686059080045</v>
       </c>
     </row>
     <row r="62" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B62">
         <v>3</v>
       </c>
+      <c r="C62">
+        <v>8</v>
+      </c>
+      <c r="E62">
+        <v>3</v>
+      </c>
+      <c r="F62">
+        <v>5</v>
+      </c>
+      <c r="H62">
+        <v>3</v>
+      </c>
+      <c r="I62">
+        <v>8</v>
+      </c>
+      <c r="K62">
+        <v>3</v>
+      </c>
+      <c r="L62">
+        <v>4</v>
+      </c>
+      <c r="N62">
+        <v>3</v>
+      </c>
+      <c r="O62">
+        <v>12</v>
+      </c>
       <c r="Q62">
         <v>10</v>
+      </c>
+      <c r="R62">
+        <v>8.120000000000001</v>
+      </c>
+      <c r="S62">
+        <v>2.9306047915821809</v>
       </c>
     </row>
     <row r="63" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B63">
         <v>4</v>
       </c>
+      <c r="C63">
+        <v>5.8</v>
+      </c>
+      <c r="E63">
+        <v>4</v>
+      </c>
+      <c r="F63">
+        <v>7.2</v>
+      </c>
+      <c r="H63">
+        <v>4</v>
+      </c>
+      <c r="I63">
+        <v>14.2</v>
+      </c>
+      <c r="K63">
+        <v>4</v>
+      </c>
+      <c r="L63">
+        <v>5</v>
+      </c>
+      <c r="N63">
+        <v>4</v>
+      </c>
+      <c r="O63">
+        <v>5</v>
+      </c>
       <c r="Q63">
         <v>-5</v>
+      </c>
+      <c r="R63">
+        <v>6.0600000000000005</v>
+      </c>
+      <c r="S63">
+        <v>2.164460415181781</v>
       </c>
     </row>
     <row r="64" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B64">
         <v>5</v>
       </c>
+      <c r="C64">
+        <v>12</v>
+      </c>
+      <c r="E64">
+        <v>5</v>
+      </c>
+      <c r="F64">
+        <v>4</v>
+      </c>
+      <c r="H64">
+        <v>5</v>
+      </c>
+      <c r="I64">
+        <v>6</v>
+      </c>
+      <c r="K64">
+        <v>5</v>
+      </c>
+      <c r="L64">
+        <v>10</v>
+      </c>
+      <c r="N64">
+        <v>5</v>
+      </c>
+      <c r="O64">
+        <v>9</v>
+      </c>
       <c r="Q64">
         <v>-10</v>
+      </c>
+      <c r="R64">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="S64">
+        <v>3.7705879293995168</v>
       </c>
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B65">
         <v>6</v>
       </c>
+      <c r="C65">
+        <v>10</v>
+      </c>
+      <c r="E65">
+        <v>6</v>
+      </c>
+      <c r="F65">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="H65">
+        <v>6</v>
+      </c>
+      <c r="I65">
+        <v>8</v>
+      </c>
+      <c r="K65">
+        <v>6</v>
+      </c>
+      <c r="L65">
+        <v>9</v>
+      </c>
+      <c r="N65">
+        <v>6</v>
+      </c>
+      <c r="O65">
+        <v>12</v>
+      </c>
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B66">
         <v>7</v>
       </c>
+      <c r="C66">
+        <v>7</v>
+      </c>
+      <c r="E66">
+        <v>7</v>
+      </c>
+      <c r="F66">
+        <v>4</v>
+      </c>
+      <c r="H66">
+        <v>7</v>
+      </c>
+      <c r="I66">
+        <v>7</v>
+      </c>
+      <c r="K66">
+        <v>7</v>
+      </c>
+      <c r="L66">
+        <v>3</v>
+      </c>
+      <c r="N66">
+        <v>7</v>
+      </c>
+      <c r="O66">
+        <v>4</v>
+      </c>
     </row>
     <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B67">
         <v>8</v>
       </c>
+      <c r="C67">
+        <v>5.6</v>
+      </c>
+      <c r="E67">
+        <v>8</v>
+      </c>
+      <c r="F67">
+        <v>11.2</v>
+      </c>
+      <c r="H67">
+        <v>8</v>
+      </c>
+      <c r="I67">
+        <v>11</v>
+      </c>
+      <c r="K67">
+        <v>8</v>
+      </c>
+      <c r="L67">
+        <v>5</v>
+      </c>
+      <c r="N67">
+        <v>8</v>
+      </c>
+      <c r="O67">
+        <v>14</v>
+      </c>
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B68">
         <v>9</v>
       </c>
+      <c r="C68">
+        <v>7</v>
+      </c>
+      <c r="E68">
+        <v>9</v>
+      </c>
+      <c r="F68">
+        <v>5</v>
+      </c>
+      <c r="H68">
+        <v>9</v>
+      </c>
+      <c r="I68">
+        <v>10</v>
+      </c>
+      <c r="K68">
+        <v>9</v>
+      </c>
+      <c r="L68">
+        <v>6.2</v>
+      </c>
+      <c r="N68">
+        <v>9</v>
+      </c>
+      <c r="O68">
+        <v>8</v>
+      </c>
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B69">
         <v>10</v>
       </c>
+      <c r="C69">
+        <v>4</v>
+      </c>
+      <c r="E69">
+        <v>10</v>
+      </c>
+      <c r="F69">
+        <v>5</v>
+      </c>
+      <c r="H69">
+        <v>10</v>
+      </c>
+      <c r="I69">
+        <v>7</v>
+      </c>
+      <c r="K69">
+        <v>10</v>
+      </c>
+      <c r="L69">
+        <v>6.4</v>
+      </c>
+      <c r="N69">
+        <v>10</v>
+      </c>
+      <c r="O69">
+        <v>4</v>
+      </c>
     </row>
     <row r="71" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C71" t="e">
+      <c r="C71">
         <f>AVERAGE(C60:C69)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F71" t="e">
+        <v>7.6399999999999988</v>
+      </c>
+      <c r="F71">
         <f>AVERAGE(F60:F69)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I71" t="e">
+        <v>6.2799999999999994</v>
+      </c>
+      <c r="I71">
         <f>AVERAGE(I60:I69)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L71" t="e">
+        <v>8.120000000000001</v>
+      </c>
+      <c r="L71">
         <f>AVERAGE(L60:L69)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O71" t="e">
+        <v>6.0600000000000005</v>
+      </c>
+      <c r="O71">
         <f>AVERAGE(O60:O69)</f>
-        <v>#DIV/0!</v>
+        <v>8.2200000000000006</v>
       </c>
     </row>
     <row r="72" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C72" t="e">
+      <c r="C72">
         <f>STDEV(C60:C69)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F72" t="e">
+        <v>2.5885216716196244</v>
+      </c>
+      <c r="F72">
         <f>STDEV(F60:F69)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I72" t="e">
+        <v>2.3422686059080045</v>
+      </c>
+      <c r="I72">
         <f>STDEV(I60:I69)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L72" t="e">
+        <v>2.9306047915821809</v>
+      </c>
+      <c r="L72">
         <f>STDEV(L60:L69)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O72" t="e">
+        <v>2.164460415181781</v>
+      </c>
+      <c r="O72">
         <f>STDEV(O60:O69)</f>
-        <v>#DIV/0!</v>
+        <v>3.7705879293995168</v>
       </c>
     </row>
   </sheetData>
@@ -10654,8 +11071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB0F6A98-5717-094E-85DD-41C46C47F813}">
   <dimension ref="B1:Y72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AA25" sqref="AA25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10684,6 +11101,12 @@
       <c r="V2">
         <v>37.120000000000005</v>
       </c>
+      <c r="W2">
+        <v>11.940000000000001</v>
+      </c>
+      <c r="X2">
+        <v>9.4400000000000013</v>
+      </c>
       <c r="Y2">
         <v>10.500000000000002</v>
       </c>
@@ -11235,6 +11658,9 @@
       <c r="B26">
         <v>1</v>
       </c>
+      <c r="C26">
+        <v>14.4</v>
+      </c>
       <c r="E26">
         <v>1</v>
       </c>
@@ -11261,12 +11687,21 @@
       </c>
       <c r="Q26">
         <v>0</v>
+      </c>
+      <c r="R26">
+        <v>11.940000000000001</v>
+      </c>
+      <c r="S26">
+        <v>2.3926740038895606</v>
       </c>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>2</v>
       </c>
+      <c r="C27">
+        <v>13</v>
+      </c>
       <c r="E27">
         <v>2</v>
       </c>
@@ -11296,12 +11731,18 @@
       </c>
       <c r="R27">
         <v>11.7</v>
+      </c>
+      <c r="S27">
+        <v>2.60128173535022</v>
       </c>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>3</v>
       </c>
+      <c r="C28">
+        <v>10.6</v>
+      </c>
       <c r="E28">
         <v>3</v>
       </c>
@@ -11331,12 +11772,18 @@
       </c>
       <c r="R28">
         <v>11.860000000000001</v>
+      </c>
+      <c r="S28">
+        <v>3.3173617362128107</v>
       </c>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>4</v>
       </c>
+      <c r="C29">
+        <v>10.199999999999999</v>
+      </c>
       <c r="E29">
         <v>4</v>
       </c>
@@ -11366,12 +11813,18 @@
       </c>
       <c r="R29">
         <v>12.22</v>
+      </c>
+      <c r="S29">
+        <v>2.2419237770767899</v>
       </c>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>5</v>
       </c>
+      <c r="C30">
+        <v>15.2</v>
+      </c>
       <c r="E30">
         <v>5</v>
       </c>
@@ -11401,12 +11854,18 @@
       </c>
       <c r="R30">
         <v>15.540000000000001</v>
+      </c>
+      <c r="S30">
+        <v>3.1623479322244781</v>
       </c>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>6</v>
       </c>
+      <c r="C31">
+        <v>7.6</v>
+      </c>
       <c r="E31">
         <v>6</v>
       </c>
@@ -11436,6 +11895,9 @@
       <c r="B32">
         <v>7</v>
       </c>
+      <c r="C32">
+        <v>12.2</v>
+      </c>
       <c r="E32">
         <v>7</v>
       </c>
@@ -11465,6 +11927,9 @@
       <c r="B33">
         <v>8</v>
       </c>
+      <c r="C33">
+        <v>11.2</v>
+      </c>
       <c r="E33">
         <v>8</v>
       </c>
@@ -11494,6 +11959,9 @@
       <c r="B34">
         <v>9</v>
       </c>
+      <c r="C34">
+        <v>10.4</v>
+      </c>
       <c r="E34">
         <v>9</v>
       </c>
@@ -11523,6 +11991,9 @@
       <c r="B35">
         <v>10</v>
       </c>
+      <c r="C35">
+        <v>14.6</v>
+      </c>
       <c r="E35">
         <v>10</v>
       </c>
@@ -11549,9 +12020,9 @@
       </c>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C37" t="e">
+      <c r="C37">
         <f>AVERAGE(C26:C35)</f>
-        <v>#DIV/0!</v>
+        <v>11.940000000000001</v>
       </c>
       <c r="F37">
         <f>AVERAGE(F26:F35)</f>
@@ -11571,9 +12042,9 @@
       </c>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C38" t="e">
+      <c r="C38">
         <f>STDEV(C26:C35)</f>
-        <v>#DIV/0!</v>
+        <v>2.3926740038895606</v>
       </c>
       <c r="F38">
         <f>STDEV(F26:F35)</f>
@@ -11627,6 +12098,9 @@
       <c r="B43">
         <v>1</v>
       </c>
+      <c r="C43">
+        <v>14</v>
+      </c>
       <c r="E43">
         <v>1</v>
       </c>
@@ -11653,12 +12127,21 @@
       </c>
       <c r="Q43">
         <v>0</v>
+      </c>
+      <c r="R43">
+        <v>9.4400000000000013</v>
+      </c>
+      <c r="S43">
+        <v>2.8531464113228457</v>
       </c>
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>2</v>
       </c>
+      <c r="C44">
+        <v>11.8</v>
+      </c>
       <c r="E44">
         <v>2</v>
       </c>
@@ -11688,12 +12171,18 @@
       </c>
       <c r="R44">
         <v>8.98</v>
+      </c>
+      <c r="S44">
+        <v>2.2636254107073372</v>
       </c>
     </row>
     <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B45">
         <v>3</v>
       </c>
+      <c r="C45">
+        <v>5</v>
+      </c>
       <c r="E45">
         <v>3</v>
       </c>
@@ -11723,12 +12212,18 @@
       </c>
       <c r="R45">
         <v>8.379999999999999</v>
+      </c>
+      <c r="S45">
+        <v>1.2699956255392761</v>
       </c>
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B46">
         <v>4</v>
       </c>
+      <c r="C46">
+        <v>6.2</v>
+      </c>
       <c r="E46">
         <v>4</v>
       </c>
@@ -11758,12 +12253,18 @@
       </c>
       <c r="R46">
         <v>10.14</v>
+      </c>
+      <c r="S46">
+        <v>2.8906746617355599</v>
       </c>
     </row>
     <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B47">
         <v>5</v>
       </c>
+      <c r="C47">
+        <v>12.2</v>
+      </c>
       <c r="E47">
         <v>5</v>
       </c>
@@ -11793,12 +12294,18 @@
       </c>
       <c r="R47">
         <v>10.82</v>
+      </c>
+      <c r="S47">
+        <v>2.9731390071026884</v>
       </c>
     </row>
     <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B48">
         <v>6</v>
       </c>
+      <c r="C48">
+        <v>8.1999999999999993</v>
+      </c>
       <c r="E48">
         <v>6</v>
       </c>
@@ -11828,6 +12335,9 @@
       <c r="B49">
         <v>7</v>
       </c>
+      <c r="C49">
+        <v>11</v>
+      </c>
       <c r="E49">
         <v>7</v>
       </c>
@@ -11857,6 +12367,9 @@
       <c r="B50">
         <v>8</v>
       </c>
+      <c r="C50">
+        <v>9.6</v>
+      </c>
       <c r="E50">
         <v>8</v>
       </c>
@@ -11886,6 +12399,9 @@
       <c r="B51">
         <v>9</v>
       </c>
+      <c r="C51">
+        <v>9.1999999999999993</v>
+      </c>
       <c r="E51">
         <v>9</v>
       </c>
@@ -11915,6 +12431,9 @@
       <c r="B52">
         <v>10</v>
       </c>
+      <c r="C52">
+        <v>7.2</v>
+      </c>
       <c r="E52">
         <v>10</v>
       </c>
@@ -11941,9 +12460,9 @@
       </c>
     </row>
     <row r="54" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C54" t="e">
+      <c r="C54">
         <f>AVERAGE(C43:C52)</f>
-        <v>#DIV/0!</v>
+        <v>9.4400000000000013</v>
       </c>
       <c r="F54">
         <f>AVERAGE(F43:F52)</f>
@@ -11963,9 +12482,9 @@
       </c>
     </row>
     <row r="55" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C55" t="e">
+      <c r="C55">
         <f>STDEV(C43:C52)</f>
-        <v>#DIV/0!</v>
+        <v>2.8531464113228457</v>
       </c>
       <c r="F55">
         <f>STDEV(F43:F52)</f>
@@ -12428,4 +12947,227 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36EC456B-1D55-3641-A6E6-E2895CAC8343}">
+  <dimension ref="B2:F16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <v>1200</v>
+      </c>
+      <c r="D3">
+        <v>1000</v>
+      </c>
+      <c r="E3">
+        <v>800</v>
+      </c>
+      <c r="F3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>16.699999999999996</v>
+      </c>
+      <c r="D4">
+        <v>6.76</v>
+      </c>
+      <c r="E4">
+        <v>6.5400000000000009</v>
+      </c>
+      <c r="F4">
+        <v>7.6399999999999988</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>16.560000000000002</v>
+      </c>
+      <c r="D5">
+        <v>7.3</v>
+      </c>
+      <c r="E5">
+        <v>6.7799999999999994</v>
+      </c>
+      <c r="F5">
+        <v>6.2799999999999994</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>14.9</v>
+      </c>
+      <c r="D6">
+        <v>7.3400000000000007</v>
+      </c>
+      <c r="E6">
+        <v>7.26</v>
+      </c>
+      <c r="F6">
+        <v>8.120000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>-5</v>
+      </c>
+      <c r="C7">
+        <v>19.66</v>
+      </c>
+      <c r="D7">
+        <v>8.68</v>
+      </c>
+      <c r="E7">
+        <v>7.38</v>
+      </c>
+      <c r="F7">
+        <v>6.0600000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>-10</v>
+      </c>
+      <c r="C8">
+        <v>22.82</v>
+      </c>
+      <c r="D8">
+        <v>9.0599999999999987</v>
+      </c>
+      <c r="E8">
+        <v>6.1</v>
+      </c>
+      <c r="F8">
+        <v>8.2200000000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <v>1200</v>
+      </c>
+      <c r="D11">
+        <v>1000</v>
+      </c>
+      <c r="E11">
+        <v>800</v>
+      </c>
+      <c r="F11">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>37.120000000000005</v>
+      </c>
+      <c r="D12">
+        <v>11.940000000000001</v>
+      </c>
+      <c r="E12">
+        <v>9.4400000000000013</v>
+      </c>
+      <c r="F12">
+        <v>10.500000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>30.440000000000005</v>
+      </c>
+      <c r="D13">
+        <v>11.7</v>
+      </c>
+      <c r="E13">
+        <v>8.98</v>
+      </c>
+      <c r="F13">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>27.18</v>
+      </c>
+      <c r="D14">
+        <v>11.860000000000001</v>
+      </c>
+      <c r="E14">
+        <v>8.379999999999999</v>
+      </c>
+      <c r="F14">
+        <v>10.280000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>-5</v>
+      </c>
+      <c r="C15">
+        <v>50.36</v>
+      </c>
+      <c r="D15">
+        <v>12.22</v>
+      </c>
+      <c r="E15">
+        <v>10.14</v>
+      </c>
+      <c r="F15">
+        <v>9.379999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>-10</v>
+      </c>
+      <c r="C16">
+        <v>88.419999999999987</v>
+      </c>
+      <c r="D16">
+        <v>15.540000000000001</v>
+      </c>
+      <c r="E16">
+        <v>10.82</v>
+      </c>
+      <c r="F16">
+        <v>10.72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/USHPRR/UMo_radiation_damage.xlsx
+++ b/USHPRR/UMo_radiation_damage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/spreadsheets/USHPRR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/USHPRR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FEA7867-9563-A947-974E-72E5DB3C587A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584F82FF-EC6E-3741-9B6B-F0B4BB729C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="1060" windowWidth="27240" windowHeight="16440" activeTab="2" xr2:uid="{6147F9BE-C613-5E42-8D18-16DEAC3FC724}"/>
+    <workbookView xWindow="980" yWindow="1060" windowWidth="27240" windowHeight="16440" xr2:uid="{6147F9BE-C613-5E42-8D18-16DEAC3FC724}"/>
   </bookViews>
   <sheets>
     <sheet name="2kev" sheetId="1" r:id="rId1"/>
@@ -9192,7 +9192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B3A0157-F4A1-D343-9CE3-032F57D3E6BB}">
   <dimension ref="B1:Y72"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
       <selection activeCell="AB26" sqref="AB26"/>
     </sheetView>
   </sheetViews>
@@ -11071,7 +11071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB0F6A98-5717-094E-85DD-41C46C47F813}">
   <dimension ref="B1:Y72"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
+    <sheetView topLeftCell="L50" workbookViewId="0">
       <selection activeCell="AA25" sqref="AA25"/>
     </sheetView>
   </sheetViews>
@@ -12953,7 +12953,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36EC456B-1D55-3641-A6E6-E2895CAC8343}">
   <dimension ref="B2:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>

--- a/USHPRR/UMo_radiation_damage.xlsx
+++ b/USHPRR/UMo_radiation_damage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/USHPRR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/spreadsheets/USHPRR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584F82FF-EC6E-3741-9B6B-F0B4BB729C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030F8135-ACA9-9746-8F90-28DA1657FB25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="1060" windowWidth="27240" windowHeight="16440" xr2:uid="{6147F9BE-C613-5E42-8D18-16DEAC3FC724}"/>
+    <workbookView xWindow="980" yWindow="1060" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{6147F9BE-C613-5E42-8D18-16DEAC3FC724}"/>
   </bookViews>
   <sheets>
     <sheet name="2kev" sheetId="1" r:id="rId1"/>
@@ -1226,6 +1226,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>1200</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -1306,6 +1309,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>1000</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -1386,6 +1392,9 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:v>800</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -1466,6 +1475,9 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
+          <c:tx>
+            <c:v>600</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -1575,6 +1587,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Pressure (kbar)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1637,10 +1704,65 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Stable Frenkel Pairs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1686,6 +1808,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80808383973401343"/>
+          <c:y val="7.1577952755905491E-2"/>
+          <c:w val="0.12058948408909656"/>
+          <c:h val="0.28421251554082055"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -9192,8 +9355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B3A0157-F4A1-D343-9CE3-032F57D3E6BB}">
   <dimension ref="B1:Y72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AB26" sqref="AB26"/>
+    <sheetView topLeftCell="M2" workbookViewId="0">
+      <selection activeCell="S33" sqref="S33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11071,8 +11234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB0F6A98-5717-094E-85DD-41C46C47F813}">
   <dimension ref="B1:Y72"/>
   <sheetViews>
-    <sheetView topLeftCell="L50" workbookViewId="0">
-      <selection activeCell="AA25" sqref="AA25"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/USHPRR/UMo_radiation_damage.xlsx
+++ b/USHPRR/UMo_radiation_damage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/spreadsheets/USHPRR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/USHPRR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030F8135-ACA9-9746-8F90-28DA1657FB25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3652D67-0BCD-F449-B5A9-5848DA562300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="980" yWindow="1060" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{6147F9BE-C613-5E42-8D18-16DEAC3FC724}"/>
   </bookViews>
@@ -11234,7 +11234,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB0F6A98-5717-094E-85DD-41C46C47F813}">
   <dimension ref="B1:Y72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>

--- a/USHPRR/UMo_radiation_damage.xlsx
+++ b/USHPRR/UMo_radiation_damage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/USHPRR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3652D67-0BCD-F449-B5A9-5848DA562300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FCB48E-A40A-484E-9E6C-EB288570762F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="980" yWindow="1060" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{6147F9BE-C613-5E42-8D18-16DEAC3FC724}"/>
   </bookViews>
@@ -11234,8 +11234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB0F6A98-5717-094E-85DD-41C46C47F813}">
   <dimension ref="B1:Y72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/USHPRR/UMo_radiation_damage.xlsx
+++ b/USHPRR/UMo_radiation_damage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/USHPRR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FCB48E-A40A-484E-9E6C-EB288570762F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC03635-8465-1E4F-AC42-75D19577BB5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="980" yWindow="1060" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{6147F9BE-C613-5E42-8D18-16DEAC3FC724}"/>
   </bookViews>

--- a/USHPRR/UMo_radiation_damage.xlsx
+++ b/USHPRR/UMo_radiation_damage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/USHPRR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC03635-8465-1E4F-AC42-75D19577BB5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D331AD3E-EBD1-9D4A-9FB9-78EB781F8AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="1060" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{6147F9BE-C613-5E42-8D18-16DEAC3FC724}"/>
+    <workbookView minimized="1" xWindow="4900" yWindow="720" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{6147F9BE-C613-5E42-8D18-16DEAC3FC724}"/>
   </bookViews>
   <sheets>
     <sheet name="2kev" sheetId="1" r:id="rId1"/>
@@ -9057,9 +9057,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -9097,7 +9097,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -9203,7 +9203,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9345,7 +9345,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -11234,8 +11234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB0F6A98-5717-094E-85DD-41C46C47F813}">
   <dimension ref="B1:Y72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/USHPRR/UMo_radiation_damage.xlsx
+++ b/USHPRR/UMo_radiation_damage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/USHPRR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D331AD3E-EBD1-9D4A-9FB9-78EB781F8AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2ABCB7-9E60-0149-B4F2-AEAD3FF98D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="4900" yWindow="720" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{6147F9BE-C613-5E42-8D18-16DEAC3FC724}"/>
+    <workbookView xWindow="640" yWindow="2240" windowWidth="27240" windowHeight="16440" activeTab="2" xr2:uid="{6147F9BE-C613-5E42-8D18-16DEAC3FC724}"/>
   </bookViews>
   <sheets>
     <sheet name="2kev" sheetId="1" r:id="rId1"/>
@@ -11234,8 +11234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB0F6A98-5717-094E-85DD-41C46C47F813}">
   <dimension ref="B1:Y72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13116,8 +13116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36EC456B-1D55-3641-A6E6-E2895CAC8343}">
   <dimension ref="B2:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/USHPRR/UMo_radiation_damage.xlsx
+++ b/USHPRR/UMo_radiation_damage.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/USHPRR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2ABCB7-9E60-0149-B4F2-AEAD3FF98D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE93CFD-4968-294E-A4C1-57473507A4CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="2240" windowWidth="27240" windowHeight="16440" activeTab="2" xr2:uid="{6147F9BE-C613-5E42-8D18-16DEAC3FC724}"/>
+    <workbookView xWindow="640" yWindow="2240" windowWidth="27240" windowHeight="16440" activeTab="3" xr2:uid="{6147F9BE-C613-5E42-8D18-16DEAC3FC724}"/>
   </bookViews>
   <sheets>
     <sheet name="2kev" sheetId="1" r:id="rId1"/>
     <sheet name="4kev" sheetId="2" r:id="rId2"/>
-    <sheet name="summary" sheetId="3" r:id="rId3"/>
+    <sheet name="8kev" sheetId="4" r:id="rId3"/>
+    <sheet name="summary" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="14">
   <si>
     <t>2 keV PKA</t>
   </si>
@@ -440,6 +441,511 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1669014752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>summary!$H$4:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>summary!$I$4:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>16.699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.120000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1A13-7444-9298-EB6956607DF4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>summary!$H$4:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>summary!$J$4:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>6.76</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.940000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1A13-7444-9298-EB6956607DF4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>summary!$H$4:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>summary!$K$4:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>6.5400000000000009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.4400000000000013</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1A13-7444-9298-EB6956607DF4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>summary!$H$4:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>summary!$L$4:$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.6399999999999988</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.66</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1A13-7444-9298-EB6956607DF4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1854448895"/>
+        <c:axId val="1854370399"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1854448895"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1854370399"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1854370399"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1854448895"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1945,10 +2451,10 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'4kev'!$S$9:$S$13</c:f>
+                <c:f>'4kev'!$S$9:$S$14</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
+                  <c:ptCount val="6"/>
                   <c:pt idx="0">
                     <c:v>3.5417509793885853</c:v>
                   </c:pt>
@@ -1964,15 +2470,18 @@
                   <c:pt idx="4">
                     <c:v>20.156818532033622</c:v>
                   </c:pt>
+                  <c:pt idx="5">
+                    <c:v>14.965753498497044</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'4kev'!$S$9:$S$13</c:f>
+                <c:f>'4kev'!$S$9:$S$14</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
+                  <c:ptCount val="6"/>
                   <c:pt idx="0">
                     <c:v>3.5417509793885853</c:v>
                   </c:pt>
@@ -1987,6 +2496,9 @@
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>20.156818532033622</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>14.965753498497044</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2007,10 +2519,10 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>'4kev'!$Q$9:$Q$13</c:f>
+              <c:f>'4kev'!$Q$9:$Q$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2024,6 +2536,9 @@
                   <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>-10</c:v>
                 </c:pt>
               </c:numCache>
@@ -2031,10 +2546,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'4kev'!$R$9:$R$13</c:f>
+              <c:f>'4kev'!$R$9:$R$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>37.120000000000005</c:v>
                 </c:pt>
@@ -2049,6 +2564,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>88.419999999999987</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>77.86</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3703,6 +4221,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4578,6 +5136,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -9056,6 +10130,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>755650</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>374650</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B34E33E-EDDC-C228-1050-7DC0ECEA13AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -9355,7 +10470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B3A0157-F4A1-D343-9CE3-032F57D3E6BB}">
   <dimension ref="B1:Y72"/>
   <sheetViews>
-    <sheetView topLeftCell="M2" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="S33" sqref="S33"/>
     </sheetView>
   </sheetViews>
@@ -11232,10 +12347,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB0F6A98-5717-094E-85DD-41C46C47F813}">
-  <dimension ref="B1:Y72"/>
+  <dimension ref="B1:AC72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B2" sqref="B2:O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11613,6 +12728,15 @@
       <c r="O14">
         <v>108.6</v>
       </c>
+      <c r="Q14">
+        <v>-10</v>
+      </c>
+      <c r="R14">
+        <v>77.86</v>
+      </c>
+      <c r="S14">
+        <v>14.965753498497044</v>
+      </c>
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B15">
@@ -11678,7 +12802,7 @@
         <v>75.8</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>9</v>
       </c>
@@ -11710,7 +12834,7 @@
         <v>112.2</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>10</v>
       </c>
@@ -11742,7 +12866,7 @@
         <v>83.8</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C20">
         <f>AVERAGE(C9:C18)</f>
         <v>37.120000000000005</v>
@@ -11764,7 +12888,7 @@
         <v>88.419999999999987</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C21">
         <f>STDEV(C9:C18)</f>
         <v>3.5417509793885853</v>
@@ -11786,12 +12910,12 @@
         <v>20.156818532033622</v>
       </c>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>1</v>
       </c>
@@ -11816,8 +12940,14 @@
       <c r="S25" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="AB25">
+        <v>1</v>
+      </c>
+      <c r="AC25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>1</v>
       </c>
@@ -11857,8 +12987,14 @@
       <c r="S26">
         <v>2.3926740038895606</v>
       </c>
-    </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="AB26">
+        <v>2</v>
+      </c>
+      <c r="AC26">
+        <v>70.599999999999994</v>
+      </c>
+    </row>
+    <row r="27" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>2</v>
       </c>
@@ -11898,8 +13034,14 @@
       <c r="S27">
         <v>2.60128173535022</v>
       </c>
-    </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="AB27">
+        <v>3</v>
+      </c>
+      <c r="AC27">
+        <v>82.6</v>
+      </c>
+    </row>
+    <row r="28" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>3</v>
       </c>
@@ -11939,8 +13081,14 @@
       <c r="S28">
         <v>3.3173617362128107</v>
       </c>
-    </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="AB28">
+        <v>4</v>
+      </c>
+      <c r="AC28">
+        <v>97.2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>4</v>
       </c>
@@ -11980,8 +13128,14 @@
       <c r="S29">
         <v>2.2419237770767899</v>
       </c>
-    </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="AB29">
+        <v>5</v>
+      </c>
+      <c r="AC29">
+        <v>68.599999999999994</v>
+      </c>
+    </row>
+    <row r="30" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>5</v>
       </c>
@@ -12021,8 +13175,14 @@
       <c r="S30">
         <v>3.1623479322244781</v>
       </c>
-    </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="AB30">
+        <v>6</v>
+      </c>
+      <c r="AC30">
+        <v>97.8</v>
+      </c>
+    </row>
+    <row r="31" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>6</v>
       </c>
@@ -12053,8 +13213,14 @@
       <c r="O31">
         <v>16.8</v>
       </c>
-    </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="AB31">
+        <v>7</v>
+      </c>
+      <c r="AC31">
+        <v>62.8</v>
+      </c>
+    </row>
+    <row r="32" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>7</v>
       </c>
@@ -12085,8 +13251,14 @@
       <c r="O32">
         <v>17</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="AB32">
+        <v>8</v>
+      </c>
+      <c r="AC32">
+        <v>55.4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>8</v>
       </c>
@@ -12117,8 +13289,14 @@
       <c r="O33">
         <v>17.8</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="AB33">
+        <v>9</v>
+      </c>
+      <c r="AC33">
+        <v>94.2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>9</v>
       </c>
@@ -12149,8 +13327,14 @@
       <c r="O34">
         <v>11.6</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="AB34">
+        <v>10</v>
+      </c>
+      <c r="AC34">
+        <v>80.400000000000006</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>10</v>
       </c>
@@ -12182,7 +13366,13 @@
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AC36">
+        <f>AVERAGE(AC25:AC34)</f>
+        <v>77.86</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C37">
         <f>AVERAGE(C26:C35)</f>
         <v>11.940000000000001</v>
@@ -12203,8 +13393,12 @@
         <f>AVERAGE(O26:O35)</f>
         <v>15.540000000000001</v>
       </c>
-    </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="AC37">
+        <f>STDEV(AC25:AC34)</f>
+        <v>14.965753498497044</v>
+      </c>
+    </row>
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38">
         <f>STDEV(C26:C35)</f>
         <v>2.3926740038895606</v>
@@ -12226,12 +13420,12 @@
         <v>3.1623479322244781</v>
       </c>
     </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>800</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>1</v>
       </c>
@@ -12257,7 +13451,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>1</v>
       </c>
@@ -12298,7 +13492,7 @@
         <v>2.8531464113228457</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>2</v>
       </c>
@@ -12339,7 +13533,7 @@
         <v>2.2636254107073372</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B45">
         <v>3</v>
       </c>
@@ -12380,7 +13574,7 @@
         <v>1.2699956255392761</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B46">
         <v>4</v>
       </c>
@@ -12421,7 +13615,7 @@
         <v>2.8906746617355599</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B47">
         <v>5</v>
       </c>
@@ -12462,7 +13656,7 @@
         <v>2.9731390071026884</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B48">
         <v>6</v>
       </c>
@@ -13113,224 +14307,445 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36EC456B-1D55-3641-A6E6-E2895CAC8343}">
-  <dimension ref="B2:F16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE27C080-1816-A240-865E-3768D2DAA5D9}">
+  <dimension ref="B2:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C3">
-        <v>1200</v>
-      </c>
-      <c r="D3">
-        <v>1000</v>
-      </c>
-      <c r="E3">
-        <v>800</v>
-      </c>
-      <c r="F3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B6">
         <v>600</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>16.699999999999996</v>
-      </c>
-      <c r="D4">
-        <v>6.76</v>
-      </c>
-      <c r="E4">
-        <v>6.5400000000000009</v>
-      </c>
-      <c r="F4">
-        <v>7.6399999999999988</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B5">
+      <c r="N6" s="1"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
         <v>5</v>
       </c>
-      <c r="C5">
-        <v>16.560000000000002</v>
-      </c>
-      <c r="D5">
-        <v>7.3</v>
-      </c>
-      <c r="E5">
-        <v>6.7799999999999994</v>
-      </c>
-      <c r="F5">
-        <v>6.2799999999999994</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B6">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>14.9</v>
-      </c>
-      <c r="D6">
-        <v>7.3400000000000007</v>
-      </c>
-      <c r="E6">
-        <v>7.26</v>
-      </c>
-      <c r="F6">
-        <v>8.120000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B7">
-        <v>-5</v>
-      </c>
-      <c r="C7">
-        <v>19.66</v>
-      </c>
-      <c r="D7">
-        <v>8.68</v>
-      </c>
-      <c r="E7">
-        <v>7.38</v>
-      </c>
-      <c r="F7">
-        <v>6.0600000000000005</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B8">
-        <v>-10</v>
-      </c>
-      <c r="C8">
-        <v>22.82</v>
-      </c>
-      <c r="D8">
-        <v>9.0599999999999987</v>
-      </c>
-      <c r="E8">
-        <v>6.1</v>
-      </c>
-      <c r="F8">
-        <v>8.2200000000000006</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>3</v>
+      </c>
       <c r="C11">
-        <v>1200</v>
-      </c>
-      <c r="D11">
-        <v>1000</v>
-      </c>
-      <c r="E11">
-        <v>800</v>
-      </c>
-      <c r="F11">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>37.120000000000005</v>
-      </c>
-      <c r="D12">
-        <v>11.940000000000001</v>
-      </c>
-      <c r="E12">
-        <v>9.4400000000000013</v>
-      </c>
-      <c r="F12">
-        <v>10.500000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>5</v>
       </c>
       <c r="C13">
-        <v>30.440000000000005</v>
-      </c>
-      <c r="D13">
-        <v>11.7</v>
-      </c>
-      <c r="E13">
-        <v>8.98</v>
-      </c>
-      <c r="F13">
-        <v>10.9</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B18">
         <v>10</v>
       </c>
-      <c r="C14">
-        <v>27.18</v>
-      </c>
-      <c r="D14">
-        <v>11.860000000000001</v>
-      </c>
-      <c r="E14">
-        <v>8.379999999999999</v>
-      </c>
-      <c r="F14">
-        <v>10.280000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B15">
-        <v>-5</v>
-      </c>
-      <c r="C15">
-        <v>50.36</v>
-      </c>
-      <c r="D15">
-        <v>12.22</v>
-      </c>
-      <c r="E15">
-        <v>10.14</v>
-      </c>
-      <c r="F15">
-        <v>9.379999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B16">
-        <v>-10</v>
-      </c>
-      <c r="C16">
-        <v>88.419999999999987</v>
-      </c>
-      <c r="D16">
-        <v>15.540000000000001</v>
-      </c>
-      <c r="E16">
-        <v>10.82</v>
-      </c>
-      <c r="F16">
-        <v>10.72</v>
+      <c r="C18">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <f>AVERAGE(C9:C18)</f>
+        <v>14.66</v>
+      </c>
+      <c r="F20" t="e">
+        <f>AVERAGE(F9:F18)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I20" t="e">
+        <f>AVERAGE(I9:I18)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L20" t="e">
+        <f>AVERAGE(L9:L18)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O20" t="e">
+        <f>AVERAGE(O9:O18)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <f>STDEV(C9:C18)</f>
+        <v>2.927342366948793</v>
+      </c>
+      <c r="F21" t="e">
+        <f>STDEV(F9:F18)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I21" t="e">
+        <f>STDEV(I9:I18)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L21" t="e">
+        <f>STDEV(L9:L18)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O21" t="e">
+        <f>STDEV(O9:O18)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36EC456B-1D55-3641-A6E6-E2895CAC8343}">
+  <dimension ref="B2:L16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <v>1200</v>
+      </c>
+      <c r="D3">
+        <v>1000</v>
+      </c>
+      <c r="E3">
+        <v>800</v>
+      </c>
+      <c r="F3">
+        <v>600</v>
+      </c>
+      <c r="I3">
+        <v>1200</v>
+      </c>
+      <c r="J3">
+        <v>1000</v>
+      </c>
+      <c r="K3">
+        <v>800</v>
+      </c>
+      <c r="L3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>16.699999999999996</v>
+      </c>
+      <c r="D4">
+        <v>6.76</v>
+      </c>
+      <c r="E4">
+        <v>6.5400000000000009</v>
+      </c>
+      <c r="F4">
+        <v>7.6399999999999988</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>16.699999999999996</v>
+      </c>
+      <c r="J4">
+        <v>6.76</v>
+      </c>
+      <c r="K4">
+        <v>6.5400000000000009</v>
+      </c>
+      <c r="L4">
+        <v>7.6399999999999988</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>16.560000000000002</v>
+      </c>
+      <c r="D5">
+        <v>7.3</v>
+      </c>
+      <c r="E5">
+        <v>6.7799999999999994</v>
+      </c>
+      <c r="F5">
+        <v>6.2799999999999994</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>37.120000000000005</v>
+      </c>
+      <c r="J5">
+        <v>11.940000000000001</v>
+      </c>
+      <c r="K5">
+        <v>9.4400000000000013</v>
+      </c>
+      <c r="L5">
+        <v>10.500000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>14.9</v>
+      </c>
+      <c r="D6">
+        <v>7.3400000000000007</v>
+      </c>
+      <c r="E6">
+        <v>7.26</v>
+      </c>
+      <c r="F6">
+        <v>8.120000000000001</v>
+      </c>
+      <c r="H6">
+        <v>8</v>
+      </c>
+      <c r="L6">
+        <v>14.66</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>-5</v>
+      </c>
+      <c r="C7">
+        <v>19.66</v>
+      </c>
+      <c r="D7">
+        <v>8.68</v>
+      </c>
+      <c r="E7">
+        <v>7.38</v>
+      </c>
+      <c r="F7">
+        <v>6.0600000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>-10</v>
+      </c>
+      <c r="C8">
+        <v>22.82</v>
+      </c>
+      <c r="D8">
+        <v>9.0599999999999987</v>
+      </c>
+      <c r="E8">
+        <v>6.1</v>
+      </c>
+      <c r="F8">
+        <v>8.2200000000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <v>1200</v>
+      </c>
+      <c r="D11">
+        <v>1000</v>
+      </c>
+      <c r="E11">
+        <v>800</v>
+      </c>
+      <c r="F11">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>37.120000000000005</v>
+      </c>
+      <c r="D12">
+        <v>11.940000000000001</v>
+      </c>
+      <c r="E12">
+        <v>9.4400000000000013</v>
+      </c>
+      <c r="F12">
+        <v>10.500000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>30.440000000000005</v>
+      </c>
+      <c r="D13">
+        <v>11.7</v>
+      </c>
+      <c r="E13">
+        <v>8.98</v>
+      </c>
+      <c r="F13">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>27.18</v>
+      </c>
+      <c r="D14">
+        <v>11.860000000000001</v>
+      </c>
+      <c r="E14">
+        <v>8.379999999999999</v>
+      </c>
+      <c r="F14">
+        <v>10.280000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>-5</v>
+      </c>
+      <c r="C15">
+        <v>50.36</v>
+      </c>
+      <c r="D15">
+        <v>12.22</v>
+      </c>
+      <c r="E15">
+        <v>10.14</v>
+      </c>
+      <c r="F15">
+        <v>9.379999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>-10</v>
+      </c>
+      <c r="C16">
+        <v>88.419999999999987</v>
+      </c>
+      <c r="D16">
+        <v>15.540000000000001</v>
+      </c>
+      <c r="E16">
+        <v>10.82</v>
+      </c>
+      <c r="F16">
+        <v>10.72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/USHPRR/UMo_radiation_damage.xlsx
+++ b/USHPRR/UMo_radiation_damage.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/spreadsheets/USHPRR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/USHPRR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4505C973-6711-8D43-A114-450B5E22D1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6AC934-16A7-8842-9959-32EDF75E95D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="2240" windowWidth="25020" windowHeight="16440" activeTab="2" xr2:uid="{6147F9BE-C613-5E42-8D18-16DEAC3FC724}"/>
+    <workbookView xWindow="640" yWindow="500" windowWidth="22940" windowHeight="15800" activeTab="3" xr2:uid="{6147F9BE-C613-5E42-8D18-16DEAC3FC724}"/>
   </bookViews>
   <sheets>
     <sheet name="2kev" sheetId="9" r:id="rId1"/>
@@ -18,9 +18,6 @@
     <sheet name="8kev" sheetId="6" r:id="rId3"/>
     <sheet name="16kev" sheetId="7" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="14">
   <si>
     <t>press0</t>
   </si>
@@ -64,6 +61,24 @@
   </si>
   <si>
     <t>press -5</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>stdev</t>
+  </si>
+  <si>
+    <t>1200 K</t>
+  </si>
+  <si>
+    <t>1000 K</t>
+  </si>
+  <si>
+    <t>800 K</t>
   </si>
 </sst>
 </file>
@@ -116,663 +131,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="2kevB"/>
-      <sheetName val="4kevB"/>
-      <sheetName val="8kevB"/>
-      <sheetName val="summary"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="2">
-          <cell r="U2">
-            <v>0</v>
-          </cell>
-          <cell r="V2">
-            <v>16.699999999999996</v>
-          </cell>
-          <cell r="W2">
-            <v>6.76</v>
-          </cell>
-          <cell r="X2">
-            <v>6.5400000000000009</v>
-          </cell>
-          <cell r="Y2">
-            <v>7.6399999999999988</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="U3">
-            <v>5</v>
-          </cell>
-          <cell r="V3">
-            <v>16.560000000000002</v>
-          </cell>
-          <cell r="W3">
-            <v>7.3</v>
-          </cell>
-          <cell r="X3">
-            <v>6.7799999999999994</v>
-          </cell>
-          <cell r="Y3">
-            <v>6.2799999999999994</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="U4">
-            <v>10</v>
-          </cell>
-          <cell r="V4">
-            <v>14.9</v>
-          </cell>
-          <cell r="W4">
-            <v>7.3400000000000007</v>
-          </cell>
-          <cell r="X4">
-            <v>7.26</v>
-          </cell>
-          <cell r="Y4">
-            <v>8.120000000000001</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="U5">
-            <v>-5</v>
-          </cell>
-          <cell r="V5">
-            <v>19.66</v>
-          </cell>
-          <cell r="W5">
-            <v>8.68</v>
-          </cell>
-          <cell r="X5">
-            <v>7.38</v>
-          </cell>
-          <cell r="Y5">
-            <v>6.0600000000000005</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="U6">
-            <v>-10</v>
-          </cell>
-          <cell r="V6">
-            <v>22.82</v>
-          </cell>
-          <cell r="W6">
-            <v>9.0599999999999987</v>
-          </cell>
-          <cell r="X6">
-            <v>6.1</v>
-          </cell>
-          <cell r="Y6">
-            <v>8.2200000000000006</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="Q9">
-            <v>0</v>
-          </cell>
-          <cell r="R9">
-            <v>16.699999999999996</v>
-          </cell>
-          <cell r="S9">
-            <v>3.3203078839837463</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="Q10">
-            <v>5</v>
-          </cell>
-          <cell r="R10">
-            <v>16.560000000000002</v>
-          </cell>
-          <cell r="S10">
-            <v>2.130831866770428</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="Q11">
-            <v>10</v>
-          </cell>
-          <cell r="R11">
-            <v>14.9</v>
-          </cell>
-          <cell r="S11">
-            <v>3.9024209010419266</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="Q12">
-            <v>-5</v>
-          </cell>
-          <cell r="R12">
-            <v>19.66</v>
-          </cell>
-          <cell r="S12">
-            <v>3.3146811477291616</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="Q13">
-            <v>-10</v>
-          </cell>
-          <cell r="R13">
-            <v>22.82</v>
-          </cell>
-          <cell r="S13">
-            <v>2.4791575630084912</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="Q26">
-            <v>0</v>
-          </cell>
-          <cell r="R26">
-            <v>6.76</v>
-          </cell>
-          <cell r="S26">
-            <v>2.2505308015863492</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="Q27">
-            <v>5</v>
-          </cell>
-          <cell r="R27">
-            <v>7.3</v>
-          </cell>
-          <cell r="S27">
-            <v>1.7081503967091978</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="Q28">
-            <v>10</v>
-          </cell>
-          <cell r="R28">
-            <v>7.3400000000000007</v>
-          </cell>
-          <cell r="S28">
-            <v>1.6866798418457689</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="Q29">
-            <v>-5</v>
-          </cell>
-          <cell r="R29">
-            <v>8.68</v>
-          </cell>
-          <cell r="S29">
-            <v>2.5143145741489414</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="Q30">
-            <v>-10</v>
-          </cell>
-          <cell r="R30">
-            <v>9.0599999999999987</v>
-          </cell>
-          <cell r="S30">
-            <v>1.4485241531373361</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="Q43">
-            <v>0</v>
-          </cell>
-          <cell r="R43">
-            <v>6.5400000000000009</v>
-          </cell>
-          <cell r="S43">
-            <v>2.0956038641774715</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="Q44">
-            <v>5</v>
-          </cell>
-          <cell r="R44">
-            <v>6.7799999999999994</v>
-          </cell>
-          <cell r="S44">
-            <v>2.8588264880696936</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="Q45">
-            <v>10</v>
-          </cell>
-          <cell r="R45">
-            <v>7.26</v>
-          </cell>
-          <cell r="S45">
-            <v>2.1624060673240861</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="Q46">
-            <v>-5</v>
-          </cell>
-          <cell r="R46">
-            <v>7.38</v>
-          </cell>
-          <cell r="S46">
-            <v>2.1998989875800117</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="Q47">
-            <v>-10</v>
-          </cell>
-          <cell r="R47">
-            <v>6.1</v>
-          </cell>
-          <cell r="S47">
-            <v>1.8312108926427164</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2">
-        <row r="2">
-          <cell r="U2">
-            <v>0</v>
-          </cell>
-          <cell r="V2">
-            <v>37.120000000000005</v>
-          </cell>
-          <cell r="W2">
-            <v>11.940000000000001</v>
-          </cell>
-          <cell r="X2">
-            <v>9.4400000000000013</v>
-          </cell>
-          <cell r="Y2">
-            <v>10.500000000000002</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="U3">
-            <v>5</v>
-          </cell>
-          <cell r="V3">
-            <v>30.440000000000005</v>
-          </cell>
-          <cell r="W3">
-            <v>11.7</v>
-          </cell>
-          <cell r="X3">
-            <v>8.98</v>
-          </cell>
-          <cell r="Y3">
-            <v>10.9</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="U4">
-            <v>10</v>
-          </cell>
-          <cell r="V4">
-            <v>27.18</v>
-          </cell>
-          <cell r="W4">
-            <v>11.860000000000001</v>
-          </cell>
-          <cell r="X4">
-            <v>8.379999999999999</v>
-          </cell>
-          <cell r="Y4">
-            <v>10.280000000000001</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="U5">
-            <v>-5</v>
-          </cell>
-          <cell r="V5">
-            <v>50.36</v>
-          </cell>
-          <cell r="W5">
-            <v>12.22</v>
-          </cell>
-          <cell r="X5">
-            <v>10.14</v>
-          </cell>
-          <cell r="Y5">
-            <v>9.379999999999999</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="U6">
-            <v>-10</v>
-          </cell>
-          <cell r="V6">
-            <v>88.419999999999987</v>
-          </cell>
-          <cell r="W6">
-            <v>15.540000000000001</v>
-          </cell>
-          <cell r="X6">
-            <v>10.82</v>
-          </cell>
-          <cell r="Y6">
-            <v>10.72</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="Q9">
-            <v>0</v>
-          </cell>
-          <cell r="R9">
-            <v>37.120000000000005</v>
-          </cell>
-          <cell r="S9">
-            <v>3.5417509793885853</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="Q10">
-            <v>5</v>
-          </cell>
-          <cell r="R10">
-            <v>30.440000000000005</v>
-          </cell>
-          <cell r="S10">
-            <v>4.2685412548603168</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="Q11">
-            <v>10</v>
-          </cell>
-          <cell r="R11">
-            <v>27.18</v>
-          </cell>
-          <cell r="S11">
-            <v>3.6726617655924176</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="Q12">
-            <v>-5</v>
-          </cell>
-          <cell r="R12">
-            <v>50.36</v>
-          </cell>
-          <cell r="S12">
-            <v>9.220171123984386</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="Q13">
-            <v>-10</v>
-          </cell>
-          <cell r="R13">
-            <v>88.419999999999987</v>
-          </cell>
-          <cell r="S13">
-            <v>20.156818532033622</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="Q14">
-            <v>-10</v>
-          </cell>
-          <cell r="R14">
-            <v>77.86</v>
-          </cell>
-          <cell r="S14">
-            <v>14.965753498497044</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="Q26">
-            <v>0</v>
-          </cell>
-          <cell r="R26">
-            <v>11.940000000000001</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="Q27">
-            <v>5</v>
-          </cell>
-          <cell r="R27">
-            <v>11.7</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="Q28">
-            <v>10</v>
-          </cell>
-          <cell r="R28">
-            <v>11.860000000000001</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="Q29">
-            <v>-5</v>
-          </cell>
-          <cell r="R29">
-            <v>12.22</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="Q30">
-            <v>-10</v>
-          </cell>
-          <cell r="R30">
-            <v>15.540000000000001</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="Q43">
-            <v>0</v>
-          </cell>
-          <cell r="R43">
-            <v>9.4400000000000013</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="Q44">
-            <v>5</v>
-          </cell>
-          <cell r="R44">
-            <v>8.98</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="Q45">
-            <v>10</v>
-          </cell>
-          <cell r="R45">
-            <v>8.379999999999999</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="Q46">
-            <v>-5</v>
-          </cell>
-          <cell r="R46">
-            <v>10.14</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="Q47">
-            <v>-10</v>
-          </cell>
-          <cell r="R47">
-            <v>10.82</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="Q60">
-            <v>0</v>
-          </cell>
-          <cell r="R60">
-            <v>10.500000000000002</v>
-          </cell>
-          <cell r="S60">
-            <v>3.3482997343593763</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="Q61">
-            <v>5</v>
-          </cell>
-          <cell r="R61">
-            <v>10.9</v>
-          </cell>
-          <cell r="S61">
-            <v>3.1073389830457128</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="Q62">
-            <v>10</v>
-          </cell>
-          <cell r="R62">
-            <v>10.280000000000001</v>
-          </cell>
-          <cell r="S62">
-            <v>3.0084325930069724</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="Q63">
-            <v>-5</v>
-          </cell>
-          <cell r="R63">
-            <v>9.379999999999999</v>
-          </cell>
-          <cell r="S63">
-            <v>4.9553114040503168</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="Q64">
-            <v>-10</v>
-          </cell>
-          <cell r="R64">
-            <v>10.72</v>
-          </cell>
-          <cell r="S64">
-            <v>3.5367279290955391</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3">
-        <row r="24">
-          <cell r="F24" t="str">
-            <v>press0</v>
-          </cell>
-          <cell r="G24" t="str">
-            <v>temp/rescale</v>
-          </cell>
-          <cell r="H24" t="str">
-            <v>dt reset</v>
-          </cell>
-          <cell r="I24" t="str">
-            <v>dt reset2</v>
-          </cell>
-          <cell r="J24" t="str">
-            <v>temp/rescale w/ dt2</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="F25">
-            <v>16.669999999999998</v>
-          </cell>
-          <cell r="G25">
-            <v>13.26</v>
-          </cell>
-          <cell r="H25">
-            <v>18.739999999999998</v>
-          </cell>
-          <cell r="I25">
-            <v>19.999999999999996</v>
-          </cell>
-          <cell r="J25">
-            <v>17.28</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="F26">
-            <v>3.8148049546608913</v>
-          </cell>
-          <cell r="G26">
-            <v>3.2373514551936475</v>
-          </cell>
-          <cell r="H26">
-            <v>3.5049805832399445</v>
-          </cell>
-          <cell r="I26">
-            <v>5.315804527799898</v>
-          </cell>
-          <cell r="J26">
-            <v>6.1327535957893069</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4">
-        <row r="4">
-          <cell r="H4">
-            <v>2</v>
-          </cell>
-          <cell r="I4">
-            <v>16.699999999999996</v>
-          </cell>
-          <cell r="J4">
-            <v>6.76</v>
-          </cell>
-          <cell r="K4">
-            <v>6.5400000000000009</v>
-          </cell>
-          <cell r="L4">
-            <v>7.6399999999999988</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="H5">
-            <v>4</v>
-          </cell>
-          <cell r="I5">
-            <v>37.120000000000005</v>
-          </cell>
-          <cell r="J5">
-            <v>11.940000000000001</v>
-          </cell>
-          <cell r="K5">
-            <v>9.4400000000000013</v>
-          </cell>
-          <cell r="L5">
-            <v>10.500000000000002</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="H6">
-            <v>8</v>
-          </cell>
-          <cell r="L6">
-            <v>14.66</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1072,15 +430,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3943012F-0CD3-3046-9BFB-8F21DD88D4CA}">
-  <dimension ref="B3:O27"/>
+  <dimension ref="B2:V27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C25"/>
+      <selection activeCell="Q2" sqref="Q2:V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="R2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>600</v>
       </c>
@@ -1098,6 +461,99 @@
       </c>
       <c r="O3" t="s">
         <v>4</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>5</v>
+      </c>
+      <c r="T3">
+        <v>10</v>
+      </c>
+      <c r="U3">
+        <v>-5</v>
+      </c>
+      <c r="V3">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="Q4">
+        <v>600</v>
+      </c>
+      <c r="R4">
+        <v>16.279999999999998</v>
+      </c>
+      <c r="S4">
+        <v>14.899999999999997</v>
+      </c>
+      <c r="T4">
+        <v>16.559999999999995</v>
+      </c>
+      <c r="U4">
+        <v>17.88</v>
+      </c>
+      <c r="V4">
+        <v>16.179999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="Q5">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="Q6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="Q7">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="Q9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="Q10">
+        <v>600</v>
+      </c>
+      <c r="R10">
+        <v>3.8751027151072677</v>
+      </c>
+      <c r="S10">
+        <v>4.288294962360979</v>
+      </c>
+      <c r="T10">
+        <v>4.5927173472334539</v>
+      </c>
+      <c r="U10">
+        <v>4.8542547804667437</v>
+      </c>
+      <c r="V10">
+        <v>3.2933106043679219</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="Q11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="Q12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="Q13">
+        <v>1200</v>
       </c>
     </row>
     <row r="26" spans="3:15" x14ac:dyDescent="0.2">
@@ -1151,15 +607,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F880DA78-A65C-4D4A-BB5D-FA680FB5D55D}">
-  <dimension ref="B3:O27"/>
+  <dimension ref="B2:V27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="R2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>600</v>
       </c>
@@ -1178,49 +639,766 @@
       <c r="O3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C26" t="e">
+      <c r="Q3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>5</v>
+      </c>
+      <c r="T3">
+        <v>10</v>
+      </c>
+      <c r="U3">
+        <v>-5</v>
+      </c>
+      <c r="V3">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="Q4">
+        <v>600</v>
+      </c>
+      <c r="R4">
+        <v>9.9699999999999989</v>
+      </c>
+      <c r="S4">
+        <v>11.7</v>
+      </c>
+      <c r="T4">
+        <v>10.98</v>
+      </c>
+      <c r="U4">
+        <v>11.940000000000001</v>
+      </c>
+      <c r="V4">
+        <v>10.59</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>11</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>12</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>11</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>10.8</v>
+      </c>
+      <c r="Q5">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>19.2</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>12</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>16</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>11</v>
+      </c>
+      <c r="Q6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>14</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>11</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>15.2</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
+      <c r="O7">
+        <v>10</v>
+      </c>
+      <c r="Q7">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>16</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>9</v>
+      </c>
+      <c r="K8">
+        <v>4</v>
+      </c>
+      <c r="L8">
+        <v>16.2</v>
+      </c>
+      <c r="N8">
+        <v>4</v>
+      </c>
+      <c r="O8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>15.2</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <v>13.2</v>
+      </c>
+      <c r="N9">
+        <v>5</v>
+      </c>
+      <c r="O9">
+        <v>12</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>11.4</v>
+      </c>
+      <c r="H10">
+        <v>6</v>
+      </c>
+      <c r="I10">
+        <v>10</v>
+      </c>
+      <c r="K10">
+        <v>6</v>
+      </c>
+      <c r="L10">
+        <v>9</v>
+      </c>
+      <c r="N10">
+        <v>6</v>
+      </c>
+      <c r="O10">
+        <v>13</v>
+      </c>
+      <c r="Q10">
+        <v>600</v>
+      </c>
+      <c r="R10">
+        <v>3.2237767978111149</v>
+      </c>
+      <c r="S10">
+        <v>3.1719162396852378</v>
+      </c>
+      <c r="T10">
+        <v>2.7901329906051382</v>
+      </c>
+      <c r="U10">
+        <v>3.268413424857612</v>
+      </c>
+      <c r="V10">
+        <v>3.1791922178274721</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <v>15</v>
+      </c>
+      <c r="H11">
+        <v>7</v>
+      </c>
+      <c r="I11">
+        <v>10</v>
+      </c>
+      <c r="K11">
+        <v>7</v>
+      </c>
+      <c r="L11">
+        <v>12.2</v>
+      </c>
+      <c r="N11">
+        <v>7</v>
+      </c>
+      <c r="O11">
+        <v>12</v>
+      </c>
+      <c r="Q11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>9</v>
+      </c>
+      <c r="H12">
+        <v>8</v>
+      </c>
+      <c r="I12">
+        <v>15</v>
+      </c>
+      <c r="K12">
+        <v>8</v>
+      </c>
+      <c r="L12">
+        <v>9</v>
+      </c>
+      <c r="N12">
+        <v>8</v>
+      </c>
+      <c r="O12">
+        <v>10</v>
+      </c>
+      <c r="Q12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>9</v>
+      </c>
+      <c r="F13">
+        <v>6</v>
+      </c>
+      <c r="H13">
+        <v>9</v>
+      </c>
+      <c r="I13">
+        <v>11</v>
+      </c>
+      <c r="K13">
+        <v>9</v>
+      </c>
+      <c r="L13">
+        <v>12</v>
+      </c>
+      <c r="N13">
+        <v>9</v>
+      </c>
+      <c r="O13">
+        <v>7</v>
+      </c>
+      <c r="Q13">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>8</v>
+      </c>
+      <c r="H14">
+        <v>10</v>
+      </c>
+      <c r="I14">
+        <v>7</v>
+      </c>
+      <c r="K14">
+        <v>10</v>
+      </c>
+      <c r="L14">
+        <v>11</v>
+      </c>
+      <c r="N14">
+        <v>10</v>
+      </c>
+      <c r="O14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>11</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>11</v>
+      </c>
+      <c r="I15">
+        <v>7.2</v>
+      </c>
+      <c r="K15">
+        <v>11</v>
+      </c>
+      <c r="L15">
+        <v>15</v>
+      </c>
+      <c r="N15">
+        <v>11</v>
+      </c>
+      <c r="O15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>18</v>
+      </c>
+      <c r="E16">
+        <v>12</v>
+      </c>
+      <c r="F16">
+        <v>14.4</v>
+      </c>
+      <c r="H16">
+        <v>12</v>
+      </c>
+      <c r="I16">
+        <v>15</v>
+      </c>
+      <c r="K16">
+        <v>12</v>
+      </c>
+      <c r="L16">
+        <v>9</v>
+      </c>
+      <c r="N16">
+        <v>12</v>
+      </c>
+      <c r="O16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>13</v>
+      </c>
+      <c r="C17">
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <v>13</v>
+      </c>
+      <c r="F17">
+        <v>11</v>
+      </c>
+      <c r="H17">
+        <v>13</v>
+      </c>
+      <c r="I17">
+        <v>9</v>
+      </c>
+      <c r="K17">
+        <v>13</v>
+      </c>
+      <c r="L17">
+        <v>8</v>
+      </c>
+      <c r="N17">
+        <v>13</v>
+      </c>
+      <c r="O17">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <v>13</v>
+      </c>
+      <c r="E18">
+        <v>14</v>
+      </c>
+      <c r="F18">
+        <v>9</v>
+      </c>
+      <c r="H18">
+        <v>14</v>
+      </c>
+      <c r="I18">
+        <v>10</v>
+      </c>
+      <c r="K18">
+        <v>14</v>
+      </c>
+      <c r="L18">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="N18">
+        <v>14</v>
+      </c>
+      <c r="O18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <v>15</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="H19">
+        <v>15</v>
+      </c>
+      <c r="I19">
+        <v>14</v>
+      </c>
+      <c r="K19">
+        <v>15</v>
+      </c>
+      <c r="L19">
+        <v>7</v>
+      </c>
+      <c r="N19">
+        <v>15</v>
+      </c>
+      <c r="O19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>16</v>
+      </c>
+      <c r="C20">
+        <v>9</v>
+      </c>
+      <c r="E20">
+        <v>16</v>
+      </c>
+      <c r="F20">
+        <v>12</v>
+      </c>
+      <c r="H20">
+        <v>16</v>
+      </c>
+      <c r="I20">
+        <v>11</v>
+      </c>
+      <c r="K20">
+        <v>16</v>
+      </c>
+      <c r="L20">
+        <v>9</v>
+      </c>
+      <c r="N20">
+        <v>16</v>
+      </c>
+      <c r="O20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>17</v>
+      </c>
+      <c r="C21">
+        <v>7</v>
+      </c>
+      <c r="E21">
+        <v>17</v>
+      </c>
+      <c r="F21">
+        <v>15</v>
+      </c>
+      <c r="H21">
+        <v>17</v>
+      </c>
+      <c r="I21">
+        <v>14</v>
+      </c>
+      <c r="K21">
+        <v>17</v>
+      </c>
+      <c r="L21">
+        <v>10.8</v>
+      </c>
+      <c r="N21">
+        <v>17</v>
+      </c>
+      <c r="O21">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>18</v>
+      </c>
+      <c r="C22">
+        <v>13.2</v>
+      </c>
+      <c r="E22">
+        <v>18</v>
+      </c>
+      <c r="F22">
+        <v>12</v>
+      </c>
+      <c r="H22">
+        <v>18</v>
+      </c>
+      <c r="I22">
+        <v>7</v>
+      </c>
+      <c r="K22">
+        <v>18</v>
+      </c>
+      <c r="L22">
+        <v>10</v>
+      </c>
+      <c r="N22">
+        <v>18</v>
+      </c>
+      <c r="O22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>19</v>
+      </c>
+      <c r="C23">
+        <v>8</v>
+      </c>
+      <c r="E23">
+        <v>19</v>
+      </c>
+      <c r="F23">
+        <v>12</v>
+      </c>
+      <c r="H23">
+        <v>19</v>
+      </c>
+      <c r="I23">
+        <v>7</v>
+      </c>
+      <c r="K23">
+        <v>19</v>
+      </c>
+      <c r="L23">
+        <v>17</v>
+      </c>
+      <c r="N23">
+        <v>19</v>
+      </c>
+      <c r="O23">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>20</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
+      </c>
+      <c r="E24">
+        <v>20</v>
+      </c>
+      <c r="F24">
+        <v>11</v>
+      </c>
+      <c r="H24">
+        <v>20</v>
+      </c>
+      <c r="I24">
+        <v>13.2</v>
+      </c>
+      <c r="K24">
+        <v>20</v>
+      </c>
+      <c r="L24">
+        <v>18</v>
+      </c>
+      <c r="N24">
+        <v>20</v>
+      </c>
+      <c r="O24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C26">
         <f>AVERAGE(C5:C24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F26" t="e">
+        <v>9.9699999999999989</v>
+      </c>
+      <c r="F26">
         <f>AVERAGE(F5:F24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I26" t="e">
+        <v>11.7</v>
+      </c>
+      <c r="I26">
         <f>AVERAGE(I5:I24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L26" t="e">
+        <v>10.98</v>
+      </c>
+      <c r="L26">
         <f>AVERAGE(L5:L24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O26" t="e">
+        <v>11.940000000000001</v>
+      </c>
+      <c r="O26">
         <f>AVERAGE(O5:O24)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C27" t="e">
+        <v>10.59</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C27">
         <f>STDEV(C5:C24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F27" t="e">
+        <v>3.2237767978111149</v>
+      </c>
+      <c r="F27">
         <f>STDEV(F5:F24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I27" t="e">
+        <v>3.1719162396852378</v>
+      </c>
+      <c r="I27">
         <f>STDEV(I5:I24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L27" t="e">
+        <v>2.7901329906051382</v>
+      </c>
+      <c r="L27">
         <f>STDEV(L5:L24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O27" t="e">
+        <v>3.268413424857612</v>
+      </c>
+      <c r="O27">
         <f>STDEV(O5:O24)</f>
-        <v>#DIV/0!</v>
+        <v>3.1791922178274721</v>
       </c>
     </row>
   </sheetData>
@@ -1230,15 +1408,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DF37246-5734-1E4A-86A1-08A58450CF3F}">
-  <dimension ref="B3:O27"/>
+  <dimension ref="B2:V27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2:V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="R2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>600</v>
       </c>
@@ -1257,101 +1440,466 @@
       <c r="O3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>5</v>
+      </c>
+      <c r="T3">
+        <v>10</v>
+      </c>
+      <c r="U3">
+        <v>-5</v>
+      </c>
+      <c r="V3">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="Q4">
+        <v>600</v>
+      </c>
+      <c r="R4">
+        <v>16.279999999999998</v>
+      </c>
+      <c r="S4">
+        <v>14.899999999999997</v>
+      </c>
+      <c r="T4">
+        <v>16.559999999999995</v>
+      </c>
+      <c r="U4">
+        <v>17.88</v>
+      </c>
+      <c r="V4">
+        <v>16.179999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
         <v>15.2</v>
       </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>18</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>8.4</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>12.2</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>14</v>
+      </c>
+      <c r="Q5">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6">
         <v>18.2</v>
       </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>14</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>11</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>17.2</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>15.2</v>
+      </c>
+      <c r="Q6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>14</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>24.2</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>14.2</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
+      <c r="O7">
+        <v>19.2</v>
+      </c>
+      <c r="Q7">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>4</v>
       </c>
       <c r="C8">
         <v>15.4</v>
       </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>9</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>12</v>
+      </c>
+      <c r="K8">
+        <v>4</v>
+      </c>
+      <c r="L8">
+        <v>16</v>
+      </c>
+      <c r="N8">
+        <v>4</v>
+      </c>
+      <c r="O8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>5</v>
       </c>
       <c r="C9">
         <v>20.399999999999999</v>
       </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>19</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>13</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <v>23</v>
+      </c>
+      <c r="N9">
+        <v>5</v>
+      </c>
+      <c r="O9">
+        <v>23.6</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>6</v>
       </c>
       <c r="C10">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>13</v>
+      </c>
+      <c r="H10">
+        <v>6</v>
+      </c>
+      <c r="I10">
+        <v>18.2</v>
+      </c>
+      <c r="K10">
+        <v>6</v>
+      </c>
+      <c r="L10">
+        <v>20.2</v>
+      </c>
+      <c r="N10">
+        <v>6</v>
+      </c>
+      <c r="O10">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="Q10">
+        <v>600</v>
+      </c>
+      <c r="R10">
+        <v>3.8751027151072677</v>
+      </c>
+      <c r="S10">
+        <v>4.288294962360979</v>
+      </c>
+      <c r="T10">
+        <v>4.5927173472334539</v>
+      </c>
+      <c r="U10">
+        <v>4.8542547804667437</v>
+      </c>
+      <c r="V10">
+        <v>3.2933106043679219</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>7</v>
       </c>
       <c r="C11">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <v>7.2</v>
+      </c>
+      <c r="H11">
+        <v>7</v>
+      </c>
+      <c r="I11">
+        <v>19.2</v>
+      </c>
+      <c r="K11">
+        <v>7</v>
+      </c>
+      <c r="L11">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="N11">
+        <v>7</v>
+      </c>
+      <c r="O11">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="Q11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>8</v>
       </c>
       <c r="C12">
         <v>16.2</v>
       </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>24</v>
+      </c>
+      <c r="H12">
+        <v>8</v>
+      </c>
+      <c r="I12">
+        <v>17.2</v>
+      </c>
+      <c r="K12">
+        <v>8</v>
+      </c>
+      <c r="L12">
+        <v>16</v>
+      </c>
+      <c r="N12">
+        <v>8</v>
+      </c>
+      <c r="O12">
+        <v>15</v>
+      </c>
+      <c r="Q12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>9</v>
       </c>
       <c r="C13">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <v>9</v>
+      </c>
+      <c r="F13">
+        <v>18</v>
+      </c>
+      <c r="H13">
+        <v>9</v>
+      </c>
+      <c r="I13">
+        <v>21</v>
+      </c>
+      <c r="K13">
+        <v>9</v>
+      </c>
+      <c r="L13">
+        <v>15.2</v>
+      </c>
+      <c r="N13">
+        <v>9</v>
+      </c>
+      <c r="O13">
+        <v>13.2</v>
+      </c>
+      <c r="Q13">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>10</v>
       </c>
       <c r="C14">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>13</v>
+      </c>
+      <c r="H14">
+        <v>10</v>
+      </c>
+      <c r="I14">
+        <v>14</v>
+      </c>
+      <c r="K14">
+        <v>10</v>
+      </c>
+      <c r="L14">
+        <v>19.2</v>
+      </c>
+      <c r="N14">
+        <v>10</v>
+      </c>
+      <c r="O14">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>11</v>
       </c>
       <c r="C15">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <v>11</v>
+      </c>
+      <c r="F15">
+        <v>16</v>
+      </c>
+      <c r="H15">
+        <v>11</v>
+      </c>
+      <c r="I15">
+        <v>14</v>
+      </c>
+      <c r="K15">
+        <v>11</v>
+      </c>
+      <c r="L15">
+        <v>27.2</v>
+      </c>
+      <c r="N15">
+        <v>11</v>
+      </c>
+      <c r="O15">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>12</v>
       </c>
       <c r="C16">
         <v>14</v>
+      </c>
+      <c r="E16">
+        <v>12</v>
+      </c>
+      <c r="F16">
+        <v>20</v>
+      </c>
+      <c r="H16">
+        <v>12</v>
+      </c>
+      <c r="I16">
+        <v>11</v>
+      </c>
+      <c r="K16">
+        <v>12</v>
+      </c>
+      <c r="L16">
+        <v>14.2</v>
+      </c>
+      <c r="N16">
+        <v>12</v>
+      </c>
+      <c r="O16">
+        <v>18.2</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
@@ -1361,6 +1909,30 @@
       <c r="C17">
         <v>20.6</v>
       </c>
+      <c r="E17">
+        <v>13</v>
+      </c>
+      <c r="F17">
+        <v>11.2</v>
+      </c>
+      <c r="H17">
+        <v>13</v>
+      </c>
+      <c r="I17">
+        <v>20.2</v>
+      </c>
+      <c r="K17">
+        <v>13</v>
+      </c>
+      <c r="L17">
+        <v>24.4</v>
+      </c>
+      <c r="N17">
+        <v>13</v>
+      </c>
+      <c r="O17">
+        <v>20.2</v>
+      </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18">
@@ -1369,6 +1941,30 @@
       <c r="C18">
         <v>14.4</v>
       </c>
+      <c r="E18">
+        <v>14</v>
+      </c>
+      <c r="F18">
+        <v>12</v>
+      </c>
+      <c r="H18">
+        <v>14</v>
+      </c>
+      <c r="I18">
+        <v>11</v>
+      </c>
+      <c r="K18">
+        <v>14</v>
+      </c>
+      <c r="L18">
+        <v>24.6</v>
+      </c>
+      <c r="N18">
+        <v>14</v>
+      </c>
+      <c r="O18">
+        <v>17</v>
+      </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19">
@@ -1377,6 +1973,30 @@
       <c r="C19">
         <v>13</v>
       </c>
+      <c r="E19">
+        <v>15</v>
+      </c>
+      <c r="F19">
+        <v>12</v>
+      </c>
+      <c r="H19">
+        <v>15</v>
+      </c>
+      <c r="I19">
+        <v>18.2</v>
+      </c>
+      <c r="K19">
+        <v>15</v>
+      </c>
+      <c r="L19">
+        <v>15.2</v>
+      </c>
+      <c r="N19">
+        <v>15</v>
+      </c>
+      <c r="O19">
+        <v>17</v>
+      </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20">
@@ -1385,6 +2005,30 @@
       <c r="C20">
         <v>14.2</v>
       </c>
+      <c r="E20">
+        <v>16</v>
+      </c>
+      <c r="F20">
+        <v>18.2</v>
+      </c>
+      <c r="H20">
+        <v>16</v>
+      </c>
+      <c r="I20">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="K20">
+        <v>16</v>
+      </c>
+      <c r="L20">
+        <v>23.6</v>
+      </c>
+      <c r="N20">
+        <v>16</v>
+      </c>
+      <c r="O20">
+        <v>16</v>
+      </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B21">
@@ -1393,6 +2037,30 @@
       <c r="C21">
         <v>24.8</v>
       </c>
+      <c r="E21">
+        <v>17</v>
+      </c>
+      <c r="F21">
+        <v>13</v>
+      </c>
+      <c r="H21">
+        <v>17</v>
+      </c>
+      <c r="I21">
+        <v>21.6</v>
+      </c>
+      <c r="K21">
+        <v>17</v>
+      </c>
+      <c r="L21">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="N21">
+        <v>17</v>
+      </c>
+      <c r="O21">
+        <v>13.2</v>
+      </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B22">
@@ -1401,6 +2069,30 @@
       <c r="C22">
         <v>12</v>
       </c>
+      <c r="E22">
+        <v>18</v>
+      </c>
+      <c r="F22">
+        <v>14.2</v>
+      </c>
+      <c r="H22">
+        <v>18</v>
+      </c>
+      <c r="I22">
+        <v>22.2</v>
+      </c>
+      <c r="K22">
+        <v>18</v>
+      </c>
+      <c r="L22">
+        <v>15.2</v>
+      </c>
+      <c r="N22">
+        <v>18</v>
+      </c>
+      <c r="O22">
+        <v>17.399999999999999</v>
+      </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B23">
@@ -1409,6 +2101,30 @@
       <c r="C23">
         <v>12</v>
       </c>
+      <c r="E23">
+        <v>19</v>
+      </c>
+      <c r="F23">
+        <v>21.2</v>
+      </c>
+      <c r="H23">
+        <v>19</v>
+      </c>
+      <c r="I23">
+        <v>20.2</v>
+      </c>
+      <c r="K23">
+        <v>19</v>
+      </c>
+      <c r="L23">
+        <v>12</v>
+      </c>
+      <c r="N23">
+        <v>19</v>
+      </c>
+      <c r="O23">
+        <v>11</v>
+      </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24">
@@ -1416,6 +2132,30 @@
       </c>
       <c r="C24">
         <v>14.2</v>
+      </c>
+      <c r="E24">
+        <v>20</v>
+      </c>
+      <c r="F24">
+        <v>11</v>
+      </c>
+      <c r="H24">
+        <v>20</v>
+      </c>
+      <c r="I24">
+        <v>14.2</v>
+      </c>
+      <c r="K24">
+        <v>20</v>
+      </c>
+      <c r="L24">
+        <v>9</v>
+      </c>
+      <c r="N24">
+        <v>20</v>
+      </c>
+      <c r="O24">
+        <v>14.8</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
@@ -1423,21 +2163,21 @@
         <f>AVERAGE(C5:C24)</f>
         <v>16.279999999999998</v>
       </c>
-      <c r="F26" t="e">
+      <c r="F26">
         <f>AVERAGE(F5:F24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I26" t="e">
+        <v>14.899999999999997</v>
+      </c>
+      <c r="I26">
         <f>AVERAGE(I5:I24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L26" t="e">
+        <v>16.559999999999995</v>
+      </c>
+      <c r="L26">
         <f>AVERAGE(L5:L24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O26" t="e">
+        <v>17.88</v>
+      </c>
+      <c r="O26">
         <f>AVERAGE(O5:O24)</f>
-        <v>#DIV/0!</v>
+        <v>16.179999999999996</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.2">
@@ -1445,21 +2185,21 @@
         <f>STDEV(C5:C24)</f>
         <v>3.8751027151072677</v>
       </c>
-      <c r="F27" t="e">
+      <c r="F27">
         <f>STDEV(F5:F24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I27" t="e">
+        <v>4.288294962360979</v>
+      </c>
+      <c r="I27">
         <f>STDEV(I5:I24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L27" t="e">
+        <v>4.5927173472334539</v>
+      </c>
+      <c r="L27">
         <f>STDEV(L5:L24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O27" t="e">
+        <v>4.8542547804667437</v>
+      </c>
+      <c r="O27">
         <f>STDEV(O5:O24)</f>
-        <v>#DIV/0!</v>
+        <v>3.2933106043679219</v>
       </c>
     </row>
   </sheetData>
@@ -1469,20 +2209,43 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B8986C-AC24-5149-BC25-A1C4E7121DD9}">
-  <dimension ref="B2:O28"/>
+  <dimension ref="B2:V106"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84:C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="R2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="Q3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>5</v>
+      </c>
+      <c r="T3">
+        <v>10</v>
+      </c>
+      <c r="U3">
+        <v>-5</v>
+      </c>
+      <c r="V3">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -1498,8 +2261,26 @@
       <c r="O4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q4">
+        <v>600</v>
+      </c>
+      <c r="R4">
+        <v>28.599999999999994</v>
+      </c>
+      <c r="S4">
+        <v>27.889999999999997</v>
+      </c>
+      <c r="T4">
+        <v>27.369999999999997</v>
+      </c>
+      <c r="U4">
+        <v>28.130000000000006</v>
+      </c>
+      <c r="V4">
+        <v>27.079999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>600</v>
       </c>
@@ -1515,33 +2296,105 @@
       <c r="N5">
         <v>600</v>
       </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q5">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>1</v>
       </c>
+      <c r="C6">
+        <v>20.2</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>45</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>34</v>
+      </c>
       <c r="N6">
         <v>1</v>
       </c>
       <c r="O6">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>2</v>
       </c>
+      <c r="C7">
+        <v>23.8</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>21.4</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>49</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>29.6</v>
+      </c>
       <c r="N7">
         <v>2</v>
       </c>
       <c r="O7">
         <v>24.6</v>
       </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q7">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>3</v>
       </c>
+      <c r="C8">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>23.2</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>28.6</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>23</v>
+      </c>
       <c r="N8">
         <v>3</v>
       </c>
@@ -1549,65 +2402,221 @@
         <v>29.2</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>4</v>
       </c>
+      <c r="C9">
+        <v>28.6</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>16</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>26.4</v>
+      </c>
+      <c r="K9">
+        <v>4</v>
+      </c>
+      <c r="L9">
+        <v>25.6</v>
+      </c>
       <c r="N9">
         <v>4</v>
       </c>
       <c r="O9">
         <v>26.4</v>
       </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>5</v>
       </c>
+      <c r="C10">
+        <v>26.8</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>24.4</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>19</v>
+      </c>
+      <c r="K10">
+        <v>5</v>
+      </c>
+      <c r="L10">
+        <v>48.4</v>
+      </c>
       <c r="N10">
         <v>5</v>
       </c>
       <c r="O10">
         <v>24.4</v>
       </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q10">
+        <v>600</v>
+      </c>
+      <c r="R10">
+        <v>8.7688443696388809</v>
+      </c>
+      <c r="S10">
+        <v>7.8350024350918321</v>
+      </c>
+      <c r="T10">
+        <v>9.1801330113056281</v>
+      </c>
+      <c r="U10">
+        <v>9.3521233164621691</v>
+      </c>
+      <c r="V10">
+        <v>3.5844106907551971</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>6</v>
       </c>
+      <c r="C11">
+        <v>29.4</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>45.8</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="I11">
+        <v>12.2</v>
+      </c>
+      <c r="K11">
+        <v>6</v>
+      </c>
+      <c r="L11">
+        <v>26</v>
+      </c>
       <c r="N11">
         <v>6</v>
       </c>
       <c r="O11">
         <v>26.2</v>
       </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>7</v>
       </c>
+      <c r="C12">
+        <v>25.2</v>
+      </c>
+      <c r="E12">
+        <v>7</v>
+      </c>
+      <c r="F12">
+        <v>30.8</v>
+      </c>
+      <c r="H12">
+        <v>7</v>
+      </c>
+      <c r="I12">
+        <v>30.2</v>
+      </c>
+      <c r="K12">
+        <v>7</v>
+      </c>
+      <c r="L12">
+        <v>34.4</v>
+      </c>
       <c r="N12">
         <v>7</v>
       </c>
       <c r="O12">
         <v>31.4</v>
       </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>8</v>
       </c>
+      <c r="C13">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="E13">
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <v>22.6</v>
+      </c>
+      <c r="H13">
+        <v>8</v>
+      </c>
+      <c r="I13">
+        <v>23.4</v>
+      </c>
+      <c r="K13">
+        <v>8</v>
+      </c>
+      <c r="L13">
+        <v>27.6</v>
+      </c>
       <c r="N13">
         <v>8</v>
       </c>
       <c r="O13">
         <v>22.2</v>
       </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q13">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>9</v>
       </c>
+      <c r="C14">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="H14">
+        <v>9</v>
+      </c>
+      <c r="I14">
+        <v>29</v>
+      </c>
+      <c r="K14">
+        <v>9</v>
+      </c>
+      <c r="L14">
+        <v>21.4</v>
+      </c>
       <c r="N14">
         <v>9</v>
       </c>
@@ -1615,9 +2624,30 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>10</v>
+      </c>
+      <c r="C15">
+        <v>25.2</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
+      </c>
+      <c r="I15">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="K15">
+        <v>10</v>
+      </c>
+      <c r="L15">
+        <v>51.4</v>
       </c>
       <c r="N15">
         <v>10</v>
@@ -1626,10 +2656,31 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>11</v>
       </c>
+      <c r="C16">
+        <v>28.4</v>
+      </c>
+      <c r="E16">
+        <v>11</v>
+      </c>
+      <c r="F16">
+        <v>29.2</v>
+      </c>
+      <c r="H16">
+        <v>11</v>
+      </c>
+      <c r="I16">
+        <v>28</v>
+      </c>
+      <c r="K16">
+        <v>11</v>
+      </c>
+      <c r="L16">
+        <v>27.6</v>
+      </c>
       <c r="N16">
         <v>11</v>
       </c>
@@ -1640,6 +2691,27 @@
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>12</v>
+      </c>
+      <c r="C17">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="E17">
+        <v>12</v>
+      </c>
+      <c r="F17">
+        <v>32.4</v>
+      </c>
+      <c r="H17">
+        <v>12</v>
+      </c>
+      <c r="I17">
+        <v>20.2</v>
+      </c>
+      <c r="K17">
+        <v>12</v>
+      </c>
+      <c r="L17">
+        <v>15</v>
       </c>
       <c r="N17">
         <v>12</v>
@@ -1652,6 +2724,27 @@
       <c r="B18">
         <v>13</v>
       </c>
+      <c r="C18">
+        <v>42.2</v>
+      </c>
+      <c r="E18">
+        <v>13</v>
+      </c>
+      <c r="F18">
+        <v>31.8</v>
+      </c>
+      <c r="H18">
+        <v>13</v>
+      </c>
+      <c r="I18">
+        <v>23</v>
+      </c>
+      <c r="K18">
+        <v>13</v>
+      </c>
+      <c r="L18">
+        <v>26.6</v>
+      </c>
       <c r="N18">
         <v>13</v>
       </c>
@@ -1663,6 +2756,27 @@
       <c r="B19">
         <v>14</v>
       </c>
+      <c r="C19">
+        <v>31.2</v>
+      </c>
+      <c r="E19">
+        <v>14</v>
+      </c>
+      <c r="F19">
+        <v>30.6</v>
+      </c>
+      <c r="H19">
+        <v>14</v>
+      </c>
+      <c r="I19">
+        <v>32.4</v>
+      </c>
+      <c r="K19">
+        <v>14</v>
+      </c>
+      <c r="L19">
+        <v>28.6</v>
+      </c>
       <c r="N19">
         <v>14</v>
       </c>
@@ -1674,6 +2788,27 @@
       <c r="B20">
         <v>15</v>
       </c>
+      <c r="C20">
+        <v>30.8</v>
+      </c>
+      <c r="E20">
+        <v>15</v>
+      </c>
+      <c r="F20">
+        <v>30.2</v>
+      </c>
+      <c r="H20">
+        <v>15</v>
+      </c>
+      <c r="I20">
+        <v>30.6</v>
+      </c>
+      <c r="K20">
+        <v>15</v>
+      </c>
+      <c r="L20">
+        <v>27.8</v>
+      </c>
       <c r="N20">
         <v>15</v>
       </c>
@@ -1685,6 +2820,27 @@
       <c r="B21">
         <v>16</v>
       </c>
+      <c r="C21">
+        <v>24.6</v>
+      </c>
+      <c r="E21">
+        <v>16</v>
+      </c>
+      <c r="F21">
+        <v>42.4</v>
+      </c>
+      <c r="H21">
+        <v>16</v>
+      </c>
+      <c r="I21">
+        <v>23.2</v>
+      </c>
+      <c r="K21">
+        <v>16</v>
+      </c>
+      <c r="L21">
+        <v>15</v>
+      </c>
       <c r="N21">
         <v>16</v>
       </c>
@@ -1696,6 +2852,27 @@
       <c r="B22">
         <v>17</v>
       </c>
+      <c r="C22">
+        <v>21.6</v>
+      </c>
+      <c r="E22">
+        <v>17</v>
+      </c>
+      <c r="F22">
+        <v>29.2</v>
+      </c>
+      <c r="H22">
+        <v>17</v>
+      </c>
+      <c r="I22">
+        <v>40.4</v>
+      </c>
+      <c r="K22">
+        <v>17</v>
+      </c>
+      <c r="L22">
+        <v>20.399999999999999</v>
+      </c>
       <c r="N22">
         <v>17</v>
       </c>
@@ -1707,6 +2884,27 @@
       <c r="B23">
         <v>18</v>
       </c>
+      <c r="C23">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="E23">
+        <v>18</v>
+      </c>
+      <c r="F23">
+        <v>21.2</v>
+      </c>
+      <c r="H23">
+        <v>18</v>
+      </c>
+      <c r="I23">
+        <v>21</v>
+      </c>
+      <c r="K23">
+        <v>18</v>
+      </c>
+      <c r="L23">
+        <v>30.8</v>
+      </c>
       <c r="N23">
         <v>18</v>
       </c>
@@ -1718,6 +2916,27 @@
       <c r="B24">
         <v>19</v>
       </c>
+      <c r="C24">
+        <v>52.8</v>
+      </c>
+      <c r="E24">
+        <v>19</v>
+      </c>
+      <c r="F24">
+        <v>25</v>
+      </c>
+      <c r="H24">
+        <v>19</v>
+      </c>
+      <c r="I24">
+        <v>28.2</v>
+      </c>
+      <c r="K24">
+        <v>19</v>
+      </c>
+      <c r="L24">
+        <v>17.2</v>
+      </c>
       <c r="N24">
         <v>19</v>
       </c>
@@ -1729,6 +2948,27 @@
       <c r="B25">
         <v>20</v>
       </c>
+      <c r="C25">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25">
+        <v>29.6</v>
+      </c>
+      <c r="H25">
+        <v>20</v>
+      </c>
+      <c r="I25">
+        <v>21.2</v>
+      </c>
+      <c r="K25">
+        <v>20</v>
+      </c>
+      <c r="L25">
+        <v>32.200000000000003</v>
+      </c>
       <c r="N25">
         <v>20</v>
       </c>
@@ -1737,21 +2977,21 @@
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C27" t="e">
+      <c r="C27">
         <f>AVERAGE(C6:C25)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F27" t="e">
+        <v>28.599999999999994</v>
+      </c>
+      <c r="F27">
         <f>AVERAGE(F6:F25)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I27" t="e">
+        <v>27.889999999999997</v>
+      </c>
+      <c r="I27">
         <f>AVERAGE(I6:I25)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L27" t="e">
+        <v>27.369999999999997</v>
+      </c>
+      <c r="L27">
         <f>AVERAGE(L6:L25)</f>
-        <v>#DIV/0!</v>
+        <v>28.130000000000006</v>
       </c>
       <c r="O27">
         <f>AVERAGE(O6:O25)</f>
@@ -1759,25 +2999,577 @@
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C28" t="e">
+      <c r="C28">
         <f>STDEV(C6:C25)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F28" t="e">
+        <v>8.7688443696388809</v>
+      </c>
+      <c r="F28">
         <f>STDEV(F6:F25)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I28" t="e">
+        <v>7.8350024350918321</v>
+      </c>
+      <c r="I28">
         <f>STDEV(I6:I25)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L28" t="e">
+        <v>9.1801330113056281</v>
+      </c>
+      <c r="L28">
         <f>STDEV(L6:L25)</f>
-        <v>#DIV/0!</v>
+        <v>9.3521233164621691</v>
       </c>
       <c r="O28">
         <f>STDEV(O6:O25)</f>
         <v>3.5844106907551971</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
+        <v>2</v>
+      </c>
+      <c r="L30" t="s">
+        <v>7</v>
+      </c>
+      <c r="O30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B46">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B48">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B49">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B50">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B51">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C53" t="e">
+        <f>AVERAGE(C32:C51)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F53" t="e">
+        <f>AVERAGE(F32:F51)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I53" t="e">
+        <f>AVERAGE(I32:I51)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L53" t="e">
+        <f>AVERAGE(L32:L51)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O53" t="e">
+        <f>AVERAGE(O32:O51)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C54" t="e">
+        <f>STDEV(C32:C51)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F54" t="e">
+        <f>STDEV(F32:F51)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I54" t="e">
+        <f>STDEV(I32:I51)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L54" t="e">
+        <f>STDEV(L32:L51)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O54" t="e">
+        <f>STDEV(O32:O51)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" t="s">
+        <v>0</v>
+      </c>
+      <c r="F56" t="s">
+        <v>1</v>
+      </c>
+      <c r="I56" t="s">
+        <v>2</v>
+      </c>
+      <c r="L56" t="s">
+        <v>7</v>
+      </c>
+      <c r="O56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B63">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B64">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B66">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B67">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B68">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B69">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B70">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B71">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B72">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B73">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B74">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B75">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B76">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B77">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C79" t="e">
+        <f>AVERAGE(C58:C77)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F79" t="e">
+        <f>AVERAGE(F58:F77)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I79" t="e">
+        <f>AVERAGE(I58:I77)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L79" t="e">
+        <f>AVERAGE(L58:L77)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O79" t="e">
+        <f>AVERAGE(O58:O77)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C80" t="e">
+        <f>STDEV(C58:C77)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F80" t="e">
+        <f>STDEV(F58:F77)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I80" t="e">
+        <f>STDEV(I58:I77)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L80" t="e">
+        <f>STDEV(L58:L77)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O80" t="e">
+        <f>STDEV(O58:O77)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="82" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" t="s">
+        <v>0</v>
+      </c>
+      <c r="F82" t="s">
+        <v>1</v>
+      </c>
+      <c r="I82" t="s">
+        <v>2</v>
+      </c>
+      <c r="L82" t="s">
+        <v>7</v>
+      </c>
+      <c r="O82" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>158.4</v>
+      </c>
+    </row>
+    <row r="85" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="C85">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="86" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B86">
+        <v>3</v>
+      </c>
+      <c r="C86">
+        <v>135.6</v>
+      </c>
+    </row>
+    <row r="87" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B87">
+        <v>4</v>
+      </c>
+      <c r="C87">
+        <v>89.8</v>
+      </c>
+    </row>
+    <row r="88" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B88">
+        <v>5</v>
+      </c>
+      <c r="C88">
+        <v>157.4</v>
+      </c>
+    </row>
+    <row r="89" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B89">
+        <v>6</v>
+      </c>
+      <c r="C89">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="90" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B90">
+        <v>7</v>
+      </c>
+      <c r="C90">
+        <v>152.4</v>
+      </c>
+    </row>
+    <row r="91" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B91">
+        <v>8</v>
+      </c>
+      <c r="C91">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="92" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B92">
+        <v>9</v>
+      </c>
+      <c r="C92">
+        <v>129.6</v>
+      </c>
+    </row>
+    <row r="93" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B93">
+        <v>10</v>
+      </c>
+      <c r="C93">
+        <v>137.6</v>
+      </c>
+    </row>
+    <row r="94" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B94">
+        <v>11</v>
+      </c>
+      <c r="C94">
+        <v>150.19999999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B95">
+        <v>12</v>
+      </c>
+      <c r="C95">
+        <v>150.6</v>
+      </c>
+    </row>
+    <row r="96" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B96">
+        <v>13</v>
+      </c>
+      <c r="C96">
+        <v>126.4</v>
+      </c>
+    </row>
+    <row r="97" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B97">
+        <v>14</v>
+      </c>
+      <c r="C97">
+        <v>102.8</v>
+      </c>
+    </row>
+    <row r="98" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B98">
+        <v>15</v>
+      </c>
+      <c r="C98">
+        <v>113.4</v>
+      </c>
+    </row>
+    <row r="99" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B99">
+        <v>16</v>
+      </c>
+      <c r="C99">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="100" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B100">
+        <v>17</v>
+      </c>
+      <c r="C100">
+        <v>138.6</v>
+      </c>
+    </row>
+    <row r="101" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B101">
+        <v>18</v>
+      </c>
+      <c r="C101">
+        <v>169.8</v>
+      </c>
+    </row>
+    <row r="102" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B102">
+        <v>19</v>
+      </c>
+      <c r="C102">
+        <v>155.6</v>
+      </c>
+    </row>
+    <row r="103" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B103">
+        <v>20</v>
+      </c>
+      <c r="C103">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="105" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C105">
+        <f>AVERAGE(C84:C103)</f>
+        <v>136.70999999999998</v>
+      </c>
+      <c r="F105" t="e">
+        <f>AVERAGE(F84:F103)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I105" t="e">
+        <f>AVERAGE(I84:I103)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L105" t="e">
+        <f>AVERAGE(L84:L103)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O105" t="e">
+        <f>AVERAGE(O84:O103)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="106" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C106">
+        <f>STDEV(C84:C103)</f>
+        <v>21.555360793718382</v>
+      </c>
+      <c r="F106" t="e">
+        <f>STDEV(F84:F103)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I106" t="e">
+        <f>STDEV(I84:I103)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L106" t="e">
+        <f>STDEV(L84:L103)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O106" t="e">
+        <f>STDEV(O84:O103)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>

--- a/USHPRR/UMo_radiation_damage.xlsx
+++ b/USHPRR/UMo_radiation_damage.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/USHPRR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6AC934-16A7-8842-9959-32EDF75E95D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0E45F4-76F2-7846-AB02-CF96A64F3249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="500" windowWidth="22940" windowHeight="15800" activeTab="3" xr2:uid="{6147F9BE-C613-5E42-8D18-16DEAC3FC724}"/>
+    <workbookView xWindow="7000" yWindow="2980" windowWidth="22940" windowHeight="15800" xr2:uid="{6147F9BE-C613-5E42-8D18-16DEAC3FC724}"/>
   </bookViews>
   <sheets>
     <sheet name="2kev" sheetId="9" r:id="rId1"/>
     <sheet name="4kev" sheetId="8" r:id="rId2"/>
     <sheet name="8kev" sheetId="6" r:id="rId3"/>
     <sheet name="16kev" sheetId="7" r:id="rId4"/>
+    <sheet name="summary" sheetId="10" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="19">
   <si>
     <t>press0</t>
   </si>
@@ -79,6 +80,21 @@
   </si>
   <si>
     <t>800 K</t>
+  </si>
+  <si>
+    <t>2 keV</t>
+  </si>
+  <si>
+    <t>4 keV</t>
+  </si>
+  <si>
+    <t>8 keV</t>
+  </si>
+  <si>
+    <t>press 0</t>
+  </si>
+  <si>
+    <t>E</t>
   </si>
 </sst>
 </file>
@@ -131,6 +147,3403 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>summary!$D$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>summary!$D$6:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>28.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.889999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.369999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.130000000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.079999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DFC6-4848-AE8B-668CBAEFC147}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>summary!$D$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>summary!$D$7:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>30.580000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.970000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.689999999999991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.279999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DFC6-4848-AE8B-668CBAEFC147}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>summary!$D$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>summary!$D$8:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>37.219999999999992</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34.679999999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.429999999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.019999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44.160000000000011</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DFC6-4848-AE8B-668CBAEFC147}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>summary!$D$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>summary!$D$9:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>154.21000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>144.10999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>130.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>168.91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>187.64000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-DFC6-4848-AE8B-668CBAEFC147}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="880225327"/>
+        <c:axId val="880227039"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="880225327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="880227039"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="880227039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="880225327"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summary!$L$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>summary!$K$6:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>summary!$L$6:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>28.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.279999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.9699999999999989</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.1300000000000008</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B132-E941-A30D-94F737EADAE2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summary!$M$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>800</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>summary!$K$6:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>summary!$M$6:$M$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>30.580000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B132-E941-A30D-94F737EADAE2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summary!$N$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>summary!$K$6:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>summary!$N$6:$N$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>37.219999999999992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-B132-E941-A30D-94F737EADAE2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summary!$O$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1200</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>summary!$K$6:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>summary!$O$6:$O$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>154.21000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-B132-E941-A30D-94F737EADAE2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="880225327"/>
+        <c:axId val="880227039"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="880225327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="880227039"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="880227039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="880225327"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summary!$K$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>summary!$L$5:$O$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>summary!$L$6:$O$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>28.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.580000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.219999999999992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>154.21000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-92EF-6345-81E8-AAC0930E37EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summary!$K$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>summary!$L$5:$O$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>summary!$L$7:$O$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16.279999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-92EF-6345-81E8-AAC0930E37EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summary!$K$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>summary!$L$5:$O$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>summary!$L$8:$O$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9.9699999999999989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-92EF-6345-81E8-AAC0930E37EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summary!$K$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>summary!$L$5:$O$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>summary!$L$9:$O$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7.1300000000000008</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-92EF-6345-81E8-AAC0930E37EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="880225327"/>
+        <c:axId val="880227039"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="880225327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="500"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="880227039"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="880227039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="880225327"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1101F60D-80D8-40AD-07AC-7D4ECB116A24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9891EC9D-826A-7E4F-9D43-0A2E0B21A969}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F208482-C8F7-E04E-9FE7-7ACEA31F1027}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -430,10 +3843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3943012F-0CD3-3046-9BFB-8F21DD88D4CA}">
-  <dimension ref="B2:V27"/>
+  <dimension ref="B2:V105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:V13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -486,117 +3899,1095 @@
         <v>600</v>
       </c>
       <c r="R4">
-        <v>16.279999999999998</v>
+        <v>7.1300000000000008</v>
       </c>
       <c r="S4">
-        <v>14.899999999999997</v>
+        <v>7.1599999999999993</v>
       </c>
       <c r="T4">
-        <v>16.559999999999995</v>
+        <v>7.4</v>
       </c>
       <c r="U4">
-        <v>17.88</v>
-      </c>
-      <c r="V4">
-        <v>16.179999999999996</v>
+        <v>7.37</v>
       </c>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>7</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>7</v>
+      </c>
       <c r="Q5">
         <v>800</v>
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>6</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>6.2</v>
+      </c>
       <c r="Q6">
         <v>1000</v>
       </c>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>9</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>7.8</v>
+      </c>
       <c r="Q7">
         <v>1200</v>
       </c>
     </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>9</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <v>4</v>
+      </c>
+      <c r="L8">
+        <v>7</v>
+      </c>
+    </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>8</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <v>6</v>
+      </c>
       <c r="Q9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>6</v>
+      </c>
+      <c r="H10">
+        <v>6</v>
+      </c>
+      <c r="I10">
+        <v>7</v>
+      </c>
+      <c r="K10">
+        <v>6</v>
+      </c>
+      <c r="L10">
+        <v>7.2</v>
+      </c>
       <c r="Q10">
         <v>600</v>
       </c>
-      <c r="R10">
-        <v>3.8751027151072677</v>
-      </c>
-      <c r="S10">
-        <v>4.288294962360979</v>
-      </c>
-      <c r="T10">
-        <v>4.5927173472334539</v>
-      </c>
-      <c r="U10">
-        <v>4.8542547804667437</v>
-      </c>
-      <c r="V10">
-        <v>3.2933106043679219</v>
-      </c>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E11">
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <v>7</v>
+      </c>
+      <c r="H11">
+        <v>7</v>
+      </c>
+      <c r="I11">
+        <v>8</v>
+      </c>
+      <c r="K11">
+        <v>7</v>
+      </c>
+      <c r="L11">
+        <v>9</v>
+      </c>
       <c r="Q11">
         <v>800</v>
       </c>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>8</v>
+      </c>
+      <c r="H12">
+        <v>8</v>
+      </c>
+      <c r="I12">
+        <v>8</v>
+      </c>
+      <c r="K12">
+        <v>8</v>
+      </c>
+      <c r="L12">
+        <v>16.2</v>
+      </c>
       <c r="Q12">
         <v>1000</v>
       </c>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>9</v>
+      </c>
+      <c r="F13">
+        <v>12</v>
+      </c>
+      <c r="H13">
+        <v>9</v>
+      </c>
+      <c r="I13">
+        <v>9</v>
+      </c>
+      <c r="K13">
+        <v>9</v>
+      </c>
+      <c r="L13">
+        <v>9</v>
+      </c>
       <c r="Q13">
         <v>1200</v>
       </c>
     </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C26" t="e">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>10</v>
+      </c>
+      <c r="I14">
+        <v>13</v>
+      </c>
+      <c r="K14">
+        <v>10</v>
+      </c>
+      <c r="L14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>11</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>11</v>
+      </c>
+      <c r="I15">
+        <v>7</v>
+      </c>
+      <c r="K15">
+        <v>11</v>
+      </c>
+      <c r="L15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>12</v>
+      </c>
+      <c r="F16">
+        <v>11</v>
+      </c>
+      <c r="H16">
+        <v>12</v>
+      </c>
+      <c r="I16">
+        <v>7</v>
+      </c>
+      <c r="K16">
+        <v>12</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>13</v>
+      </c>
+      <c r="C17">
+        <v>9</v>
+      </c>
+      <c r="E17">
+        <v>13</v>
+      </c>
+      <c r="F17">
+        <v>9</v>
+      </c>
+      <c r="H17">
+        <v>13</v>
+      </c>
+      <c r="I17">
+        <v>10</v>
+      </c>
+      <c r="K17">
+        <v>13</v>
+      </c>
+      <c r="L17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>14</v>
+      </c>
+      <c r="F18">
+        <v>8</v>
+      </c>
+      <c r="H18">
+        <v>14</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+      <c r="K18">
+        <v>14</v>
+      </c>
+      <c r="L18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="E19">
+        <v>15</v>
+      </c>
+      <c r="F19">
+        <v>8</v>
+      </c>
+      <c r="H19">
+        <v>15</v>
+      </c>
+      <c r="I19">
+        <v>9</v>
+      </c>
+      <c r="K19">
+        <v>15</v>
+      </c>
+      <c r="L19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>16</v>
+      </c>
+      <c r="C20">
+        <v>8</v>
+      </c>
+      <c r="E20">
+        <v>16</v>
+      </c>
+      <c r="F20">
+        <v>6</v>
+      </c>
+      <c r="H20">
+        <v>16</v>
+      </c>
+      <c r="I20">
+        <v>5</v>
+      </c>
+      <c r="K20">
+        <v>16</v>
+      </c>
+      <c r="L20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>17</v>
+      </c>
+      <c r="C21">
+        <v>6.2</v>
+      </c>
+      <c r="E21">
+        <v>17</v>
+      </c>
+      <c r="F21">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="H21">
+        <v>17</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+      <c r="K21">
+        <v>17</v>
+      </c>
+      <c r="L21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>18</v>
+      </c>
+      <c r="C22">
+        <v>4.2</v>
+      </c>
+      <c r="E22">
+        <v>18</v>
+      </c>
+      <c r="F22">
+        <v>10</v>
+      </c>
+      <c r="H22">
+        <v>18</v>
+      </c>
+      <c r="I22">
+        <v>9</v>
+      </c>
+      <c r="K22">
+        <v>18</v>
+      </c>
+      <c r="L22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>19</v>
+      </c>
+      <c r="C23">
+        <v>8</v>
+      </c>
+      <c r="E23">
+        <v>19</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="H23">
+        <v>19</v>
+      </c>
+      <c r="I23">
+        <v>6</v>
+      </c>
+      <c r="K23">
+        <v>19</v>
+      </c>
+      <c r="L23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>20</v>
+      </c>
+      <c r="C24">
+        <v>7</v>
+      </c>
+      <c r="E24">
+        <v>20</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+      <c r="H24">
+        <v>20</v>
+      </c>
+      <c r="I24">
+        <v>8</v>
+      </c>
+      <c r="K24">
+        <v>20</v>
+      </c>
+      <c r="L24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C26">
         <f>AVERAGE(C5:C24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F26" t="e">
+        <v>7.1300000000000008</v>
+      </c>
+      <c r="F26">
         <f>AVERAGE(F5:F24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I26" t="e">
+        <v>7.1599999999999993</v>
+      </c>
+      <c r="I26">
         <f>AVERAGE(I5:I24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L26" t="e">
+        <v>7.4</v>
+      </c>
+      <c r="L26">
         <f>AVERAGE(L5:L24)</f>
-        <v>#DIV/0!</v>
+        <v>7.37</v>
       </c>
       <c r="O26" t="e">
         <f>AVERAGE(O5:O24)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C27" t="e">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C27">
         <f>STDEV(C5:C24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F27" t="e">
+        <v>1.8493526605701469</v>
+      </c>
+      <c r="F27">
         <f>STDEV(F5:F24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I27" t="e">
+        <v>2.3943793833849627</v>
+      </c>
+      <c r="I27">
         <f>STDEV(I5:I24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L27" t="e">
+        <v>2.2571523745873385</v>
+      </c>
+      <c r="L27">
         <f>STDEV(L5:L24)</f>
-        <v>#DIV/0!</v>
+        <v>2.9129655715529181</v>
       </c>
       <c r="O27" t="e">
         <f>STDEV(O5:O24)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>800</v>
+      </c>
+      <c r="C29" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>2</v>
+      </c>
+      <c r="L29" t="s">
+        <v>3</v>
+      </c>
+      <c r="O29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B46">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B48">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B49">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B50">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C52" t="e">
+        <f>AVERAGE(C31:C50)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F52" t="e">
+        <f>AVERAGE(F31:F50)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I52" t="e">
+        <f>AVERAGE(I31:I50)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L52" t="e">
+        <f>AVERAGE(L31:L50)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O52" t="e">
+        <f>AVERAGE(O31:O50)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C53" t="e">
+        <f>STDEV(C31:C50)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F53" t="e">
+        <f>STDEV(F31:F50)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I53" t="e">
+        <f>STDEV(I31:I50)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L53" t="e">
+        <f>STDEV(L31:L50)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O53" t="e">
+        <f>STDEV(O31:O50)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B55">
+        <v>1000</v>
+      </c>
+      <c r="C55" t="s">
+        <v>0</v>
+      </c>
+      <c r="F55" t="s">
+        <v>1</v>
+      </c>
+      <c r="I55" t="s">
+        <v>2</v>
+      </c>
+      <c r="L55" t="s">
+        <v>3</v>
+      </c>
+      <c r="O55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B63">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B64">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B66">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B67">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B68">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B69">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B70">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B71">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B72">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B73">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B74">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B75">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B76">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C78" t="e">
+        <f>AVERAGE(C57:C76)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F78" t="e">
+        <f>AVERAGE(F57:F76)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I78" t="e">
+        <f>AVERAGE(I57:I76)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L78" t="e">
+        <f>AVERAGE(L57:L76)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O78" t="e">
+        <f>AVERAGE(O57:O76)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C79" t="e">
+        <f>STDEV(C57:C76)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F79" t="e">
+        <f>STDEV(F57:F76)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I79" t="e">
+        <f>STDEV(I57:I76)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L79" t="e">
+        <f>STDEV(L57:L76)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O79" t="e">
+        <f>STDEV(O57:O76)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="81" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B81">
+        <v>1200</v>
+      </c>
+      <c r="C81" t="s">
+        <v>0</v>
+      </c>
+      <c r="F81" t="s">
+        <v>1</v>
+      </c>
+      <c r="I81" t="s">
+        <v>2</v>
+      </c>
+      <c r="L81" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B87">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B88">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B89">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B90">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B91">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B92">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B93">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B94">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B95">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B96">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B97">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B98">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B99">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B100">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B101">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="102" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B102">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C104" t="e">
+        <f>AVERAGE(C83:C102)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F104" t="e">
+        <f>AVERAGE(F83:F102)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I104" t="e">
+        <f>AVERAGE(I83:I102)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L104" t="e">
+        <f>AVERAGE(L83:L102)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O104" t="e">
+        <f>AVERAGE(O83:O102)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="105" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C105" t="e">
+        <f>STDEV(C83:C102)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F105" t="e">
+        <f>STDEV(F83:F102)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I105" t="e">
+        <f>STDEV(I83:I102)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L105" t="e">
+        <f>STDEV(L83:L102)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O105" t="e">
+        <f>STDEV(O83:O102)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -607,10 +4998,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F880DA78-A65C-4D4A-BB5D-FA680FB5D55D}">
-  <dimension ref="B2:V27"/>
+  <dimension ref="B2:V105"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1401,6 +5792,498 @@
         <v>3.1791922178274721</v>
       </c>
     </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>800</v>
+      </c>
+      <c r="C29" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>2</v>
+      </c>
+      <c r="L29" t="s">
+        <v>3</v>
+      </c>
+      <c r="O29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B46">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B48">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B49">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B50">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C52" t="e">
+        <f>AVERAGE(C31:C50)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F52" t="e">
+        <f>AVERAGE(F31:F50)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I52" t="e">
+        <f>AVERAGE(I31:I50)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L52" t="e">
+        <f>AVERAGE(L31:L50)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O52" t="e">
+        <f>AVERAGE(O31:O50)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C53" t="e">
+        <f>STDEV(C31:C50)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F53" t="e">
+        <f>STDEV(F31:F50)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I53" t="e">
+        <f>STDEV(I31:I50)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L53" t="e">
+        <f>STDEV(L31:L50)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O53" t="e">
+        <f>STDEV(O31:O50)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B55">
+        <v>1000</v>
+      </c>
+      <c r="C55" t="s">
+        <v>0</v>
+      </c>
+      <c r="F55" t="s">
+        <v>1</v>
+      </c>
+      <c r="I55" t="s">
+        <v>2</v>
+      </c>
+      <c r="L55" t="s">
+        <v>3</v>
+      </c>
+      <c r="O55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B63">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B64">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B66">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B67">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B68">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B69">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B70">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B71">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B72">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B73">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B74">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B75">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B76">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C78" t="e">
+        <f>AVERAGE(C57:C76)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F78" t="e">
+        <f>AVERAGE(F57:F76)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I78" t="e">
+        <f>AVERAGE(I57:I76)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L78" t="e">
+        <f>AVERAGE(L57:L76)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O78" t="e">
+        <f>AVERAGE(O57:O76)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C79" t="e">
+        <f>STDEV(C57:C76)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F79" t="e">
+        <f>STDEV(F57:F76)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I79" t="e">
+        <f>STDEV(I57:I76)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L79" t="e">
+        <f>STDEV(L57:L76)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O79" t="e">
+        <f>STDEV(O57:O76)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="81" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B81">
+        <v>1200</v>
+      </c>
+      <c r="C81" t="s">
+        <v>0</v>
+      </c>
+      <c r="F81" t="s">
+        <v>1</v>
+      </c>
+      <c r="I81" t="s">
+        <v>2</v>
+      </c>
+      <c r="L81" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B87">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B88">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B89">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B90">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B91">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B92">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B93">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B94">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B95">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B96">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B97">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B98">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B99">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B100">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B101">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="102" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B102">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C104" t="e">
+        <f>AVERAGE(C83:C102)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F104" t="e">
+        <f>AVERAGE(F83:F102)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I104" t="e">
+        <f>AVERAGE(I83:I102)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L104" t="e">
+        <f>AVERAGE(L83:L102)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O104" t="e">
+        <f>AVERAGE(O83:O102)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="105" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C105" t="e">
+        <f>STDEV(C83:C102)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F105" t="e">
+        <f>STDEV(F83:F102)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I105" t="e">
+        <f>STDEV(I83:I102)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L105" t="e">
+        <f>STDEV(L83:L102)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O105" t="e">
+        <f>STDEV(O83:O102)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1408,10 +6291,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DF37246-5734-1E4A-86A1-08A58450CF3F}">
-  <dimension ref="B2:V27"/>
+  <dimension ref="B2:V105"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:V13"/>
+    <sheetView topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2200,6 +7083,498 @@
       <c r="O27">
         <f>STDEV(O5:O24)</f>
         <v>3.2933106043679219</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>800</v>
+      </c>
+      <c r="C29" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>2</v>
+      </c>
+      <c r="L29" t="s">
+        <v>3</v>
+      </c>
+      <c r="O29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B46">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B48">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B49">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B50">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C52" t="e">
+        <f>AVERAGE(C31:C50)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F52" t="e">
+        <f>AVERAGE(F31:F50)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I52" t="e">
+        <f>AVERAGE(I31:I50)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L52" t="e">
+        <f>AVERAGE(L31:L50)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O52" t="e">
+        <f>AVERAGE(O31:O50)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C53" t="e">
+        <f>STDEV(C31:C50)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F53" t="e">
+        <f>STDEV(F31:F50)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I53" t="e">
+        <f>STDEV(I31:I50)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L53" t="e">
+        <f>STDEV(L31:L50)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O53" t="e">
+        <f>STDEV(O31:O50)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B55">
+        <v>1000</v>
+      </c>
+      <c r="C55" t="s">
+        <v>0</v>
+      </c>
+      <c r="F55" t="s">
+        <v>1</v>
+      </c>
+      <c r="I55" t="s">
+        <v>2</v>
+      </c>
+      <c r="L55" t="s">
+        <v>3</v>
+      </c>
+      <c r="O55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B63">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B64">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B66">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B67">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B68">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B69">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B70">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B71">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B72">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B73">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B74">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B75">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B76">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C78" t="e">
+        <f>AVERAGE(C57:C76)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F78" t="e">
+        <f>AVERAGE(F57:F76)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I78" t="e">
+        <f>AVERAGE(I57:I76)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L78" t="e">
+        <f>AVERAGE(L57:L76)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O78" t="e">
+        <f>AVERAGE(O57:O76)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C79" t="e">
+        <f>STDEV(C57:C76)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F79" t="e">
+        <f>STDEV(F57:F76)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I79" t="e">
+        <f>STDEV(I57:I76)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L79" t="e">
+        <f>STDEV(L57:L76)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O79" t="e">
+        <f>STDEV(O57:O76)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="81" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B81">
+        <v>1200</v>
+      </c>
+      <c r="C81" t="s">
+        <v>0</v>
+      </c>
+      <c r="F81" t="s">
+        <v>1</v>
+      </c>
+      <c r="I81" t="s">
+        <v>2</v>
+      </c>
+      <c r="L81" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B87">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B88">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B89">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B90">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B91">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B92">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B93">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B94">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B95">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B96">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B97">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B98">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B99">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B100">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B101">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="102" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B102">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C104" t="e">
+        <f>AVERAGE(C83:C102)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F104" t="e">
+        <f>AVERAGE(F83:F102)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I104" t="e">
+        <f>AVERAGE(I83:I102)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L104" t="e">
+        <f>AVERAGE(L83:L102)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O104" t="e">
+        <f>AVERAGE(O83:O102)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="105" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C105" t="e">
+        <f>STDEV(C83:C102)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F105" t="e">
+        <f>STDEV(F83:F102)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I105" t="e">
+        <f>STDEV(I83:I102)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L105" t="e">
+        <f>STDEV(L83:L102)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O105" t="e">
+        <f>STDEV(O83:O102)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -2211,8 +7586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B8986C-AC24-5149-BC25-A1C4E7121DD9}">
   <dimension ref="B2:V106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84:C103"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4:V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2299,6 +7674,21 @@
       <c r="Q5">
         <v>800</v>
       </c>
+      <c r="R5">
+        <v>30.580000000000002</v>
+      </c>
+      <c r="S5">
+        <v>25.970000000000006</v>
+      </c>
+      <c r="T5">
+        <v>25.22</v>
+      </c>
+      <c r="U5">
+        <v>27.689999999999991</v>
+      </c>
+      <c r="V5">
+        <v>26.279999999999994</v>
+      </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B6">
@@ -2334,6 +7724,21 @@
       <c r="Q6">
         <v>1000</v>
       </c>
+      <c r="R6">
+        <v>37.219999999999992</v>
+      </c>
+      <c r="S6">
+        <v>34.679999999999993</v>
+      </c>
+      <c r="T6">
+        <v>36.429999999999993</v>
+      </c>
+      <c r="U6">
+        <v>40.019999999999996</v>
+      </c>
+      <c r="V6">
+        <v>44.160000000000011</v>
+      </c>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B7">
@@ -2369,6 +7774,21 @@
       <c r="Q7">
         <v>1200</v>
       </c>
+      <c r="R7">
+        <v>154.21000000000004</v>
+      </c>
+      <c r="S7">
+        <v>144.10999999999999</v>
+      </c>
+      <c r="T7">
+        <v>130.6</v>
+      </c>
+      <c r="U7">
+        <v>168.91</v>
+      </c>
+      <c r="V7">
+        <v>187.64000000000001</v>
+      </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B8">
@@ -2521,6 +7941,21 @@
       <c r="Q11">
         <v>800</v>
       </c>
+      <c r="R11">
+        <v>10.431510966903661</v>
+      </c>
+      <c r="S11">
+        <v>7.4926701023839044</v>
+      </c>
+      <c r="T11">
+        <v>7.296978466244938</v>
+      </c>
+      <c r="U11">
+        <v>7.7303162596160737</v>
+      </c>
+      <c r="V11">
+        <v>6.600606032782161</v>
+      </c>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B12">
@@ -2556,6 +7991,21 @@
       <c r="Q12">
         <v>1000</v>
       </c>
+      <c r="R12">
+        <v>6.5825606919464343</v>
+      </c>
+      <c r="S12">
+        <v>5.2235902152487359</v>
+      </c>
+      <c r="T12">
+        <v>6.1679221102324684</v>
+      </c>
+      <c r="U12">
+        <v>4.9036613603350148</v>
+      </c>
+      <c r="V12">
+        <v>11.635264003066343</v>
+      </c>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B13">
@@ -2590,6 +8040,21 @@
       </c>
       <c r="Q13">
         <v>1200</v>
+      </c>
+      <c r="R13">
+        <v>18.25312950817192</v>
+      </c>
+      <c r="S13">
+        <v>17.049830991599475</v>
+      </c>
+      <c r="T13">
+        <v>19.680928518960283</v>
+      </c>
+      <c r="U13">
+        <v>19.780210738061228</v>
+      </c>
+      <c r="V13">
+        <v>24.984003303166276</v>
       </c>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.2">
@@ -3044,144 +8509,684 @@
       <c r="B32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C32">
+        <v>55.6</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>37.4</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>20.6</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>19.8</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C33">
+        <v>32.4</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>28.4</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>20.2</v>
+      </c>
+      <c r="N33">
+        <v>2</v>
+      </c>
+      <c r="O33">
+        <v>32.4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C34">
+        <v>24.8</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="H34">
+        <v>3</v>
+      </c>
+      <c r="I34">
+        <v>20.2</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>29.4</v>
+      </c>
+      <c r="N34">
+        <v>3</v>
+      </c>
+      <c r="O34">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C35">
+        <v>23.2</v>
+      </c>
+      <c r="E35">
+        <v>4</v>
+      </c>
+      <c r="F35">
+        <v>22.6</v>
+      </c>
+      <c r="H35">
+        <v>4</v>
+      </c>
+      <c r="I35">
+        <v>38.4</v>
+      </c>
+      <c r="K35">
+        <v>4</v>
+      </c>
+      <c r="L35">
+        <v>37</v>
+      </c>
+      <c r="N35">
+        <v>4</v>
+      </c>
+      <c r="O35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C36">
+        <v>25.4</v>
+      </c>
+      <c r="E36">
+        <v>5</v>
+      </c>
+      <c r="F36">
+        <v>19.8</v>
+      </c>
+      <c r="H36">
+        <v>5</v>
+      </c>
+      <c r="I36">
+        <v>37</v>
+      </c>
+      <c r="K36">
+        <v>5</v>
+      </c>
+      <c r="L36">
+        <v>20.6</v>
+      </c>
+      <c r="N36">
+        <v>5</v>
+      </c>
+      <c r="O36">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C37">
+        <v>31.4</v>
+      </c>
+      <c r="E37">
+        <v>6</v>
+      </c>
+      <c r="F37">
+        <v>32</v>
+      </c>
+      <c r="H37">
+        <v>6</v>
+      </c>
+      <c r="I37">
+        <v>29.2</v>
+      </c>
+      <c r="K37">
+        <v>6</v>
+      </c>
+      <c r="L37">
+        <v>31.8</v>
+      </c>
+      <c r="N37">
+        <v>6</v>
+      </c>
+      <c r="O37">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C38">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="E38">
+        <v>7</v>
+      </c>
+      <c r="F38">
+        <v>28.8</v>
+      </c>
+      <c r="H38">
+        <v>7</v>
+      </c>
+      <c r="I38">
+        <v>37.6</v>
+      </c>
+      <c r="K38">
+        <v>7</v>
+      </c>
+      <c r="L38">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="N38">
+        <v>7</v>
+      </c>
+      <c r="O38">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B39">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C39">
+        <v>19.2</v>
+      </c>
+      <c r="E39">
+        <v>8</v>
+      </c>
+      <c r="F39">
+        <v>22.4</v>
+      </c>
+      <c r="H39">
+        <v>8</v>
+      </c>
+      <c r="I39">
+        <v>28.2</v>
+      </c>
+      <c r="K39">
+        <v>8</v>
+      </c>
+      <c r="L39">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="N39">
+        <v>8</v>
+      </c>
+      <c r="O39">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>9</v>
       </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C40">
+        <v>38.6</v>
+      </c>
+      <c r="E40">
+        <v>9</v>
+      </c>
+      <c r="F40">
+        <v>18</v>
+      </c>
+      <c r="H40">
+        <v>9</v>
+      </c>
+      <c r="I40">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="K40">
+        <v>9</v>
+      </c>
+      <c r="L40">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="N40">
+        <v>9</v>
+      </c>
+      <c r="O40">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B41">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C41">
+        <v>15.6</v>
+      </c>
+      <c r="E41">
+        <v>10</v>
+      </c>
+      <c r="F41">
+        <v>16.8</v>
+      </c>
+      <c r="H41">
+        <v>10</v>
+      </c>
+      <c r="I41">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="K41">
+        <v>10</v>
+      </c>
+      <c r="L41">
+        <v>25.2</v>
+      </c>
+      <c r="N41">
+        <v>10</v>
+      </c>
+      <c r="O41">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B42">
         <v>11</v>
       </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C42">
+        <v>35.6</v>
+      </c>
+      <c r="E42">
+        <v>11</v>
+      </c>
+      <c r="F42">
+        <v>25.6</v>
+      </c>
+      <c r="H42">
+        <v>11</v>
+      </c>
+      <c r="I42">
+        <v>32.6</v>
+      </c>
+      <c r="K42">
+        <v>11</v>
+      </c>
+      <c r="L42">
+        <v>26.6</v>
+      </c>
+      <c r="N42">
+        <v>11</v>
+      </c>
+      <c r="O42">
+        <v>31.4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>12</v>
       </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C43">
+        <v>22.8</v>
+      </c>
+      <c r="E43">
+        <v>12</v>
+      </c>
+      <c r="F43">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="H43">
+        <v>12</v>
+      </c>
+      <c r="I43">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="K43">
+        <v>12</v>
+      </c>
+      <c r="L43">
+        <v>27</v>
+      </c>
+      <c r="N43">
+        <v>12</v>
+      </c>
+      <c r="O43">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>13</v>
       </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C44">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="E44">
+        <v>13</v>
+      </c>
+      <c r="F44">
+        <v>21</v>
+      </c>
+      <c r="H44">
+        <v>13</v>
+      </c>
+      <c r="I44">
+        <v>21.6</v>
+      </c>
+      <c r="K44">
+        <v>13</v>
+      </c>
+      <c r="L44">
+        <v>31.4</v>
+      </c>
+      <c r="N44">
+        <v>13</v>
+      </c>
+      <c r="O44">
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B45">
         <v>14</v>
       </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C45">
+        <v>21.2</v>
+      </c>
+      <c r="E45">
+        <v>14</v>
+      </c>
+      <c r="F45">
+        <v>38.4</v>
+      </c>
+      <c r="H45">
+        <v>14</v>
+      </c>
+      <c r="I45">
+        <v>26.8</v>
+      </c>
+      <c r="K45">
+        <v>14</v>
+      </c>
+      <c r="L45">
+        <v>20</v>
+      </c>
+      <c r="N45">
+        <v>14</v>
+      </c>
+      <c r="O45">
+        <v>33.200000000000003</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B46">
         <v>15</v>
       </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C46">
+        <v>23.8</v>
+      </c>
+      <c r="E46">
+        <v>15</v>
+      </c>
+      <c r="F46">
+        <v>21.2</v>
+      </c>
+      <c r="H46">
+        <v>15</v>
+      </c>
+      <c r="I46">
+        <v>15.2</v>
+      </c>
+      <c r="K46">
+        <v>15</v>
+      </c>
+      <c r="L46">
+        <v>30.4</v>
+      </c>
+      <c r="N46">
+        <v>15</v>
+      </c>
+      <c r="O46">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B47">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C47">
+        <v>54.8</v>
+      </c>
+      <c r="E47">
+        <v>16</v>
+      </c>
+      <c r="F47">
+        <v>21.6</v>
+      </c>
+      <c r="H47">
+        <v>16</v>
+      </c>
+      <c r="I47">
+        <v>20.2</v>
+      </c>
+      <c r="K47">
+        <v>16</v>
+      </c>
+      <c r="L47">
+        <v>16.2</v>
+      </c>
+      <c r="N47">
+        <v>16</v>
+      </c>
+      <c r="O47">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B48">
         <v>17</v>
+      </c>
+      <c r="C48">
+        <v>31</v>
+      </c>
+      <c r="E48">
+        <v>17</v>
+      </c>
+      <c r="F48">
+        <v>16.8</v>
+      </c>
+      <c r="H48">
+        <v>17</v>
+      </c>
+      <c r="I48">
+        <v>24.4</v>
+      </c>
+      <c r="K48">
+        <v>17</v>
+      </c>
+      <c r="L48">
+        <v>44.4</v>
+      </c>
+      <c r="N48">
+        <v>17</v>
+      </c>
+      <c r="O48">
+        <v>20.8</v>
       </c>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B49">
         <v>18</v>
       </c>
+      <c r="C49">
+        <v>22.6</v>
+      </c>
+      <c r="E49">
+        <v>18</v>
+      </c>
+      <c r="F49">
+        <v>23.6</v>
+      </c>
+      <c r="H49">
+        <v>18</v>
+      </c>
+      <c r="I49">
+        <v>25.4</v>
+      </c>
+      <c r="K49">
+        <v>18</v>
+      </c>
+      <c r="L49">
+        <v>26.2</v>
+      </c>
+      <c r="N49">
+        <v>18</v>
+      </c>
+      <c r="O49">
+        <v>33.6</v>
+      </c>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B50">
         <v>19</v>
       </c>
+      <c r="C50">
+        <v>34.4</v>
+      </c>
+      <c r="E50">
+        <v>19</v>
+      </c>
+      <c r="F50">
+        <v>28.6</v>
+      </c>
+      <c r="H50">
+        <v>19</v>
+      </c>
+      <c r="I50">
+        <v>22</v>
+      </c>
+      <c r="K50">
+        <v>19</v>
+      </c>
+      <c r="L50">
+        <v>18.8</v>
+      </c>
+      <c r="N50">
+        <v>19</v>
+      </c>
+      <c r="O50">
+        <v>19.8</v>
+      </c>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B51">
         <v>20</v>
       </c>
+      <c r="C51">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="E51">
+        <v>20</v>
+      </c>
+      <c r="F51">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="H51">
+        <v>20</v>
+      </c>
+      <c r="I51">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="K51">
+        <v>20</v>
+      </c>
+      <c r="L51">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="N51">
+        <v>20</v>
+      </c>
+      <c r="O51">
+        <v>25.6</v>
+      </c>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C53" t="e">
+      <c r="C53">
         <f>AVERAGE(C32:C51)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F53" t="e">
+        <v>30.580000000000002</v>
+      </c>
+      <c r="F53">
         <f>AVERAGE(F32:F51)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I53" t="e">
+        <v>25.970000000000006</v>
+      </c>
+      <c r="I53">
         <f>AVERAGE(I32:I51)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L53" t="e">
+        <v>25.22</v>
+      </c>
+      <c r="L53">
         <f>AVERAGE(L32:L51)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O53" t="e">
+        <v>27.689999999999991</v>
+      </c>
+      <c r="O53">
         <f>AVERAGE(O32:O51)</f>
-        <v>#DIV/0!</v>
+        <v>26.279999999999994</v>
       </c>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C54" t="e">
+      <c r="C54">
         <f>STDEV(C32:C51)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F54" t="e">
+        <v>10.431510966903661</v>
+      </c>
+      <c r="F54">
         <f>STDEV(F32:F51)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I54" t="e">
+        <v>7.4926701023839044</v>
+      </c>
+      <c r="I54">
         <f>STDEV(I32:I51)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L54" t="e">
+        <v>7.296978466244938</v>
+      </c>
+      <c r="L54">
         <f>STDEV(L32:L51)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O54" t="e">
+        <v>7.7303162596160737</v>
+      </c>
+      <c r="O54">
         <f>STDEV(O32:O51)</f>
-        <v>#DIV/0!</v>
+        <v>6.600606032782161</v>
       </c>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.2">
@@ -3208,144 +9213,684 @@
       <c r="B58">
         <v>1</v>
       </c>
+      <c r="C58">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>41.2</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>52</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>60.8</v>
+      </c>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B59">
         <v>2</v>
       </c>
+      <c r="C59">
+        <v>37.6</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="F59">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="H59">
+        <v>2</v>
+      </c>
+      <c r="I59">
+        <v>41.4</v>
+      </c>
+      <c r="K59">
+        <v>2</v>
+      </c>
+      <c r="L59">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="N59">
+        <v>2</v>
+      </c>
+      <c r="O59">
+        <v>40.6</v>
+      </c>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B60">
         <v>3</v>
       </c>
+      <c r="C60">
+        <v>31.4</v>
+      </c>
+      <c r="E60">
+        <v>3</v>
+      </c>
+      <c r="F60">
+        <v>34</v>
+      </c>
+      <c r="H60">
+        <v>3</v>
+      </c>
+      <c r="I60">
+        <v>40.4</v>
+      </c>
+      <c r="K60">
+        <v>3</v>
+      </c>
+      <c r="L60">
+        <v>42.2</v>
+      </c>
+      <c r="N60">
+        <v>3</v>
+      </c>
+      <c r="O60">
+        <v>47.8</v>
+      </c>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B61">
         <v>4</v>
       </c>
+      <c r="C61">
+        <v>47.8</v>
+      </c>
+      <c r="E61">
+        <v>4</v>
+      </c>
+      <c r="F61">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="H61">
+        <v>4</v>
+      </c>
+      <c r="I61">
+        <v>33.4</v>
+      </c>
+      <c r="K61">
+        <v>4</v>
+      </c>
+      <c r="L61">
+        <v>38.4</v>
+      </c>
+      <c r="N61">
+        <v>4</v>
+      </c>
+      <c r="O61">
+        <v>36.200000000000003</v>
+      </c>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B62">
         <v>5</v>
       </c>
+      <c r="C62">
+        <v>33.4</v>
+      </c>
+      <c r="E62">
+        <v>5</v>
+      </c>
+      <c r="F62">
+        <v>32</v>
+      </c>
+      <c r="H62">
+        <v>5</v>
+      </c>
+      <c r="I62">
+        <v>45</v>
+      </c>
+      <c r="K62">
+        <v>5</v>
+      </c>
+      <c r="L62">
+        <v>44</v>
+      </c>
+      <c r="N62">
+        <v>5</v>
+      </c>
+      <c r="O62">
+        <v>48.2</v>
+      </c>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B63">
         <v>6</v>
       </c>
+      <c r="C63">
+        <v>51</v>
+      </c>
+      <c r="E63">
+        <v>6</v>
+      </c>
+      <c r="F63">
+        <v>29.8</v>
+      </c>
+      <c r="H63">
+        <v>6</v>
+      </c>
+      <c r="I63">
+        <v>36.6</v>
+      </c>
+      <c r="K63">
+        <v>6</v>
+      </c>
+      <c r="L63">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="N63">
+        <v>6</v>
+      </c>
+      <c r="O63">
+        <v>28.8</v>
+      </c>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B64">
         <v>7</v>
       </c>
+      <c r="C64">
+        <v>41.8</v>
+      </c>
+      <c r="E64">
+        <v>7</v>
+      </c>
+      <c r="F64">
+        <v>37.4</v>
+      </c>
+      <c r="H64">
+        <v>7</v>
+      </c>
+      <c r="I64">
+        <v>43.6</v>
+      </c>
+      <c r="K64">
+        <v>7</v>
+      </c>
+      <c r="L64">
+        <v>43.8</v>
+      </c>
+      <c r="N64">
+        <v>7</v>
+      </c>
+      <c r="O64">
+        <v>46.4</v>
+      </c>
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B65">
         <v>8</v>
       </c>
+      <c r="C65">
+        <v>45.2</v>
+      </c>
+      <c r="E65">
+        <v>8</v>
+      </c>
+      <c r="F65">
+        <v>45.8</v>
+      </c>
+      <c r="H65">
+        <v>8</v>
+      </c>
+      <c r="I65">
+        <v>47</v>
+      </c>
+      <c r="K65">
+        <v>8</v>
+      </c>
+      <c r="L65">
+        <v>35.6</v>
+      </c>
+      <c r="N65">
+        <v>8</v>
+      </c>
+      <c r="O65">
+        <v>43.8</v>
+      </c>
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B66">
         <v>9</v>
       </c>
+      <c r="C66">
+        <v>31.4</v>
+      </c>
+      <c r="E66">
+        <v>9</v>
+      </c>
+      <c r="F66">
+        <v>33.4</v>
+      </c>
+      <c r="H66">
+        <v>9</v>
+      </c>
+      <c r="I66">
+        <v>30.8</v>
+      </c>
+      <c r="K66">
+        <v>9</v>
+      </c>
+      <c r="L66">
+        <v>38</v>
+      </c>
+      <c r="N66">
+        <v>9</v>
+      </c>
+      <c r="O66">
+        <v>33.6</v>
+      </c>
     </row>
     <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B67">
         <v>10</v>
       </c>
+      <c r="C67">
+        <v>45.4</v>
+      </c>
+      <c r="E67">
+        <v>10</v>
+      </c>
+      <c r="F67">
+        <v>31.4</v>
+      </c>
+      <c r="H67">
+        <v>10</v>
+      </c>
+      <c r="I67">
+        <v>33.6</v>
+      </c>
+      <c r="K67">
+        <v>10</v>
+      </c>
+      <c r="L67">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="N67">
+        <v>10</v>
+      </c>
+      <c r="O67">
+        <v>49</v>
+      </c>
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B68">
         <v>11</v>
       </c>
+      <c r="C68">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="E68">
+        <v>11</v>
+      </c>
+      <c r="F68">
+        <v>39.4</v>
+      </c>
+      <c r="H68">
+        <v>11</v>
+      </c>
+      <c r="I68">
+        <v>47.2</v>
+      </c>
+      <c r="K68">
+        <v>11</v>
+      </c>
+      <c r="L68">
+        <v>36.4</v>
+      </c>
+      <c r="N68">
+        <v>11</v>
+      </c>
+      <c r="O68">
+        <v>79.599999999999994</v>
+      </c>
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B69">
         <v>12</v>
       </c>
+      <c r="C69">
+        <v>32.4</v>
+      </c>
+      <c r="E69">
+        <v>12</v>
+      </c>
+      <c r="F69">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="H69">
+        <v>12</v>
+      </c>
+      <c r="I69">
+        <v>32.4</v>
+      </c>
+      <c r="K69">
+        <v>12</v>
+      </c>
+      <c r="L69">
+        <v>41.6</v>
+      </c>
+      <c r="N69">
+        <v>12</v>
+      </c>
+      <c r="O69">
+        <v>43.2</v>
+      </c>
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B70">
         <v>13</v>
       </c>
+      <c r="C70">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="E70">
+        <v>13</v>
+      </c>
+      <c r="F70">
+        <v>30.8</v>
+      </c>
+      <c r="H70">
+        <v>13</v>
+      </c>
+      <c r="I70">
+        <v>28.6</v>
+      </c>
+      <c r="K70">
+        <v>13</v>
+      </c>
+      <c r="L70">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="N70">
+        <v>13</v>
+      </c>
+      <c r="O70">
+        <v>33.6</v>
+      </c>
     </row>
     <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B71">
         <v>14</v>
       </c>
+      <c r="C71">
+        <v>27.4</v>
+      </c>
+      <c r="E71">
+        <v>14</v>
+      </c>
+      <c r="F71">
+        <v>35</v>
+      </c>
+      <c r="H71">
+        <v>14</v>
+      </c>
+      <c r="I71">
+        <v>27.4</v>
+      </c>
+      <c r="K71">
+        <v>14</v>
+      </c>
+      <c r="L71">
+        <v>32.4</v>
+      </c>
+      <c r="N71">
+        <v>14</v>
+      </c>
+      <c r="O71">
+        <v>30.6</v>
+      </c>
     </row>
     <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B72">
         <v>15</v>
       </c>
+      <c r="C72">
+        <v>35</v>
+      </c>
+      <c r="E72">
+        <v>15</v>
+      </c>
+      <c r="F72">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="H72">
+        <v>15</v>
+      </c>
+      <c r="I72">
+        <v>35.4</v>
+      </c>
+      <c r="K72">
+        <v>15</v>
+      </c>
+      <c r="L72">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="N72">
+        <v>15</v>
+      </c>
+      <c r="O72">
+        <v>39.6</v>
+      </c>
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B73">
         <v>16</v>
       </c>
+      <c r="C73">
+        <v>37</v>
+      </c>
+      <c r="E73">
+        <v>16</v>
+      </c>
+      <c r="F73">
+        <v>25</v>
+      </c>
+      <c r="H73">
+        <v>16</v>
+      </c>
+      <c r="I73">
+        <v>35</v>
+      </c>
+      <c r="K73">
+        <v>16</v>
+      </c>
+      <c r="L73">
+        <v>46.8</v>
+      </c>
+      <c r="N73">
+        <v>16</v>
+      </c>
+      <c r="O73">
+        <v>37.200000000000003</v>
+      </c>
     </row>
     <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B74">
         <v>17</v>
       </c>
+      <c r="C74">
+        <v>31.8</v>
+      </c>
+      <c r="E74">
+        <v>17</v>
+      </c>
+      <c r="F74">
+        <v>39.6</v>
+      </c>
+      <c r="H74">
+        <v>17</v>
+      </c>
+      <c r="I74">
+        <v>37.6</v>
+      </c>
+      <c r="K74">
+        <v>17</v>
+      </c>
+      <c r="L74">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="N74">
+        <v>17</v>
+      </c>
+      <c r="O74">
+        <v>42.2</v>
+      </c>
     </row>
     <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B75">
         <v>18</v>
       </c>
+      <c r="C75">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="E75">
+        <v>18</v>
+      </c>
+      <c r="F75">
+        <v>37.4</v>
+      </c>
+      <c r="H75">
+        <v>18</v>
+      </c>
+      <c r="I75">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="K75">
+        <v>18</v>
+      </c>
+      <c r="L75">
+        <v>46</v>
+      </c>
+      <c r="N75">
+        <v>18</v>
+      </c>
+      <c r="O75">
+        <v>42.2</v>
+      </c>
     </row>
     <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B76">
         <v>19</v>
       </c>
+      <c r="C76">
+        <v>45.4</v>
+      </c>
+      <c r="E76">
+        <v>19</v>
+      </c>
+      <c r="F76">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="H76">
+        <v>19</v>
+      </c>
+      <c r="I76">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="K76">
+        <v>19</v>
+      </c>
+      <c r="L76">
+        <v>41.6</v>
+      </c>
+      <c r="N76">
+        <v>19</v>
+      </c>
+      <c r="O76">
+        <v>42.2</v>
+      </c>
     </row>
     <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B77">
         <v>20</v>
       </c>
+      <c r="C77">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="E77">
+        <v>20</v>
+      </c>
+      <c r="F77">
+        <v>24.6</v>
+      </c>
+      <c r="H77">
+        <v>20</v>
+      </c>
+      <c r="I77">
+        <v>26.4</v>
+      </c>
+      <c r="K77">
+        <v>20</v>
+      </c>
+      <c r="L77">
+        <v>40.4</v>
+      </c>
+      <c r="N77">
+        <v>20</v>
+      </c>
+      <c r="O77">
+        <v>57.6</v>
+      </c>
     </row>
     <row r="79" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C79" t="e">
+      <c r="C79">
         <f>AVERAGE(C58:C77)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F79" t="e">
+        <v>37.219999999999992</v>
+      </c>
+      <c r="F79">
         <f>AVERAGE(F58:F77)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I79" t="e">
+        <v>34.679999999999993</v>
+      </c>
+      <c r="I79">
         <f>AVERAGE(I58:I77)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L79" t="e">
+        <v>36.429999999999993</v>
+      </c>
+      <c r="L79">
         <f>AVERAGE(L58:L77)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O79" t="e">
+        <v>40.019999999999996</v>
+      </c>
+      <c r="O79">
         <f>AVERAGE(O58:O77)</f>
-        <v>#DIV/0!</v>
+        <v>44.160000000000011</v>
       </c>
     </row>
     <row r="80" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C80" t="e">
+      <c r="C80">
         <f>STDEV(C58:C77)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F80" t="e">
+        <v>6.5825606919464343</v>
+      </c>
+      <c r="F80">
         <f>STDEV(F58:F77)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I80" t="e">
+        <v>5.2235902152487359</v>
+      </c>
+      <c r="I80">
         <f>STDEV(I58:I77)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L80" t="e">
+        <v>6.1679221102324684</v>
+      </c>
+      <c r="L80">
         <f>STDEV(L58:L77)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O80" t="e">
+        <v>4.9036613603350148</v>
+      </c>
+      <c r="O80">
         <f>STDEV(O58:O77)</f>
-        <v>#DIV/0!</v>
+        <v>11.635264003066343</v>
       </c>
     </row>
     <row r="82" spans="2:15" x14ac:dyDescent="0.2">
@@ -3373,7 +9918,31 @@
         <v>1</v>
       </c>
       <c r="C84">
-        <v>158.4</v>
+        <v>166.6</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>142.80000000000001</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84">
+        <v>171</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <v>167.4</v>
+      </c>
+      <c r="N84">
+        <v>1</v>
+      </c>
+      <c r="O84">
+        <v>196</v>
       </c>
     </row>
     <row r="85" spans="2:15" x14ac:dyDescent="0.2">
@@ -3381,7 +9950,31 @@
         <v>2</v>
       </c>
       <c r="C85">
-        <v>142</v>
+        <v>135</v>
+      </c>
+      <c r="E85">
+        <v>2</v>
+      </c>
+      <c r="F85">
+        <v>138.4</v>
+      </c>
+      <c r="H85">
+        <v>2</v>
+      </c>
+      <c r="I85">
+        <v>135</v>
+      </c>
+      <c r="K85">
+        <v>2</v>
+      </c>
+      <c r="L85">
+        <v>168.8</v>
+      </c>
+      <c r="N85">
+        <v>2</v>
+      </c>
+      <c r="O85">
+        <v>220.4</v>
       </c>
     </row>
     <row r="86" spans="2:15" x14ac:dyDescent="0.2">
@@ -3389,7 +9982,31 @@
         <v>3</v>
       </c>
       <c r="C86">
-        <v>135.6</v>
+        <v>193.2</v>
+      </c>
+      <c r="E86">
+        <v>3</v>
+      </c>
+      <c r="F86">
+        <v>158.4</v>
+      </c>
+      <c r="H86">
+        <v>3</v>
+      </c>
+      <c r="I86">
+        <v>118.8</v>
+      </c>
+      <c r="K86">
+        <v>3</v>
+      </c>
+      <c r="L86">
+        <v>151</v>
+      </c>
+      <c r="N86">
+        <v>3</v>
+      </c>
+      <c r="O86">
+        <v>234.2</v>
       </c>
     </row>
     <row r="87" spans="2:15" x14ac:dyDescent="0.2">
@@ -3397,7 +10014,31 @@
         <v>4</v>
       </c>
       <c r="C87">
-        <v>89.8</v>
+        <v>154.19999999999999</v>
+      </c>
+      <c r="E87">
+        <v>4</v>
+      </c>
+      <c r="F87">
+        <v>175.2</v>
+      </c>
+      <c r="H87">
+        <v>4</v>
+      </c>
+      <c r="I87">
+        <v>159.4</v>
+      </c>
+      <c r="K87">
+        <v>4</v>
+      </c>
+      <c r="L87">
+        <v>198</v>
+      </c>
+      <c r="N87">
+        <v>4</v>
+      </c>
+      <c r="O87">
+        <v>160.4</v>
       </c>
     </row>
     <row r="88" spans="2:15" x14ac:dyDescent="0.2">
@@ -3405,7 +10046,31 @@
         <v>5</v>
       </c>
       <c r="C88">
-        <v>157.4</v>
+        <v>186</v>
+      </c>
+      <c r="E88">
+        <v>5</v>
+      </c>
+      <c r="F88">
+        <v>134.4</v>
+      </c>
+      <c r="H88">
+        <v>5</v>
+      </c>
+      <c r="I88">
+        <v>112.8</v>
+      </c>
+      <c r="K88">
+        <v>5</v>
+      </c>
+      <c r="L88">
+        <v>187.2</v>
+      </c>
+      <c r="N88">
+        <v>5</v>
+      </c>
+      <c r="O88">
+        <v>221.6</v>
       </c>
     </row>
     <row r="89" spans="2:15" x14ac:dyDescent="0.2">
@@ -3413,7 +10078,31 @@
         <v>6</v>
       </c>
       <c r="C89">
-        <v>165</v>
+        <v>150.19999999999999</v>
+      </c>
+      <c r="E89">
+        <v>6</v>
+      </c>
+      <c r="F89">
+        <v>123.6</v>
+      </c>
+      <c r="H89">
+        <v>6</v>
+      </c>
+      <c r="I89">
+        <v>132.80000000000001</v>
+      </c>
+      <c r="K89">
+        <v>6</v>
+      </c>
+      <c r="L89">
+        <v>170</v>
+      </c>
+      <c r="N89">
+        <v>6</v>
+      </c>
+      <c r="O89">
+        <v>151.80000000000001</v>
       </c>
     </row>
     <row r="90" spans="2:15" x14ac:dyDescent="0.2">
@@ -3421,7 +10110,31 @@
         <v>7</v>
       </c>
       <c r="C90">
-        <v>152.4</v>
+        <v>160.6</v>
+      </c>
+      <c r="E90">
+        <v>7</v>
+      </c>
+      <c r="F90">
+        <v>137.4</v>
+      </c>
+      <c r="H90">
+        <v>7</v>
+      </c>
+      <c r="I90">
+        <v>111.8</v>
+      </c>
+      <c r="K90">
+        <v>7</v>
+      </c>
+      <c r="L90">
+        <v>186.4</v>
+      </c>
+      <c r="N90">
+        <v>7</v>
+      </c>
+      <c r="O90">
+        <v>203.4</v>
       </c>
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.2">
@@ -3429,7 +10142,31 @@
         <v>8</v>
       </c>
       <c r="C91">
-        <v>112</v>
+        <v>158.4</v>
+      </c>
+      <c r="E91">
+        <v>8</v>
+      </c>
+      <c r="F91">
+        <v>125.2</v>
+      </c>
+      <c r="H91">
+        <v>8</v>
+      </c>
+      <c r="I91">
+        <v>148.80000000000001</v>
+      </c>
+      <c r="K91">
+        <v>8</v>
+      </c>
+      <c r="L91">
+        <v>183.8</v>
+      </c>
+      <c r="N91">
+        <v>8</v>
+      </c>
+      <c r="O91">
+        <v>148.6</v>
       </c>
     </row>
     <row r="92" spans="2:15" x14ac:dyDescent="0.2">
@@ -3437,7 +10174,31 @@
         <v>9</v>
       </c>
       <c r="C92">
-        <v>129.6</v>
+        <v>157.80000000000001</v>
+      </c>
+      <c r="E92">
+        <v>9</v>
+      </c>
+      <c r="F92">
+        <v>118.2</v>
+      </c>
+      <c r="H92">
+        <v>9</v>
+      </c>
+      <c r="I92">
+        <v>117.6</v>
+      </c>
+      <c r="K92">
+        <v>9</v>
+      </c>
+      <c r="L92">
+        <v>150.80000000000001</v>
+      </c>
+      <c r="N92">
+        <v>9</v>
+      </c>
+      <c r="O92">
+        <v>165.2</v>
       </c>
     </row>
     <row r="93" spans="2:15" x14ac:dyDescent="0.2">
@@ -3445,7 +10206,31 @@
         <v>10</v>
       </c>
       <c r="C93">
-        <v>137.6</v>
+        <v>180.6</v>
+      </c>
+      <c r="E93">
+        <v>10</v>
+      </c>
+      <c r="F93">
+        <v>164</v>
+      </c>
+      <c r="H93">
+        <v>10</v>
+      </c>
+      <c r="I93">
+        <v>146.6</v>
+      </c>
+      <c r="K93">
+        <v>10</v>
+      </c>
+      <c r="L93">
+        <v>152.19999999999999</v>
+      </c>
+      <c r="N93">
+        <v>10</v>
+      </c>
+      <c r="O93">
+        <v>206</v>
       </c>
     </row>
     <row r="94" spans="2:15" x14ac:dyDescent="0.2">
@@ -3453,7 +10238,31 @@
         <v>11</v>
       </c>
       <c r="C94">
-        <v>150.19999999999999</v>
+        <v>174.2</v>
+      </c>
+      <c r="E94">
+        <v>11</v>
+      </c>
+      <c r="F94">
+        <v>142.80000000000001</v>
+      </c>
+      <c r="H94">
+        <v>11</v>
+      </c>
+      <c r="I94">
+        <v>130.80000000000001</v>
+      </c>
+      <c r="K94">
+        <v>11</v>
+      </c>
+      <c r="L94">
+        <v>163.19999999999999</v>
+      </c>
+      <c r="N94">
+        <v>11</v>
+      </c>
+      <c r="O94">
+        <v>191</v>
       </c>
     </row>
     <row r="95" spans="2:15" x14ac:dyDescent="0.2">
@@ -3461,7 +10270,31 @@
         <v>12</v>
       </c>
       <c r="C95">
-        <v>150.6</v>
+        <v>133.6</v>
+      </c>
+      <c r="E95">
+        <v>12</v>
+      </c>
+      <c r="F95">
+        <v>121</v>
+      </c>
+      <c r="H95">
+        <v>12</v>
+      </c>
+      <c r="I95">
+        <v>121</v>
+      </c>
+      <c r="K95">
+        <v>12</v>
+      </c>
+      <c r="L95">
+        <v>156.80000000000001</v>
+      </c>
+      <c r="N95">
+        <v>12</v>
+      </c>
+      <c r="O95">
+        <v>175.4</v>
       </c>
     </row>
     <row r="96" spans="2:15" x14ac:dyDescent="0.2">
@@ -3469,7 +10302,31 @@
         <v>13</v>
       </c>
       <c r="C96">
-        <v>126.4</v>
+        <v>136.19999999999999</v>
+      </c>
+      <c r="E96">
+        <v>13</v>
+      </c>
+      <c r="F96">
+        <v>139.4</v>
+      </c>
+      <c r="H96">
+        <v>13</v>
+      </c>
+      <c r="I96">
+        <v>144.4</v>
+      </c>
+      <c r="K96">
+        <v>13</v>
+      </c>
+      <c r="L96">
+        <v>182.8</v>
+      </c>
+      <c r="N96">
+        <v>13</v>
+      </c>
+      <c r="O96">
+        <v>170.2</v>
       </c>
     </row>
     <row r="97" spans="2:15" x14ac:dyDescent="0.2">
@@ -3477,7 +10334,31 @@
         <v>14</v>
       </c>
       <c r="C97">
-        <v>102.8</v>
+        <v>132.80000000000001</v>
+      </c>
+      <c r="E97">
+        <v>14</v>
+      </c>
+      <c r="F97">
+        <v>155.4</v>
+      </c>
+      <c r="H97">
+        <v>14</v>
+      </c>
+      <c r="I97">
+        <v>125.2</v>
+      </c>
+      <c r="K97">
+        <v>14</v>
+      </c>
+      <c r="L97">
+        <v>209.4</v>
+      </c>
+      <c r="N97">
+        <v>14</v>
+      </c>
+      <c r="O97">
+        <v>165.4</v>
       </c>
     </row>
     <row r="98" spans="2:15" x14ac:dyDescent="0.2">
@@ -3485,7 +10366,31 @@
         <v>15</v>
       </c>
       <c r="C98">
-        <v>113.4</v>
+        <v>135.4</v>
+      </c>
+      <c r="E98">
+        <v>15</v>
+      </c>
+      <c r="F98">
+        <v>165.2</v>
+      </c>
+      <c r="H98">
+        <v>15</v>
+      </c>
+      <c r="I98">
+        <v>110.2</v>
+      </c>
+      <c r="K98">
+        <v>15</v>
+      </c>
+      <c r="L98">
+        <v>161.6</v>
+      </c>
+      <c r="N98">
+        <v>15</v>
+      </c>
+      <c r="O98">
+        <v>179.8</v>
       </c>
     </row>
     <row r="99" spans="2:15" x14ac:dyDescent="0.2">
@@ -3493,7 +10398,31 @@
         <v>16</v>
       </c>
       <c r="C99">
-        <v>126</v>
+        <v>151</v>
+      </c>
+      <c r="E99">
+        <v>16</v>
+      </c>
+      <c r="F99">
+        <v>158</v>
+      </c>
+      <c r="H99">
+        <v>16</v>
+      </c>
+      <c r="I99">
+        <v>94.6</v>
+      </c>
+      <c r="K99">
+        <v>16</v>
+      </c>
+      <c r="L99">
+        <v>141.6</v>
+      </c>
+      <c r="N99">
+        <v>16</v>
+      </c>
+      <c r="O99">
+        <v>196</v>
       </c>
     </row>
     <row r="100" spans="2:15" x14ac:dyDescent="0.2">
@@ -3501,7 +10430,31 @@
         <v>17</v>
       </c>
       <c r="C100">
-        <v>138.6</v>
+        <v>151.4</v>
+      </c>
+      <c r="E100">
+        <v>17</v>
+      </c>
+      <c r="F100">
+        <v>123.4</v>
+      </c>
+      <c r="H100">
+        <v>17</v>
+      </c>
+      <c r="I100">
+        <v>111.6</v>
+      </c>
+      <c r="K100">
+        <v>17</v>
+      </c>
+      <c r="L100">
+        <v>153.19999999999999</v>
+      </c>
+      <c r="N100">
+        <v>17</v>
+      </c>
+      <c r="O100">
+        <v>210.2</v>
       </c>
     </row>
     <row r="101" spans="2:15" x14ac:dyDescent="0.2">
@@ -3509,7 +10462,31 @@
         <v>18</v>
       </c>
       <c r="C101">
-        <v>169.8</v>
+        <v>134.80000000000001</v>
+      </c>
+      <c r="E101">
+        <v>18</v>
+      </c>
+      <c r="F101">
+        <v>157.19999999999999</v>
+      </c>
+      <c r="H101">
+        <v>18</v>
+      </c>
+      <c r="I101">
+        <v>160.80000000000001</v>
+      </c>
+      <c r="K101">
+        <v>18</v>
+      </c>
+      <c r="L101">
+        <v>145.19999999999999</v>
+      </c>
+      <c r="N101">
+        <v>18</v>
+      </c>
+      <c r="O101">
+        <v>194.8</v>
       </c>
     </row>
     <row r="102" spans="2:15" x14ac:dyDescent="0.2">
@@ -3517,7 +10494,31 @@
         <v>19</v>
       </c>
       <c r="C102">
-        <v>155.6</v>
+        <v>147.80000000000001</v>
+      </c>
+      <c r="E102">
+        <v>19</v>
+      </c>
+      <c r="F102">
+        <v>138.6</v>
+      </c>
+      <c r="H102">
+        <v>19</v>
+      </c>
+      <c r="I102">
+        <v>127.4</v>
+      </c>
+      <c r="K102">
+        <v>19</v>
+      </c>
+      <c r="L102">
+        <v>198</v>
+      </c>
+      <c r="N102">
+        <v>19</v>
+      </c>
+      <c r="O102">
+        <v>203.8</v>
       </c>
     </row>
     <row r="103" spans="2:15" x14ac:dyDescent="0.2">
@@ -3525,54 +10526,421 @@
         <v>20</v>
       </c>
       <c r="C103">
-        <v>121</v>
+        <v>144.4</v>
+      </c>
+      <c r="E103">
+        <v>20</v>
+      </c>
+      <c r="F103">
+        <v>163.6</v>
+      </c>
+      <c r="H103">
+        <v>20</v>
+      </c>
+      <c r="I103">
+        <v>131.4</v>
+      </c>
+      <c r="K103">
+        <v>20</v>
+      </c>
+      <c r="L103">
+        <v>150.80000000000001</v>
+      </c>
+      <c r="N103">
+        <v>20</v>
+      </c>
+      <c r="O103">
+        <v>158.6</v>
       </c>
     </row>
     <row r="105" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C105">
         <f>AVERAGE(C84:C103)</f>
-        <v>136.70999999999998</v>
-      </c>
-      <c r="F105" t="e">
+        <v>154.21000000000004</v>
+      </c>
+      <c r="F105">
         <f>AVERAGE(F84:F103)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I105" t="e">
+        <v>144.10999999999999</v>
+      </c>
+      <c r="I105">
         <f>AVERAGE(I84:I103)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L105" t="e">
+        <v>130.6</v>
+      </c>
+      <c r="L105">
         <f>AVERAGE(L84:L103)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O105" t="e">
+        <v>168.91</v>
+      </c>
+      <c r="O105">
         <f>AVERAGE(O84:O103)</f>
-        <v>#DIV/0!</v>
+        <v>187.64000000000001</v>
       </c>
     </row>
     <row r="106" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C106">
         <f>STDEV(C84:C103)</f>
-        <v>21.555360793718382</v>
-      </c>
-      <c r="F106" t="e">
+        <v>18.25312950817192</v>
+      </c>
+      <c r="F106">
         <f>STDEV(F84:F103)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I106" t="e">
+        <v>17.049830991599475</v>
+      </c>
+      <c r="I106">
         <f>STDEV(I84:I103)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L106" t="e">
+        <v>19.680928518960283</v>
+      </c>
+      <c r="L106">
         <f>STDEV(L84:L103)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O106" t="e">
+        <v>19.780210738061228</v>
+      </c>
+      <c r="O106">
         <f>STDEV(O84:O103)</f>
-        <v>#DIV/0!</v>
+        <v>24.984003303166276</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A57D410-8E11-7845-A699-38C3CBA7153F}">
+  <dimension ref="C3:O33"/>
+  <sheetViews>
+    <sheetView topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>-5</v>
+      </c>
+      <c r="H5">
+        <v>-10</v>
+      </c>
+      <c r="K5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5">
+        <v>600</v>
+      </c>
+      <c r="M5">
+        <v>800</v>
+      </c>
+      <c r="N5">
+        <v>1000</v>
+      </c>
+      <c r="O5">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="6" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>600</v>
+      </c>
+      <c r="D6">
+        <v>28.599999999999994</v>
+      </c>
+      <c r="E6">
+        <v>27.889999999999997</v>
+      </c>
+      <c r="F6">
+        <v>27.369999999999997</v>
+      </c>
+      <c r="G6">
+        <v>28.130000000000006</v>
+      </c>
+      <c r="H6">
+        <v>27.079999999999995</v>
+      </c>
+      <c r="K6">
+        <v>16</v>
+      </c>
+      <c r="L6">
+        <v>28.599999999999994</v>
+      </c>
+      <c r="M6">
+        <v>30.580000000000002</v>
+      </c>
+      <c r="N6">
+        <v>37.219999999999992</v>
+      </c>
+      <c r="O6">
+        <v>154.21000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <v>800</v>
+      </c>
+      <c r="D7">
+        <v>30.580000000000002</v>
+      </c>
+      <c r="E7">
+        <v>25.970000000000006</v>
+      </c>
+      <c r="F7">
+        <v>25.22</v>
+      </c>
+      <c r="G7">
+        <v>27.689999999999991</v>
+      </c>
+      <c r="H7">
+        <v>26.279999999999994</v>
+      </c>
+      <c r="K7">
+        <v>8</v>
+      </c>
+      <c r="L7">
+        <v>16.279999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <v>1000</v>
+      </c>
+      <c r="D8">
+        <v>37.219999999999992</v>
+      </c>
+      <c r="E8">
+        <v>34.679999999999993</v>
+      </c>
+      <c r="F8">
+        <v>36.429999999999993</v>
+      </c>
+      <c r="G8">
+        <v>40.019999999999996</v>
+      </c>
+      <c r="H8">
+        <v>44.160000000000011</v>
+      </c>
+      <c r="K8">
+        <v>4</v>
+      </c>
+      <c r="L8">
+        <v>9.9699999999999989</v>
+      </c>
+    </row>
+    <row r="9" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <v>1200</v>
+      </c>
+      <c r="D9">
+        <v>154.21000000000004</v>
+      </c>
+      <c r="E9">
+        <v>144.10999999999999</v>
+      </c>
+      <c r="F9">
+        <v>130.6</v>
+      </c>
+      <c r="G9">
+        <v>168.91</v>
+      </c>
+      <c r="H9">
+        <v>187.64000000000001</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>7.1300000000000008</v>
+      </c>
+    </row>
+    <row r="11" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>-5</v>
+      </c>
+      <c r="H13">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="14" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <v>600</v>
+      </c>
+      <c r="D14">
+        <v>16.279999999999998</v>
+      </c>
+      <c r="E14">
+        <v>14.899999999999997</v>
+      </c>
+      <c r="F14">
+        <v>16.559999999999995</v>
+      </c>
+      <c r="G14">
+        <v>17.88</v>
+      </c>
+      <c r="H14">
+        <v>16.179999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C15">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="16" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>10</v>
+      </c>
+      <c r="G21">
+        <v>-5</v>
+      </c>
+      <c r="H21">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <v>600</v>
+      </c>
+      <c r="D22">
+        <v>9.9699999999999989</v>
+      </c>
+      <c r="E22">
+        <v>11.7</v>
+      </c>
+      <c r="F22">
+        <v>10.98</v>
+      </c>
+      <c r="G22">
+        <v>11.940000000000001</v>
+      </c>
+      <c r="H22">
+        <v>10.59</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>5</v>
+      </c>
+      <c r="F29">
+        <v>10</v>
+      </c>
+      <c r="G29">
+        <v>-5</v>
+      </c>
+      <c r="H29">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C30">
+        <v>600</v>
+      </c>
+      <c r="D30">
+        <v>7.1300000000000008</v>
+      </c>
+      <c r="E30">
+        <v>7.1599999999999993</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C31">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C32">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C33">
+        <v>1200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/USHPRR/UMo_radiation_damage.xlsx
+++ b/USHPRR/UMo_radiation_damage.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/USHPRR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/spreadsheets/USHPRR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0E45F4-76F2-7846-AB02-CF96A64F3249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DBA0794-35DC-E546-80C8-C45F7636448B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7000" yWindow="2980" windowWidth="22940" windowHeight="15800" xr2:uid="{6147F9BE-C613-5E42-8D18-16DEAC3FC724}"/>
+    <workbookView xWindow="2440" yWindow="2540" windowWidth="28260" windowHeight="15800" activeTab="1" xr2:uid="{6147F9BE-C613-5E42-8D18-16DEAC3FC724}"/>
   </bookViews>
   <sheets>
     <sheet name="2kev" sheetId="9" r:id="rId1"/>
@@ -130,8 +130,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -891,6 +892,9 @@
                 <c:pt idx="0">
                   <c:v>30.580000000000002</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.62</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -967,6 +971,9 @@
                 <c:pt idx="0">
                   <c:v>37.219999999999992</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.550000000000004</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1042,6 +1049,9 @@
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>154.21000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68.28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1411,6 +1421,15 @@
                 <c:pt idx="0">
                   <c:v>16.279999999999998</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.550000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68.28</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1761,6 +1780,518 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summary!$K$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>summary!$L$5:$N$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>summary!$L$6:$N$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>28.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.580000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.219999999999992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-658B-4847-9E1A-0C6B0DE6700F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summary!$K$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>summary!$L$5:$N$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>summary!$L$7:$N$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>16.279999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.550000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-658B-4847-9E1A-0C6B0DE6700F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summary!$K$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>summary!$L$5:$N$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>summary!$L$8:$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>9.9699999999999989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-658B-4847-9E1A-0C6B0DE6700F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summary!$K$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>summary!$L$5:$N$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>summary!$L$9:$N$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.1300000000000008</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-658B-4847-9E1A-0C6B0DE6700F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="880225327"/>
+        <c:axId val="880227039"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="880225327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="500"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="880227039"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="880227039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="880225327"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1842,6 +2373,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3429,6 +4000,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3538,6 +4625,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25C5A697-FB69-D145-AA45-4B9580AF4937}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3845,8 +4970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3943012F-0CD3-3046-9BFB-8F21DD88D4CA}">
   <dimension ref="B2:V105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4:V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3910,6 +5035,9 @@
       <c r="U4">
         <v>7.37</v>
       </c>
+      <c r="V4">
+        <v>7.4</v>
+      </c>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B5">
@@ -3936,6 +5064,12 @@
       <c r="L5">
         <v>7</v>
       </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>7</v>
+      </c>
       <c r="Q5">
         <v>800</v>
       </c>
@@ -3965,6 +5099,12 @@
       <c r="L6">
         <v>6.2</v>
       </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>12</v>
+      </c>
       <c r="Q6">
         <v>1000</v>
       </c>
@@ -3994,6 +5134,12 @@
       <c r="L7">
         <v>7.8</v>
       </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
+      <c r="O7">
+        <v>7</v>
+      </c>
       <c r="Q7">
         <v>1200</v>
       </c>
@@ -4023,6 +5169,12 @@
       <c r="L8">
         <v>7</v>
       </c>
+      <c r="N8">
+        <v>4</v>
+      </c>
+      <c r="O8">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B9">
@@ -4049,6 +5201,12 @@
       <c r="L9">
         <v>6</v>
       </c>
+      <c r="N9">
+        <v>5</v>
+      </c>
+      <c r="O9">
+        <v>5</v>
+      </c>
       <c r="Q9" t="s">
         <v>10</v>
       </c>
@@ -4078,6 +5236,12 @@
       <c r="L10">
         <v>7.2</v>
       </c>
+      <c r="N10">
+        <v>6</v>
+      </c>
+      <c r="O10">
+        <v>7</v>
+      </c>
       <c r="Q10">
         <v>600</v>
       </c>
@@ -4107,6 +5271,12 @@
       <c r="L11">
         <v>9</v>
       </c>
+      <c r="N11">
+        <v>7</v>
+      </c>
+      <c r="O11">
+        <v>8</v>
+      </c>
       <c r="Q11">
         <v>800</v>
       </c>
@@ -4136,6 +5306,12 @@
       <c r="L12">
         <v>16.2</v>
       </c>
+      <c r="N12">
+        <v>8</v>
+      </c>
+      <c r="O12">
+        <v>7</v>
+      </c>
       <c r="Q12">
         <v>1000</v>
       </c>
@@ -4165,6 +5341,12 @@
       <c r="L13">
         <v>9</v>
       </c>
+      <c r="N13">
+        <v>9</v>
+      </c>
+      <c r="O13">
+        <v>7</v>
+      </c>
       <c r="Q13">
         <v>1200</v>
       </c>
@@ -4194,6 +5376,12 @@
       <c r="L14">
         <v>6</v>
       </c>
+      <c r="N14">
+        <v>10</v>
+      </c>
+      <c r="O14">
+        <v>11</v>
+      </c>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B15">
@@ -4220,6 +5408,12 @@
       <c r="L15">
         <v>6</v>
       </c>
+      <c r="N15">
+        <v>11</v>
+      </c>
+      <c r="O15">
+        <v>7</v>
+      </c>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B16">
@@ -4246,6 +5440,12 @@
       <c r="L16">
         <v>2</v>
       </c>
+      <c r="N16">
+        <v>12</v>
+      </c>
+      <c r="O16">
+        <v>8</v>
+      </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17">
@@ -4272,6 +5472,12 @@
       <c r="L17">
         <v>4</v>
       </c>
+      <c r="N17">
+        <v>13</v>
+      </c>
+      <c r="O17">
+        <v>8</v>
+      </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18">
@@ -4298,6 +5504,12 @@
       <c r="L18">
         <v>6</v>
       </c>
+      <c r="N18">
+        <v>14</v>
+      </c>
+      <c r="O18">
+        <v>6</v>
+      </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19">
@@ -4324,6 +5536,12 @@
       <c r="L19">
         <v>8</v>
       </c>
+      <c r="N19">
+        <v>15</v>
+      </c>
+      <c r="O19">
+        <v>8</v>
+      </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20">
@@ -4350,6 +5568,12 @@
       <c r="L20">
         <v>4</v>
       </c>
+      <c r="N20">
+        <v>16</v>
+      </c>
+      <c r="O20">
+        <v>7</v>
+      </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B21">
@@ -4376,6 +5600,12 @@
       <c r="L21">
         <v>8</v>
       </c>
+      <c r="N21">
+        <v>17</v>
+      </c>
+      <c r="O21">
+        <v>10</v>
+      </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B22">
@@ -4402,6 +5632,12 @@
       <c r="L22">
         <v>9</v>
       </c>
+      <c r="N22">
+        <v>18</v>
+      </c>
+      <c r="O22">
+        <v>6</v>
+      </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B23">
@@ -4428,6 +5664,12 @@
       <c r="L23">
         <v>11</v>
       </c>
+      <c r="N23">
+        <v>19</v>
+      </c>
+      <c r="O23">
+        <v>4</v>
+      </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24">
@@ -4453,6 +5695,12 @@
       </c>
       <c r="L24">
         <v>8</v>
+      </c>
+      <c r="N24">
+        <v>20</v>
+      </c>
+      <c r="O24">
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
@@ -4472,9 +5720,9 @@
         <f>AVERAGE(L5:L24)</f>
         <v>7.37</v>
       </c>
-      <c r="O26" t="e">
+      <c r="O26">
         <f>AVERAGE(O5:O24)</f>
-        <v>#DIV/0!</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.2">
@@ -4494,9 +5742,9 @@
         <f>STDEV(L5:L24)</f>
         <v>2.9129655715529181</v>
       </c>
-      <c r="O27" t="e">
+      <c r="O27">
         <f>STDEV(O5:O24)</f>
-        <v>#DIV/0!</v>
+        <v>1.8750438591361558</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.2">
@@ -5000,8 +6248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F880DA78-A65C-4D4A-BB5D-FA680FB5D55D}">
   <dimension ref="B2:V105"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5816,106 +7064,166 @@
       <c r="B31">
         <v>1</v>
       </c>
+      <c r="C31">
+        <v>11</v>
+      </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C32">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C33">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C34">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C35">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>7</v>
       </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C37">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C38">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B39">
         <v>9</v>
       </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C39">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>10</v>
       </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B41">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C41">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B42">
         <v>12</v>
       </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C42">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>13</v>
       </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C43">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>14</v>
       </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C44">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B45">
         <v>15</v>
       </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C45">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B46">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C46">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B47">
         <v>17</v>
       </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C47">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B48">
         <v>18</v>
+      </c>
+      <c r="C48">
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B49">
         <v>19</v>
       </c>
+      <c r="C49">
+        <v>11.4</v>
+      </c>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B50">
         <v>20</v>
       </c>
+      <c r="C50">
+        <v>11</v>
+      </c>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C52" t="e">
+      <c r="C52">
         <f>AVERAGE(C31:C50)</f>
-        <v>#DIV/0!</v>
+        <v>9.3299999999999983</v>
       </c>
       <c r="F52" t="e">
         <f>AVERAGE(F31:F50)</f>
@@ -5935,9 +7243,9 @@
       </c>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C53" t="e">
+      <c r="C53">
         <f>STDEV(C31:C50)</f>
-        <v>#DIV/0!</v>
+        <v>1.6849488513242683</v>
       </c>
       <c r="F53" t="e">
         <f>STDEV(F31:F50)</f>
@@ -6293,8 +7601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DF37246-5734-1E4A-86A1-08A58450CF3F}">
   <dimension ref="B2:V105"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4:V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6396,6 +7704,21 @@
       <c r="Q5">
         <v>800</v>
       </c>
+      <c r="R5">
+        <v>14.62</v>
+      </c>
+      <c r="S5">
+        <v>16.199999999999996</v>
+      </c>
+      <c r="T5">
+        <v>16.09</v>
+      </c>
+      <c r="U5">
+        <v>18.170000000000005</v>
+      </c>
+      <c r="V5">
+        <v>14.619999999999996</v>
+      </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B6">
@@ -6431,6 +7754,21 @@
       <c r="Q6">
         <v>1000</v>
       </c>
+      <c r="R6">
+        <v>17.550000000000004</v>
+      </c>
+      <c r="S6">
+        <v>14.84</v>
+      </c>
+      <c r="T6">
+        <v>15.209999999999997</v>
+      </c>
+      <c r="U6">
+        <v>15.34</v>
+      </c>
+      <c r="V6">
+        <v>15.91</v>
+      </c>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B7">
@@ -6466,6 +7804,21 @@
       <c r="Q7">
         <v>1200</v>
       </c>
+      <c r="R7">
+        <v>68.28</v>
+      </c>
+      <c r="S7">
+        <v>67.069999999999993</v>
+      </c>
+      <c r="T7">
+        <v>62.769999999999996</v>
+      </c>
+      <c r="U7">
+        <v>76.749999999999986</v>
+      </c>
+      <c r="V7">
+        <v>85.050000000000011</v>
+      </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B8">
@@ -6568,19 +7921,19 @@
       <c r="Q10">
         <v>600</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="1">
         <v>3.8751027151072677</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="1">
         <v>4.288294962360979</v>
       </c>
-      <c r="T10">
+      <c r="T10" s="1">
         <v>4.5927173472334539</v>
       </c>
-      <c r="U10">
+      <c r="U10" s="1">
         <v>4.8542547804667437</v>
       </c>
-      <c r="V10">
+      <c r="V10" s="1">
         <v>3.2933106043679219</v>
       </c>
     </row>
@@ -6618,6 +7971,21 @@
       <c r="Q11">
         <v>800</v>
       </c>
+      <c r="R11" s="1">
+        <v>4.8034636625975198</v>
+      </c>
+      <c r="S11" s="1">
+        <v>4.2406553614667803</v>
+      </c>
+      <c r="T11" s="1">
+        <v>4.4088308511082817</v>
+      </c>
+      <c r="U11" s="1">
+        <v>5.3106744541437152</v>
+      </c>
+      <c r="V11" s="1">
+        <v>3.5284706691650451</v>
+      </c>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B12">
@@ -6653,6 +8021,21 @@
       <c r="Q12">
         <v>1000</v>
       </c>
+      <c r="R12" s="1">
+        <v>3.6797454145347275</v>
+      </c>
+      <c r="S12" s="1">
+        <v>4.5447945932392599</v>
+      </c>
+      <c r="T12" s="1">
+        <v>3.9970910475126042</v>
+      </c>
+      <c r="U12">
+        <v>3.9603827566218088</v>
+      </c>
+      <c r="V12">
+        <v>3.4172780796540749</v>
+      </c>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B13">
@@ -6687,6 +8070,21 @@
       </c>
       <c r="Q13">
         <v>1200</v>
+      </c>
+      <c r="R13">
+        <v>6.3641760536698895</v>
+      </c>
+      <c r="S13">
+        <v>5.6851699969954144</v>
+      </c>
+      <c r="T13">
+        <v>6.20230008269428</v>
+      </c>
+      <c r="U13">
+        <v>5.867977325683599</v>
+      </c>
+      <c r="V13">
+        <v>5.872639503395563</v>
       </c>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.2">
@@ -7109,144 +8507,684 @@
       <c r="B31">
         <v>1</v>
       </c>
+      <c r="C31">
+        <v>14.2</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>11.6</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>18.8</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>21.2</v>
+      </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C32">
+        <v>11.2</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32">
+        <v>14.4</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>14.8</v>
+      </c>
+      <c r="N32">
+        <v>2</v>
+      </c>
+      <c r="O32">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C33">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>21</v>
+      </c>
+      <c r="H33">
+        <v>3</v>
+      </c>
+      <c r="I33">
+        <v>16</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="N33">
+        <v>3</v>
+      </c>
+      <c r="O33">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C34">
+        <v>22.6</v>
+      </c>
+      <c r="E34">
+        <v>4</v>
+      </c>
+      <c r="F34">
+        <v>11.2</v>
+      </c>
+      <c r="H34">
+        <v>4</v>
+      </c>
+      <c r="I34">
+        <v>11</v>
+      </c>
+      <c r="K34">
+        <v>4</v>
+      </c>
+      <c r="L34">
+        <v>24.8</v>
+      </c>
+      <c r="N34">
+        <v>4</v>
+      </c>
+      <c r="O34">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C35">
+        <v>13.6</v>
+      </c>
+      <c r="E35">
+        <v>5</v>
+      </c>
+      <c r="F35">
+        <v>15.2</v>
+      </c>
+      <c r="H35">
+        <v>5</v>
+      </c>
+      <c r="I35">
+        <v>19</v>
+      </c>
+      <c r="K35">
+        <v>5</v>
+      </c>
+      <c r="L35">
+        <v>18.2</v>
+      </c>
+      <c r="N35">
+        <v>5</v>
+      </c>
+      <c r="O35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C36">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E36">
+        <v>6</v>
+      </c>
+      <c r="F36">
+        <v>13.6</v>
+      </c>
+      <c r="H36">
+        <v>6</v>
+      </c>
+      <c r="I36">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="K36">
+        <v>6</v>
+      </c>
+      <c r="L36">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="N36">
+        <v>6</v>
+      </c>
+      <c r="O36">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>7</v>
       </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C37">
+        <v>9.6</v>
+      </c>
+      <c r="E37">
+        <v>7</v>
+      </c>
+      <c r="F37">
+        <v>13.8</v>
+      </c>
+      <c r="H37">
+        <v>7</v>
+      </c>
+      <c r="I37">
+        <v>13.8</v>
+      </c>
+      <c r="K37">
+        <v>7</v>
+      </c>
+      <c r="L37">
+        <v>13.2</v>
+      </c>
+      <c r="N37">
+        <v>7</v>
+      </c>
+      <c r="O37">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C38">
+        <v>15.4</v>
+      </c>
+      <c r="E38">
+        <v>8</v>
+      </c>
+      <c r="F38">
+        <v>24.6</v>
+      </c>
+      <c r="H38">
+        <v>8</v>
+      </c>
+      <c r="I38">
+        <v>14.4</v>
+      </c>
+      <c r="K38">
+        <v>8</v>
+      </c>
+      <c r="L38">
+        <v>11.2</v>
+      </c>
+      <c r="N38">
+        <v>8</v>
+      </c>
+      <c r="O38">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B39">
         <v>9</v>
       </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C39">
+        <v>21.4</v>
+      </c>
+      <c r="E39">
+        <v>9</v>
+      </c>
+      <c r="F39">
+        <v>10</v>
+      </c>
+      <c r="H39">
+        <v>9</v>
+      </c>
+      <c r="I39">
+        <v>14.2</v>
+      </c>
+      <c r="K39">
+        <v>9</v>
+      </c>
+      <c r="L39">
+        <v>14.8</v>
+      </c>
+      <c r="N39">
+        <v>9</v>
+      </c>
+      <c r="O39">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>10</v>
       </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C40">
+        <v>26.2</v>
+      </c>
+      <c r="E40">
+        <v>10</v>
+      </c>
+      <c r="F40">
+        <v>14.2</v>
+      </c>
+      <c r="H40">
+        <v>10</v>
+      </c>
+      <c r="I40">
+        <v>21</v>
+      </c>
+      <c r="K40">
+        <v>10</v>
+      </c>
+      <c r="L40">
+        <v>18</v>
+      </c>
+      <c r="N40">
+        <v>10</v>
+      </c>
+      <c r="O40">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B41">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C41">
+        <v>14.4</v>
+      </c>
+      <c r="E41">
+        <v>11</v>
+      </c>
+      <c r="F41">
+        <v>20.2</v>
+      </c>
+      <c r="H41">
+        <v>11</v>
+      </c>
+      <c r="I41">
+        <v>16</v>
+      </c>
+      <c r="K41">
+        <v>11</v>
+      </c>
+      <c r="L41">
+        <v>21.2</v>
+      </c>
+      <c r="N41">
+        <v>11</v>
+      </c>
+      <c r="O41">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B42">
         <v>12</v>
       </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C42">
+        <v>9.4</v>
+      </c>
+      <c r="E42">
+        <v>12</v>
+      </c>
+      <c r="F42">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="H42">
+        <v>12</v>
+      </c>
+      <c r="I42">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="K42">
+        <v>12</v>
+      </c>
+      <c r="L42">
+        <v>14.4</v>
+      </c>
+      <c r="N42">
+        <v>12</v>
+      </c>
+      <c r="O42">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>13</v>
       </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C43">
+        <v>12.8</v>
+      </c>
+      <c r="E43">
+        <v>13</v>
+      </c>
+      <c r="F43">
+        <v>12.6</v>
+      </c>
+      <c r="H43">
+        <v>13</v>
+      </c>
+      <c r="I43">
+        <v>9.4</v>
+      </c>
+      <c r="K43">
+        <v>13</v>
+      </c>
+      <c r="L43">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="N43">
+        <v>13</v>
+      </c>
+      <c r="O43">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>14</v>
       </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C44">
+        <v>15.2</v>
+      </c>
+      <c r="E44">
+        <v>14</v>
+      </c>
+      <c r="F44">
+        <v>21.2</v>
+      </c>
+      <c r="H44">
+        <v>14</v>
+      </c>
+      <c r="I44">
+        <v>13.4</v>
+      </c>
+      <c r="K44">
+        <v>14</v>
+      </c>
+      <c r="L44">
+        <v>15.4</v>
+      </c>
+      <c r="N44">
+        <v>14</v>
+      </c>
+      <c r="O44">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B45">
         <v>15</v>
       </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C45">
+        <v>10.6</v>
+      </c>
+      <c r="E45">
+        <v>15</v>
+      </c>
+      <c r="F45">
+        <v>11</v>
+      </c>
+      <c r="H45">
+        <v>15</v>
+      </c>
+      <c r="I45">
+        <v>19.2</v>
+      </c>
+      <c r="K45">
+        <v>15</v>
+      </c>
+      <c r="L45">
+        <v>24.6</v>
+      </c>
+      <c r="N45">
+        <v>15</v>
+      </c>
+      <c r="O45">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B46">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C46">
+        <v>18.2</v>
+      </c>
+      <c r="E46">
+        <v>16</v>
+      </c>
+      <c r="F46">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="H46">
+        <v>16</v>
+      </c>
+      <c r="I46">
+        <v>13</v>
+      </c>
+      <c r="K46">
+        <v>16</v>
+      </c>
+      <c r="L46">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="N46">
+        <v>16</v>
+      </c>
+      <c r="O46">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B47">
         <v>17</v>
       </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C47">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="E47">
+        <v>17</v>
+      </c>
+      <c r="F47">
+        <v>20</v>
+      </c>
+      <c r="H47">
+        <v>17</v>
+      </c>
+      <c r="I47">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="K47">
+        <v>17</v>
+      </c>
+      <c r="L47">
+        <v>21.6</v>
+      </c>
+      <c r="N47">
+        <v>17</v>
+      </c>
+      <c r="O47">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B48">
         <v>18</v>
+      </c>
+      <c r="C48">
+        <v>16.8</v>
+      </c>
+      <c r="E48">
+        <v>18</v>
+      </c>
+      <c r="F48">
+        <v>17</v>
+      </c>
+      <c r="H48">
+        <v>18</v>
+      </c>
+      <c r="I48">
+        <v>11.2</v>
+      </c>
+      <c r="K48">
+        <v>18</v>
+      </c>
+      <c r="L48">
+        <v>22.8</v>
+      </c>
+      <c r="N48">
+        <v>18</v>
+      </c>
+      <c r="O48">
+        <v>16.8</v>
       </c>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B49">
         <v>19</v>
       </c>
+      <c r="C49">
+        <v>13.2</v>
+      </c>
+      <c r="E49">
+        <v>19</v>
+      </c>
+      <c r="F49">
+        <v>14</v>
+      </c>
+      <c r="H49">
+        <v>19</v>
+      </c>
+      <c r="I49">
+        <v>28</v>
+      </c>
+      <c r="K49">
+        <v>19</v>
+      </c>
+      <c r="L49">
+        <v>31.4</v>
+      </c>
+      <c r="N49">
+        <v>19</v>
+      </c>
+      <c r="O49">
+        <v>13.8</v>
+      </c>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B50">
         <v>20</v>
       </c>
+      <c r="C50">
+        <v>11.2</v>
+      </c>
+      <c r="E50">
+        <v>20</v>
+      </c>
+      <c r="F50">
+        <v>18.8</v>
+      </c>
+      <c r="H50">
+        <v>20</v>
+      </c>
+      <c r="I50">
+        <v>17.8</v>
+      </c>
+      <c r="K50">
+        <v>20</v>
+      </c>
+      <c r="L50">
+        <v>7.8</v>
+      </c>
+      <c r="N50">
+        <v>20</v>
+      </c>
+      <c r="O50">
+        <v>14.4</v>
+      </c>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C52" t="e">
+      <c r="C52">
         <f>AVERAGE(C31:C50)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F52" t="e">
+        <v>14.62</v>
+      </c>
+      <c r="F52">
         <f>AVERAGE(F31:F50)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I52" t="e">
+        <v>16.199999999999996</v>
+      </c>
+      <c r="I52">
         <f>AVERAGE(I31:I50)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L52" t="e">
+        <v>16.09</v>
+      </c>
+      <c r="L52">
         <f>AVERAGE(L31:L50)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O52" t="e">
+        <v>18.170000000000005</v>
+      </c>
+      <c r="O52">
         <f>AVERAGE(O31:O50)</f>
-        <v>#DIV/0!</v>
+        <v>14.619999999999996</v>
       </c>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C53" t="e">
+      <c r="C53">
         <f>STDEV(C31:C50)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F53" t="e">
+        <v>4.8034636625975198</v>
+      </c>
+      <c r="F53">
         <f>STDEV(F31:F50)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I53" t="e">
+        <v>4.2406553614667803</v>
+      </c>
+      <c r="I53">
         <f>STDEV(I31:I50)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L53" t="e">
+        <v>4.4088308511082817</v>
+      </c>
+      <c r="L53">
         <f>STDEV(L31:L50)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O53" t="e">
+        <v>5.3106744541437152</v>
+      </c>
+      <c r="O53">
         <f>STDEV(O31:O50)</f>
-        <v>#DIV/0!</v>
+        <v>3.5284706691650451</v>
       </c>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.2">
@@ -7273,144 +9211,684 @@
       <c r="B57">
         <v>1</v>
       </c>
+      <c r="C57">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>6.2</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>11.2</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>16</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>19.2</v>
+      </c>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B58">
         <v>2</v>
       </c>
+      <c r="C58">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="F58">
+        <v>11.4</v>
+      </c>
+      <c r="H58">
+        <v>2</v>
+      </c>
+      <c r="I58">
+        <v>14.2</v>
+      </c>
+      <c r="K58">
+        <v>2</v>
+      </c>
+      <c r="L58">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="N58">
+        <v>2</v>
+      </c>
+      <c r="O58">
+        <v>16.600000000000001</v>
+      </c>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B59">
         <v>3</v>
       </c>
+      <c r="C59">
+        <v>14.8</v>
+      </c>
+      <c r="E59">
+        <v>3</v>
+      </c>
+      <c r="F59">
+        <v>12.8</v>
+      </c>
+      <c r="H59">
+        <v>3</v>
+      </c>
+      <c r="I59">
+        <v>11.6</v>
+      </c>
+      <c r="K59">
+        <v>3</v>
+      </c>
+      <c r="L59">
+        <v>14.8</v>
+      </c>
+      <c r="N59">
+        <v>3</v>
+      </c>
+      <c r="O59">
+        <v>11.2</v>
+      </c>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B60">
         <v>4</v>
       </c>
+      <c r="C60">
+        <v>24.4</v>
+      </c>
+      <c r="E60">
+        <v>4</v>
+      </c>
+      <c r="F60">
+        <v>16</v>
+      </c>
+      <c r="H60">
+        <v>4</v>
+      </c>
+      <c r="I60">
+        <v>13.2</v>
+      </c>
+      <c r="K60">
+        <v>4</v>
+      </c>
+      <c r="L60">
+        <v>11.2</v>
+      </c>
+      <c r="N60">
+        <v>4</v>
+      </c>
+      <c r="O60">
+        <v>8.4</v>
+      </c>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B61">
         <v>5</v>
       </c>
+      <c r="C61">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E61">
+        <v>5</v>
+      </c>
+      <c r="F61">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="H61">
+        <v>5</v>
+      </c>
+      <c r="I61">
+        <v>13.8</v>
+      </c>
+      <c r="K61">
+        <v>5</v>
+      </c>
+      <c r="L61">
+        <v>17.2</v>
+      </c>
+      <c r="N61">
+        <v>5</v>
+      </c>
+      <c r="O61">
+        <v>18.399999999999999</v>
+      </c>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B62">
         <v>6</v>
       </c>
+      <c r="C62">
+        <v>11.8</v>
+      </c>
+      <c r="E62">
+        <v>6</v>
+      </c>
+      <c r="F62">
+        <v>11.8</v>
+      </c>
+      <c r="H62">
+        <v>6</v>
+      </c>
+      <c r="I62">
+        <v>16.2</v>
+      </c>
+      <c r="K62">
+        <v>6</v>
+      </c>
+      <c r="L62">
+        <v>19.8</v>
+      </c>
+      <c r="N62">
+        <v>6</v>
+      </c>
+      <c r="O62">
+        <v>15</v>
+      </c>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B63">
         <v>7</v>
       </c>
+      <c r="C63">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E63">
+        <v>7</v>
+      </c>
+      <c r="F63">
+        <v>14.6</v>
+      </c>
+      <c r="H63">
+        <v>7</v>
+      </c>
+      <c r="I63">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="K63">
+        <v>7</v>
+      </c>
+      <c r="L63">
+        <v>22.2</v>
+      </c>
+      <c r="N63">
+        <v>7</v>
+      </c>
+      <c r="O63">
+        <v>15.2</v>
+      </c>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B64">
         <v>8</v>
       </c>
+      <c r="C64">
+        <v>15.8</v>
+      </c>
+      <c r="E64">
+        <v>8</v>
+      </c>
+      <c r="F64">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="H64">
+        <v>8</v>
+      </c>
+      <c r="I64">
+        <v>20</v>
+      </c>
+      <c r="K64">
+        <v>8</v>
+      </c>
+      <c r="L64">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="N64">
+        <v>8</v>
+      </c>
+      <c r="O64">
+        <v>16.8</v>
+      </c>
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B65">
         <v>9</v>
       </c>
+      <c r="C65">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="E65">
+        <v>9</v>
+      </c>
+      <c r="F65">
+        <v>17.8</v>
+      </c>
+      <c r="H65">
+        <v>9</v>
+      </c>
+      <c r="I65">
+        <v>16.2</v>
+      </c>
+      <c r="K65">
+        <v>9</v>
+      </c>
+      <c r="L65">
+        <v>20</v>
+      </c>
+      <c r="N65">
+        <v>9</v>
+      </c>
+      <c r="O65">
+        <v>23.4</v>
+      </c>
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B66">
         <v>10</v>
       </c>
+      <c r="C66">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E66">
+        <v>10</v>
+      </c>
+      <c r="F66">
+        <v>13</v>
+      </c>
+      <c r="H66">
+        <v>10</v>
+      </c>
+      <c r="I66">
+        <v>14.2</v>
+      </c>
+      <c r="K66">
+        <v>10</v>
+      </c>
+      <c r="L66">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="N66">
+        <v>10</v>
+      </c>
+      <c r="O66">
+        <v>15.2</v>
+      </c>
     </row>
     <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B67">
         <v>11</v>
       </c>
+      <c r="C67">
+        <v>20.8</v>
+      </c>
+      <c r="E67">
+        <v>11</v>
+      </c>
+      <c r="F67">
+        <v>17.8</v>
+      </c>
+      <c r="H67">
+        <v>11</v>
+      </c>
+      <c r="I67">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="K67">
+        <v>11</v>
+      </c>
+      <c r="L67">
+        <v>7.6</v>
+      </c>
+      <c r="N67">
+        <v>11</v>
+      </c>
+      <c r="O67">
+        <v>19.600000000000001</v>
+      </c>
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B68">
         <v>12</v>
       </c>
+      <c r="C68">
+        <v>15.8</v>
+      </c>
+      <c r="E68">
+        <v>12</v>
+      </c>
+      <c r="F68">
+        <v>15.6</v>
+      </c>
+      <c r="H68">
+        <v>12</v>
+      </c>
+      <c r="I68">
+        <v>22.8</v>
+      </c>
+      <c r="K68">
+        <v>12</v>
+      </c>
+      <c r="L68">
+        <v>11</v>
+      </c>
+      <c r="N68">
+        <v>12</v>
+      </c>
+      <c r="O68">
+        <v>13.2</v>
+      </c>
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B69">
         <v>13</v>
       </c>
+      <c r="C69">
+        <v>21.6</v>
+      </c>
+      <c r="E69">
+        <v>13</v>
+      </c>
+      <c r="F69">
+        <v>23.8</v>
+      </c>
+      <c r="H69">
+        <v>13</v>
+      </c>
+      <c r="I69">
+        <v>12.2</v>
+      </c>
+      <c r="K69">
+        <v>13</v>
+      </c>
+      <c r="L69">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="N69">
+        <v>13</v>
+      </c>
+      <c r="O69">
+        <v>16.2</v>
+      </c>
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B70">
         <v>14</v>
       </c>
+      <c r="C70">
+        <v>15.8</v>
+      </c>
+      <c r="E70">
+        <v>14</v>
+      </c>
+      <c r="F70">
+        <v>22</v>
+      </c>
+      <c r="H70">
+        <v>14</v>
+      </c>
+      <c r="I70">
+        <v>17.2</v>
+      </c>
+      <c r="K70">
+        <v>14</v>
+      </c>
+      <c r="L70">
+        <v>15.4</v>
+      </c>
+      <c r="N70">
+        <v>14</v>
+      </c>
+      <c r="O70">
+        <v>11.6</v>
+      </c>
     </row>
     <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B71">
         <v>15</v>
       </c>
+      <c r="C71">
+        <v>23</v>
+      </c>
+      <c r="E71">
+        <v>15</v>
+      </c>
+      <c r="F71">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="H71">
+        <v>15</v>
+      </c>
+      <c r="I71">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="K71">
+        <v>15</v>
+      </c>
+      <c r="L71">
+        <v>8.6</v>
+      </c>
+      <c r="N71">
+        <v>15</v>
+      </c>
+      <c r="O71">
+        <v>13.8</v>
+      </c>
     </row>
     <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B72">
         <v>16</v>
       </c>
+      <c r="C72">
+        <v>15</v>
+      </c>
+      <c r="E72">
+        <v>16</v>
+      </c>
+      <c r="F72">
+        <v>11</v>
+      </c>
+      <c r="H72">
+        <v>16</v>
+      </c>
+      <c r="I72">
+        <v>11.2</v>
+      </c>
+      <c r="K72">
+        <v>16</v>
+      </c>
+      <c r="L72">
+        <v>15.6</v>
+      </c>
+      <c r="N72">
+        <v>16</v>
+      </c>
+      <c r="O72">
+        <v>15.2</v>
+      </c>
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B73">
         <v>17</v>
       </c>
+      <c r="C73">
+        <v>17.8</v>
+      </c>
+      <c r="E73">
+        <v>17</v>
+      </c>
+      <c r="F73">
+        <v>18.8</v>
+      </c>
+      <c r="H73">
+        <v>17</v>
+      </c>
+      <c r="I73">
+        <v>9</v>
+      </c>
+      <c r="K73">
+        <v>17</v>
+      </c>
+      <c r="L73">
+        <v>15</v>
+      </c>
+      <c r="N73">
+        <v>17</v>
+      </c>
+      <c r="O73">
+        <v>16</v>
+      </c>
     </row>
     <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B74">
         <v>18</v>
       </c>
+      <c r="C74">
+        <v>16.2</v>
+      </c>
+      <c r="E74">
+        <v>18</v>
+      </c>
+      <c r="F74">
+        <v>18.2</v>
+      </c>
+      <c r="H74">
+        <v>18</v>
+      </c>
+      <c r="I74">
+        <v>18.8</v>
+      </c>
+      <c r="K74">
+        <v>18</v>
+      </c>
+      <c r="L74">
+        <v>12</v>
+      </c>
+      <c r="N74">
+        <v>18</v>
+      </c>
+      <c r="O74">
+        <v>16</v>
+      </c>
     </row>
     <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B75">
         <v>19</v>
       </c>
+      <c r="C75">
+        <v>19</v>
+      </c>
+      <c r="E75">
+        <v>19</v>
+      </c>
+      <c r="F75">
+        <v>8.4</v>
+      </c>
+      <c r="H75">
+        <v>19</v>
+      </c>
+      <c r="I75">
+        <v>20</v>
+      </c>
+      <c r="K75">
+        <v>19</v>
+      </c>
+      <c r="L75">
+        <v>19</v>
+      </c>
+      <c r="N75">
+        <v>19</v>
+      </c>
+      <c r="O75">
+        <v>16.600000000000001</v>
+      </c>
     </row>
     <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B76">
         <v>20</v>
       </c>
+      <c r="C76">
+        <v>14.8</v>
+      </c>
+      <c r="E76">
+        <v>20</v>
+      </c>
+      <c r="F76">
+        <v>11.8</v>
+      </c>
+      <c r="H76">
+        <v>20</v>
+      </c>
+      <c r="I76">
+        <v>12.2</v>
+      </c>
+      <c r="K76">
+        <v>20</v>
+      </c>
+      <c r="L76">
+        <v>11.2</v>
+      </c>
+      <c r="N76">
+        <v>20</v>
+      </c>
+      <c r="O76">
+        <v>20.6</v>
+      </c>
     </row>
     <row r="78" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C78" t="e">
+      <c r="C78">
         <f>AVERAGE(C57:C76)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F78" t="e">
+        <v>17.550000000000004</v>
+      </c>
+      <c r="F78">
         <f>AVERAGE(F57:F76)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I78" t="e">
+        <v>14.84</v>
+      </c>
+      <c r="I78">
         <f>AVERAGE(I57:I76)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L78" t="e">
+        <v>15.209999999999997</v>
+      </c>
+      <c r="L78">
         <f>AVERAGE(L57:L76)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O78" t="e">
+        <v>15.34</v>
+      </c>
+      <c r="O78">
         <f>AVERAGE(O57:O76)</f>
-        <v>#DIV/0!</v>
+        <v>15.91</v>
       </c>
     </row>
     <row r="79" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C79" t="e">
+      <c r="C79">
         <f>STDEV(C57:C76)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F79" t="e">
+        <v>3.6797454145347275</v>
+      </c>
+      <c r="F79">
         <f>STDEV(F57:F76)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I79" t="e">
+        <v>4.5447945932392599</v>
+      </c>
+      <c r="I79">
         <f>STDEV(I57:I76)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L79" t="e">
+        <v>3.9970910475126042</v>
+      </c>
+      <c r="L79">
         <f>STDEV(L57:L76)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O79" t="e">
+        <v>3.9603827566218088</v>
+      </c>
+      <c r="O79">
         <f>STDEV(O57:O76)</f>
-        <v>#DIV/0!</v>
+        <v>3.4172780796540749</v>
       </c>
     </row>
     <row r="81" spans="2:15" x14ac:dyDescent="0.2">
@@ -7437,144 +9915,684 @@
       <c r="B83">
         <v>1</v>
       </c>
+      <c r="C83">
+        <v>72</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>64.2</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="I83">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="L83">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="N83">
+        <v>1</v>
+      </c>
+      <c r="O83">
+        <v>80.599999999999994</v>
+      </c>
     </row>
     <row r="84" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B84">
         <v>2</v>
       </c>
+      <c r="C84">
+        <v>79.8</v>
+      </c>
+      <c r="E84">
+        <v>2</v>
+      </c>
+      <c r="F84">
+        <v>65.2</v>
+      </c>
+      <c r="H84">
+        <v>2</v>
+      </c>
+      <c r="I84">
+        <v>67.2</v>
+      </c>
+      <c r="K84">
+        <v>2</v>
+      </c>
+      <c r="L84">
+        <v>75</v>
+      </c>
+      <c r="N84">
+        <v>2</v>
+      </c>
+      <c r="O84">
+        <v>89</v>
+      </c>
     </row>
     <row r="85" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B85">
         <v>3</v>
       </c>
+      <c r="C85">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="E85">
+        <v>3</v>
+      </c>
+      <c r="F85">
+        <v>71.8</v>
+      </c>
+      <c r="H85">
+        <v>3</v>
+      </c>
+      <c r="I85">
+        <v>61.8</v>
+      </c>
+      <c r="K85">
+        <v>3</v>
+      </c>
+      <c r="L85">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="N85">
+        <v>3</v>
+      </c>
+      <c r="O85">
+        <v>85.6</v>
+      </c>
     </row>
     <row r="86" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B86">
         <v>4</v>
       </c>
+      <c r="C86">
+        <v>72.8</v>
+      </c>
+      <c r="E86">
+        <v>4</v>
+      </c>
+      <c r="F86">
+        <v>54</v>
+      </c>
+      <c r="H86">
+        <v>4</v>
+      </c>
+      <c r="I86">
+        <v>61.6</v>
+      </c>
+      <c r="K86">
+        <v>4</v>
+      </c>
+      <c r="L86">
+        <v>84.8</v>
+      </c>
+      <c r="N86">
+        <v>4</v>
+      </c>
+      <c r="O86">
+        <v>80.2</v>
+      </c>
     </row>
     <row r="87" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B87">
         <v>5</v>
       </c>
+      <c r="C87">
+        <v>61.2</v>
+      </c>
+      <c r="E87">
+        <v>5</v>
+      </c>
+      <c r="F87">
+        <v>60.2</v>
+      </c>
+      <c r="H87">
+        <v>5</v>
+      </c>
+      <c r="I87">
+        <v>59.2</v>
+      </c>
+      <c r="K87">
+        <v>5</v>
+      </c>
+      <c r="L87">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="N87">
+        <v>5</v>
+      </c>
+      <c r="O87">
+        <v>83.4</v>
+      </c>
     </row>
     <row r="88" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B88">
         <v>6</v>
       </c>
+      <c r="C88">
+        <v>82.8</v>
+      </c>
+      <c r="E88">
+        <v>6</v>
+      </c>
+      <c r="F88">
+        <v>62.6</v>
+      </c>
+      <c r="H88">
+        <v>6</v>
+      </c>
+      <c r="I88">
+        <v>61.6</v>
+      </c>
+      <c r="K88">
+        <v>6</v>
+      </c>
+      <c r="L88">
+        <v>83.8</v>
+      </c>
+      <c r="N88">
+        <v>6</v>
+      </c>
+      <c r="O88">
+        <v>81</v>
+      </c>
     </row>
     <row r="89" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B89">
         <v>7</v>
       </c>
+      <c r="C89">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="E89">
+        <v>7</v>
+      </c>
+      <c r="F89">
+        <v>74.8</v>
+      </c>
+      <c r="H89">
+        <v>7</v>
+      </c>
+      <c r="I89">
+        <v>52.4</v>
+      </c>
+      <c r="K89">
+        <v>7</v>
+      </c>
+      <c r="L89">
+        <v>69.8</v>
+      </c>
+      <c r="N89">
+        <v>7</v>
+      </c>
+      <c r="O89">
+        <v>92.8</v>
+      </c>
     </row>
     <row r="90" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B90">
         <v>8</v>
       </c>
+      <c r="C90">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="E90">
+        <v>8</v>
+      </c>
+      <c r="F90">
+        <v>65.8</v>
+      </c>
+      <c r="H90">
+        <v>8</v>
+      </c>
+      <c r="I90">
+        <v>68.8</v>
+      </c>
+      <c r="K90">
+        <v>8</v>
+      </c>
+      <c r="L90">
+        <v>77</v>
+      </c>
+      <c r="N90">
+        <v>8</v>
+      </c>
+      <c r="O90">
+        <v>99.6</v>
+      </c>
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B91">
         <v>9</v>
       </c>
+      <c r="C91">
+        <v>68.8</v>
+      </c>
+      <c r="E91">
+        <v>9</v>
+      </c>
+      <c r="F91">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="H91">
+        <v>9</v>
+      </c>
+      <c r="I91">
+        <v>55</v>
+      </c>
+      <c r="K91">
+        <v>9</v>
+      </c>
+      <c r="L91">
+        <v>83.4</v>
+      </c>
+      <c r="N91">
+        <v>9</v>
+      </c>
+      <c r="O91">
+        <v>88.2</v>
+      </c>
     </row>
     <row r="92" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B92">
         <v>10</v>
       </c>
+      <c r="C92">
+        <v>60</v>
+      </c>
+      <c r="E92">
+        <v>10</v>
+      </c>
+      <c r="F92">
+        <v>62.2</v>
+      </c>
+      <c r="H92">
+        <v>10</v>
+      </c>
+      <c r="I92">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="K92">
+        <v>10</v>
+      </c>
+      <c r="L92">
+        <v>77</v>
+      </c>
+      <c r="N92">
+        <v>10</v>
+      </c>
+      <c r="O92">
+        <v>80.2</v>
+      </c>
     </row>
     <row r="93" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B93">
         <v>11</v>
       </c>
+      <c r="C93">
+        <v>69</v>
+      </c>
+      <c r="E93">
+        <v>11</v>
+      </c>
+      <c r="F93">
+        <v>68</v>
+      </c>
+      <c r="H93">
+        <v>11</v>
+      </c>
+      <c r="I93">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="K93">
+        <v>11</v>
+      </c>
+      <c r="L93">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="N93">
+        <v>11</v>
+      </c>
+      <c r="O93">
+        <v>80.8</v>
+      </c>
     </row>
     <row r="94" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B94">
         <v>12</v>
       </c>
+      <c r="C94">
+        <v>60.8</v>
+      </c>
+      <c r="E94">
+        <v>12</v>
+      </c>
+      <c r="F94">
+        <v>67.8</v>
+      </c>
+      <c r="H94">
+        <v>12</v>
+      </c>
+      <c r="I94">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="K94">
+        <v>12</v>
+      </c>
+      <c r="L94">
+        <v>76.8</v>
+      </c>
+      <c r="N94">
+        <v>12</v>
+      </c>
+      <c r="O94">
+        <v>81.400000000000006</v>
+      </c>
     </row>
     <row r="95" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B95">
         <v>13</v>
       </c>
+      <c r="C95">
+        <v>70</v>
+      </c>
+      <c r="E95">
+        <v>13</v>
+      </c>
+      <c r="F95">
+        <v>70.8</v>
+      </c>
+      <c r="H95">
+        <v>13</v>
+      </c>
+      <c r="I95">
+        <v>58.8</v>
+      </c>
+      <c r="K95">
+        <v>13</v>
+      </c>
+      <c r="L95">
+        <v>62.6</v>
+      </c>
+      <c r="N95">
+        <v>13</v>
+      </c>
+      <c r="O95">
+        <v>83.2</v>
+      </c>
     </row>
     <row r="96" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B96">
         <v>14</v>
       </c>
+      <c r="C96">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="E96">
+        <v>14</v>
+      </c>
+      <c r="F96">
+        <v>75.8</v>
+      </c>
+      <c r="H96">
+        <v>14</v>
+      </c>
+      <c r="I96">
+        <v>58</v>
+      </c>
+      <c r="K96">
+        <v>14</v>
+      </c>
+      <c r="L96">
+        <v>78.8</v>
+      </c>
+      <c r="N96">
+        <v>14</v>
+      </c>
+      <c r="O96">
+        <v>79.400000000000006</v>
+      </c>
     </row>
     <row r="97" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B97">
         <v>15</v>
       </c>
+      <c r="C97">
+        <v>64.2</v>
+      </c>
+      <c r="E97">
+        <v>15</v>
+      </c>
+      <c r="F97">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="H97">
+        <v>15</v>
+      </c>
+      <c r="I97">
+        <v>65.8</v>
+      </c>
+      <c r="K97">
+        <v>15</v>
+      </c>
+      <c r="L97">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="N97">
+        <v>15</v>
+      </c>
+      <c r="O97">
+        <v>87</v>
+      </c>
     </row>
     <row r="98" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B98">
         <v>16</v>
       </c>
+      <c r="C98">
+        <v>72.8</v>
+      </c>
+      <c r="E98">
+        <v>16</v>
+      </c>
+      <c r="F98">
+        <v>63.6</v>
+      </c>
+      <c r="H98">
+        <v>16</v>
+      </c>
+      <c r="I98">
+        <v>57.4</v>
+      </c>
+      <c r="K98">
+        <v>16</v>
+      </c>
+      <c r="L98">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="N98">
+        <v>16</v>
+      </c>
+      <c r="O98">
+        <v>85.2</v>
+      </c>
     </row>
     <row r="99" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B99">
         <v>17</v>
       </c>
+      <c r="C99">
+        <v>66.2</v>
+      </c>
+      <c r="E99">
+        <v>17</v>
+      </c>
+      <c r="F99">
+        <v>62.4</v>
+      </c>
+      <c r="H99">
+        <v>17</v>
+      </c>
+      <c r="I99">
+        <v>54.4</v>
+      </c>
+      <c r="K99">
+        <v>17</v>
+      </c>
+      <c r="L99">
+        <v>87.6</v>
+      </c>
+      <c r="N99">
+        <v>17</v>
+      </c>
+      <c r="O99">
+        <v>95</v>
+      </c>
     </row>
     <row r="100" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B100">
         <v>18</v>
       </c>
+      <c r="C100">
+        <v>62</v>
+      </c>
+      <c r="E100">
+        <v>18</v>
+      </c>
+      <c r="F100">
+        <v>75.8</v>
+      </c>
+      <c r="H100">
+        <v>18</v>
+      </c>
+      <c r="I100">
+        <v>58.6</v>
+      </c>
+      <c r="K100">
+        <v>18</v>
+      </c>
+      <c r="L100">
+        <v>73.8</v>
+      </c>
+      <c r="N100">
+        <v>18</v>
+      </c>
+      <c r="O100">
+        <v>90.4</v>
+      </c>
     </row>
     <row r="101" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B101">
         <v>19</v>
       </c>
+      <c r="C101">
+        <v>63.4</v>
+      </c>
+      <c r="E101">
+        <v>19</v>
+      </c>
+      <c r="F101">
+        <v>69</v>
+      </c>
+      <c r="H101">
+        <v>19</v>
+      </c>
+      <c r="I101">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="K101">
+        <v>19</v>
+      </c>
+      <c r="L101">
+        <v>74.8</v>
+      </c>
+      <c r="N101">
+        <v>19</v>
+      </c>
+      <c r="O101">
+        <v>79.400000000000006</v>
+      </c>
     </row>
     <row r="102" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B102">
         <v>20</v>
       </c>
+      <c r="C102">
+        <v>60.4</v>
+      </c>
+      <c r="E102">
+        <v>20</v>
+      </c>
+      <c r="F102">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="H102">
+        <v>20</v>
+      </c>
+      <c r="I102">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="K102">
+        <v>20</v>
+      </c>
+      <c r="L102">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="N102">
+        <v>20</v>
+      </c>
+      <c r="O102">
+        <v>78.599999999999994</v>
+      </c>
     </row>
     <row r="104" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C104" t="e">
+      <c r="C104">
         <f>AVERAGE(C83:C102)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F104" t="e">
+        <v>68.28</v>
+      </c>
+      <c r="F104">
         <f>AVERAGE(F83:F102)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I104" t="e">
+        <v>67.069999999999993</v>
+      </c>
+      <c r="I104">
         <f>AVERAGE(I83:I102)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L104" t="e">
+        <v>62.769999999999996</v>
+      </c>
+      <c r="L104">
         <f>AVERAGE(L83:L102)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O104" t="e">
+        <v>76.749999999999986</v>
+      </c>
+      <c r="O104">
         <f>AVERAGE(O83:O102)</f>
-        <v>#DIV/0!</v>
+        <v>85.050000000000011</v>
       </c>
     </row>
     <row r="105" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C105" t="e">
+      <c r="C105">
         <f>STDEV(C83:C102)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F105" t="e">
+        <v>6.3641760536698895</v>
+      </c>
+      <c r="F105">
         <f>STDEV(F83:F102)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I105" t="e">
+        <v>5.6851699969954144</v>
+      </c>
+      <c r="I105">
         <f>STDEV(I83:I102)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L105" t="e">
+        <v>6.20230008269428</v>
+      </c>
+      <c r="L105">
         <f>STDEV(L83:L102)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O105" t="e">
+        <v>5.867977325683599</v>
+      </c>
+      <c r="O105">
         <f>STDEV(O83:O102)</f>
-        <v>#DIV/0!</v>
+        <v>5.872639503395563</v>
       </c>
     </row>
   </sheetData>
@@ -7586,7 +10604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B8986C-AC24-5149-BC25-A1C4E7121DD9}">
   <dimension ref="B2:V106"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="A66" workbookViewId="0">
       <selection activeCell="R4" sqref="R4:V7"/>
     </sheetView>
   </sheetViews>
@@ -10606,8 +13624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A57D410-8E11-7845-A699-38C3CBA7153F}">
   <dimension ref="C3:O33"/>
   <sheetViews>
-    <sheetView topLeftCell="F4" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30:H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10715,6 +13733,15 @@
       <c r="L7">
         <v>16.279999999999998</v>
       </c>
+      <c r="M7">
+        <v>14.62</v>
+      </c>
+      <c r="N7">
+        <v>17.550000000000004</v>
+      </c>
+      <c r="O7">
+        <v>68.28</v>
+      </c>
     </row>
     <row r="8" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C8">
@@ -10817,16 +13844,61 @@
       <c r="C15">
         <v>800</v>
       </c>
+      <c r="D15">
+        <v>14.62</v>
+      </c>
+      <c r="E15">
+        <v>16.199999999999996</v>
+      </c>
+      <c r="F15">
+        <v>16.09</v>
+      </c>
+      <c r="G15">
+        <v>18.170000000000005</v>
+      </c>
+      <c r="H15">
+        <v>14.619999999999996</v>
+      </c>
     </row>
     <row r="16" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C16">
         <v>1000</v>
       </c>
+      <c r="D16">
+        <v>17.550000000000004</v>
+      </c>
+      <c r="E16">
+        <v>14.84</v>
+      </c>
+      <c r="F16">
+        <v>15.209999999999997</v>
+      </c>
+      <c r="G16">
+        <v>15.34</v>
+      </c>
+      <c r="H16">
+        <v>15.91</v>
+      </c>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C17">
         <v>1200</v>
       </c>
+      <c r="D17">
+        <v>68.28</v>
+      </c>
+      <c r="E17">
+        <v>67.069999999999993</v>
+      </c>
+      <c r="F17">
+        <v>62.769999999999996</v>
+      </c>
+      <c r="G17">
+        <v>76.749999999999986</v>
+      </c>
+      <c r="H17">
+        <v>85.050000000000011</v>
+      </c>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
@@ -10922,6 +13994,15 @@
       </c>
       <c r="E30">
         <v>7.1599999999999993</v>
+      </c>
+      <c r="F30">
+        <v>7.4</v>
+      </c>
+      <c r="G30">
+        <v>7.37</v>
+      </c>
+      <c r="H30">
+        <v>7.4</v>
       </c>
     </row>
     <row r="31" spans="3:8" x14ac:dyDescent="0.2">

--- a/USHPRR/UMo_radiation_damage.xlsx
+++ b/USHPRR/UMo_radiation_damage.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/spreadsheets/USHPRR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/USHPRR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DBA0794-35DC-E546-80C8-C45F7636448B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2230C1F-4195-9845-A460-9F04C35FFC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2440" yWindow="2540" windowWidth="28260" windowHeight="15800" activeTab="1" xr2:uid="{6147F9BE-C613-5E42-8D18-16DEAC3FC724}"/>
+    <workbookView xWindow="0" yWindow="5620" windowWidth="24220" windowHeight="15800" activeTab="4" xr2:uid="{6147F9BE-C613-5E42-8D18-16DEAC3FC724}"/>
   </bookViews>
   <sheets>
     <sheet name="2kev" sheetId="9" r:id="rId1"/>
@@ -743,10 +743,16 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="power"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.53494570659964258"/>
+                  <c:y val="-0.15567192116702505"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -862,6 +868,56 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.53733972156223619"/>
+                  <c:y val="-0.31378308556224183"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>summary!$K$6:$K$9</c:f>
@@ -894,6 +950,12 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>14.62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.3299999999999983</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.2899999999999991</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -941,6 +1003,56 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.52985842480413137"/>
+                  <c:y val="-0.44180065900406851"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>summary!$K$6:$K$9</c:f>
@@ -972,7 +1084,13 @@
                   <c:v>37.219999999999992</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.550000000000004</c:v>
+                  <c:v>19.439999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.9699999999999989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1020,6 +1138,56 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.52237712804602665"/>
+                  <c:y val="-8.7595563324721931E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>summary!$K$6:$K$9</c:f>
@@ -1052,6 +1220,12 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>68.28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39.310000000000009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.109999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1425,7 +1599,7 @@
                   <c:v>14.62</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.550000000000004</c:v>
+                  <c:v>19.439999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>68.28</c:v>
@@ -1506,6 +1680,15 @@
                 <c:pt idx="0">
                   <c:v>9.9699999999999989</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.3299999999999983</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39.310000000000009</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1581,6 +1764,15 @@
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>7.1300000000000008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2899999999999991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.9699999999999989</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.109999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1946,7 +2138,7 @@
                   <c:v>14.62</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.550000000000004</c:v>
+                  <c:v>19.439999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2021,6 +2213,12 @@
                 <c:pt idx="0">
                   <c:v>9.9699999999999989</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.3299999999999983</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.059999999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2094,6 +2292,12 @@
                 <c:pt idx="0">
                   <c:v>7.1300000000000008</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2899999999999991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.9699999999999989</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2120,6 +2324,533 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="880227039"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="880227039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="880225327"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>summary!$D$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>summary!$D$14:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>16.279999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.559999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.88</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.179999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6F25-2942-B432-94A1C637E873}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>summary!$D$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>summary!$D$15:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>14.62</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.09</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.170000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.619999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6F25-2942-B432-94A1C637E873}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>summary!$D$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>summary!$D$16:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>19.439999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.940000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.98</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.080000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6F25-2942-B432-94A1C637E873}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>summary!$D$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>summary!$D$17:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>68.28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67.069999999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62.769999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76.749999999999986</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85.050000000000011</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6F25-2942-B432-94A1C637E873}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="880225327"/>
+        <c:axId val="880227039"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="880225327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2413,6 +3144,46 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4516,20 +5287,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4594,16 +5881,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4632,16 +5919,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4663,6 +5950,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2B2819A-2FEC-FC4C-85CF-6DE6976DF194}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4970,8 +6295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3943012F-0CD3-3046-9BFB-8F21DD88D4CA}">
   <dimension ref="B2:V105"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4:V4"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10:R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5073,6 +6398,21 @@
       <c r="Q5">
         <v>800</v>
       </c>
+      <c r="R5">
+        <v>7.2899999999999991</v>
+      </c>
+      <c r="S5">
+        <v>6.1400000000000006</v>
+      </c>
+      <c r="T5">
+        <v>6.5600000000000005</v>
+      </c>
+      <c r="U5">
+        <v>6.6700000000000017</v>
+      </c>
+      <c r="V5">
+        <v>6.2000000000000011</v>
+      </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B6">
@@ -5108,6 +6448,21 @@
       <c r="Q6">
         <v>1000</v>
       </c>
+      <c r="R6">
+        <v>7.9699999999999989</v>
+      </c>
+      <c r="S6">
+        <v>8.3299999999999983</v>
+      </c>
+      <c r="T6">
+        <v>8.1900000000000013</v>
+      </c>
+      <c r="U6">
+        <v>8.120000000000001</v>
+      </c>
+      <c r="V6">
+        <v>8.5400000000000027</v>
+      </c>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B7">
@@ -5143,6 +6498,21 @@
       <c r="Q7">
         <v>1200</v>
       </c>
+      <c r="R7">
+        <v>26.109999999999996</v>
+      </c>
+      <c r="S7">
+        <v>24.760000000000005</v>
+      </c>
+      <c r="T7">
+        <v>21.839999999999996</v>
+      </c>
+      <c r="U7">
+        <v>28.489999999999991</v>
+      </c>
+      <c r="V7">
+        <v>33.289999999999992</v>
+      </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B8">
@@ -5245,6 +6615,21 @@
       <c r="Q10">
         <v>600</v>
       </c>
+      <c r="R10">
+        <v>1.8493526605701469</v>
+      </c>
+      <c r="S10">
+        <v>2.3943793833849627</v>
+      </c>
+      <c r="T10">
+        <v>2.2571523745873385</v>
+      </c>
+      <c r="U10">
+        <v>2.9129655715529181</v>
+      </c>
+      <c r="V10">
+        <v>1.8750438591361558</v>
+      </c>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B11">
@@ -5280,6 +6665,21 @@
       <c r="Q11">
         <v>800</v>
       </c>
+      <c r="R11">
+        <v>2.5093299587948339</v>
+      </c>
+      <c r="S11">
+        <v>2.7400345752716699</v>
+      </c>
+      <c r="T11">
+        <v>2.1389618731377213</v>
+      </c>
+      <c r="U11">
+        <v>1.7293442627040299</v>
+      </c>
+      <c r="V11">
+        <v>2.0063058485422234</v>
+      </c>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B12">
@@ -5315,6 +6715,21 @@
       <c r="Q12">
         <v>1000</v>
       </c>
+      <c r="R12">
+        <v>1.758318574811274</v>
+      </c>
+      <c r="S12">
+        <v>2.3958516780380887</v>
+      </c>
+      <c r="T12">
+        <v>2.3010066446986559</v>
+      </c>
+      <c r="U12">
+        <v>2.4549841890368787</v>
+      </c>
+      <c r="V12">
+        <v>2.2034422830509586</v>
+      </c>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B13">
@@ -5349,6 +6764,21 @@
       </c>
       <c r="Q13">
         <v>1200</v>
+      </c>
+      <c r="R13">
+        <v>2.9724878823178638</v>
+      </c>
+      <c r="S13">
+        <v>3.1832456128264237</v>
+      </c>
+      <c r="T13">
+        <v>2.5699477774747921</v>
+      </c>
+      <c r="U13">
+        <v>2.6655502048801933</v>
+      </c>
+      <c r="V13">
+        <v>3.1877892025665688</v>
       </c>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.2">
@@ -5771,144 +7201,684 @@
       <c r="B31">
         <v>1</v>
       </c>
+      <c r="C31">
+        <v>10.4</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>6</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>8.4</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>7.2</v>
+      </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>10</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32">
+        <v>6</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>6.2</v>
+      </c>
+      <c r="N32">
+        <v>2</v>
+      </c>
+      <c r="O32">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C33">
+        <v>4.2</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>9</v>
+      </c>
+      <c r="H33">
+        <v>3</v>
+      </c>
+      <c r="I33">
+        <v>6.2</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>4.2</v>
+      </c>
+      <c r="N33">
+        <v>3</v>
+      </c>
+      <c r="O33">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C34">
+        <v>7.2</v>
+      </c>
+      <c r="E34">
+        <v>4</v>
+      </c>
+      <c r="F34">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="H34">
+        <v>4</v>
+      </c>
+      <c r="I34">
+        <v>3.4</v>
+      </c>
+      <c r="K34">
+        <v>4</v>
+      </c>
+      <c r="L34">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="N34">
+        <v>4</v>
+      </c>
+      <c r="O34">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C35">
+        <v>12</v>
+      </c>
+      <c r="E35">
+        <v>5</v>
+      </c>
+      <c r="F35">
+        <v>4.2</v>
+      </c>
+      <c r="H35">
+        <v>5</v>
+      </c>
+      <c r="I35">
+        <v>9.4</v>
+      </c>
+      <c r="K35">
+        <v>5</v>
+      </c>
+      <c r="L35">
+        <v>7.4</v>
+      </c>
+      <c r="N35">
+        <v>5</v>
+      </c>
+      <c r="O35">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C36">
+        <v>8.4</v>
+      </c>
+      <c r="E36">
+        <v>6</v>
+      </c>
+      <c r="F36">
+        <v>6</v>
+      </c>
+      <c r="H36">
+        <v>6</v>
+      </c>
+      <c r="I36">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K36">
+        <v>6</v>
+      </c>
+      <c r="L36">
+        <v>5</v>
+      </c>
+      <c r="N36">
+        <v>6</v>
+      </c>
+      <c r="O36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>7</v>
       </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C37">
+        <v>6</v>
+      </c>
+      <c r="E37">
+        <v>7</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+      <c r="H37">
+        <v>7</v>
+      </c>
+      <c r="I37">
+        <v>5</v>
+      </c>
+      <c r="K37">
+        <v>7</v>
+      </c>
+      <c r="L37">
+        <v>5</v>
+      </c>
+      <c r="N37">
+        <v>7</v>
+      </c>
+      <c r="O37">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C38">
+        <v>12.2</v>
+      </c>
+      <c r="E38">
+        <v>8</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+      <c r="H38">
+        <v>8</v>
+      </c>
+      <c r="I38">
+        <v>5</v>
+      </c>
+      <c r="K38">
+        <v>8</v>
+      </c>
+      <c r="L38">
+        <v>4.2</v>
+      </c>
+      <c r="N38">
+        <v>8</v>
+      </c>
+      <c r="O38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B39">
         <v>9</v>
       </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C39">
+        <v>6.2</v>
+      </c>
+      <c r="E39">
+        <v>9</v>
+      </c>
+      <c r="F39">
+        <v>4.2</v>
+      </c>
+      <c r="H39">
+        <v>9</v>
+      </c>
+      <c r="I39">
+        <v>7.2</v>
+      </c>
+      <c r="K39">
+        <v>9</v>
+      </c>
+      <c r="L39">
+        <v>8</v>
+      </c>
+      <c r="N39">
+        <v>9</v>
+      </c>
+      <c r="O39">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>10</v>
       </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C40">
+        <v>7.2</v>
+      </c>
+      <c r="E40">
+        <v>10</v>
+      </c>
+      <c r="F40">
+        <v>4</v>
+      </c>
+      <c r="H40">
+        <v>10</v>
+      </c>
+      <c r="I40">
+        <v>11.6</v>
+      </c>
+      <c r="K40">
+        <v>10</v>
+      </c>
+      <c r="L40">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="N40">
+        <v>10</v>
+      </c>
+      <c r="O40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B41">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="E41">
+        <v>11</v>
+      </c>
+      <c r="F41">
+        <v>9.4</v>
+      </c>
+      <c r="H41">
+        <v>11</v>
+      </c>
+      <c r="I41">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K41">
+        <v>11</v>
+      </c>
+      <c r="L41">
+        <v>6</v>
+      </c>
+      <c r="N41">
+        <v>11</v>
+      </c>
+      <c r="O41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B42">
         <v>12</v>
       </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C42">
+        <v>5.2</v>
+      </c>
+      <c r="E42">
+        <v>12</v>
+      </c>
+      <c r="F42">
+        <v>5.2</v>
+      </c>
+      <c r="H42">
+        <v>12</v>
+      </c>
+      <c r="I42">
+        <v>6</v>
+      </c>
+      <c r="K42">
+        <v>12</v>
+      </c>
+      <c r="L42">
+        <v>7.4</v>
+      </c>
+      <c r="N42">
+        <v>12</v>
+      </c>
+      <c r="O42">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>13</v>
       </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C43">
+        <v>7</v>
+      </c>
+      <c r="E43">
+        <v>13</v>
+      </c>
+      <c r="F43">
+        <v>4</v>
+      </c>
+      <c r="H43">
+        <v>13</v>
+      </c>
+      <c r="I43">
+        <v>6.2</v>
+      </c>
+      <c r="K43">
+        <v>13</v>
+      </c>
+      <c r="L43">
+        <v>7.2</v>
+      </c>
+      <c r="N43">
+        <v>13</v>
+      </c>
+      <c r="O43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>14</v>
       </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C44">
+        <v>8</v>
+      </c>
+      <c r="E44">
+        <v>14</v>
+      </c>
+      <c r="F44">
+        <v>6</v>
+      </c>
+      <c r="H44">
+        <v>14</v>
+      </c>
+      <c r="I44">
+        <v>5</v>
+      </c>
+      <c r="K44">
+        <v>14</v>
+      </c>
+      <c r="L44">
+        <v>6</v>
+      </c>
+      <c r="N44">
+        <v>14</v>
+      </c>
+      <c r="O44">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B45">
         <v>15</v>
       </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C45">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E45">
+        <v>15</v>
+      </c>
+      <c r="F45">
+        <v>4</v>
+      </c>
+      <c r="H45">
+        <v>15</v>
+      </c>
+      <c r="I45">
+        <v>9</v>
+      </c>
+      <c r="K45">
+        <v>15</v>
+      </c>
+      <c r="L45">
+        <v>6.2</v>
+      </c>
+      <c r="N45">
+        <v>15</v>
+      </c>
+      <c r="O45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B46">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C46">
+        <v>7.2</v>
+      </c>
+      <c r="E46">
+        <v>16</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="H46">
+        <v>16</v>
+      </c>
+      <c r="I46">
+        <v>8</v>
+      </c>
+      <c r="K46">
+        <v>16</v>
+      </c>
+      <c r="L46">
+        <v>7.2</v>
+      </c>
+      <c r="N46">
+        <v>16</v>
+      </c>
+      <c r="O46">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B47">
         <v>17</v>
       </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C47">
+        <v>6</v>
+      </c>
+      <c r="E47">
+        <v>17</v>
+      </c>
+      <c r="F47">
+        <v>8</v>
+      </c>
+      <c r="H47">
+        <v>17</v>
+      </c>
+      <c r="I47">
+        <v>5</v>
+      </c>
+      <c r="K47">
+        <v>17</v>
+      </c>
+      <c r="L47">
+        <v>10</v>
+      </c>
+      <c r="N47">
+        <v>17</v>
+      </c>
+      <c r="O47">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B48">
         <v>18</v>
+      </c>
+      <c r="C48">
+        <v>7</v>
+      </c>
+      <c r="E48">
+        <v>18</v>
+      </c>
+      <c r="F48">
+        <v>3.2</v>
+      </c>
+      <c r="H48">
+        <v>18</v>
+      </c>
+      <c r="I48">
+        <v>5.2</v>
+      </c>
+      <c r="K48">
+        <v>18</v>
+      </c>
+      <c r="L48">
+        <v>5.2</v>
+      </c>
+      <c r="N48">
+        <v>18</v>
+      </c>
+      <c r="O48">
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B49">
         <v>19</v>
       </c>
+      <c r="C49">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E49">
+        <v>19</v>
+      </c>
+      <c r="F49">
+        <v>6</v>
+      </c>
+      <c r="H49">
+        <v>19</v>
+      </c>
+      <c r="I49">
+        <v>9</v>
+      </c>
+      <c r="K49">
+        <v>19</v>
+      </c>
+      <c r="L49">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="N49">
+        <v>19</v>
+      </c>
+      <c r="O49">
+        <v>4</v>
+      </c>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B50">
         <v>20</v>
       </c>
+      <c r="C50">
+        <v>4.2</v>
+      </c>
+      <c r="E50">
+        <v>20</v>
+      </c>
+      <c r="F50">
+        <v>11.2</v>
+      </c>
+      <c r="H50">
+        <v>20</v>
+      </c>
+      <c r="I50">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="K50">
+        <v>20</v>
+      </c>
+      <c r="L50">
+        <v>7</v>
+      </c>
+      <c r="N50">
+        <v>20</v>
+      </c>
+      <c r="O50">
+        <v>4</v>
+      </c>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C52" t="e">
+      <c r="C52">
         <f>AVERAGE(C31:C50)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F52" t="e">
+        <v>7.2899999999999991</v>
+      </c>
+      <c r="F52">
         <f>AVERAGE(F31:F50)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I52" t="e">
+        <v>6.1400000000000006</v>
+      </c>
+      <c r="I52">
         <f>AVERAGE(I31:I50)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L52" t="e">
+        <v>6.5600000000000005</v>
+      </c>
+      <c r="L52">
         <f>AVERAGE(L31:L50)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O52" t="e">
+        <v>6.6700000000000017</v>
+      </c>
+      <c r="O52">
         <f>AVERAGE(O31:O50)</f>
-        <v>#DIV/0!</v>
+        <v>6.2000000000000011</v>
       </c>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C53" t="e">
+      <c r="C53">
         <f>STDEV(C31:C50)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F53" t="e">
+        <v>2.5093299587948339</v>
+      </c>
+      <c r="F53">
         <f>STDEV(F31:F50)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I53" t="e">
+        <v>2.7400345752716699</v>
+      </c>
+      <c r="I53">
         <f>STDEV(I31:I50)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L53" t="e">
+        <v>2.1389618731377213</v>
+      </c>
+      <c r="L53">
         <f>STDEV(L31:L50)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O53" t="e">
+        <v>1.7293442627040299</v>
+      </c>
+      <c r="O53">
         <f>STDEV(O31:O50)</f>
-        <v>#DIV/0!</v>
+        <v>2.0063058485422234</v>
       </c>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.2">
@@ -5935,144 +7905,684 @@
       <c r="B57">
         <v>1</v>
       </c>
+      <c r="C57">
+        <v>5</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>9.6</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>8</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>6.4</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>10.6</v>
+      </c>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B58">
         <v>2</v>
       </c>
+      <c r="C58">
+        <v>10.8</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="F58">
+        <v>5.2</v>
+      </c>
+      <c r="H58">
+        <v>2</v>
+      </c>
+      <c r="I58">
+        <v>9.4</v>
+      </c>
+      <c r="K58">
+        <v>2</v>
+      </c>
+      <c r="L58">
+        <v>9.6</v>
+      </c>
+      <c r="N58">
+        <v>2</v>
+      </c>
+      <c r="O58">
+        <v>11.8</v>
+      </c>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B59">
         <v>3</v>
       </c>
+      <c r="C59">
+        <v>10</v>
+      </c>
+      <c r="E59">
+        <v>3</v>
+      </c>
+      <c r="F59">
+        <v>6</v>
+      </c>
+      <c r="H59">
+        <v>3</v>
+      </c>
+      <c r="I59">
+        <v>8</v>
+      </c>
+      <c r="K59">
+        <v>3</v>
+      </c>
+      <c r="L59">
+        <v>5.6</v>
+      </c>
+      <c r="N59">
+        <v>3</v>
+      </c>
+      <c r="O59">
+        <v>9.4</v>
+      </c>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B60">
         <v>4</v>
       </c>
+      <c r="C60">
+        <v>6.4</v>
+      </c>
+      <c r="E60">
+        <v>4</v>
+      </c>
+      <c r="F60">
+        <v>4</v>
+      </c>
+      <c r="H60">
+        <v>4</v>
+      </c>
+      <c r="I60">
+        <v>5.4</v>
+      </c>
+      <c r="K60">
+        <v>4</v>
+      </c>
+      <c r="L60">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="N60">
+        <v>4</v>
+      </c>
+      <c r="O60">
+        <v>9.8000000000000007</v>
+      </c>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B61">
         <v>5</v>
       </c>
+      <c r="C61">
+        <v>6.6</v>
+      </c>
+      <c r="E61">
+        <v>5</v>
+      </c>
+      <c r="F61">
+        <v>7.2</v>
+      </c>
+      <c r="H61">
+        <v>5</v>
+      </c>
+      <c r="I61">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="K61">
+        <v>5</v>
+      </c>
+      <c r="L61">
+        <v>10</v>
+      </c>
+      <c r="N61">
+        <v>5</v>
+      </c>
+      <c r="O61">
+        <v>10.4</v>
+      </c>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B62">
         <v>6</v>
       </c>
+      <c r="C62">
+        <v>8</v>
+      </c>
+      <c r="E62">
+        <v>6</v>
+      </c>
+      <c r="F62">
+        <v>7</v>
+      </c>
+      <c r="H62">
+        <v>6</v>
+      </c>
+      <c r="I62">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="K62">
+        <v>6</v>
+      </c>
+      <c r="L62">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="N62">
+        <v>6</v>
+      </c>
+      <c r="O62">
+        <v>7.4</v>
+      </c>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B63">
         <v>7</v>
       </c>
+      <c r="C63">
+        <v>5</v>
+      </c>
+      <c r="E63">
+        <v>7</v>
+      </c>
+      <c r="F63">
+        <v>8.6</v>
+      </c>
+      <c r="H63">
+        <v>7</v>
+      </c>
+      <c r="I63">
+        <v>14.2</v>
+      </c>
+      <c r="K63">
+        <v>7</v>
+      </c>
+      <c r="L63">
+        <v>7.6</v>
+      </c>
+      <c r="N63">
+        <v>7</v>
+      </c>
+      <c r="O63">
+        <v>6.2</v>
+      </c>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B64">
         <v>8</v>
       </c>
+      <c r="C64">
+        <v>9.6</v>
+      </c>
+      <c r="E64">
+        <v>8</v>
+      </c>
+      <c r="F64">
+        <v>6.4</v>
+      </c>
+      <c r="H64">
+        <v>8</v>
+      </c>
+      <c r="I64">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="K64">
+        <v>8</v>
+      </c>
+      <c r="L64">
+        <v>13.6</v>
+      </c>
+      <c r="N64">
+        <v>8</v>
+      </c>
+      <c r="O64">
+        <v>10.199999999999999</v>
+      </c>
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B65">
         <v>9</v>
       </c>
+      <c r="C65">
+        <v>8.6</v>
+      </c>
+      <c r="E65">
+        <v>9</v>
+      </c>
+      <c r="F65">
+        <v>10.6</v>
+      </c>
+      <c r="H65">
+        <v>9</v>
+      </c>
+      <c r="I65">
+        <v>6</v>
+      </c>
+      <c r="K65">
+        <v>9</v>
+      </c>
+      <c r="L65">
+        <v>5.6</v>
+      </c>
+      <c r="N65">
+        <v>9</v>
+      </c>
+      <c r="O65">
+        <v>6.2</v>
+      </c>
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B66">
         <v>10</v>
       </c>
+      <c r="C66">
+        <v>8.6</v>
+      </c>
+      <c r="E66">
+        <v>10</v>
+      </c>
+      <c r="F66">
+        <v>11</v>
+      </c>
+      <c r="H66">
+        <v>10</v>
+      </c>
+      <c r="I66">
+        <v>10.8</v>
+      </c>
+      <c r="K66">
+        <v>10</v>
+      </c>
+      <c r="L66">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="N66">
+        <v>10</v>
+      </c>
+      <c r="O66">
+        <v>8.1999999999999993</v>
+      </c>
     </row>
     <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B67">
         <v>11</v>
       </c>
+      <c r="C67">
+        <v>7.6</v>
+      </c>
+      <c r="E67">
+        <v>11</v>
+      </c>
+      <c r="F67">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="H67">
+        <v>11</v>
+      </c>
+      <c r="I67">
+        <v>10.6</v>
+      </c>
+      <c r="K67">
+        <v>11</v>
+      </c>
+      <c r="L67">
+        <v>8.4</v>
+      </c>
+      <c r="N67">
+        <v>11</v>
+      </c>
+      <c r="O67">
+        <v>5</v>
+      </c>
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B68">
         <v>12</v>
       </c>
+      <c r="C68">
+        <v>10.8</v>
+      </c>
+      <c r="E68">
+        <v>12</v>
+      </c>
+      <c r="F68">
+        <v>5.6</v>
+      </c>
+      <c r="H68">
+        <v>12</v>
+      </c>
+      <c r="I68">
+        <v>9.4</v>
+      </c>
+      <c r="K68">
+        <v>12</v>
+      </c>
+      <c r="L68">
+        <v>5</v>
+      </c>
+      <c r="N68">
+        <v>12</v>
+      </c>
+      <c r="O68">
+        <v>7.2</v>
+      </c>
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B69">
         <v>13</v>
       </c>
+      <c r="C69">
+        <v>7</v>
+      </c>
+      <c r="E69">
+        <v>13</v>
+      </c>
+      <c r="F69">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="H69">
+        <v>13</v>
+      </c>
+      <c r="I69">
+        <v>5.4</v>
+      </c>
+      <c r="K69">
+        <v>13</v>
+      </c>
+      <c r="L69">
+        <v>6</v>
+      </c>
+      <c r="N69">
+        <v>13</v>
+      </c>
+      <c r="O69">
+        <v>12.2</v>
+      </c>
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B70">
         <v>14</v>
       </c>
+      <c r="C70">
+        <v>8.6</v>
+      </c>
+      <c r="E70">
+        <v>14</v>
+      </c>
+      <c r="F70">
+        <v>9.4</v>
+      </c>
+      <c r="H70">
+        <v>14</v>
+      </c>
+      <c r="I70">
+        <v>7.6</v>
+      </c>
+      <c r="K70">
+        <v>14</v>
+      </c>
+      <c r="L70">
+        <v>10.6</v>
+      </c>
+      <c r="N70">
+        <v>14</v>
+      </c>
+      <c r="O70">
+        <v>5</v>
+      </c>
     </row>
     <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B71">
         <v>15</v>
       </c>
+      <c r="C71">
+        <v>8</v>
+      </c>
+      <c r="E71">
+        <v>15</v>
+      </c>
+      <c r="F71">
+        <v>14.6</v>
+      </c>
+      <c r="H71">
+        <v>15</v>
+      </c>
+      <c r="I71">
+        <v>7.4</v>
+      </c>
+      <c r="K71">
+        <v>15</v>
+      </c>
+      <c r="L71">
+        <v>10</v>
+      </c>
+      <c r="N71">
+        <v>15</v>
+      </c>
+      <c r="O71">
+        <v>10</v>
+      </c>
     </row>
     <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B72">
         <v>16</v>
       </c>
+      <c r="C72">
+        <v>5</v>
+      </c>
+      <c r="E72">
+        <v>16</v>
+      </c>
+      <c r="F72">
+        <v>7.6</v>
+      </c>
+      <c r="H72">
+        <v>16</v>
+      </c>
+      <c r="I72">
+        <v>5.4</v>
+      </c>
+      <c r="K72">
+        <v>16</v>
+      </c>
+      <c r="L72">
+        <v>4.8</v>
+      </c>
+      <c r="N72">
+        <v>16</v>
+      </c>
+      <c r="O72">
+        <v>6.8</v>
+      </c>
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B73">
         <v>17</v>
       </c>
+      <c r="C73">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E73">
+        <v>17</v>
+      </c>
+      <c r="F73">
+        <v>7.6</v>
+      </c>
+      <c r="H73">
+        <v>17</v>
+      </c>
+      <c r="I73">
+        <v>7</v>
+      </c>
+      <c r="K73">
+        <v>17</v>
+      </c>
+      <c r="L73">
+        <v>8.6</v>
+      </c>
+      <c r="N73">
+        <v>17</v>
+      </c>
+      <c r="O73">
+        <v>10.4</v>
+      </c>
     </row>
     <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B74">
         <v>18</v>
       </c>
+      <c r="C74">
+        <v>8</v>
+      </c>
+      <c r="E74">
+        <v>18</v>
+      </c>
+      <c r="F74">
+        <v>8.6</v>
+      </c>
+      <c r="H74">
+        <v>18</v>
+      </c>
+      <c r="I74">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="K74">
+        <v>18</v>
+      </c>
+      <c r="L74">
+        <v>9</v>
+      </c>
+      <c r="N74">
+        <v>18</v>
+      </c>
+      <c r="O74">
+        <v>10</v>
+      </c>
     </row>
     <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B75">
         <v>19</v>
       </c>
+      <c r="C75">
+        <v>7.6</v>
+      </c>
+      <c r="E75">
+        <v>19</v>
+      </c>
+      <c r="F75">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="H75">
+        <v>19</v>
+      </c>
+      <c r="I75">
+        <v>6.2</v>
+      </c>
+      <c r="K75">
+        <v>19</v>
+      </c>
+      <c r="L75">
+        <v>10.8</v>
+      </c>
+      <c r="N75">
+        <v>19</v>
+      </c>
+      <c r="O75">
+        <v>7.6</v>
+      </c>
     </row>
     <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B76">
         <v>20</v>
       </c>
+      <c r="C76">
+        <v>9.4</v>
+      </c>
+      <c r="E76">
+        <v>20</v>
+      </c>
+      <c r="F76">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="H76">
+        <v>20</v>
+      </c>
+      <c r="I76">
+        <v>5.6</v>
+      </c>
+      <c r="K76">
+        <v>20</v>
+      </c>
+      <c r="L76">
+        <v>6.8</v>
+      </c>
+      <c r="N76">
+        <v>20</v>
+      </c>
+      <c r="O76">
+        <v>6.4</v>
+      </c>
     </row>
     <row r="78" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C78" t="e">
+      <c r="C78">
         <f>AVERAGE(C57:C76)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F78" t="e">
+        <v>7.9699999999999989</v>
+      </c>
+      <c r="F78">
         <f>AVERAGE(F57:F76)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I78" t="e">
+        <v>8.3299999999999983</v>
+      </c>
+      <c r="I78">
         <f>AVERAGE(I57:I76)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L78" t="e">
+        <v>8.1900000000000013</v>
+      </c>
+      <c r="L78">
         <f>AVERAGE(L57:L76)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O78" t="e">
+        <v>8.120000000000001</v>
+      </c>
+      <c r="O78">
         <f>AVERAGE(O57:O76)</f>
-        <v>#DIV/0!</v>
+        <v>8.5400000000000027</v>
       </c>
     </row>
     <row r="79" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C79" t="e">
+      <c r="C79">
         <f>STDEV(C57:C76)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F79" t="e">
+        <v>1.758318574811274</v>
+      </c>
+      <c r="F79">
         <f>STDEV(F57:F76)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I79" t="e">
+        <v>2.3958516780380887</v>
+      </c>
+      <c r="I79">
         <f>STDEV(I57:I76)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L79" t="e">
+        <v>2.3010066446986559</v>
+      </c>
+      <c r="L79">
         <f>STDEV(L57:L76)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O79" t="e">
+        <v>2.4549841890368787</v>
+      </c>
+      <c r="O79">
         <f>STDEV(O57:O76)</f>
-        <v>#DIV/0!</v>
+        <v>2.2034422830509586</v>
       </c>
     </row>
     <row r="81" spans="2:15" x14ac:dyDescent="0.2">
@@ -6099,144 +8609,684 @@
       <c r="B83">
         <v>1</v>
       </c>
+      <c r="C83">
+        <v>27.2</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>28</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="I83">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="L83">
+        <v>28.4</v>
+      </c>
+      <c r="N83">
+        <v>1</v>
+      </c>
+      <c r="O83">
+        <v>31</v>
+      </c>
     </row>
     <row r="84" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B84">
         <v>2</v>
       </c>
+      <c r="C84">
+        <v>25</v>
+      </c>
+      <c r="E84">
+        <v>2</v>
+      </c>
+      <c r="F84">
+        <v>21</v>
+      </c>
+      <c r="H84">
+        <v>2</v>
+      </c>
+      <c r="I84">
+        <v>23.8</v>
+      </c>
+      <c r="K84">
+        <v>2</v>
+      </c>
+      <c r="L84">
+        <v>27.6</v>
+      </c>
+      <c r="N84">
+        <v>2</v>
+      </c>
+      <c r="O84">
+        <v>32.200000000000003</v>
+      </c>
     </row>
     <row r="85" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B85">
         <v>3</v>
       </c>
+      <c r="C85">
+        <v>26</v>
+      </c>
+      <c r="E85">
+        <v>3</v>
+      </c>
+      <c r="F85">
+        <v>22</v>
+      </c>
+      <c r="H85">
+        <v>3</v>
+      </c>
+      <c r="I85">
+        <v>22.6</v>
+      </c>
+      <c r="K85">
+        <v>3</v>
+      </c>
+      <c r="L85">
+        <v>27.8</v>
+      </c>
+      <c r="N85">
+        <v>3</v>
+      </c>
+      <c r="O85">
+        <v>31.4</v>
+      </c>
     </row>
     <row r="86" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B86">
         <v>4</v>
       </c>
+      <c r="C86">
+        <v>23.8</v>
+      </c>
+      <c r="E86">
+        <v>4</v>
+      </c>
+      <c r="F86">
+        <v>28.4</v>
+      </c>
+      <c r="H86">
+        <v>4</v>
+      </c>
+      <c r="I86">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="K86">
+        <v>4</v>
+      </c>
+      <c r="L86">
+        <v>29</v>
+      </c>
+      <c r="N86">
+        <v>4</v>
+      </c>
+      <c r="O86">
+        <v>35.799999999999997</v>
+      </c>
     </row>
     <row r="87" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B87">
         <v>5</v>
       </c>
+      <c r="C87">
+        <v>30</v>
+      </c>
+      <c r="E87">
+        <v>5</v>
+      </c>
+      <c r="F87">
+        <v>23.4</v>
+      </c>
+      <c r="H87">
+        <v>5</v>
+      </c>
+      <c r="I87">
+        <v>21.6</v>
+      </c>
+      <c r="K87">
+        <v>5</v>
+      </c>
+      <c r="L87">
+        <v>31.8</v>
+      </c>
+      <c r="N87">
+        <v>5</v>
+      </c>
+      <c r="O87">
+        <v>38.4</v>
+      </c>
     </row>
     <row r="88" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B88">
         <v>6</v>
       </c>
+      <c r="C88">
+        <v>25.6</v>
+      </c>
+      <c r="E88">
+        <v>6</v>
+      </c>
+      <c r="F88">
+        <v>28.6</v>
+      </c>
+      <c r="H88">
+        <v>6</v>
+      </c>
+      <c r="I88">
+        <v>19</v>
+      </c>
+      <c r="K88">
+        <v>6</v>
+      </c>
+      <c r="L88">
+        <v>35.4</v>
+      </c>
+      <c r="N88">
+        <v>6</v>
+      </c>
+      <c r="O88">
+        <v>33.799999999999997</v>
+      </c>
     </row>
     <row r="89" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B89">
         <v>7</v>
       </c>
+      <c r="C89">
+        <v>23.6</v>
+      </c>
+      <c r="E89">
+        <v>7</v>
+      </c>
+      <c r="F89">
+        <v>28.6</v>
+      </c>
+      <c r="H89">
+        <v>7</v>
+      </c>
+      <c r="I89">
+        <v>24.8</v>
+      </c>
+      <c r="K89">
+        <v>7</v>
+      </c>
+      <c r="L89">
+        <v>24.6</v>
+      </c>
+      <c r="N89">
+        <v>7</v>
+      </c>
+      <c r="O89">
+        <v>32</v>
+      </c>
     </row>
     <row r="90" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B90">
         <v>8</v>
       </c>
+      <c r="C90">
+        <v>23.6</v>
+      </c>
+      <c r="E90">
+        <v>8</v>
+      </c>
+      <c r="F90">
+        <v>23.6</v>
+      </c>
+      <c r="H90">
+        <v>8</v>
+      </c>
+      <c r="I90">
+        <v>22</v>
+      </c>
+      <c r="K90">
+        <v>8</v>
+      </c>
+      <c r="L90">
+        <v>26.6</v>
+      </c>
+      <c r="N90">
+        <v>8</v>
+      </c>
+      <c r="O90">
+        <v>32.4</v>
+      </c>
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B91">
         <v>9</v>
       </c>
+      <c r="C91">
+        <v>22.8</v>
+      </c>
+      <c r="E91">
+        <v>9</v>
+      </c>
+      <c r="F91">
+        <v>25.8</v>
+      </c>
+      <c r="H91">
+        <v>9</v>
+      </c>
+      <c r="I91">
+        <v>22.2</v>
+      </c>
+      <c r="K91">
+        <v>9</v>
+      </c>
+      <c r="L91">
+        <v>26</v>
+      </c>
+      <c r="N91">
+        <v>9</v>
+      </c>
+      <c r="O91">
+        <v>35.6</v>
+      </c>
     </row>
     <row r="92" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B92">
         <v>10</v>
       </c>
+      <c r="C92">
+        <v>26.2</v>
+      </c>
+      <c r="E92">
+        <v>10</v>
+      </c>
+      <c r="F92">
+        <v>27.4</v>
+      </c>
+      <c r="H92">
+        <v>10</v>
+      </c>
+      <c r="I92">
+        <v>24.4</v>
+      </c>
+      <c r="K92">
+        <v>10</v>
+      </c>
+      <c r="L92">
+        <v>31.4</v>
+      </c>
+      <c r="N92">
+        <v>10</v>
+      </c>
+      <c r="O92">
+        <v>32.799999999999997</v>
+      </c>
     </row>
     <row r="93" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B93">
         <v>11</v>
       </c>
+      <c r="C93">
+        <v>22.4</v>
+      </c>
+      <c r="E93">
+        <v>11</v>
+      </c>
+      <c r="F93">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="H93">
+        <v>11</v>
+      </c>
+      <c r="I93">
+        <v>17.2</v>
+      </c>
+      <c r="K93">
+        <v>11</v>
+      </c>
+      <c r="L93">
+        <v>26</v>
+      </c>
+      <c r="N93">
+        <v>11</v>
+      </c>
+      <c r="O93">
+        <v>34.4</v>
+      </c>
     </row>
     <row r="94" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B94">
         <v>12</v>
       </c>
+      <c r="C94">
+        <v>29</v>
+      </c>
+      <c r="E94">
+        <v>12</v>
+      </c>
+      <c r="F94">
+        <v>19</v>
+      </c>
+      <c r="H94">
+        <v>12</v>
+      </c>
+      <c r="I94">
+        <v>22.8</v>
+      </c>
+      <c r="K94">
+        <v>12</v>
+      </c>
+      <c r="L94">
+        <v>26.8</v>
+      </c>
+      <c r="N94">
+        <v>12</v>
+      </c>
+      <c r="O94">
+        <v>31.4</v>
+      </c>
     </row>
     <row r="95" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B95">
         <v>13</v>
       </c>
+      <c r="C95">
+        <v>26.2</v>
+      </c>
+      <c r="E95">
+        <v>13</v>
+      </c>
+      <c r="F95">
+        <v>20.6</v>
+      </c>
+      <c r="H95">
+        <v>13</v>
+      </c>
+      <c r="I95">
+        <v>23.2</v>
+      </c>
+      <c r="K95">
+        <v>13</v>
+      </c>
+      <c r="L95">
+        <v>28.2</v>
+      </c>
+      <c r="N95">
+        <v>13</v>
+      </c>
+      <c r="O95">
+        <v>34.200000000000003</v>
+      </c>
     </row>
     <row r="96" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B96">
         <v>14</v>
       </c>
+      <c r="C96">
+        <v>21</v>
+      </c>
+      <c r="E96">
+        <v>14</v>
+      </c>
+      <c r="F96">
+        <v>27.2</v>
+      </c>
+      <c r="H96">
+        <v>14</v>
+      </c>
+      <c r="I96">
+        <v>24</v>
+      </c>
+      <c r="K96">
+        <v>14</v>
+      </c>
+      <c r="L96">
+        <v>25.4</v>
+      </c>
+      <c r="N96">
+        <v>14</v>
+      </c>
+      <c r="O96">
+        <v>30.2</v>
+      </c>
     </row>
     <row r="97" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B97">
         <v>15</v>
       </c>
+      <c r="C97">
+        <v>29.4</v>
+      </c>
+      <c r="E97">
+        <v>15</v>
+      </c>
+      <c r="F97">
+        <v>24</v>
+      </c>
+      <c r="H97">
+        <v>15</v>
+      </c>
+      <c r="I97">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="K97">
+        <v>15</v>
+      </c>
+      <c r="L97">
+        <v>28.2</v>
+      </c>
+      <c r="N97">
+        <v>15</v>
+      </c>
+      <c r="O97">
+        <v>30.4</v>
+      </c>
     </row>
     <row r="98" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B98">
         <v>16</v>
       </c>
+      <c r="C98">
+        <v>30.6</v>
+      </c>
+      <c r="E98">
+        <v>16</v>
+      </c>
+      <c r="F98">
+        <v>23.6</v>
+      </c>
+      <c r="H98">
+        <v>16</v>
+      </c>
+      <c r="I98">
+        <v>26.4</v>
+      </c>
+      <c r="K98">
+        <v>16</v>
+      </c>
+      <c r="L98">
+        <v>27.2</v>
+      </c>
+      <c r="N98">
+        <v>16</v>
+      </c>
+      <c r="O98">
+        <v>28.6</v>
+      </c>
     </row>
     <row r="99" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B99">
         <v>17</v>
       </c>
+      <c r="C99">
+        <v>22.4</v>
+      </c>
+      <c r="E99">
+        <v>17</v>
+      </c>
+      <c r="F99">
+        <v>24.6</v>
+      </c>
+      <c r="H99">
+        <v>17</v>
+      </c>
+      <c r="I99">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="K99">
+        <v>17</v>
+      </c>
+      <c r="L99">
+        <v>29.2</v>
+      </c>
+      <c r="N99">
+        <v>17</v>
+      </c>
+      <c r="O99">
+        <v>33.6</v>
+      </c>
     </row>
     <row r="100" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B100">
         <v>18</v>
       </c>
+      <c r="C100">
+        <v>29</v>
+      </c>
+      <c r="E100">
+        <v>18</v>
+      </c>
+      <c r="F100">
+        <v>24</v>
+      </c>
+      <c r="H100">
+        <v>18</v>
+      </c>
+      <c r="I100">
+        <v>17.8</v>
+      </c>
+      <c r="K100">
+        <v>18</v>
+      </c>
+      <c r="L100">
+        <v>28.4</v>
+      </c>
+      <c r="N100">
+        <v>18</v>
+      </c>
+      <c r="O100">
+        <v>43</v>
+      </c>
     </row>
     <row r="101" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B101">
         <v>19</v>
       </c>
+      <c r="C101">
+        <v>29.8</v>
+      </c>
+      <c r="E101">
+        <v>19</v>
+      </c>
+      <c r="F101">
+        <v>28.6</v>
+      </c>
+      <c r="H101">
+        <v>19</v>
+      </c>
+      <c r="I101">
+        <v>21.2</v>
+      </c>
+      <c r="K101">
+        <v>19</v>
+      </c>
+      <c r="L101">
+        <v>28.8</v>
+      </c>
+      <c r="N101">
+        <v>19</v>
+      </c>
+      <c r="O101">
+        <v>32.799999999999997</v>
+      </c>
     </row>
     <row r="102" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B102">
         <v>20</v>
       </c>
+      <c r="C102">
+        <v>28.6</v>
+      </c>
+      <c r="E102">
+        <v>20</v>
+      </c>
+      <c r="F102">
+        <v>27.2</v>
+      </c>
+      <c r="H102">
+        <v>20</v>
+      </c>
+      <c r="I102">
+        <v>25</v>
+      </c>
+      <c r="K102">
+        <v>20</v>
+      </c>
+      <c r="L102">
+        <v>33</v>
+      </c>
+      <c r="N102">
+        <v>20</v>
+      </c>
+      <c r="O102">
+        <v>31.8</v>
+      </c>
     </row>
     <row r="104" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C104" t="e">
+      <c r="C104">
         <f>AVERAGE(C83:C102)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F104" t="e">
+        <v>26.109999999999996</v>
+      </c>
+      <c r="F104">
         <f>AVERAGE(F83:F102)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I104" t="e">
+        <v>24.760000000000005</v>
+      </c>
+      <c r="I104">
         <f>AVERAGE(I83:I102)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L104" t="e">
+        <v>21.839999999999996</v>
+      </c>
+      <c r="L104">
         <f>AVERAGE(L83:L102)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O104" t="e">
+        <v>28.489999999999991</v>
+      </c>
+      <c r="O104">
         <f>AVERAGE(O83:O102)</f>
-        <v>#DIV/0!</v>
+        <v>33.289999999999992</v>
       </c>
     </row>
     <row r="105" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C105" t="e">
+      <c r="C105">
         <f>STDEV(C83:C102)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F105" t="e">
+        <v>2.9724878823178638</v>
+      </c>
+      <c r="F105">
         <f>STDEV(F83:F102)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I105" t="e">
+        <v>3.1832456128264237</v>
+      </c>
+      <c r="I105">
         <f>STDEV(I83:I102)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L105" t="e">
+        <v>2.5699477774747921</v>
+      </c>
+      <c r="L105">
         <f>STDEV(L83:L102)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O105" t="e">
+        <v>2.6655502048801933</v>
+      </c>
+      <c r="O105">
         <f>STDEV(O83:O102)</f>
-        <v>#DIV/0!</v>
+        <v>3.1877892025665688</v>
       </c>
     </row>
   </sheetData>
@@ -6248,8 +9298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F880DA78-A65C-4D4A-BB5D-FA680FB5D55D}">
   <dimension ref="B2:V105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:C50"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10:R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6351,6 +9401,21 @@
       <c r="Q5">
         <v>800</v>
       </c>
+      <c r="R5">
+        <v>9.3299999999999983</v>
+      </c>
+      <c r="S5">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="T5">
+        <v>10.309999999999999</v>
+      </c>
+      <c r="U5">
+        <v>10.24</v>
+      </c>
+      <c r="V5">
+        <v>10.969999999999999</v>
+      </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B6">
@@ -6386,6 +9451,21 @@
       <c r="Q6">
         <v>1000</v>
       </c>
+      <c r="R6">
+        <v>14.059999999999999</v>
+      </c>
+      <c r="S6">
+        <v>12.28</v>
+      </c>
+      <c r="T6">
+        <v>10.909999999999998</v>
+      </c>
+      <c r="U6">
+        <v>12.88</v>
+      </c>
+      <c r="V6">
+        <v>12.359999999999998</v>
+      </c>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B7">
@@ -6421,6 +9501,21 @@
       <c r="Q7">
         <v>1200</v>
       </c>
+      <c r="R7">
+        <v>39.310000000000009</v>
+      </c>
+      <c r="S7">
+        <v>38.56</v>
+      </c>
+      <c r="T7">
+        <v>32.910000000000004</v>
+      </c>
+      <c r="U7">
+        <v>43.639999999999993</v>
+      </c>
+      <c r="V7">
+        <v>48.480000000000004</v>
+      </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B8">
@@ -6573,6 +9668,21 @@
       <c r="Q11">
         <v>800</v>
       </c>
+      <c r="R11">
+        <v>1.6849488513242683</v>
+      </c>
+      <c r="S11">
+        <v>1.9400217036224947</v>
+      </c>
+      <c r="T11">
+        <v>2.9746118720723471</v>
+      </c>
+      <c r="U11">
+        <v>2.7427224277694355</v>
+      </c>
+      <c r="V11">
+        <v>2.4488665476952862</v>
+      </c>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B12">
@@ -6608,6 +9718,21 @@
       <c r="Q12">
         <v>1000</v>
       </c>
+      <c r="R12">
+        <v>2.1590446230243971</v>
+      </c>
+      <c r="S12">
+        <v>3.004838203893669</v>
+      </c>
+      <c r="T12">
+        <v>2.8920762893046148</v>
+      </c>
+      <c r="U12">
+        <v>2.9553875870135249</v>
+      </c>
+      <c r="V12">
+        <v>2.7876419010377047</v>
+      </c>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B13">
@@ -6642,6 +9767,21 @@
       </c>
       <c r="Q13">
         <v>1200</v>
+      </c>
+      <c r="R13">
+        <v>3.2304309635908215</v>
+      </c>
+      <c r="S13">
+        <v>5.0050921438492111</v>
+      </c>
+      <c r="T13">
+        <v>3.3324402312324888</v>
+      </c>
+      <c r="U13">
+        <v>3.8790123539511008</v>
+      </c>
+      <c r="V13">
+        <v>3.8848694349122965</v>
       </c>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.2">
@@ -7067,6 +10207,30 @@
       <c r="C31">
         <v>11</v>
       </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>7.4</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>14.4</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>12.2</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>8.6</v>
+      </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B32">
@@ -7075,132 +10239,540 @@
       <c r="C32">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>9</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>8.4</v>
+      </c>
+      <c r="N32">
+        <v>2</v>
+      </c>
+      <c r="O32">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>3</v>
       </c>
       <c r="C33">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>12.2</v>
+      </c>
+      <c r="H33">
+        <v>3</v>
+      </c>
+      <c r="I33">
+        <v>13.6</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>8.6</v>
+      </c>
+      <c r="N33">
+        <v>3</v>
+      </c>
+      <c r="O33">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>4</v>
       </c>
       <c r="C34">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="E34">
+        <v>4</v>
+      </c>
+      <c r="F34">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="H34">
+        <v>4</v>
+      </c>
+      <c r="I34">
+        <v>13</v>
+      </c>
+      <c r="K34">
+        <v>4</v>
+      </c>
+      <c r="L34">
+        <v>14.4</v>
+      </c>
+      <c r="N34">
+        <v>4</v>
+      </c>
+      <c r="O34">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>5</v>
       </c>
       <c r="C35">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="E35">
+        <v>5</v>
+      </c>
+      <c r="F35">
+        <v>10</v>
+      </c>
+      <c r="H35">
+        <v>5</v>
+      </c>
+      <c r="I35">
+        <v>10.4</v>
+      </c>
+      <c r="K35">
+        <v>5</v>
+      </c>
+      <c r="L35">
+        <v>11</v>
+      </c>
+      <c r="N35">
+        <v>5</v>
+      </c>
+      <c r="O35">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>6</v>
       </c>
       <c r="C36">
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="E36">
+        <v>6</v>
+      </c>
+      <c r="F36">
+        <v>11.2</v>
+      </c>
+      <c r="H36">
+        <v>6</v>
+      </c>
+      <c r="I36">
+        <v>10.6</v>
+      </c>
+      <c r="K36">
+        <v>6</v>
+      </c>
+      <c r="L36">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="N36">
+        <v>6</v>
+      </c>
+      <c r="O36">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>7</v>
       </c>
       <c r="C37">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="E37">
+        <v>7</v>
+      </c>
+      <c r="F37">
+        <v>7.6</v>
+      </c>
+      <c r="H37">
+        <v>7</v>
+      </c>
+      <c r="I37">
+        <v>12.4</v>
+      </c>
+      <c r="K37">
+        <v>7</v>
+      </c>
+      <c r="L37">
+        <v>11.4</v>
+      </c>
+      <c r="N37">
+        <v>7</v>
+      </c>
+      <c r="O37">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>8</v>
       </c>
       <c r="C38">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="E38">
+        <v>8</v>
+      </c>
+      <c r="F38">
+        <v>11.4</v>
+      </c>
+      <c r="H38">
+        <v>8</v>
+      </c>
+      <c r="I38">
+        <v>8</v>
+      </c>
+      <c r="K38">
+        <v>8</v>
+      </c>
+      <c r="L38">
+        <v>16</v>
+      </c>
+      <c r="N38">
+        <v>8</v>
+      </c>
+      <c r="O38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B39">
         <v>9</v>
       </c>
       <c r="C39">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="E39">
+        <v>9</v>
+      </c>
+      <c r="F39">
+        <v>13.2</v>
+      </c>
+      <c r="H39">
+        <v>9</v>
+      </c>
+      <c r="I39">
+        <v>4.2</v>
+      </c>
+      <c r="K39">
+        <v>9</v>
+      </c>
+      <c r="L39">
+        <v>7.2</v>
+      </c>
+      <c r="N39">
+        <v>9</v>
+      </c>
+      <c r="O39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>10</v>
       </c>
       <c r="C40">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="E40">
+        <v>10</v>
+      </c>
+      <c r="F40">
+        <v>7.2</v>
+      </c>
+      <c r="H40">
+        <v>10</v>
+      </c>
+      <c r="I40">
+        <v>8</v>
+      </c>
+      <c r="K40">
+        <v>10</v>
+      </c>
+      <c r="L40">
+        <v>6.2</v>
+      </c>
+      <c r="N40">
+        <v>10</v>
+      </c>
+      <c r="O40">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B41">
         <v>11</v>
       </c>
       <c r="C41">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="E41">
+        <v>11</v>
+      </c>
+      <c r="F41">
+        <v>11.8</v>
+      </c>
+      <c r="H41">
+        <v>11</v>
+      </c>
+      <c r="I41">
+        <v>14.4</v>
+      </c>
+      <c r="K41">
+        <v>11</v>
+      </c>
+      <c r="L41">
+        <v>11.2</v>
+      </c>
+      <c r="N41">
+        <v>11</v>
+      </c>
+      <c r="O41">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B42">
         <v>12</v>
       </c>
       <c r="C42">
         <v>9</v>
       </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="E42">
+        <v>12</v>
+      </c>
+      <c r="F42">
+        <v>9</v>
+      </c>
+      <c r="H42">
+        <v>12</v>
+      </c>
+      <c r="I42">
+        <v>13</v>
+      </c>
+      <c r="K42">
+        <v>12</v>
+      </c>
+      <c r="L42">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="N42">
+        <v>12</v>
+      </c>
+      <c r="O42">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>13</v>
       </c>
       <c r="C43">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="E43">
+        <v>13</v>
+      </c>
+      <c r="F43">
+        <v>10</v>
+      </c>
+      <c r="H43">
+        <v>13</v>
+      </c>
+      <c r="I43">
+        <v>13</v>
+      </c>
+      <c r="K43">
+        <v>13</v>
+      </c>
+      <c r="L43">
+        <v>14.8</v>
+      </c>
+      <c r="N43">
+        <v>13</v>
+      </c>
+      <c r="O43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>14</v>
       </c>
       <c r="C44">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="E44">
+        <v>14</v>
+      </c>
+      <c r="F44">
+        <v>7.6</v>
+      </c>
+      <c r="H44">
+        <v>14</v>
+      </c>
+      <c r="I44">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="K44">
+        <v>14</v>
+      </c>
+      <c r="L44">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="N44">
+        <v>14</v>
+      </c>
+      <c r="O44">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B45">
         <v>15</v>
       </c>
       <c r="C45">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="E45">
+        <v>15</v>
+      </c>
+      <c r="F45">
+        <v>7</v>
+      </c>
+      <c r="H45">
+        <v>15</v>
+      </c>
+      <c r="I45">
+        <v>12.2</v>
+      </c>
+      <c r="K45">
+        <v>15</v>
+      </c>
+      <c r="L45">
+        <v>9.6</v>
+      </c>
+      <c r="N45">
+        <v>15</v>
+      </c>
+      <c r="O45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B46">
         <v>16</v>
       </c>
       <c r="C46">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="E46">
+        <v>16</v>
+      </c>
+      <c r="F46">
+        <v>12.4</v>
+      </c>
+      <c r="H46">
+        <v>16</v>
+      </c>
+      <c r="I46">
+        <v>11</v>
+      </c>
+      <c r="K46">
+        <v>16</v>
+      </c>
+      <c r="L46">
+        <v>13.4</v>
+      </c>
+      <c r="N46">
+        <v>16</v>
+      </c>
+      <c r="O46">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B47">
         <v>17</v>
       </c>
       <c r="C47">
         <v>9</v>
       </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="E47">
+        <v>17</v>
+      </c>
+      <c r="F47">
+        <v>10.4</v>
+      </c>
+      <c r="H47">
+        <v>17</v>
+      </c>
+      <c r="I47">
+        <v>7.2</v>
+      </c>
+      <c r="K47">
+        <v>17</v>
+      </c>
+      <c r="L47">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="N47">
+        <v>17</v>
+      </c>
+      <c r="O47">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B48">
         <v>18</v>
       </c>
       <c r="C48">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E48">
+        <v>18</v>
+      </c>
+      <c r="F48">
+        <v>8</v>
+      </c>
+      <c r="H48">
+        <v>18</v>
+      </c>
+      <c r="I48">
+        <v>6.2</v>
+      </c>
+      <c r="K48">
+        <v>18</v>
+      </c>
+      <c r="L48">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="N48">
+        <v>18</v>
+      </c>
+      <c r="O48">
         <v>9.1999999999999993</v>
       </c>
     </row>
@@ -7211,6 +10783,30 @@
       <c r="C49">
         <v>11.4</v>
       </c>
+      <c r="E49">
+        <v>19</v>
+      </c>
+      <c r="F49">
+        <v>8.4</v>
+      </c>
+      <c r="H49">
+        <v>19</v>
+      </c>
+      <c r="I49">
+        <v>11</v>
+      </c>
+      <c r="K49">
+        <v>19</v>
+      </c>
+      <c r="L49">
+        <v>7.4</v>
+      </c>
+      <c r="N49">
+        <v>19</v>
+      </c>
+      <c r="O49">
+        <v>15</v>
+      </c>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B50">
@@ -7218,6 +10814,30 @@
       </c>
       <c r="C50">
         <v>11</v>
+      </c>
+      <c r="E50">
+        <v>20</v>
+      </c>
+      <c r="F50">
+        <v>9</v>
+      </c>
+      <c r="H50">
+        <v>20</v>
+      </c>
+      <c r="I50">
+        <v>7.2</v>
+      </c>
+      <c r="K50">
+        <v>20</v>
+      </c>
+      <c r="L50">
+        <v>8.4</v>
+      </c>
+      <c r="N50">
+        <v>20</v>
+      </c>
+      <c r="O50">
+        <v>12.6</v>
       </c>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.2">
@@ -7225,21 +10845,21 @@
         <f>AVERAGE(C31:C50)</f>
         <v>9.3299999999999983</v>
       </c>
-      <c r="F52" t="e">
+      <c r="F52">
         <f>AVERAGE(F31:F50)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I52" t="e">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="I52">
         <f>AVERAGE(I31:I50)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L52" t="e">
+        <v>10.309999999999999</v>
+      </c>
+      <c r="L52">
         <f>AVERAGE(L31:L50)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O52" t="e">
+        <v>10.24</v>
+      </c>
+      <c r="O52">
         <f>AVERAGE(O31:O50)</f>
-        <v>#DIV/0!</v>
+        <v>10.969999999999999</v>
       </c>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.2">
@@ -7247,21 +10867,21 @@
         <f>STDEV(C31:C50)</f>
         <v>1.6849488513242683</v>
       </c>
-      <c r="F53" t="e">
+      <c r="F53">
         <f>STDEV(F31:F50)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I53" t="e">
+        <v>1.9400217036224947</v>
+      </c>
+      <c r="I53">
         <f>STDEV(I31:I50)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L53" t="e">
+        <v>2.9746118720723471</v>
+      </c>
+      <c r="L53">
         <f>STDEV(L31:L50)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O53" t="e">
+        <v>2.7427224277694355</v>
+      </c>
+      <c r="O53">
         <f>STDEV(O31:O50)</f>
-        <v>#DIV/0!</v>
+        <v>2.4488665476952862</v>
       </c>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.2">
@@ -7288,144 +10908,684 @@
       <c r="B57">
         <v>1</v>
       </c>
+      <c r="C57">
+        <v>12.8</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>18.8</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>7.6</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>11</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>10</v>
+      </c>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B58">
         <v>2</v>
       </c>
+      <c r="C58">
+        <v>13</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="F58">
+        <v>7.8</v>
+      </c>
+      <c r="H58">
+        <v>2</v>
+      </c>
+      <c r="I58">
+        <v>11.8</v>
+      </c>
+      <c r="K58">
+        <v>2</v>
+      </c>
+      <c r="L58">
+        <v>12</v>
+      </c>
+      <c r="N58">
+        <v>2</v>
+      </c>
+      <c r="O58">
+        <v>15</v>
+      </c>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B59">
         <v>3</v>
       </c>
+      <c r="C59">
+        <v>13.6</v>
+      </c>
+      <c r="E59">
+        <v>3</v>
+      </c>
+      <c r="F59">
+        <v>12.6</v>
+      </c>
+      <c r="H59">
+        <v>3</v>
+      </c>
+      <c r="I59">
+        <v>10.4</v>
+      </c>
+      <c r="K59">
+        <v>3</v>
+      </c>
+      <c r="L59">
+        <v>12.2</v>
+      </c>
+      <c r="N59">
+        <v>3</v>
+      </c>
+      <c r="O59">
+        <v>11.2</v>
+      </c>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B60">
         <v>4</v>
       </c>
+      <c r="C60">
+        <v>14.2</v>
+      </c>
+      <c r="E60">
+        <v>4</v>
+      </c>
+      <c r="F60">
+        <v>8.4</v>
+      </c>
+      <c r="H60">
+        <v>4</v>
+      </c>
+      <c r="I60">
+        <v>9.4</v>
+      </c>
+      <c r="K60">
+        <v>4</v>
+      </c>
+      <c r="L60">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="N60">
+        <v>4</v>
+      </c>
+      <c r="O60">
+        <v>12.6</v>
+      </c>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B61">
         <v>5</v>
       </c>
+      <c r="C61">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="E61">
+        <v>5</v>
+      </c>
+      <c r="F61">
+        <v>12.2</v>
+      </c>
+      <c r="H61">
+        <v>5</v>
+      </c>
+      <c r="I61">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="K61">
+        <v>5</v>
+      </c>
+      <c r="L61">
+        <v>12</v>
+      </c>
+      <c r="N61">
+        <v>5</v>
+      </c>
+      <c r="O61">
+        <v>12.2</v>
+      </c>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B62">
         <v>6</v>
       </c>
+      <c r="C62">
+        <v>16.8</v>
+      </c>
+      <c r="E62">
+        <v>6</v>
+      </c>
+      <c r="F62">
+        <v>12.2</v>
+      </c>
+      <c r="H62">
+        <v>6</v>
+      </c>
+      <c r="I62">
+        <v>13.8</v>
+      </c>
+      <c r="K62">
+        <v>6</v>
+      </c>
+      <c r="L62">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="N62">
+        <v>6</v>
+      </c>
+      <c r="O62">
+        <v>10.8</v>
+      </c>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B63">
         <v>7</v>
       </c>
+      <c r="C63">
+        <v>11.4</v>
+      </c>
+      <c r="E63">
+        <v>7</v>
+      </c>
+      <c r="F63">
+        <v>16</v>
+      </c>
+      <c r="H63">
+        <v>7</v>
+      </c>
+      <c r="I63">
+        <v>11</v>
+      </c>
+      <c r="K63">
+        <v>7</v>
+      </c>
+      <c r="L63">
+        <v>13.4</v>
+      </c>
+      <c r="N63">
+        <v>7</v>
+      </c>
+      <c r="O63">
+        <v>15.2</v>
+      </c>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B64">
         <v>8</v>
       </c>
+      <c r="C64">
+        <v>13.2</v>
+      </c>
+      <c r="E64">
+        <v>8</v>
+      </c>
+      <c r="F64">
+        <v>13.4</v>
+      </c>
+      <c r="H64">
+        <v>8</v>
+      </c>
+      <c r="I64">
+        <v>12</v>
+      </c>
+      <c r="K64">
+        <v>8</v>
+      </c>
+      <c r="L64">
+        <v>10.4</v>
+      </c>
+      <c r="N64">
+        <v>8</v>
+      </c>
+      <c r="O64">
+        <v>16</v>
+      </c>
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B65">
         <v>9</v>
       </c>
+      <c r="C65">
+        <v>10.8</v>
+      </c>
+      <c r="E65">
+        <v>9</v>
+      </c>
+      <c r="F65">
+        <v>12.6</v>
+      </c>
+      <c r="H65">
+        <v>9</v>
+      </c>
+      <c r="I65">
+        <v>9.4</v>
+      </c>
+      <c r="K65">
+        <v>9</v>
+      </c>
+      <c r="L65">
+        <v>14.4</v>
+      </c>
+      <c r="N65">
+        <v>9</v>
+      </c>
+      <c r="O65">
+        <v>11.6</v>
+      </c>
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B66">
         <v>10</v>
       </c>
+      <c r="C66">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="E66">
+        <v>10</v>
+      </c>
+      <c r="F66">
+        <v>15</v>
+      </c>
+      <c r="H66">
+        <v>10</v>
+      </c>
+      <c r="I66">
+        <v>8.4</v>
+      </c>
+      <c r="K66">
+        <v>10</v>
+      </c>
+      <c r="L66">
+        <v>14.2</v>
+      </c>
+      <c r="N66">
+        <v>10</v>
+      </c>
+      <c r="O66">
+        <v>10.4</v>
+      </c>
     </row>
     <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B67">
         <v>11</v>
       </c>
+      <c r="C67">
+        <v>14.2</v>
+      </c>
+      <c r="E67">
+        <v>11</v>
+      </c>
+      <c r="F67">
+        <v>11.2</v>
+      </c>
+      <c r="H67">
+        <v>11</v>
+      </c>
+      <c r="I67">
+        <v>17.8</v>
+      </c>
+      <c r="K67">
+        <v>11</v>
+      </c>
+      <c r="L67">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="N67">
+        <v>11</v>
+      </c>
+      <c r="O67">
+        <v>6.2</v>
+      </c>
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B68">
         <v>12</v>
       </c>
+      <c r="C68">
+        <v>11.6</v>
+      </c>
+      <c r="E68">
+        <v>12</v>
+      </c>
+      <c r="F68">
+        <v>13</v>
+      </c>
+      <c r="H68">
+        <v>12</v>
+      </c>
+      <c r="I68">
+        <v>12.6</v>
+      </c>
+      <c r="K68">
+        <v>12</v>
+      </c>
+      <c r="L68">
+        <v>14.4</v>
+      </c>
+      <c r="N68">
+        <v>12</v>
+      </c>
+      <c r="O68">
+        <v>13.2</v>
+      </c>
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B69">
         <v>13</v>
       </c>
+      <c r="C69">
+        <v>14.8</v>
+      </c>
+      <c r="E69">
+        <v>13</v>
+      </c>
+      <c r="F69">
+        <v>9.6</v>
+      </c>
+      <c r="H69">
+        <v>13</v>
+      </c>
+      <c r="I69">
+        <v>13.2</v>
+      </c>
+      <c r="K69">
+        <v>13</v>
+      </c>
+      <c r="L69">
+        <v>13.2</v>
+      </c>
+      <c r="N69">
+        <v>13</v>
+      </c>
+      <c r="O69">
+        <v>16.2</v>
+      </c>
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B70">
         <v>14</v>
       </c>
+      <c r="C70">
+        <v>14.2</v>
+      </c>
+      <c r="E70">
+        <v>14</v>
+      </c>
+      <c r="F70">
+        <v>9.6</v>
+      </c>
+      <c r="H70">
+        <v>14</v>
+      </c>
+      <c r="I70">
+        <v>12.2</v>
+      </c>
+      <c r="K70">
+        <v>14</v>
+      </c>
+      <c r="L70">
+        <v>11.6</v>
+      </c>
+      <c r="N70">
+        <v>14</v>
+      </c>
+      <c r="O70">
+        <v>8.6</v>
+      </c>
     </row>
     <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B71">
         <v>15</v>
       </c>
+      <c r="C71">
+        <v>12.2</v>
+      </c>
+      <c r="E71">
+        <v>15</v>
+      </c>
+      <c r="F71">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="H71">
+        <v>15</v>
+      </c>
+      <c r="I71">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="K71">
+        <v>15</v>
+      </c>
+      <c r="L71">
+        <v>21</v>
+      </c>
+      <c r="N71">
+        <v>15</v>
+      </c>
+      <c r="O71">
+        <v>11.4</v>
+      </c>
     </row>
     <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B72">
         <v>16</v>
       </c>
+      <c r="C72">
+        <v>19.2</v>
+      </c>
+      <c r="E72">
+        <v>16</v>
+      </c>
+      <c r="F72">
+        <v>13.4</v>
+      </c>
+      <c r="H72">
+        <v>16</v>
+      </c>
+      <c r="I72">
+        <v>13.6</v>
+      </c>
+      <c r="K72">
+        <v>16</v>
+      </c>
+      <c r="L72">
+        <v>8.4</v>
+      </c>
+      <c r="N72">
+        <v>16</v>
+      </c>
+      <c r="O72">
+        <v>14.4</v>
+      </c>
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B73">
         <v>17</v>
       </c>
+      <c r="C73">
+        <v>11.8</v>
+      </c>
+      <c r="E73">
+        <v>17</v>
+      </c>
+      <c r="F73">
+        <v>15.4</v>
+      </c>
+      <c r="H73">
+        <v>17</v>
+      </c>
+      <c r="I73">
+        <v>10.8</v>
+      </c>
+      <c r="K73">
+        <v>17</v>
+      </c>
+      <c r="L73">
+        <v>10.8</v>
+      </c>
+      <c r="N73">
+        <v>17</v>
+      </c>
+      <c r="O73">
+        <v>13.6</v>
+      </c>
     </row>
     <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B74">
         <v>18</v>
       </c>
+      <c r="C74">
+        <v>14.4</v>
+      </c>
+      <c r="E74">
+        <v>18</v>
+      </c>
+      <c r="F74">
+        <v>10.8</v>
+      </c>
+      <c r="H74">
+        <v>18</v>
+      </c>
+      <c r="I74">
+        <v>7</v>
+      </c>
+      <c r="K74">
+        <v>18</v>
+      </c>
+      <c r="L74">
+        <v>15.2</v>
+      </c>
+      <c r="N74">
+        <v>18</v>
+      </c>
+      <c r="O74">
+        <v>9.6</v>
+      </c>
     </row>
     <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B75">
         <v>19</v>
       </c>
+      <c r="C75">
+        <v>14</v>
+      </c>
+      <c r="E75">
+        <v>19</v>
+      </c>
+      <c r="F75">
+        <v>7.4</v>
+      </c>
+      <c r="H75">
+        <v>19</v>
+      </c>
+      <c r="I75">
+        <v>6</v>
+      </c>
+      <c r="K75">
+        <v>19</v>
+      </c>
+      <c r="L75">
+        <v>14.2</v>
+      </c>
+      <c r="N75">
+        <v>19</v>
+      </c>
+      <c r="O75">
+        <v>17.2</v>
+      </c>
     </row>
     <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B76">
         <v>20</v>
       </c>
+      <c r="C76">
+        <v>15.2</v>
+      </c>
+      <c r="E76">
+        <v>20</v>
+      </c>
+      <c r="F76">
+        <v>16</v>
+      </c>
+      <c r="H76">
+        <v>20</v>
+      </c>
+      <c r="I76">
+        <v>14.2</v>
+      </c>
+      <c r="K76">
+        <v>20</v>
+      </c>
+      <c r="L76">
+        <v>13</v>
+      </c>
+      <c r="N76">
+        <v>20</v>
+      </c>
+      <c r="O76">
+        <v>11.8</v>
+      </c>
     </row>
     <row r="78" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C78" t="e">
+      <c r="C78">
         <f>AVERAGE(C57:C76)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F78" t="e">
+        <v>14.059999999999999</v>
+      </c>
+      <c r="F78">
         <f>AVERAGE(F57:F76)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I78" t="e">
+        <v>12.28</v>
+      </c>
+      <c r="I78">
         <f>AVERAGE(I57:I76)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L78" t="e">
+        <v>10.909999999999998</v>
+      </c>
+      <c r="L78">
         <f>AVERAGE(L57:L76)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O78" t="e">
+        <v>12.88</v>
+      </c>
+      <c r="O78">
         <f>AVERAGE(O57:O76)</f>
-        <v>#DIV/0!</v>
+        <v>12.359999999999998</v>
       </c>
     </row>
     <row r="79" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C79" t="e">
+      <c r="C79">
         <f>STDEV(C57:C76)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F79" t="e">
+        <v>2.1590446230243971</v>
+      </c>
+      <c r="F79">
         <f>STDEV(F57:F76)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I79" t="e">
+        <v>3.004838203893669</v>
+      </c>
+      <c r="I79">
         <f>STDEV(I57:I76)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L79" t="e">
+        <v>2.8920762893046148</v>
+      </c>
+      <c r="L79">
         <f>STDEV(L57:L76)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O79" t="e">
+        <v>2.9553875870135249</v>
+      </c>
+      <c r="O79">
         <f>STDEV(O57:O76)</f>
-        <v>#DIV/0!</v>
+        <v>2.7876419010377047</v>
       </c>
     </row>
     <row r="81" spans="2:15" x14ac:dyDescent="0.2">
@@ -7452,144 +11612,684 @@
       <c r="B83">
         <v>1</v>
       </c>
+      <c r="C83">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>37.6</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="I83">
+        <v>31.6</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="L83">
+        <v>44.8</v>
+      </c>
+      <c r="N83">
+        <v>1</v>
+      </c>
+      <c r="O83">
+        <v>47.2</v>
+      </c>
     </row>
     <row r="84" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B84">
         <v>2</v>
       </c>
+      <c r="C84">
+        <v>36.4</v>
+      </c>
+      <c r="E84">
+        <v>2</v>
+      </c>
+      <c r="F84">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="H84">
+        <v>2</v>
+      </c>
+      <c r="I84">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="K84">
+        <v>2</v>
+      </c>
+      <c r="L84">
+        <v>46.6</v>
+      </c>
+      <c r="N84">
+        <v>2</v>
+      </c>
+      <c r="O84">
+        <v>38.799999999999997</v>
+      </c>
     </row>
     <row r="85" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B85">
         <v>3</v>
       </c>
+      <c r="C85">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="E85">
+        <v>3</v>
+      </c>
+      <c r="F85">
+        <v>39.6</v>
+      </c>
+      <c r="H85">
+        <v>3</v>
+      </c>
+      <c r="I85">
+        <v>27.4</v>
+      </c>
+      <c r="K85">
+        <v>3</v>
+      </c>
+      <c r="L85">
+        <v>52.8</v>
+      </c>
+      <c r="N85">
+        <v>3</v>
+      </c>
+      <c r="O85">
+        <v>48.6</v>
+      </c>
     </row>
     <row r="86" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B86">
         <v>4</v>
       </c>
+      <c r="C86">
+        <v>42.6</v>
+      </c>
+      <c r="E86">
+        <v>4</v>
+      </c>
+      <c r="F86">
+        <v>40.6</v>
+      </c>
+      <c r="H86">
+        <v>4</v>
+      </c>
+      <c r="I86">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="K86">
+        <v>4</v>
+      </c>
+      <c r="L86">
+        <v>51</v>
+      </c>
+      <c r="N86">
+        <v>4</v>
+      </c>
+      <c r="O86">
+        <v>53.4</v>
+      </c>
     </row>
     <row r="87" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B87">
         <v>5</v>
       </c>
+      <c r="C87">
+        <v>43.6</v>
+      </c>
+      <c r="E87">
+        <v>5</v>
+      </c>
+      <c r="F87">
+        <v>35</v>
+      </c>
+      <c r="H87">
+        <v>5</v>
+      </c>
+      <c r="I87">
+        <v>30.2</v>
+      </c>
+      <c r="K87">
+        <v>5</v>
+      </c>
+      <c r="L87">
+        <v>43</v>
+      </c>
+      <c r="N87">
+        <v>5</v>
+      </c>
+      <c r="O87">
+        <v>46.4</v>
+      </c>
     </row>
     <row r="88" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B88">
         <v>6</v>
       </c>
+      <c r="C88">
+        <v>45.2</v>
+      </c>
+      <c r="E88">
+        <v>6</v>
+      </c>
+      <c r="F88">
+        <v>41.2</v>
+      </c>
+      <c r="H88">
+        <v>6</v>
+      </c>
+      <c r="I88">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="K88">
+        <v>6</v>
+      </c>
+      <c r="L88">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="N88">
+        <v>6</v>
+      </c>
+      <c r="O88">
+        <v>49.4</v>
+      </c>
     </row>
     <row r="89" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B89">
         <v>7</v>
       </c>
+      <c r="C89">
+        <v>38.4</v>
+      </c>
+      <c r="E89">
+        <v>7</v>
+      </c>
+      <c r="F89">
+        <v>43</v>
+      </c>
+      <c r="H89">
+        <v>7</v>
+      </c>
+      <c r="I89">
+        <v>40.6</v>
+      </c>
+      <c r="K89">
+        <v>7</v>
+      </c>
+      <c r="L89">
+        <v>43.4</v>
+      </c>
+      <c r="N89">
+        <v>7</v>
+      </c>
+      <c r="O89">
+        <v>46.2</v>
+      </c>
     </row>
     <row r="90" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B90">
         <v>8</v>
       </c>
+      <c r="C90">
+        <v>40.4</v>
+      </c>
+      <c r="E90">
+        <v>8</v>
+      </c>
+      <c r="F90">
+        <v>37</v>
+      </c>
+      <c r="H90">
+        <v>8</v>
+      </c>
+      <c r="I90">
+        <v>34.4</v>
+      </c>
+      <c r="K90">
+        <v>8</v>
+      </c>
+      <c r="L90">
+        <v>43.2</v>
+      </c>
+      <c r="N90">
+        <v>8</v>
+      </c>
+      <c r="O90">
+        <v>50.8</v>
+      </c>
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B91">
         <v>9</v>
       </c>
+      <c r="C91">
+        <v>38</v>
+      </c>
+      <c r="E91">
+        <v>9</v>
+      </c>
+      <c r="F91">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="H91">
+        <v>9</v>
+      </c>
+      <c r="I91">
+        <v>27.6</v>
+      </c>
+      <c r="K91">
+        <v>9</v>
+      </c>
+      <c r="L91">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="N91">
+        <v>9</v>
+      </c>
+      <c r="O91">
+        <v>48</v>
+      </c>
     </row>
     <row r="92" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B92">
         <v>10</v>
       </c>
+      <c r="C92">
+        <v>30.4</v>
+      </c>
+      <c r="E92">
+        <v>10</v>
+      </c>
+      <c r="F92">
+        <v>38</v>
+      </c>
+      <c r="H92">
+        <v>10</v>
+      </c>
+      <c r="I92">
+        <v>29.4</v>
+      </c>
+      <c r="K92">
+        <v>10</v>
+      </c>
+      <c r="L92">
+        <v>44.2</v>
+      </c>
+      <c r="N92">
+        <v>10</v>
+      </c>
+      <c r="O92">
+        <v>47.2</v>
+      </c>
     </row>
     <row r="93" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B93">
         <v>11</v>
       </c>
+      <c r="C93">
+        <v>35.6</v>
+      </c>
+      <c r="E93">
+        <v>11</v>
+      </c>
+      <c r="F93">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="H93">
+        <v>11</v>
+      </c>
+      <c r="I93">
+        <v>35.6</v>
+      </c>
+      <c r="K93">
+        <v>11</v>
+      </c>
+      <c r="L93">
+        <v>44.4</v>
+      </c>
+      <c r="N93">
+        <v>11</v>
+      </c>
+      <c r="O93">
+        <v>41.6</v>
+      </c>
     </row>
     <row r="94" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B94">
         <v>12</v>
       </c>
+      <c r="C94">
+        <v>38.6</v>
+      </c>
+      <c r="E94">
+        <v>12</v>
+      </c>
+      <c r="F94">
+        <v>34.6</v>
+      </c>
+      <c r="H94">
+        <v>12</v>
+      </c>
+      <c r="I94">
+        <v>29.8</v>
+      </c>
+      <c r="K94">
+        <v>12</v>
+      </c>
+      <c r="L94">
+        <v>43.2</v>
+      </c>
+      <c r="N94">
+        <v>12</v>
+      </c>
+      <c r="O94">
+        <v>50.2</v>
+      </c>
     </row>
     <row r="95" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B95">
         <v>13</v>
       </c>
+      <c r="C95">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="E95">
+        <v>13</v>
+      </c>
+      <c r="F95">
+        <v>30.2</v>
+      </c>
+      <c r="H95">
+        <v>13</v>
+      </c>
+      <c r="I95">
+        <v>32.6</v>
+      </c>
+      <c r="K95">
+        <v>13</v>
+      </c>
+      <c r="L95">
+        <v>45.8</v>
+      </c>
+      <c r="N95">
+        <v>13</v>
+      </c>
+      <c r="O95">
+        <v>44.8</v>
+      </c>
     </row>
     <row r="96" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B96">
         <v>14</v>
       </c>
+      <c r="C96">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="E96">
+        <v>14</v>
+      </c>
+      <c r="F96">
+        <v>32.4</v>
+      </c>
+      <c r="H96">
+        <v>14</v>
+      </c>
+      <c r="I96">
+        <v>35.4</v>
+      </c>
+      <c r="K96">
+        <v>14</v>
+      </c>
+      <c r="L96">
+        <v>38</v>
+      </c>
+      <c r="N96">
+        <v>14</v>
+      </c>
+      <c r="O96">
+        <v>51.2</v>
+      </c>
     </row>
     <row r="97" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B97">
         <v>15</v>
       </c>
+      <c r="C97">
+        <v>40.6</v>
+      </c>
+      <c r="E97">
+        <v>15</v>
+      </c>
+      <c r="F97">
+        <v>30.2</v>
+      </c>
+      <c r="H97">
+        <v>15</v>
+      </c>
+      <c r="I97">
+        <v>33.4</v>
+      </c>
+      <c r="K97">
+        <v>15</v>
+      </c>
+      <c r="L97">
+        <v>41.8</v>
+      </c>
+      <c r="N97">
+        <v>15</v>
+      </c>
+      <c r="O97">
+        <v>51</v>
+      </c>
     </row>
     <row r="98" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B98">
         <v>16</v>
       </c>
+      <c r="C98">
+        <v>40.6</v>
+      </c>
+      <c r="E98">
+        <v>16</v>
+      </c>
+      <c r="F98">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="H98">
+        <v>16</v>
+      </c>
+      <c r="I98">
+        <v>30</v>
+      </c>
+      <c r="K98">
+        <v>16</v>
+      </c>
+      <c r="L98">
+        <v>41</v>
+      </c>
+      <c r="N98">
+        <v>16</v>
+      </c>
+      <c r="O98">
+        <v>49</v>
+      </c>
     </row>
     <row r="99" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B99">
         <v>17</v>
       </c>
+      <c r="C99">
+        <v>39</v>
+      </c>
+      <c r="E99">
+        <v>17</v>
+      </c>
+      <c r="F99">
+        <v>39</v>
+      </c>
+      <c r="H99">
+        <v>17</v>
+      </c>
+      <c r="I99">
+        <v>30.8</v>
+      </c>
+      <c r="K99">
+        <v>17</v>
+      </c>
+      <c r="L99">
+        <v>44</v>
+      </c>
+      <c r="N99">
+        <v>17</v>
+      </c>
+      <c r="O99">
+        <v>54.4</v>
+      </c>
     </row>
     <row r="100" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B100">
         <v>18</v>
       </c>
+      <c r="C100">
+        <v>42.6</v>
+      </c>
+      <c r="E100">
+        <v>18</v>
+      </c>
+      <c r="F100">
+        <v>50.4</v>
+      </c>
+      <c r="H100">
+        <v>18</v>
+      </c>
+      <c r="I100">
+        <v>35</v>
+      </c>
+      <c r="K100">
+        <v>18</v>
+      </c>
+      <c r="L100">
+        <v>38.6</v>
+      </c>
+      <c r="N100">
+        <v>18</v>
+      </c>
+      <c r="O100">
+        <v>54.4</v>
+      </c>
     </row>
     <row r="101" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B101">
         <v>19</v>
       </c>
+      <c r="C101">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="E101">
+        <v>19</v>
+      </c>
+      <c r="F101">
+        <v>44</v>
+      </c>
+      <c r="H101">
+        <v>19</v>
+      </c>
+      <c r="I101">
+        <v>32.6</v>
+      </c>
+      <c r="K101">
+        <v>19</v>
+      </c>
+      <c r="L101">
+        <v>44.2</v>
+      </c>
+      <c r="N101">
+        <v>19</v>
+      </c>
+      <c r="O101">
+        <v>47.6</v>
+      </c>
     </row>
     <row r="102" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B102">
         <v>20</v>
       </c>
+      <c r="C102">
+        <v>37</v>
+      </c>
+      <c r="E102">
+        <v>20</v>
+      </c>
+      <c r="F102">
+        <v>46</v>
+      </c>
+      <c r="H102">
+        <v>20</v>
+      </c>
+      <c r="I102">
+        <v>36.6</v>
+      </c>
+      <c r="K102">
+        <v>20</v>
+      </c>
+      <c r="L102">
+        <v>45.8</v>
+      </c>
+      <c r="N102">
+        <v>20</v>
+      </c>
+      <c r="O102">
+        <v>49.4</v>
+      </c>
     </row>
     <row r="104" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C104" t="e">
+      <c r="C104">
         <f>AVERAGE(C83:C102)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F104" t="e">
+        <v>39.310000000000009</v>
+      </c>
+      <c r="F104">
         <f>AVERAGE(F83:F102)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I104" t="e">
+        <v>38.56</v>
+      </c>
+      <c r="I104">
         <f>AVERAGE(I83:I102)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L104" t="e">
+        <v>32.910000000000004</v>
+      </c>
+      <c r="L104">
         <f>AVERAGE(L83:L102)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O104" t="e">
+        <v>43.639999999999993</v>
+      </c>
+      <c r="O104">
         <f>AVERAGE(O83:O102)</f>
-        <v>#DIV/0!</v>
+        <v>48.480000000000004</v>
       </c>
     </row>
     <row r="105" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C105" t="e">
+      <c r="C105">
         <f>STDEV(C83:C102)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F105" t="e">
+        <v>3.2304309635908215</v>
+      </c>
+      <c r="F105">
         <f>STDEV(F83:F102)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I105" t="e">
+        <v>5.0050921438492111</v>
+      </c>
+      <c r="I105">
         <f>STDEV(I83:I102)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L105" t="e">
+        <v>3.3324402312324888</v>
+      </c>
+      <c r="L105">
         <f>STDEV(L83:L102)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O105" t="e">
+        <v>3.8790123539511008</v>
+      </c>
+      <c r="O105">
         <f>STDEV(O83:O102)</f>
-        <v>#DIV/0!</v>
+        <v>3.8848694349122965</v>
       </c>
     </row>
   </sheetData>
@@ -7601,8 +12301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DF37246-5734-1E4A-86A1-08A58450CF3F}">
   <dimension ref="B2:V105"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4:V7"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10:R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7755,19 +12455,19 @@
         <v>1000</v>
       </c>
       <c r="R6">
-        <v>17.550000000000004</v>
+        <v>19.439999999999998</v>
       </c>
       <c r="S6">
-        <v>14.84</v>
+        <v>21.940000000000005</v>
       </c>
       <c r="T6">
-        <v>15.209999999999997</v>
+        <v>18.98</v>
       </c>
       <c r="U6">
-        <v>15.34</v>
+        <v>21.9</v>
       </c>
       <c r="V6">
-        <v>15.91</v>
+        <v>23.080000000000002</v>
       </c>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.2">
@@ -8021,20 +12721,20 @@
       <c r="Q12">
         <v>1000</v>
       </c>
-      <c r="R12" s="1">
-        <v>3.6797454145347275</v>
-      </c>
-      <c r="S12" s="1">
-        <v>4.5447945932392599</v>
-      </c>
-      <c r="T12" s="1">
-        <v>3.9970910475126042</v>
+      <c r="R12">
+        <v>4.8034636625975198</v>
+      </c>
+      <c r="S12">
+        <v>4.2406553614667803</v>
+      </c>
+      <c r="T12">
+        <v>4.4088308511082817</v>
       </c>
       <c r="U12">
-        <v>3.9603827566218088</v>
+        <v>5.3106744541437152</v>
       </c>
       <c r="V12">
-        <v>3.4172780796540749</v>
+        <v>3.5284706691650451</v>
       </c>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.2">
@@ -9212,31 +13912,31 @@
         <v>1</v>
       </c>
       <c r="C57">
-        <v>20.399999999999999</v>
+        <v>11.4</v>
       </c>
       <c r="E57">
         <v>1</v>
       </c>
       <c r="F57">
-        <v>6.2</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="H57">
         <v>1</v>
       </c>
       <c r="I57">
-        <v>11.2</v>
+        <v>16</v>
       </c>
       <c r="K57">
         <v>1</v>
       </c>
       <c r="L57">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="N57">
         <v>1</v>
       </c>
       <c r="O57">
-        <v>19.2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.2">
@@ -9244,31 +13944,31 @@
         <v>2</v>
       </c>
       <c r="C58">
-        <v>18.600000000000001</v>
+        <v>19.8</v>
       </c>
       <c r="E58">
         <v>2</v>
       </c>
       <c r="F58">
-        <v>11.4</v>
+        <v>20.8</v>
       </c>
       <c r="H58">
         <v>2</v>
       </c>
       <c r="I58">
-        <v>14.2</v>
+        <v>17</v>
       </c>
       <c r="K58">
         <v>2</v>
       </c>
       <c r="L58">
-        <v>18.600000000000001</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="N58">
         <v>2</v>
       </c>
       <c r="O58">
-        <v>16.600000000000001</v>
+        <v>27.2</v>
       </c>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.2">
@@ -9276,31 +13976,31 @@
         <v>3</v>
       </c>
       <c r="C59">
-        <v>14.8</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="E59">
         <v>3</v>
       </c>
       <c r="F59">
-        <v>12.8</v>
+        <v>23.6</v>
       </c>
       <c r="H59">
         <v>3</v>
       </c>
       <c r="I59">
-        <v>11.6</v>
+        <v>25.4</v>
       </c>
       <c r="K59">
         <v>3</v>
       </c>
       <c r="L59">
-        <v>14.8</v>
+        <v>22.8</v>
       </c>
       <c r="N59">
         <v>3</v>
       </c>
       <c r="O59">
-        <v>11.2</v>
+        <v>24.2</v>
       </c>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.2">
@@ -9308,31 +14008,31 @@
         <v>4</v>
       </c>
       <c r="C60">
-        <v>24.4</v>
+        <v>20.8</v>
       </c>
       <c r="E60">
         <v>4</v>
       </c>
       <c r="F60">
-        <v>16</v>
+        <v>22.2</v>
       </c>
       <c r="H60">
         <v>4</v>
       </c>
       <c r="I60">
-        <v>13.2</v>
+        <v>21.4</v>
       </c>
       <c r="K60">
         <v>4</v>
       </c>
       <c r="L60">
-        <v>11.2</v>
+        <v>20.2</v>
       </c>
       <c r="N60">
         <v>4</v>
       </c>
       <c r="O60">
-        <v>8.4</v>
+        <v>22.6</v>
       </c>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.2">
@@ -9340,31 +14040,31 @@
         <v>5</v>
       </c>
       <c r="C61">
-        <v>19.399999999999999</v>
+        <v>16.8</v>
       </c>
       <c r="E61">
         <v>5</v>
       </c>
       <c r="F61">
-        <v>18.399999999999999</v>
+        <v>17.2</v>
       </c>
       <c r="H61">
         <v>5</v>
       </c>
       <c r="I61">
-        <v>13.8</v>
+        <v>18.8</v>
       </c>
       <c r="K61">
         <v>5</v>
       </c>
       <c r="L61">
-        <v>17.2</v>
+        <v>21.4</v>
       </c>
       <c r="N61">
         <v>5</v>
       </c>
       <c r="O61">
-        <v>18.399999999999999</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.2">
@@ -9372,31 +14072,31 @@
         <v>6</v>
       </c>
       <c r="C62">
-        <v>11.8</v>
+        <v>18</v>
       </c>
       <c r="E62">
         <v>6</v>
       </c>
       <c r="F62">
-        <v>11.8</v>
+        <v>22</v>
       </c>
       <c r="H62">
         <v>6</v>
       </c>
       <c r="I62">
-        <v>16.2</v>
+        <v>21.6</v>
       </c>
       <c r="K62">
         <v>6</v>
       </c>
       <c r="L62">
-        <v>19.8</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="N62">
         <v>6</v>
       </c>
       <c r="O62">
-        <v>15</v>
+        <v>22.6</v>
       </c>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.2">
@@ -9404,31 +14104,31 @@
         <v>7</v>
       </c>
       <c r="C63">
-        <v>19.399999999999999</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="E63">
         <v>7</v>
       </c>
       <c r="F63">
-        <v>14.6</v>
+        <v>20.8</v>
       </c>
       <c r="H63">
         <v>7</v>
       </c>
       <c r="I63">
-        <v>19.600000000000001</v>
+        <v>12.6</v>
       </c>
       <c r="K63">
         <v>7</v>
       </c>
       <c r="L63">
-        <v>22.2</v>
+        <v>26.4</v>
       </c>
       <c r="N63">
         <v>7</v>
       </c>
       <c r="O63">
-        <v>15.2</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.2">
@@ -9436,31 +14136,31 @@
         <v>8</v>
       </c>
       <c r="C64">
-        <v>15.8</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="E64">
         <v>8</v>
       </c>
       <c r="F64">
-        <v>9.8000000000000007</v>
+        <v>16.8</v>
       </c>
       <c r="H64">
         <v>8</v>
       </c>
       <c r="I64">
-        <v>20</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="K64">
         <v>8</v>
       </c>
       <c r="L64">
-        <v>17.600000000000001</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="N64">
         <v>8</v>
       </c>
       <c r="O64">
-        <v>16.8</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.2">
@@ -9468,31 +14168,31 @@
         <v>9</v>
       </c>
       <c r="C65">
-        <v>17.399999999999999</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="E65">
         <v>9</v>
       </c>
       <c r="F65">
-        <v>17.8</v>
+        <v>18.2</v>
       </c>
       <c r="H65">
         <v>9</v>
       </c>
       <c r="I65">
-        <v>16.2</v>
+        <v>14.6</v>
       </c>
       <c r="K65">
         <v>9</v>
       </c>
       <c r="L65">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N65">
         <v>9</v>
       </c>
       <c r="O65">
-        <v>23.4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.2">
@@ -9500,31 +14200,31 @@
         <v>10</v>
       </c>
       <c r="C66">
-        <v>9.1999999999999993</v>
+        <v>20.6</v>
       </c>
       <c r="E66">
         <v>10</v>
       </c>
       <c r="F66">
-        <v>13</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="H66">
         <v>10</v>
       </c>
       <c r="I66">
-        <v>14.2</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="K66">
         <v>10</v>
       </c>
       <c r="L66">
-        <v>17.600000000000001</v>
+        <v>19</v>
       </c>
       <c r="N66">
         <v>10</v>
       </c>
       <c r="O66">
-        <v>15.2</v>
+        <v>27.4</v>
       </c>
     </row>
     <row r="67" spans="2:15" x14ac:dyDescent="0.2">
@@ -9532,31 +14232,31 @@
         <v>11</v>
       </c>
       <c r="C67">
-        <v>20.8</v>
+        <v>19.8</v>
       </c>
       <c r="E67">
         <v>11</v>
       </c>
       <c r="F67">
-        <v>17.8</v>
+        <v>16.8</v>
       </c>
       <c r="H67">
         <v>11</v>
       </c>
       <c r="I67">
-        <v>20.399999999999999</v>
+        <v>13.8</v>
       </c>
       <c r="K67">
         <v>11</v>
       </c>
       <c r="L67">
-        <v>7.6</v>
+        <v>26.6</v>
       </c>
       <c r="N67">
         <v>11</v>
       </c>
       <c r="O67">
-        <v>19.600000000000001</v>
+        <v>19.399999999999999</v>
       </c>
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.2">
@@ -9564,31 +14264,31 @@
         <v>12</v>
       </c>
       <c r="C68">
-        <v>15.8</v>
+        <v>17.2</v>
       </c>
       <c r="E68">
         <v>12</v>
       </c>
       <c r="F68">
-        <v>15.6</v>
+        <v>60.6</v>
       </c>
       <c r="H68">
         <v>12</v>
       </c>
       <c r="I68">
-        <v>22.8</v>
+        <v>20.2</v>
       </c>
       <c r="K68">
         <v>12</v>
       </c>
       <c r="L68">
-        <v>11</v>
+        <v>25.4</v>
       </c>
       <c r="N68">
         <v>12</v>
       </c>
       <c r="O68">
-        <v>13.2</v>
+        <v>23.6</v>
       </c>
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.2">
@@ -9596,31 +14296,31 @@
         <v>13</v>
       </c>
       <c r="C69">
-        <v>21.6</v>
+        <v>25</v>
       </c>
       <c r="E69">
         <v>13</v>
       </c>
       <c r="F69">
-        <v>23.8</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="H69">
         <v>13</v>
       </c>
       <c r="I69">
-        <v>12.2</v>
+        <v>17.8</v>
       </c>
       <c r="K69">
         <v>13</v>
       </c>
       <c r="L69">
-        <v>16.399999999999999</v>
+        <v>14.4</v>
       </c>
       <c r="N69">
         <v>13</v>
       </c>
       <c r="O69">
-        <v>16.2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.2">
@@ -9628,31 +14328,31 @@
         <v>14</v>
       </c>
       <c r="C70">
-        <v>15.8</v>
+        <v>14.4</v>
       </c>
       <c r="E70">
         <v>14</v>
       </c>
       <c r="F70">
-        <v>22</v>
+        <v>19.8</v>
       </c>
       <c r="H70">
         <v>14</v>
       </c>
       <c r="I70">
-        <v>17.2</v>
+        <v>18</v>
       </c>
       <c r="K70">
         <v>14</v>
       </c>
       <c r="L70">
-        <v>15.4</v>
+        <v>26.2</v>
       </c>
       <c r="N70">
         <v>14</v>
       </c>
       <c r="O70">
-        <v>11.6</v>
+        <v>19.399999999999999</v>
       </c>
     </row>
     <row r="71" spans="2:15" x14ac:dyDescent="0.2">
@@ -9660,31 +14360,31 @@
         <v>15</v>
       </c>
       <c r="C71">
-        <v>23</v>
+        <v>19.2</v>
       </c>
       <c r="E71">
         <v>15</v>
       </c>
       <c r="F71">
-        <v>17.600000000000001</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="H71">
         <v>15</v>
       </c>
       <c r="I71">
-        <v>10.199999999999999</v>
+        <v>27</v>
       </c>
       <c r="K71">
         <v>15</v>
       </c>
       <c r="L71">
-        <v>8.6</v>
+        <v>24.8</v>
       </c>
       <c r="N71">
         <v>15</v>
       </c>
       <c r="O71">
-        <v>13.8</v>
+        <v>24.4</v>
       </c>
     </row>
     <row r="72" spans="2:15" x14ac:dyDescent="0.2">
@@ -9692,31 +14392,31 @@
         <v>16</v>
       </c>
       <c r="C72">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E72">
         <v>16</v>
       </c>
       <c r="F72">
-        <v>11</v>
+        <v>19.2</v>
       </c>
       <c r="H72">
         <v>16</v>
       </c>
       <c r="I72">
-        <v>11.2</v>
+        <v>19.8</v>
       </c>
       <c r="K72">
         <v>16</v>
       </c>
       <c r="L72">
-        <v>15.6</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="N72">
         <v>16</v>
       </c>
       <c r="O72">
-        <v>15.2</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.2">
@@ -9724,31 +14424,31 @@
         <v>17</v>
       </c>
       <c r="C73">
-        <v>17.8</v>
+        <v>22.8</v>
       </c>
       <c r="E73">
         <v>17</v>
       </c>
       <c r="F73">
-        <v>18.8</v>
+        <v>25</v>
       </c>
       <c r="H73">
         <v>17</v>
       </c>
       <c r="I73">
-        <v>9</v>
+        <v>19.2</v>
       </c>
       <c r="K73">
         <v>17</v>
       </c>
       <c r="L73">
-        <v>15</v>
+        <v>26.6</v>
       </c>
       <c r="N73">
         <v>17</v>
       </c>
       <c r="O73">
-        <v>16</v>
+        <v>19.600000000000001</v>
       </c>
     </row>
     <row r="74" spans="2:15" x14ac:dyDescent="0.2">
@@ -9756,31 +14456,31 @@
         <v>18</v>
       </c>
       <c r="C74">
-        <v>16.2</v>
+        <v>19.2</v>
       </c>
       <c r="E74">
         <v>18</v>
       </c>
       <c r="F74">
-        <v>18.2</v>
+        <v>22.6</v>
       </c>
       <c r="H74">
         <v>18</v>
       </c>
       <c r="I74">
-        <v>18.8</v>
+        <v>26.6</v>
       </c>
       <c r="K74">
         <v>18</v>
       </c>
       <c r="L74">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N74">
         <v>18</v>
       </c>
       <c r="O74">
-        <v>16</v>
+        <v>26.6</v>
       </c>
     </row>
     <row r="75" spans="2:15" x14ac:dyDescent="0.2">
@@ -9788,31 +14488,31 @@
         <v>19</v>
       </c>
       <c r="C75">
-        <v>19</v>
+        <v>20.6</v>
       </c>
       <c r="E75">
         <v>19</v>
       </c>
       <c r="F75">
-        <v>8.4</v>
+        <v>15.2</v>
       </c>
       <c r="H75">
         <v>19</v>
       </c>
       <c r="I75">
-        <v>20</v>
+        <v>15.4</v>
       </c>
       <c r="K75">
         <v>19</v>
       </c>
       <c r="L75">
-        <v>19</v>
+        <v>17.8</v>
       </c>
       <c r="N75">
         <v>19</v>
       </c>
       <c r="O75">
-        <v>16.600000000000001</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="76" spans="2:15" x14ac:dyDescent="0.2">
@@ -9820,75 +14520,75 @@
         <v>20</v>
       </c>
       <c r="C76">
-        <v>14.8</v>
+        <v>22.4</v>
       </c>
       <c r="E76">
         <v>20</v>
       </c>
       <c r="F76">
-        <v>11.8</v>
+        <v>19.8</v>
       </c>
       <c r="H76">
         <v>20</v>
       </c>
       <c r="I76">
-        <v>12.2</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="K76">
         <v>20</v>
       </c>
       <c r="L76">
-        <v>11.2</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="N76">
         <v>20</v>
       </c>
       <c r="O76">
-        <v>20.6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C78">
         <f>AVERAGE(C57:C76)</f>
-        <v>17.550000000000004</v>
+        <v>19.439999999999998</v>
       </c>
       <c r="F78">
         <f>AVERAGE(F57:F76)</f>
-        <v>14.84</v>
+        <v>21.940000000000005</v>
       </c>
       <c r="I78">
         <f>AVERAGE(I57:I76)</f>
-        <v>15.209999999999997</v>
+        <v>18.98</v>
       </c>
       <c r="L78">
         <f>AVERAGE(L57:L76)</f>
-        <v>15.34</v>
+        <v>21.9</v>
       </c>
       <c r="O78">
         <f>AVERAGE(O57:O76)</f>
-        <v>15.91</v>
+        <v>23.080000000000002</v>
       </c>
     </row>
     <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C79">
         <f>STDEV(C57:C76)</f>
-        <v>3.6797454145347275</v>
+        <v>3.2174524083504412</v>
       </c>
       <c r="F79">
         <f>STDEV(F57:F76)</f>
-        <v>4.5447945932392599</v>
+        <v>9.4146805854641595</v>
       </c>
       <c r="I79">
         <f>STDEV(I57:I76)</f>
-        <v>3.9970910475126042</v>
+        <v>3.9777803913872987</v>
       </c>
       <c r="L79">
         <f>STDEV(L57:L76)</f>
-        <v>3.9603827566218088</v>
+        <v>4.6609237846499596</v>
       </c>
       <c r="O79">
         <f>STDEV(O57:O76)</f>
-        <v>3.4172780796540749</v>
+        <v>3.8236934473029143</v>
       </c>
     </row>
     <row r="81" spans="2:15" x14ac:dyDescent="0.2">
@@ -10604,8 +15304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B8986C-AC24-5149-BC25-A1C4E7121DD9}">
   <dimension ref="B2:V106"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4:V7"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10:R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13624,8 +18324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A57D410-8E11-7845-A699-38C3CBA7153F}">
   <dimension ref="C3:O33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30:H30"/>
+    <sheetView tabSelected="1" topLeftCell="H2" workbookViewId="0">
+      <selection activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13737,7 +18437,7 @@
         <v>14.62</v>
       </c>
       <c r="N7">
-        <v>17.550000000000004</v>
+        <v>19.439999999999998</v>
       </c>
       <c r="O7">
         <v>68.28</v>
@@ -13768,6 +18468,15 @@
       <c r="L8">
         <v>9.9699999999999989</v>
       </c>
+      <c r="M8">
+        <v>9.3299999999999983</v>
+      </c>
+      <c r="N8">
+        <v>14.059999999999999</v>
+      </c>
+      <c r="O8">
+        <v>39.310000000000009</v>
+      </c>
     </row>
     <row r="9" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C9">
@@ -13794,6 +18503,15 @@
       <c r="L9">
         <v>7.1300000000000008</v>
       </c>
+      <c r="M9">
+        <v>7.2899999999999991</v>
+      </c>
+      <c r="N9">
+        <v>7.9699999999999989</v>
+      </c>
+      <c r="O9">
+        <v>26.109999999999996</v>
+      </c>
     </row>
     <row r="11" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
@@ -13865,19 +18583,19 @@
         <v>1000</v>
       </c>
       <c r="D16">
-        <v>17.550000000000004</v>
+        <v>19.439999999999998</v>
       </c>
       <c r="E16">
-        <v>14.84</v>
+        <v>21.940000000000005</v>
       </c>
       <c r="F16">
-        <v>15.209999999999997</v>
+        <v>18.98</v>
       </c>
       <c r="G16">
-        <v>15.34</v>
+        <v>21.9</v>
       </c>
       <c r="H16">
-        <v>15.91</v>
+        <v>23.080000000000002</v>
       </c>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.2">
@@ -13949,16 +18667,61 @@
       <c r="C23">
         <v>800</v>
       </c>
+      <c r="D23">
+        <v>9.3299999999999983</v>
+      </c>
+      <c r="E23">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="F23">
+        <v>10.309999999999999</v>
+      </c>
+      <c r="G23">
+        <v>10.24</v>
+      </c>
+      <c r="H23">
+        <v>10.969999999999999</v>
+      </c>
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C24">
         <v>1000</v>
       </c>
+      <c r="D24">
+        <v>14.059999999999999</v>
+      </c>
+      <c r="E24">
+        <v>12.28</v>
+      </c>
+      <c r="F24">
+        <v>10.909999999999998</v>
+      </c>
+      <c r="G24">
+        <v>12.88</v>
+      </c>
+      <c r="H24">
+        <v>12.359999999999998</v>
+      </c>
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C25">
         <v>1200</v>
       </c>
+      <c r="D25">
+        <v>39.310000000000009</v>
+      </c>
+      <c r="E25">
+        <v>38.56</v>
+      </c>
+      <c r="F25">
+        <v>32.910000000000004</v>
+      </c>
+      <c r="G25">
+        <v>43.639999999999993</v>
+      </c>
+      <c r="H25">
+        <v>48.480000000000004</v>
+      </c>
     </row>
     <row r="27" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
@@ -14009,15 +18772,60 @@
       <c r="C31">
         <v>800</v>
       </c>
+      <c r="D31">
+        <v>7.2899999999999991</v>
+      </c>
+      <c r="E31">
+        <v>6.1400000000000006</v>
+      </c>
+      <c r="F31">
+        <v>6.5600000000000005</v>
+      </c>
+      <c r="G31">
+        <v>6.6700000000000017</v>
+      </c>
+      <c r="H31">
+        <v>6.2000000000000011</v>
+      </c>
     </row>
     <row r="32" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C32">
         <v>1000</v>
       </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="D32">
+        <v>7.9699999999999989</v>
+      </c>
+      <c r="E32">
+        <v>8.3299999999999983</v>
+      </c>
+      <c r="F32">
+        <v>8.1900000000000013</v>
+      </c>
+      <c r="G32">
+        <v>8.120000000000001</v>
+      </c>
+      <c r="H32">
+        <v>8.5400000000000027</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C33">
         <v>1200</v>
+      </c>
+      <c r="D33">
+        <v>26.109999999999996</v>
+      </c>
+      <c r="E33">
+        <v>24.760000000000005</v>
+      </c>
+      <c r="F33">
+        <v>21.839999999999996</v>
+      </c>
+      <c r="G33">
+        <v>28.489999999999991</v>
+      </c>
+      <c r="H33">
+        <v>33.289999999999992</v>
       </c>
     </row>
   </sheetData>

--- a/USHPRR/UMo_radiation_damage.xlsx
+++ b/USHPRR/UMo_radiation_damage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/USHPRR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2230C1F-4195-9845-A460-9F04C35FFC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003D505F-861B-A048-849F-DE81DB110E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5620" windowWidth="24220" windowHeight="15800" activeTab="4" xr2:uid="{6147F9BE-C613-5E42-8D18-16DEAC3FC724}"/>
+    <workbookView xWindow="5480" yWindow="5580" windowWidth="27580" windowHeight="15800" activeTab="4" xr2:uid="{6147F9BE-C613-5E42-8D18-16DEAC3FC724}"/>
   </bookViews>
   <sheets>
     <sheet name="2kev" sheetId="9" r:id="rId1"/>
@@ -37,8 +37,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="25">
   <si>
     <t>press0</t>
   </si>
@@ -95,6 +117,24 @@
   </si>
   <si>
     <t>E</t>
+  </si>
+  <si>
+    <t>16 kev</t>
+  </si>
+  <si>
+    <t>8kev</t>
+  </si>
+  <si>
+    <t>4kev</t>
+  </si>
+  <si>
+    <t>2kev</t>
+  </si>
+  <si>
+    <t>1200n</t>
+  </si>
+  <si>
+    <t>avg</t>
   </si>
 </sst>
 </file>
@@ -1480,6 +1520,56 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.5676163920906397E-2"/>
+                  <c:y val="-9.7199387404668713E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>summary!$L$5:$O$5</c:f>
@@ -1735,6 +1825,50 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>summary!$L$5:$O$5</c:f>
@@ -2028,6 +2162,50 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>summary!$L$5:$N$5</c:f>
@@ -3023,6 +3201,686 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.32505272252439765"/>
+                  <c:y val="-0.13201429389106323"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>summary!$D$45:$D$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>summary!$E$45:$E$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>27.148000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.501999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>157.09399999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-48BC-A349-B712-B59AD5366EAD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.3524841439707817"/>
+                  <c:y val="-0.30103646179787447"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>summary!$D$45:$D$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>summary!$F$45:$F$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>15.939999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.067999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71.984000000000009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-48BC-A349-B712-B59AD5366EAD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.35747167514285155"/>
+                  <c:y val="-0.25741998360224616"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>summary!$D$45:$D$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>summary!$G$45:$G$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10.08</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.497999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40.58</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-48BC-A349-B712-B59AD5366EAD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.36245920631492135"/>
+                  <c:y val="-0.17587642900236686"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>summary!$D$45:$D$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>summary!$H$45:$H$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.572000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.898000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-48BC-A349-B712-B59AD5366EAD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="880225327"/>
+        <c:axId val="880227039"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="880225327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="500"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="880227039"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="880227039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="880225327"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3184,6 +4042,46 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5803,6 +6701,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5988,6 +7402,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EAC3833-1E96-374A-9B9F-65CF2C3F5175}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -18322,10 +19774,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A57D410-8E11-7845-A699-38C3CBA7153F}">
-  <dimension ref="C3:O33"/>
+  <dimension ref="C3:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H2" workbookViewId="0">
-      <selection activeCell="X12" sqref="X12"/>
+    <sheetView tabSelected="1" topLeftCell="B36" workbookViewId="0">
+      <selection activeCell="M56" sqref="M56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18357,6 +19809,9 @@
       <c r="H5">
         <v>-10</v>
       </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
       <c r="K5" t="s">
         <v>18</v>
       </c>
@@ -18392,6 +19847,10 @@
       <c r="H6">
         <v>27.079999999999995</v>
       </c>
+      <c r="I6">
+        <f>AVERAGE(D6:H6)</f>
+        <v>27.814</v>
+      </c>
       <c r="K6">
         <v>16</v>
       </c>
@@ -18427,6 +19886,10 @@
       <c r="H7">
         <v>26.279999999999994</v>
       </c>
+      <c r="I7">
+        <f t="shared" ref="I7:I9" si="0">AVERAGE(D7:H7)</f>
+        <v>27.148000000000003</v>
+      </c>
       <c r="K7">
         <v>8</v>
       </c>
@@ -18462,6 +19925,10 @@
       <c r="H8">
         <v>44.160000000000011</v>
       </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>38.501999999999995</v>
+      </c>
       <c r="K8">
         <v>4</v>
       </c>
@@ -18497,6 +19964,10 @@
       <c r="H9">
         <v>187.64000000000001</v>
       </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>157.09399999999999</v>
+      </c>
       <c r="K9">
         <v>2</v>
       </c>
@@ -18511,6 +19982,31 @@
       </c>
       <c r="O9">
         <v>26.109999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10">
+        <f>D9/$D9</f>
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ref="E10:H10" si="1">E9/$D9</f>
+        <v>0.93450489592114616</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>0.846897088385967</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>1.0953245574216974</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>1.2167823098372348</v>
       </c>
     </row>
     <row r="11" spans="3:15" x14ac:dyDescent="0.2">
@@ -18557,6 +20053,10 @@
       <c r="H14">
         <v>16.179999999999996</v>
       </c>
+      <c r="I14">
+        <f>AVERAGE(D14:H14)</f>
+        <v>16.359999999999996</v>
+      </c>
     </row>
     <row r="15" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C15">
@@ -18577,6 +20077,10 @@
       <c r="H15">
         <v>14.619999999999996</v>
       </c>
+      <c r="I15">
+        <f t="shared" ref="I15:I17" si="2">AVERAGE(D15:H15)</f>
+        <v>15.939999999999998</v>
+      </c>
     </row>
     <row r="16" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C16">
@@ -18597,8 +20101,12 @@
       <c r="H16">
         <v>23.080000000000002</v>
       </c>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>21.067999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C17">
         <v>1200</v>
       </c>
@@ -18617,13 +20125,39 @@
       <c r="H17">
         <v>85.050000000000011</v>
       </c>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>71.984000000000009</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <f>D17/$D17</f>
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ref="E18" si="3">E17/$D17</f>
+        <v>0.98227885178676033</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ref="F18" si="4">F17/$D17</f>
+        <v>0.91930287053309889</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ref="G18" si="5">G17/$D17</f>
+        <v>1.1240480374926769</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ref="H18" si="6">H17/$D17</f>
+        <v>1.2456063268892796</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>8</v>
       </c>
@@ -18643,7 +20177,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C22">
         <v>600</v>
       </c>
@@ -18662,8 +20196,12 @@
       <c r="H22">
         <v>10.59</v>
       </c>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="I22">
+        <f>AVERAGE(D22:H22)</f>
+        <v>11.036000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C23">
         <v>800</v>
       </c>
@@ -18682,8 +20220,12 @@
       <c r="H23">
         <v>10.969999999999999</v>
       </c>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="I23">
+        <f t="shared" ref="I23:I25" si="7">AVERAGE(D23:H23)</f>
+        <v>10.08</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C24">
         <v>1000</v>
       </c>
@@ -18702,8 +20244,12 @@
       <c r="H24">
         <v>12.359999999999998</v>
       </c>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="I24">
+        <f t="shared" si="7"/>
+        <v>12.497999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C25">
         <v>1200</v>
       </c>
@@ -18722,13 +20268,39 @@
       <c r="H25">
         <v>48.480000000000004</v>
       </c>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="I25">
+        <f t="shared" si="7"/>
+        <v>40.58</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D26">
+        <f>D25/$D25</f>
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ref="E26" si="8">E25/$D25</f>
+        <v>0.98092088527092325</v>
+      </c>
+      <c r="F26">
+        <f t="shared" ref="F26" si="9">F25/$D25</f>
+        <v>0.83719155431187986</v>
+      </c>
+      <c r="G26">
+        <f t="shared" ref="G26" si="10">G25/$D25</f>
+        <v>1.1101500890358682</v>
+      </c>
+      <c r="H26">
+        <f t="shared" ref="H26" si="11">H25/$D25</f>
+        <v>1.2332739760875093</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
         <v>8</v>
       </c>
@@ -18748,7 +20320,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C30">
         <v>600</v>
       </c>
@@ -18767,8 +20339,12 @@
       <c r="H30">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="I30">
+        <f>AVERAGE(D30:H30)</f>
+        <v>7.2919999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C31">
         <v>800</v>
       </c>
@@ -18787,8 +20363,12 @@
       <c r="H31">
         <v>6.2000000000000011</v>
       </c>
-    </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="I31">
+        <f t="shared" ref="I31:I33" si="12">AVERAGE(D31:H31)</f>
+        <v>6.572000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C32">
         <v>1000</v>
       </c>
@@ -18807,8 +20387,12 @@
       <c r="H32">
         <v>8.5400000000000027</v>
       </c>
-    </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="I32">
+        <f t="shared" si="12"/>
+        <v>8.23</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C33">
         <v>1200</v>
       </c>
@@ -18826,6 +20410,158 @@
       </c>
       <c r="H33">
         <v>33.289999999999992</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="12"/>
+        <v>26.898000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D34">
+        <f>D33/$D33</f>
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ref="E34" si="13">E33/$D33</f>
+        <v>0.94829567215626231</v>
+      </c>
+      <c r="F34">
+        <f t="shared" ref="F34" si="14">F33/$D33</f>
+        <v>0.83646112600536193</v>
+      </c>
+      <c r="G34">
+        <f t="shared" ref="G34" si="15">G33/$D33</f>
+        <v>1.0911528150134047</v>
+      </c>
+      <c r="H34">
+        <f t="shared" ref="H34" si="16">H33/$D33</f>
+        <v>1.2749904251244732</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" cm="1">
+        <f t="array" ref="D36:E36">LINEST(D9:H9,D5:H5)</f>
+        <v>-2.7776000000000014</v>
+      </c>
+      <c r="E36">
+        <v>157.09399999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" cm="1">
+        <f t="array" ref="D37:E37">LINEST(D17:H17,D13:H13)</f>
+        <v>-1.0848000000000007</v>
+      </c>
+      <c r="E37">
+        <v>71.984000000000009</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" cm="1">
+        <f t="array" ref="D38:E38">LINEST(D25:H25,D21:H21)</f>
+        <v>-0.72439999999999982</v>
+      </c>
+      <c r="E38">
+        <v>40.58</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" cm="1">
+        <f t="array" ref="D39:E39">LINEST(D33:H33,D29:H29)</f>
+        <v>-0.53259999999999963</v>
+      </c>
+      <c r="E39">
+        <v>26.898000000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F41">
+        <f>AVERAGE(F34,F26,F18,F10)</f>
+        <v>0.85996315980907689</v>
+      </c>
+      <c r="H41">
+        <f>AVERAGE(H34,H26,H18,H10)</f>
+        <v>1.2426632594846243</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D44">
+        <v>600</v>
+      </c>
+      <c r="E44">
+        <v>27.814</v>
+      </c>
+      <c r="F44">
+        <v>16.359999999999996</v>
+      </c>
+      <c r="G44">
+        <v>11.036000000000001</v>
+      </c>
+      <c r="H44">
+        <v>7.2919999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D45">
+        <v>800</v>
+      </c>
+      <c r="E45">
+        <v>27.148000000000003</v>
+      </c>
+      <c r="F45">
+        <v>15.939999999999998</v>
+      </c>
+      <c r="G45">
+        <v>10.08</v>
+      </c>
+      <c r="H45">
+        <v>6.572000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D46">
+        <v>1000</v>
+      </c>
+      <c r="E46">
+        <v>38.501999999999995</v>
+      </c>
+      <c r="F46">
+        <v>21.067999999999998</v>
+      </c>
+      <c r="G46">
+        <v>12.497999999999999</v>
+      </c>
+      <c r="H46">
+        <v>8.23</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D47">
+        <v>1200</v>
+      </c>
+      <c r="E47">
+        <v>157.09399999999999</v>
+      </c>
+      <c r="F47">
+        <v>71.984000000000009</v>
+      </c>
+      <c r="G47">
+        <v>40.58</v>
+      </c>
+      <c r="H47">
+        <v>26.898000000000003</v>
       </c>
     </row>
   </sheetData>

--- a/USHPRR/UMo_radiation_damage.xlsx
+++ b/USHPRR/UMo_radiation_damage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/USHPRR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003D505F-861B-A048-849F-DE81DB110E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4763532C-9A71-0F4E-BE38-F0205280197F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5480" yWindow="5580" windowWidth="27580" windowHeight="15800" activeTab="4" xr2:uid="{6147F9BE-C613-5E42-8D18-16DEAC3FC724}"/>
+    <workbookView xWindow="5480" yWindow="5580" windowWidth="27580" windowHeight="15800" xr2:uid="{6147F9BE-C613-5E42-8D18-16DEAC3FC724}"/>
   </bookViews>
   <sheets>
     <sheet name="2kev" sheetId="9" r:id="rId1"/>
@@ -7745,10 +7745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3943012F-0CD3-3046-9BFB-8F21DD88D4CA}">
-  <dimension ref="B2:V105"/>
+  <dimension ref="B2:V108"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10:R13"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8329,7 +8329,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>13</v>
       </c>
@@ -8361,7 +8361,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>14</v>
       </c>
@@ -8393,7 +8393,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>15</v>
       </c>
@@ -8425,7 +8425,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>16</v>
       </c>
@@ -8457,7 +8457,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>17</v>
       </c>
@@ -8489,7 +8489,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>18</v>
       </c>
@@ -8521,7 +8521,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>19</v>
       </c>
@@ -8553,7 +8553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>20</v>
       </c>
@@ -8585,7 +8585,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C26">
         <f>AVERAGE(C5:C24)</f>
         <v>7.1300000000000008</v>
@@ -8607,29 +8607,49 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C27">
         <f>STDEV(C5:C24)</f>
         <v>1.8493526605701469</v>
       </c>
+      <c r="D27">
+        <f>C27/C26</f>
+        <v>0.25937624972933332</v>
+      </c>
       <c r="F27">
         <f>STDEV(F5:F24)</f>
         <v>2.3943793833849627</v>
       </c>
+      <c r="G27">
+        <f>F27/F26</f>
+        <v>0.33441052840572111</v>
+      </c>
       <c r="I27">
         <f>STDEV(I5:I24)</f>
         <v>2.2571523745873385</v>
       </c>
+      <c r="J27">
+        <f>I27/I26</f>
+        <v>0.30502059116045116</v>
+      </c>
       <c r="L27">
         <f>STDEV(L5:L24)</f>
         <v>2.9129655715529181</v>
       </c>
+      <c r="M27">
+        <f>L27/L26</f>
+        <v>0.39524634620799431</v>
+      </c>
       <c r="O27">
         <f>STDEV(O5:O24)</f>
         <v>1.8750438591361558</v>
       </c>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P27">
+        <f>O27/O26</f>
+        <v>0.25338430528866968</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>800</v>
       </c>
@@ -8649,7 +8669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>1</v>
       </c>
@@ -8681,7 +8701,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>2</v>
       </c>
@@ -9225,7 +9245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B49">
         <v>19</v>
       </c>
@@ -9257,7 +9277,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B50">
         <v>20</v>
       </c>
@@ -9289,7 +9309,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C52">
         <f>AVERAGE(C31:C50)</f>
         <v>7.2899999999999991</v>
@@ -9311,29 +9331,49 @@
         <v>6.2000000000000011</v>
       </c>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C53">
         <f>STDEV(C31:C50)</f>
         <v>2.5093299587948339</v>
       </c>
+      <c r="D53">
+        <f>C53/C52</f>
+        <v>0.34421535785937368</v>
+      </c>
       <c r="F53">
         <f>STDEV(F31:F50)</f>
         <v>2.7400345752716699</v>
       </c>
+      <c r="G53">
+        <f>F53/F52</f>
+        <v>0.4462597028129755</v>
+      </c>
       <c r="I53">
         <f>STDEV(I31:I50)</f>
         <v>2.1389618731377213</v>
       </c>
+      <c r="J53">
+        <f>I53/I52</f>
+        <v>0.32606126114904288</v>
+      </c>
       <c r="L53">
         <f>STDEV(L31:L50)</f>
         <v>1.7293442627040299</v>
       </c>
+      <c r="M53">
+        <f>L53/L52</f>
+        <v>0.25927200340390244</v>
+      </c>
       <c r="O53">
         <f>STDEV(O31:O50)</f>
         <v>2.0063058485422234</v>
       </c>
-    </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P53">
+        <f>O53/O52</f>
+        <v>0.32359771750681016</v>
+      </c>
+    </row>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B55">
         <v>1000</v>
       </c>
@@ -9353,7 +9393,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B57">
         <v>1</v>
       </c>
@@ -9385,7 +9425,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B58">
         <v>2</v>
       </c>
@@ -9417,7 +9457,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B59">
         <v>3</v>
       </c>
@@ -9449,7 +9489,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B60">
         <v>4</v>
       </c>
@@ -9481,7 +9521,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B61">
         <v>5</v>
       </c>
@@ -9513,7 +9553,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B62">
         <v>6</v>
       </c>
@@ -9545,7 +9585,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B63">
         <v>7</v>
       </c>
@@ -9577,7 +9617,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B64">
         <v>8</v>
       </c>
@@ -9609,7 +9649,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B65">
         <v>9</v>
       </c>
@@ -9641,7 +9681,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B66">
         <v>10</v>
       </c>
@@ -9673,7 +9713,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B67">
         <v>11</v>
       </c>
@@ -9705,7 +9745,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B68">
         <v>12</v>
       </c>
@@ -9737,7 +9777,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B69">
         <v>13</v>
       </c>
@@ -9769,7 +9809,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B70">
         <v>14</v>
       </c>
@@ -9801,7 +9841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B71">
         <v>15</v>
       </c>
@@ -9833,7 +9873,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B72">
         <v>16</v>
       </c>
@@ -9865,7 +9905,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B73">
         <v>17</v>
       </c>
@@ -9897,7 +9937,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B74">
         <v>18</v>
       </c>
@@ -9929,7 +9969,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B75">
         <v>19</v>
       </c>
@@ -9961,7 +10001,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B76">
         <v>20</v>
       </c>
@@ -9993,7 +10033,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C78">
         <f>AVERAGE(C57:C76)</f>
         <v>7.9699999999999989</v>
@@ -10015,27 +10055,47 @@
         <v>8.5400000000000027</v>
       </c>
     </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C79">
         <f>STDEV(C57:C76)</f>
         <v>1.758318574811274</v>
       </c>
+      <c r="D79">
+        <f>C79/C78</f>
+        <v>0.22061713611182862</v>
+      </c>
       <c r="F79">
         <f>STDEV(F57:F76)</f>
         <v>2.3958516780380887</v>
       </c>
+      <c r="G79">
+        <f>F79/F78</f>
+        <v>0.28761724826387625</v>
+      </c>
       <c r="I79">
         <f>STDEV(I57:I76)</f>
         <v>2.3010066446986559</v>
       </c>
+      <c r="J79">
+        <f>I79/I78</f>
+        <v>0.2809531922708981</v>
+      </c>
       <c r="L79">
         <f>STDEV(L57:L76)</f>
         <v>2.4549841890368787</v>
       </c>
+      <c r="M79">
+        <f>L79/L78</f>
+        <v>0.30233795431488647</v>
+      </c>
       <c r="O79">
         <f>STDEV(O57:O76)</f>
         <v>2.2034422830509586</v>
       </c>
+      <c r="P79">
+        <f>O79/O78</f>
+        <v>0.25801431885842596</v>
+      </c>
     </row>
     <row r="81" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B81">
@@ -10505,7 +10565,7 @@
         <v>30.2</v>
       </c>
     </row>
-    <row r="97" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B97">
         <v>15</v>
       </c>
@@ -10537,7 +10597,7 @@
         <v>30.4</v>
       </c>
     </row>
-    <row r="98" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B98">
         <v>16</v>
       </c>
@@ -10569,7 +10629,7 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="99" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B99">
         <v>17</v>
       </c>
@@ -10601,7 +10661,7 @@
         <v>33.6</v>
       </c>
     </row>
-    <row r="100" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B100">
         <v>18</v>
       </c>
@@ -10633,7 +10693,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="101" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B101">
         <v>19</v>
       </c>
@@ -10665,7 +10725,7 @@
         <v>32.799999999999997</v>
       </c>
     </row>
-    <row r="102" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B102">
         <v>20</v>
       </c>
@@ -10697,7 +10757,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="104" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C104">
         <f>AVERAGE(C83:C102)</f>
         <v>26.109999999999996</v>
@@ -10719,26 +10779,68 @@
         <v>33.289999999999992</v>
       </c>
     </row>
-    <row r="105" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C105">
         <f>STDEV(C83:C102)</f>
         <v>2.9724878823178638</v>
       </c>
+      <c r="D105">
+        <f>C105/C104</f>
+        <v>0.11384480591029737</v>
+      </c>
       <c r="F105">
         <f>STDEV(F83:F102)</f>
         <v>3.1832456128264237</v>
       </c>
+      <c r="G105">
+        <f>F105/F104</f>
+        <v>0.12856403929024326</v>
+      </c>
       <c r="I105">
         <f>STDEV(I83:I102)</f>
         <v>2.5699477774747921</v>
       </c>
+      <c r="J105">
+        <f>I105/I104</f>
+        <v>0.1176716015327286</v>
+      </c>
       <c r="L105">
         <f>STDEV(L83:L102)</f>
         <v>2.6655502048801933</v>
       </c>
+      <c r="M105">
+        <f>L105/L104</f>
+        <v>9.3560905752200565E-2</v>
+      </c>
       <c r="O105">
         <f>STDEV(O83:O102)</f>
         <v>3.1877892025665688</v>
+      </c>
+      <c r="P105">
+        <f>O105/O104</f>
+        <v>9.5758161687190438E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D108">
+        <f>AVERAGE(D105,D79,D53,D27)</f>
+        <v>0.23451338740270822</v>
+      </c>
+      <c r="G108">
+        <f>AVERAGE(G105,G79,G53,G27)</f>
+        <v>0.29921287969320404</v>
+      </c>
+      <c r="J108">
+        <f>AVERAGE(J105,J79,J53,J27)</f>
+        <v>0.2574266615282802</v>
+      </c>
+      <c r="M108">
+        <f>AVERAGE(M105,M79,M53,M27)</f>
+        <v>0.26260430241974592</v>
+      </c>
+      <c r="P108">
+        <f>AVERAGE(P105,P79,P53,P27)</f>
+        <v>0.23268862583527405</v>
       </c>
     </row>
   </sheetData>
@@ -16754,10 +16856,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B8986C-AC24-5149-BC25-A1C4E7121DD9}">
-  <dimension ref="B2:V106"/>
+  <dimension ref="B2:V109"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10:R13"/>
+    <sheetView topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="P109" sqref="P109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17323,7 +17425,7 @@
         <v>26.2</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>12</v>
       </c>
@@ -17355,7 +17457,7 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>13</v>
       </c>
@@ -17387,7 +17489,7 @@
         <v>27.8</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>14</v>
       </c>
@@ -17419,7 +17521,7 @@
         <v>28.2</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>15</v>
       </c>
@@ -17451,7 +17553,7 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>16</v>
       </c>
@@ -17483,7 +17585,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>17</v>
       </c>
@@ -17515,7 +17617,7 @@
         <v>35.799999999999997</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>18</v>
       </c>
@@ -17547,7 +17649,7 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>19</v>
       </c>
@@ -17579,7 +17681,7 @@
         <v>24.2</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>20</v>
       </c>
@@ -17611,7 +17713,7 @@
         <v>30.4</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C27">
         <f>AVERAGE(C6:C25)</f>
         <v>28.599999999999994</v>
@@ -17633,29 +17735,49 @@
         <v>27.079999999999995</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C28">
         <f>STDEV(C6:C25)</f>
         <v>8.7688443696388809</v>
       </c>
+      <c r="D28">
+        <f>C28/C27</f>
+        <v>0.30660294998737353</v>
+      </c>
       <c r="F28">
         <f>STDEV(F6:F25)</f>
         <v>7.8350024350918321</v>
       </c>
+      <c r="G28">
+        <f>F28/F27</f>
+        <v>0.28092515005707541</v>
+      </c>
       <c r="I28">
         <f>STDEV(I6:I25)</f>
         <v>9.1801330113056281</v>
       </c>
+      <c r="J28">
+        <f>I28/I27</f>
+        <v>0.33540858645617938</v>
+      </c>
       <c r="L28">
         <f>STDEV(L6:L25)</f>
         <v>9.3521233164621691</v>
       </c>
+      <c r="M28">
+        <f>L28/L27</f>
+        <v>0.33246083599225623</v>
+      </c>
       <c r="O28">
         <f>STDEV(O6:O25)</f>
         <v>3.5844106907551971</v>
       </c>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P28">
+        <f>O28/O27</f>
+        <v>0.13236376258327909</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>13</v>
       </c>
@@ -17675,7 +17797,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>1</v>
       </c>
@@ -18219,7 +18341,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B49">
         <v>18</v>
       </c>
@@ -18251,7 +18373,7 @@
         <v>33.6</v>
       </c>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B50">
         <v>19</v>
       </c>
@@ -18283,7 +18405,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B51">
         <v>20</v>
       </c>
@@ -18315,7 +18437,7 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C53">
         <f>AVERAGE(C32:C51)</f>
         <v>30.580000000000002</v>
@@ -18337,29 +18459,49 @@
         <v>26.279999999999994</v>
       </c>
     </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C54">
         <f>STDEV(C32:C51)</f>
         <v>10.431510966903661</v>
       </c>
+      <c r="D54">
+        <f>C54/C53</f>
+        <v>0.3411220067659797</v>
+      </c>
       <c r="F54">
         <f>STDEV(F32:F51)</f>
         <v>7.4926701023839044</v>
       </c>
+      <c r="G54">
+        <f>F54/F53</f>
+        <v>0.28851251838212949</v>
+      </c>
       <c r="I54">
         <f>STDEV(I32:I51)</f>
         <v>7.296978466244938</v>
       </c>
+      <c r="J54">
+        <f>I54/I53</f>
+        <v>0.28933300817783258</v>
+      </c>
       <c r="L54">
         <f>STDEV(L32:L51)</f>
         <v>7.7303162596160737</v>
       </c>
+      <c r="M54">
+        <f>L54/L53</f>
+        <v>0.27917357383951158</v>
+      </c>
       <c r="O54">
         <f>STDEV(O32:O51)</f>
         <v>6.600606032782161</v>
       </c>
-    </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P54">
+        <f>O54/O53</f>
+        <v>0.25116461311956478</v>
+      </c>
+    </row>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>12</v>
       </c>
@@ -18379,7 +18521,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B58">
         <v>1</v>
       </c>
@@ -18411,7 +18553,7 @@
         <v>60.8</v>
       </c>
     </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B59">
         <v>2</v>
       </c>
@@ -18443,7 +18585,7 @@
         <v>40.6</v>
       </c>
     </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B60">
         <v>3</v>
       </c>
@@ -18475,7 +18617,7 @@
         <v>47.8</v>
       </c>
     </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B61">
         <v>4</v>
       </c>
@@ -18507,7 +18649,7 @@
         <v>36.200000000000003</v>
       </c>
     </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B62">
         <v>5</v>
       </c>
@@ -18539,7 +18681,7 @@
         <v>48.2</v>
       </c>
     </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B63">
         <v>6</v>
       </c>
@@ -18571,7 +18713,7 @@
         <v>28.8</v>
       </c>
     </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B64">
         <v>7</v>
       </c>
@@ -18603,7 +18745,7 @@
         <v>46.4</v>
       </c>
     </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B65">
         <v>8</v>
       </c>
@@ -18635,7 +18777,7 @@
         <v>43.8</v>
       </c>
     </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B66">
         <v>9</v>
       </c>
@@ -18667,7 +18809,7 @@
         <v>33.6</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B67">
         <v>10</v>
       </c>
@@ -18699,7 +18841,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B68">
         <v>11</v>
       </c>
@@ -18731,7 +18873,7 @@
         <v>79.599999999999994</v>
       </c>
     </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B69">
         <v>12</v>
       </c>
@@ -18763,7 +18905,7 @@
         <v>43.2</v>
       </c>
     </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B70">
         <v>13</v>
       </c>
@@ -18795,7 +18937,7 @@
         <v>33.6</v>
       </c>
     </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B71">
         <v>14</v>
       </c>
@@ -18827,7 +18969,7 @@
         <v>30.6</v>
       </c>
     </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B72">
         <v>15</v>
       </c>
@@ -18859,7 +19001,7 @@
         <v>39.6</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B73">
         <v>16</v>
       </c>
@@ -18891,7 +19033,7 @@
         <v>37.200000000000003</v>
       </c>
     </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B74">
         <v>17</v>
       </c>
@@ -18923,7 +19065,7 @@
         <v>42.2</v>
       </c>
     </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B75">
         <v>18</v>
       </c>
@@ -18955,7 +19097,7 @@
         <v>42.2</v>
       </c>
     </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B76">
         <v>19</v>
       </c>
@@ -18987,7 +19129,7 @@
         <v>42.2</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B77">
         <v>20</v>
       </c>
@@ -19019,7 +19161,7 @@
         <v>57.6</v>
       </c>
     </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C79">
         <f>AVERAGE(C58:C77)</f>
         <v>37.219999999999992</v>
@@ -19041,27 +19183,47 @@
         <v>44.160000000000011</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80">
         <f>STDEV(C58:C77)</f>
         <v>6.5825606919464343</v>
       </c>
+      <c r="D80">
+        <f>C80/C79</f>
+        <v>0.17685547264767426</v>
+      </c>
       <c r="F80">
         <f>STDEV(F58:F77)</f>
         <v>5.2235902152487359</v>
       </c>
+      <c r="G80">
+        <f>F80/F79</f>
+        <v>0.15062255522631882</v>
+      </c>
       <c r="I80">
         <f>STDEV(I58:I77)</f>
         <v>6.1679221102324684</v>
       </c>
+      <c r="J80">
+        <f>I80/I79</f>
+        <v>0.16930886934483858</v>
+      </c>
       <c r="L80">
         <f>STDEV(L58:L77)</f>
         <v>4.9036613603350148</v>
       </c>
+      <c r="M80">
+        <f>L80/L79</f>
+        <v>0.12253026887393841</v>
+      </c>
       <c r="O80">
         <f>STDEV(O58:O77)</f>
         <v>11.635264003066343</v>
       </c>
+      <c r="P80">
+        <f>O80/O79</f>
+        <v>0.26347971021436456</v>
+      </c>
     </row>
     <row r="82" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
@@ -19499,7 +19661,7 @@
         <v>170.2</v>
       </c>
     </row>
-    <row r="97" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B97">
         <v>14</v>
       </c>
@@ -19531,7 +19693,7 @@
         <v>165.4</v>
       </c>
     </row>
-    <row r="98" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B98">
         <v>15</v>
       </c>
@@ -19563,7 +19725,7 @@
         <v>179.8</v>
       </c>
     </row>
-    <row r="99" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B99">
         <v>16</v>
       </c>
@@ -19595,7 +19757,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="100" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B100">
         <v>17</v>
       </c>
@@ -19627,7 +19789,7 @@
         <v>210.2</v>
       </c>
     </row>
-    <row r="101" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B101">
         <v>18</v>
       </c>
@@ -19659,7 +19821,7 @@
         <v>194.8</v>
       </c>
     </row>
-    <row r="102" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B102">
         <v>19</v>
       </c>
@@ -19691,7 +19853,7 @@
         <v>203.8</v>
       </c>
     </row>
-    <row r="103" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B103">
         <v>20</v>
       </c>
@@ -19723,7 +19885,7 @@
         <v>158.6</v>
       </c>
     </row>
-    <row r="105" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C105">
         <f>AVERAGE(C84:C103)</f>
         <v>154.21000000000004</v>
@@ -19745,26 +19907,68 @@
         <v>187.64000000000001</v>
       </c>
     </row>
-    <row r="106" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C106">
         <f>STDEV(C84:C103)</f>
         <v>18.25312950817192</v>
       </c>
+      <c r="D106">
+        <f>C106/C105</f>
+        <v>0.11836540761411009</v>
+      </c>
       <c r="F106">
         <f>STDEV(F84:F103)</f>
         <v>17.049830991599475</v>
       </c>
+      <c r="G106">
+        <f>F106/F105</f>
+        <v>0.1183112274762298</v>
+      </c>
       <c r="I106">
         <f>STDEV(I84:I103)</f>
         <v>19.680928518960283</v>
       </c>
+      <c r="J106">
+        <f>I106/I105</f>
+        <v>0.15069623674548455</v>
+      </c>
       <c r="L106">
         <f>STDEV(L84:L103)</f>
         <v>19.780210738061228</v>
       </c>
+      <c r="M106">
+        <f>L106/L105</f>
+        <v>0.11710503071494423</v>
+      </c>
       <c r="O106">
         <f>STDEV(O84:O103)</f>
         <v>24.984003303166276</v>
+      </c>
+      <c r="P106">
+        <f>O106/O105</f>
+        <v>0.13314859999555678</v>
+      </c>
+    </row>
+    <row r="109" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D109">
+        <f>AVERAGE(D106,D80,D54,D28)</f>
+        <v>0.23573645925378439</v>
+      </c>
+      <c r="G109">
+        <f>AVERAGE(G106,G80,G54,G28)</f>
+        <v>0.2095928627854384</v>
+      </c>
+      <c r="J109">
+        <f>AVERAGE(J106,J80,J54,J28)</f>
+        <v>0.23618667518108377</v>
+      </c>
+      <c r="M109">
+        <f>AVERAGE(M106,M80,M54,M28)</f>
+        <v>0.21281742735516262</v>
+      </c>
+      <c r="P109">
+        <f>AVERAGE(P106,P80,P54,P28)</f>
+        <v>0.1950391714781913</v>
       </c>
     </row>
   </sheetData>
@@ -19776,8 +19980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A57D410-8E11-7845-A699-38C3CBA7153F}">
   <dimension ref="C3:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B36" workbookViewId="0">
-      <selection activeCell="M56" sqref="M56"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20136,19 +20340,19 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <f t="shared" ref="E18" si="3">E17/$D17</f>
+        <f>E17/$D17</f>
         <v>0.98227885178676033</v>
       </c>
       <c r="F18">
-        <f t="shared" ref="F18" si="4">F17/$D17</f>
+        <f t="shared" ref="F18" si="3">F17/$D17</f>
         <v>0.91930287053309889</v>
       </c>
       <c r="G18">
-        <f t="shared" ref="G18" si="5">G17/$D17</f>
+        <f t="shared" ref="G18" si="4">G17/$D17</f>
         <v>1.1240480374926769</v>
       </c>
       <c r="H18">
-        <f t="shared" ref="H18" si="6">H17/$D17</f>
+        <f>H17/$D17</f>
         <v>1.2456063268892796</v>
       </c>
     </row>
@@ -20221,7 +20425,7 @@
         <v>10.969999999999999</v>
       </c>
       <c r="I23">
-        <f t="shared" ref="I23:I25" si="7">AVERAGE(D23:H23)</f>
+        <f t="shared" ref="I23:I25" si="5">AVERAGE(D23:H23)</f>
         <v>10.08</v>
       </c>
     </row>
@@ -20245,7 +20449,7 @@
         <v>12.359999999999998</v>
       </c>
       <c r="I24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>12.497999999999999</v>
       </c>
     </row>
@@ -20269,7 +20473,7 @@
         <v>48.480000000000004</v>
       </c>
       <c r="I25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>40.58</v>
       </c>
     </row>
@@ -20279,19 +20483,19 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <f t="shared" ref="E26" si="8">E25/$D25</f>
+        <f t="shared" ref="E26" si="6">E25/$D25</f>
         <v>0.98092088527092325</v>
       </c>
       <c r="F26">
-        <f t="shared" ref="F26" si="9">F25/$D25</f>
+        <f t="shared" ref="F26" si="7">F25/$D25</f>
         <v>0.83719155431187986</v>
       </c>
       <c r="G26">
-        <f t="shared" ref="G26" si="10">G25/$D25</f>
+        <f t="shared" ref="G26" si="8">G25/$D25</f>
         <v>1.1101500890358682</v>
       </c>
       <c r="H26">
-        <f t="shared" ref="H26" si="11">H25/$D25</f>
+        <f t="shared" ref="H26" si="9">H25/$D25</f>
         <v>1.2332739760875093</v>
       </c>
     </row>
@@ -20364,7 +20568,7 @@
         <v>6.2000000000000011</v>
       </c>
       <c r="I31">
-        <f t="shared" ref="I31:I33" si="12">AVERAGE(D31:H31)</f>
+        <f t="shared" ref="I31:I33" si="10">AVERAGE(D31:H31)</f>
         <v>6.572000000000001</v>
       </c>
     </row>
@@ -20388,7 +20592,7 @@
         <v>8.5400000000000027</v>
       </c>
       <c r="I32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>8.23</v>
       </c>
     </row>
@@ -20412,7 +20616,7 @@
         <v>33.289999999999992</v>
       </c>
       <c r="I33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>26.898000000000003</v>
       </c>
     </row>
@@ -20422,19 +20626,19 @@
         <v>1</v>
       </c>
       <c r="E34">
-        <f t="shared" ref="E34" si="13">E33/$D33</f>
+        <f t="shared" ref="E34" si="11">E33/$D33</f>
         <v>0.94829567215626231</v>
       </c>
       <c r="F34">
-        <f t="shared" ref="F34" si="14">F33/$D33</f>
+        <f t="shared" ref="F34" si="12">F33/$D33</f>
         <v>0.83646112600536193</v>
       </c>
       <c r="G34">
-        <f t="shared" ref="G34" si="15">G33/$D33</f>
+        <f t="shared" ref="G34" si="13">G33/$D33</f>
         <v>1.0911528150134047</v>
       </c>
       <c r="H34">
-        <f t="shared" ref="H34" si="16">H33/$D33</f>
+        <f t="shared" ref="H34" si="14">H33/$D33</f>
         <v>1.2749904251244732</v>
       </c>
     </row>
